--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45916</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45853.6421875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>45545.36309027778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45510</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45684.70283564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44516.32994212963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,14 +1197,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 57429-2025</t>
+          <t>A 1604-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45980</v>
+        <v>45670</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1216,8 +1216,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1226,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1244,38 +1249,38 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Slåttergubbe</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 57429-2025 artfynd.xlsx", "A 57429-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 1604-2025 artfynd.xlsx", "A 1604-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 57429-2025 karta.png", "A 57429-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 1604-2025 karta.png", "A 1604-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 57429-2025 FSC-klagomål.docx", "A 57429-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 1604-2025 FSC-klagomål.docx", "A 1604-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 57429-2025 FSC-klagomål mail.docx", "A 57429-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 1604-2025 FSC-klagomål mail.docx", "A 1604-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 57429-2025 tillsynsbegäran.docx", "A 57429-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 1604-2025 tillsynsbegäran.docx", "A 1604-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 57429-2025 tillsynsbegäran mail.docx", "A 57429-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 1604-2025 tillsynsbegäran mail.docx", "A 1604-2025")</f>
         <v/>
       </c>
     </row>
@@ -1289,7 +1294,7 @@
         <v>45911</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,14 +1372,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 1604-2025</t>
+          <t>A 15068-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45670</v>
+        <v>45015</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1386,22 +1391,17 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>9.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1426,45 +1426,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Kambräken</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 1604-2025 artfynd.xlsx", "A 1604-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 15068-2023 artfynd.xlsx", "A 15068-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 1604-2025 karta.png", "A 1604-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 15068-2023 karta.png", "A 15068-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 1604-2025 FSC-klagomål.docx", "A 1604-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 15068-2023 FSC-klagomål.docx", "A 15068-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 1604-2025 FSC-klagomål mail.docx", "A 1604-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 15068-2023 FSC-klagomål mail.docx", "A 15068-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 1604-2025 tillsynsbegäran.docx", "A 1604-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 15068-2023 tillsynsbegäran.docx", "A 15068-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 1604-2025 tillsynsbegäran mail.docx", "A 1604-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 15068-2023 tillsynsbegäran mail.docx", "A 15068-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 15068-2023</t>
+          <t>A 57429-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45015</v>
+        <v>45980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1477,20 +1477,20 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>9.9</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
@@ -1501,41 +1501,41 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Kambräken</t>
+          <t>Slåttergubbe</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 15068-2023 artfynd.xlsx", "A 15068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 57429-2025 artfynd.xlsx", "A 57429-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 15068-2023 karta.png", "A 15068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 57429-2025 karta.png", "A 57429-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 15068-2023 FSC-klagomål.docx", "A 15068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 57429-2025 FSC-klagomål.docx", "A 57429-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 15068-2023 FSC-klagomål mail.docx", "A 15068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 57429-2025 FSC-klagomål mail.docx", "A 57429-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 15068-2023 tillsynsbegäran.docx", "A 15068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 57429-2025 tillsynsbegäran.docx", "A 57429-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 15068-2023 tillsynsbegäran mail.docx", "A 15068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 57429-2025 tillsynsbegäran mail.docx", "A 57429-2025")</f>
         <v/>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
         <v>44298</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>44788.44263888889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44820.59869212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44788.45163194444</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44676.44231481481</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44546</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44846.67469907407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44752</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44387</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44414.37533564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>44440.43105324074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>44537.84666666666</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44799</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44526.32802083333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>44813</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>44635</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,14 +2754,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 71637-2021</t>
+          <t>A 24712-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44543.32719907408</v>
+        <v>44340.5113425926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2811,14 +2811,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 24712-2021</t>
+          <t>A 71637-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44340.5113425926</v>
+        <v>44543.32719907408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>44636.62268518518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2925,14 +2925,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 24664-2025</t>
+          <t>A 36595-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45798.64627314815</v>
+        <v>44804.63545138889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2982,14 +2982,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 24671-2025</t>
+          <t>A 45063-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45798.65046296296</v>
+        <v>44841.84542824074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3039,14 +3039,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 24674-2025</t>
+          <t>A 6020-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45798.65300925926</v>
+        <v>44599</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3103,7 +3103,7 @@
         <v>45705.57094907408</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3153,14 +3153,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 34631-2025</t>
+          <t>A 19390-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45848.26144675926</v>
+        <v>45048</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3210,14 +3210,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 34632-2025</t>
+          <t>A 73830-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45848.26725694445</v>
+        <v>44552.84040509259</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3267,14 +3267,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 34633-2025</t>
+          <t>A 44814-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45848.27251157408</v>
+        <v>44841.40362268518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>5.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3324,14 +3324,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 45063-2022</t>
+          <t>A 9748-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44841.84542824074</v>
+        <v>45362.60480324074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3381,14 +3381,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 23693-2023</t>
+          <t>A 5927-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45077</v>
+        <v>44963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3438,14 +3438,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 36595-2022</t>
+          <t>A 52876-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44804.63545138889</v>
+        <v>45610.6337037037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3495,14 +3495,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 31399-2025</t>
+          <t>A 10379-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45833.46824074074</v>
+        <v>45365.64063657408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3552,14 +3552,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 26178-2023</t>
+          <t>A 23740-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45091.52565972223</v>
+        <v>45077</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3609,14 +3609,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 26179-2023</t>
+          <t>A 72261-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45091.52637731482</v>
+        <v>44545.31795138889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3666,14 +3666,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 37778-2025</t>
+          <t>A 6237-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45880</v>
+        <v>44235</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3723,14 +3723,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 38857-2025</t>
+          <t>A 9359-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45887.55858796297</v>
+        <v>45715.29788194445</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3780,14 +3780,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 38897-2025</t>
+          <t>A 13611-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45887.59670138889</v>
+        <v>45736.62430555555</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3837,14 +3837,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 23990-2023</t>
+          <t>A 17737-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45078</v>
+        <v>45037.44637731482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3894,14 +3894,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 38893-2025</t>
+          <t>A 47890-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45887.58900462963</v>
+        <v>44855</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3951,14 +3951,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 34591-2023</t>
+          <t>A 23898-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45140</v>
+        <v>45078.54318287037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4008,14 +4008,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 20099-2025</t>
+          <t>A 39622-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45772.46916666667</v>
+        <v>45163</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.7</v>
+        <v>10.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4065,14 +4065,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38772-2025</t>
+          <t>A 31704-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45887.42040509259</v>
+        <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.3</v>
+        <v>6.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4122,14 +4122,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 52372-2021</t>
+          <t>A 14912-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44465</v>
+        <v>45398.59821759259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4179,14 +4179,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 11126-2025</t>
+          <t>A 38772-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45723</v>
+        <v>45887.42040509259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4236,14 +4236,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 38879-2025</t>
+          <t>A 54667-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45887.5771875</v>
+        <v>45235.62601851852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4293,14 +4293,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 7915-2025</t>
+          <t>A 25589-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45707.35076388889</v>
+        <v>45803.49381944445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4350,14 +4350,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 13611-2025</t>
+          <t>A 25588-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45736.62430555555</v>
+        <v>45803.49103009259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4407,14 +4407,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 9773-2024</t>
+          <t>A 38857-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45362</v>
+        <v>45887.55858796297</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4464,14 +4464,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 54667-2023</t>
+          <t>A 26032-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45235.62601851852</v>
+        <v>45804.69063657407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4521,14 +4521,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 57703-2022</t>
+          <t>A 26020-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44897</v>
+        <v>45804.67818287037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4578,14 +4578,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 62180-2022</t>
+          <t>A 25963-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44915</v>
+        <v>45090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4597,13 +4597,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>7.5</v>
+        <v>4.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4640,14 +4635,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 62181-2022</t>
+          <t>A 40814-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44915</v>
+        <v>45171.54957175926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4659,13 +4654,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>6.4</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4702,14 +4692,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 2090-2023</t>
+          <t>A 31399-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44939</v>
+        <v>45833.46824074074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4722,7 +4712,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4759,14 +4749,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 9748-2024</t>
+          <t>A 32855-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45362.60480324074</v>
+        <v>45124</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4779,7 +4769,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4816,14 +4806,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 39864-2025</t>
+          <t>A 1492-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45891.60197916667</v>
+        <v>45305.84925925926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4836,7 +4826,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4873,14 +4863,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 25963-2023</t>
+          <t>A 1493-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45090</v>
+        <v>45305</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4893,7 +4883,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4930,14 +4920,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 8204-2023</t>
+          <t>A 7915-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44971</v>
+        <v>45707.35076388889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4950,7 +4940,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4987,14 +4977,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 56765-2025</t>
+          <t>A 21910-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45978.38018518518</v>
+        <v>45443.36605324074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5007,7 +4997,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5044,14 +5034,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 56581-2025</t>
+          <t>A 38893-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45975.54347222222</v>
+        <v>45887.58900462963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5064,7 +5054,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5101,14 +5091,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 24154-2023</t>
+          <t>A 27521-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45079</v>
+        <v>44351</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5121,7 +5111,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.8</v>
+        <v>10.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5158,14 +5148,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 56487-2025</t>
+          <t>A 57703-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45975.41037037037</v>
+        <v>44897</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5178,7 +5168,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5215,14 +5205,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 56455-2025</t>
+          <t>A 26058-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45975.35782407408</v>
+        <v>45468</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5235,7 +5225,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5272,14 +5262,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 21023-2024</t>
+          <t>A 39864-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45439.64483796297</v>
+        <v>45891.60197916667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5292,7 +5282,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5329,14 +5319,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 24765-2023</t>
+          <t>A 63783-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45084.6352662037</v>
+        <v>45278.38888888889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5349,7 +5339,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5386,14 +5376,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 57343-2025</t>
+          <t>A 27523-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45980.34996527778</v>
+        <v>45813</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5406,7 +5396,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5443,14 +5433,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 57221-2025</t>
+          <t>A 27449-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45979.61408564815</v>
+        <v>45813.33200231481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5463,7 +5453,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5500,14 +5490,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 57790-2025</t>
+          <t>A 3205-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45981</v>
+        <v>45679</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5519,8 +5509,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>6.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5557,14 +5552,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 57774-2025</t>
+          <t>A 1397-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45981</v>
+        <v>44936.73979166667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5577,7 +5572,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5614,14 +5609,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 41912-2025</t>
+          <t>A 6137-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45903.40931712963</v>
+        <v>45337</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5634,7 +5629,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>11.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5671,14 +5666,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 58347-2025</t>
+          <t>A 15478-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45985.50454861111</v>
+        <v>45747.5475</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5691,7 +5686,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5728,14 +5723,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 41887-2025</t>
+          <t>A 27988-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45903.37215277777</v>
+        <v>45817.58586805555</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5748,7 +5743,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>11.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5785,14 +5780,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 41926-2025</t>
+          <t>A 36543-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45903.42753472222</v>
+        <v>44804.57</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5805,7 +5800,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5842,14 +5837,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 42728-2025</t>
+          <t>A 13068-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45908.40429398148</v>
+        <v>45002.38854166667</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5862,7 +5857,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5899,14 +5894,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 42714-2025</t>
+          <t>A 21146-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45908.381875</v>
+        <v>44704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5919,7 +5914,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>7.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5956,14 +5951,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 42725-2025</t>
+          <t>A 5954-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45908.40152777778</v>
+        <v>45695.4777662037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5976,7 +5971,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6013,14 +6008,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 58130-2022</t>
+          <t>A 12625-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44900</v>
+        <v>44270.4590625</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6033,7 +6028,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>23.2</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6070,14 +6065,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 42708-2025</t>
+          <t>A 19643-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45908.37359953704</v>
+        <v>45432</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6089,8 +6084,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6127,14 +6127,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 42713-2025</t>
+          <t>A 41912-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45908.37888888889</v>
+        <v>45903.40931712963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6184,14 +6184,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 27521-2021</t>
+          <t>A 41887-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44351</v>
+        <v>45903.37215277777</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>10.3</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6241,14 +6241,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 19643-2024</t>
+          <t>A 41926-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45432</v>
+        <v>45903.42753472222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6260,13 +6260,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6303,14 +6298,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 22406-2024</t>
+          <t>A 23692-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45446</v>
+        <v>45077.60907407408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6318,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6360,14 +6355,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 13797-2025</t>
+          <t>A 28693-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45737.48324074074</v>
+        <v>45819.83893518519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6375,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6417,14 +6412,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 43641-2025</t>
+          <t>A 37501-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45911.87390046296</v>
+        <v>45541.37159722222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6437,7 +6432,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6474,14 +6469,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 44376-2025</t>
+          <t>A 44880-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45916.47453703704</v>
+        <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6489,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>7.5</v>
+        <v>0.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6531,14 +6526,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 44386-2025</t>
+          <t>A 171-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45916.48872685185</v>
+        <v>45659.64508101852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6546,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6588,14 +6583,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 43900-2025</t>
+          <t>A 42725-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45913.26221064815</v>
+        <v>45908.40152777778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6603,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6645,14 +6640,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26058-2024</t>
+          <t>A 42713-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45468</v>
+        <v>45908.37888888889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6660,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6702,14 +6697,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 47871-2022</t>
+          <t>A 42708-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44855.43434027778</v>
+        <v>45908.37359953704</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6717,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6759,14 +6754,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 44880-2022</t>
+          <t>A 42714-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44841</v>
+        <v>45908.381875</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6779,7 +6774,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6816,14 +6811,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 57208-2022</t>
+          <t>A 42728-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44895</v>
+        <v>45908.40429398148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6831,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6873,14 +6868,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 1225-2026</t>
+          <t>A 29642-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46031.40648148148</v>
+        <v>45825</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6888,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.6</v>
+        <v>1.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6930,14 +6925,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 44364-2025</t>
+          <t>A 13797-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45916.45373842592</v>
+        <v>45737.48324074074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6945,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.6</v>
+        <v>1.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6987,14 +6982,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 36572-2021</t>
+          <t>A 9691-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44391.58083333333</v>
+        <v>44984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +7002,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7044,14 +7039,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 44355-2025</t>
+          <t>A 43992-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45916.44782407407</v>
+        <v>45915.44501157408</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7059,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7101,14 +7096,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 43990-2025</t>
+          <t>A 43900-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45915.44359953704</v>
+        <v>45913.26221064815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7116,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7158,14 +7153,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 43992-2025</t>
+          <t>A 43641-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45915.44501157408</v>
+        <v>45911.87390046296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7173,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7215,14 +7210,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 44923-2025</t>
+          <t>A 43990-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45918.55475694445</v>
+        <v>45915.44359953704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7230,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7272,14 +7267,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 44903-2025</t>
+          <t>A 17641-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45918.5110300926</v>
+        <v>45035</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7287,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.6</v>
+        <v>7.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7329,14 +7324,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 64091-2023</t>
+          <t>A 44364-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45279</v>
+        <v>45916.45373842592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7344,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7386,14 +7381,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 44846-2025</t>
+          <t>A 44355-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45918.43986111111</v>
+        <v>45916.44782407407</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7401,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7443,14 +7438,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 44852-2025</t>
+          <t>A 44386-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45918.44703703704</v>
+        <v>45916.48872685185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7458,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7500,14 +7495,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 44890-2025</t>
+          <t>A 44376-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45918.49697916667</v>
+        <v>45916.47453703704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7515,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7557,14 +7552,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 44793-2025</t>
+          <t>A 44864-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45918.32309027778</v>
+        <v>45918</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7572,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7614,14 +7609,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 44791-2025</t>
+          <t>A 44903-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45918.31138888889</v>
+        <v>45918.5110300926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7629,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7671,14 +7666,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 44864-2025</t>
+          <t>A 44793-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45918</v>
+        <v>45918.32309027778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7686,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7728,14 +7723,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 44897-2025</t>
+          <t>A 44923-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45918.50546296296</v>
+        <v>45918.55475694445</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7743,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7785,14 +7780,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 40814-2023</t>
+          <t>A 44897-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45171.54957175926</v>
+        <v>45918.50546296296</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7800,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7842,14 +7837,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 40017-2023</t>
+          <t>A 44890-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45168</v>
+        <v>45918.49697916667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7862,7 +7857,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7899,14 +7894,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 45556-2025</t>
+          <t>A 44791-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45922.64444444444</v>
+        <v>45918.31138888889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7914,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7956,14 +7951,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 42653-2024</t>
+          <t>A 44846-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45566.33113425926</v>
+        <v>45918.43986111111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7971,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8013,14 +8008,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 33796-2023</t>
+          <t>A 44852-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45133.57142361111</v>
+        <v>45918.44703703704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8028,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8070,14 +8065,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 6137-2024</t>
+          <t>A 45556-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45337</v>
+        <v>45922.64444444444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8085,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>11.7</v>
+        <v>2.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8127,14 +8122,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 38899-2025</t>
+          <t>A 39650-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45887</v>
+        <v>45167.55505787037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8147,7 +8142,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8184,14 +8179,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 2088-2023</t>
+          <t>A 24154-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44939</v>
+        <v>45079</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8199,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8241,14 +8236,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 2092-2023</t>
+          <t>A 65211-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44939</v>
+        <v>44515.50362268519</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8261,7 +8256,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.6</v>
+        <v>4.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8298,14 +8293,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 52528-2021</t>
+          <t>A 24765-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44466.46428240741</v>
+        <v>45084.6352662037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8313,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8355,14 +8350,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 2474-2026</t>
+          <t>A 12038-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46037.37762731482</v>
+        <v>45728.65583333333</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8370,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>8.6</v>
+        <v>1.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8412,14 +8407,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 2480-2026</t>
+          <t>A 47268-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46037.38482638889</v>
+        <v>45930.45893518518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8427,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8469,14 +8464,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 47268-2025</t>
+          <t>A 17270-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45930.45893518518</v>
+        <v>45756.5531712963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8484,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8526,14 +8521,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 60789-2025</t>
+          <t>A 32704-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45999.41315972222</v>
+        <v>45839</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8546,7 +8541,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8583,14 +8578,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 36838-2024</t>
+          <t>A 48672-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45538.52853009259</v>
+        <v>45936.58152777778</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8598,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8640,14 +8635,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 34279-2023</t>
+          <t>A 48870-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45138</v>
+        <v>45937.44994212963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8655,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8697,14 +8692,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 3934-2026</t>
+          <t>A 42177-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46043.80326388889</v>
+        <v>45178.7221412037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8712,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8754,14 +8749,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 52243-2025</t>
+          <t>A 28221-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45953</v>
+        <v>45099</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8769,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.6</v>
+        <v>6.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8811,14 +8806,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 52246-2025</t>
+          <t>A 11605-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45953</v>
+        <v>44994.401875</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8826,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8868,14 +8863,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 53163-2025</t>
+          <t>A 23693-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45958</v>
+        <v>45077</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8883,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8925,14 +8920,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 57795-2022</t>
+          <t>A 33752-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44897.66587962963</v>
+        <v>45842.36796296296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8940,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8982,14 +8977,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 48672-2025</t>
+          <t>A 45192-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45936.58152777778</v>
+        <v>44844.42034722222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9002,7 +8997,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9039,14 +9034,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 1783-2025</t>
+          <t>A 44925-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45671.4491087963</v>
+        <v>45918.55711805556</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9059,7 +9054,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9096,14 +9091,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 73830-2021</t>
+          <t>A 11115-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44552.84040509259</v>
+        <v>45723</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9153,14 +9148,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 6237-2021</t>
+          <t>A 35168-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44235</v>
+        <v>45852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9173,7 +9168,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9210,14 +9205,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 6020-2022</t>
+          <t>A 51654-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44599</v>
+        <v>45951.46241898148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9230,7 +9225,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9267,14 +9262,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 48870-2025</t>
+          <t>A 36280-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45937.44994212963</v>
+        <v>45867</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9287,7 +9282,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9324,14 +9319,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 53676-2025</t>
+          <t>A 18285-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45960</v>
+        <v>45762</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9344,7 +9339,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9381,14 +9376,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 13068-2023</t>
+          <t>A 35490-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45002.38854166667</v>
+        <v>45855.79797453704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9401,7 +9396,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9438,14 +9433,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 44925-2025</t>
+          <t>A 9573-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45918.55711805556</v>
+        <v>45715.62260416667</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9458,7 +9453,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9495,14 +9490,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 5002-2026</t>
+          <t>A 61602-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46049.42719907407</v>
+        <v>45646.6387962963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9510,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9552,14 +9547,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 4989-2026</t>
+          <t>A 35489-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46049.38898148148</v>
+        <v>45855.79260416667</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9567,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.9</v>
+        <v>6.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9609,14 +9604,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 36280-2025</t>
+          <t>A 35808-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45867</v>
+        <v>45861.41337962963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9624,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9666,14 +9661,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 17737-2023</t>
+          <t>A 53017-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45037.44637731482</v>
+        <v>45957</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9681,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9723,14 +9718,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 51654-2025</t>
+          <t>A 53019-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45951.46241898148</v>
+        <v>45957</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9738,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9780,14 +9775,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 9691-2023</t>
+          <t>A 24671-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44984</v>
+        <v>45798.65046296296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9800,7 +9795,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9837,14 +9832,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 53142-2025</t>
+          <t>A 24674-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45958</v>
+        <v>45798.65300925926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9857,7 +9852,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9894,14 +9889,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 53017-2025</t>
+          <t>A 53142-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9914,7 +9909,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9951,14 +9946,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 53019-2025</t>
+          <t>A 24664-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45957</v>
+        <v>45798.64627314815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9971,7 +9966,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10008,14 +10003,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 20492-2024</t>
+          <t>A 34631-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45435.8712962963</v>
+        <v>45848.26144675926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10028,7 +10023,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10065,14 +10060,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 22975-2023</t>
+          <t>A 34632-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45072</v>
+        <v>45848.26725694445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10085,7 +10080,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10122,14 +10117,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 2537-2026</t>
+          <t>A 34633-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46037.44983796297</v>
+        <v>45848.27251157408</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10142,7 +10137,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10179,14 +10174,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 39650-2023</t>
+          <t>A 22975-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45167.55505787037</v>
+        <v>45072</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10199,7 +10194,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10236,14 +10231,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 12625-2021</t>
+          <t>A 14430-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44270.4590625</v>
+        <v>45012</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10256,7 +10251,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10293,14 +10288,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 7192-2026</t>
+          <t>A 64091-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46058.49831018518</v>
+        <v>45279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10313,7 +10308,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10350,14 +10345,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 38928-2024</t>
+          <t>A 54506-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45548</v>
+        <v>45965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10370,7 +10365,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10407,14 +10402,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 50629-2025</t>
+          <t>A 37778-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45945</v>
+        <v>45880</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10427,7 +10422,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>6.3</v>
+        <v>2.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10464,14 +10459,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 7242-2026</t>
+          <t>A 25962-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46058.5840625</v>
+        <v>45090.77961805555</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10484,7 +10479,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.3</v>
+        <v>7.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10521,14 +10516,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 63783-2023</t>
+          <t>A 981-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45278.38888888889</v>
+        <v>44935.35828703704</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10541,7 +10536,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10578,14 +10573,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 9359-2025</t>
+          <t>A 30136-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45715.29788194445</v>
+        <v>44757.46511574074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10597,8 +10592,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10635,14 +10635,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 54506-2025</t>
+          <t>A 38214-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45965</v>
+        <v>45161</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10692,14 +10692,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 14912-2024</t>
+          <t>A 23739-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45398.59821759259</v>
+        <v>45077.7675</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10749,14 +10749,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 52876-2024</t>
+          <t>A 6796-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45610.6337037037</v>
+        <v>45342.56502314815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10806,14 +10806,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 1935-2024</t>
+          <t>A 56581-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45308</v>
+        <v>45975.54347222222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10863,14 +10863,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 72261-2021</t>
+          <t>A 38879-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44545.31795138889</v>
+        <v>45887.5771875</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10920,14 +10920,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 42177-2023</t>
+          <t>A 38897-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45178.7221412037</v>
+        <v>45887.59670138889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10977,14 +10977,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 30638-2023</t>
+          <t>A 56264-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45112</v>
+        <v>45974.57391203703</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11034,14 +11034,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 56264-2025</t>
+          <t>A 56455-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45974.57391203703</v>
+        <v>45975.35782407408</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11091,14 +11091,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 14254-2023</t>
+          <t>A 29169-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45009.90423611111</v>
+        <v>44358</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11148,14 +11148,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 37620-2023</t>
+          <t>A 56487-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45159.4530787037</v>
+        <v>45975.41037037037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11205,14 +11205,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 28221-2023</t>
+          <t>A 34591-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45099</v>
+        <v>45140</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>6.7</v>
+        <v>1.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11262,14 +11262,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 171-2025</t>
+          <t>A 56765-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45659.64508101852</v>
+        <v>45978.38018518518</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11319,14 +11319,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 31704-2023</t>
+          <t>A 40184-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45117</v>
+        <v>44820.58752314815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>6.7</v>
+        <v>0.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11376,14 +11376,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 7707-2024</t>
+          <t>A 57221-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45349.35894675926</v>
+        <v>45979.61408564815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11433,14 +11433,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 45192-2022</t>
+          <t>A 57774-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44844.42034722222</v>
+        <v>45981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11490,14 +11490,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 36543-2022</t>
+          <t>A 57343-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44804.57</v>
+        <v>45980.34996527778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11547,14 +11547,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 5941-2025</t>
+          <t>A 57790-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45695.46671296296</v>
+        <v>45981</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11604,14 +11604,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 40190-2022</t>
+          <t>A 9559-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44820.591875</v>
+        <v>44617.43976851852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11661,14 +11661,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 44814-2022</t>
+          <t>A 31925-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44841.40362268518</v>
+        <v>45510</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>5.2</v>
+        <v>2.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11718,14 +11718,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 3205-2025</t>
+          <t>A 58347-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45679</v>
+        <v>45985.50454861111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11737,13 +11737,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>6.7</v>
+        <v>3.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11780,14 +11775,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 1397-2023</t>
+          <t>A 30638-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44936.73979166667</v>
+        <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11800,7 +11795,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11837,14 +11832,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 2405-2025</t>
+          <t>A 2088-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45674.35796296296</v>
+        <v>44939</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11857,7 +11852,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11894,14 +11889,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 25960-2023</t>
+          <t>A 1225-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45090</v>
+        <v>46031.40648148148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11914,7 +11909,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.9</v>
+        <v>5.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11951,14 +11946,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 25967-2023</t>
+          <t>A 25960-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45090.79582175926</v>
+        <v>45090</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11971,7 +11966,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>4.9</v>
+        <v>1.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12008,14 +12003,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 9559-2022</t>
+          <t>A 52528-2021</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44617.43976851852</v>
+        <v>44466.46428240741</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12065,14 +12060,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 48966-2023</t>
+          <t>A 2480-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45209.60576388889</v>
+        <v>46037.38482638889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12085,7 +12080,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12122,14 +12117,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 50304-2023</t>
+          <t>A 2474-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45209</v>
+        <v>46037.37762731482</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12142,7 +12137,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>17.9</v>
+        <v>8.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12179,14 +12174,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 26837-2022</t>
+          <t>A 36838-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44740.4811574074</v>
+        <v>45538.52853009259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12199,7 +12194,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12236,14 +12231,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 29334-2022</t>
+          <t>A 38899-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44752</v>
+        <v>45887</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12255,13 +12250,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12298,14 +12288,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 27497-2024</t>
+          <t>A 60789-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45474</v>
+        <v>45999.41315972222</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12318,7 +12308,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12355,14 +12345,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 54646-2023</t>
+          <t>A 53163-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45235.40707175926</v>
+        <v>45958</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12375,7 +12365,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12412,14 +12402,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 21910-2024</t>
+          <t>A 1904-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45443.36605324074</v>
+        <v>44939</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12432,7 +12422,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12469,14 +12459,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 21152-2022</t>
+          <t>A 52243-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44704</v>
+        <v>45953</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12489,7 +12479,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12526,14 +12516,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 11121-2025</t>
+          <t>A 52246-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45723.6369675926</v>
+        <v>45953</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12546,7 +12536,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12583,14 +12573,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 1492-2024</t>
+          <t>A 3934-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45305.84925925926</v>
+        <v>46043.80326388889</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12603,7 +12593,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12640,14 +12630,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 1493-2024</t>
+          <t>A 8204-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45305</v>
+        <v>44971</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12660,7 +12650,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12697,14 +12687,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 9573-2025</t>
+          <t>A 11121-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45715.62260416667</v>
+        <v>45723.6369675926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12717,7 +12707,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12754,14 +12744,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 22410-2024</t>
+          <t>A 3830-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45446</v>
+        <v>44587.35361111111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12774,7 +12764,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12811,14 +12801,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 55049-2023</t>
+          <t>A 21152-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45237</v>
+        <v>44704</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12831,7 +12821,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12868,14 +12858,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 10379-2024</t>
+          <t>A 58130-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45365.64063657408</v>
+        <v>44900</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12888,7 +12878,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.6</v>
+        <v>23.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12925,14 +12915,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 54661-2023</t>
+          <t>A 4989-2026</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45235.61505787037</v>
+        <v>46049.38898148148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12945,7 +12935,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12982,14 +12972,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 11605-2023</t>
+          <t>A 5002-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44994.401875</v>
+        <v>46049.42719907407</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13039,14 +13029,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 37501-2024</t>
+          <t>A 53676-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45541.37159722222</v>
+        <v>45960</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13059,7 +13049,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13096,14 +13086,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 15987-2025</t>
+          <t>A 2359-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45749</v>
+        <v>44942</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13116,7 +13106,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13153,14 +13143,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 39622-2023</t>
+          <t>A 55049-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45163</v>
+        <v>45237</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13173,7 +13163,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>10.7</v>
+        <v>0.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13210,14 +13200,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 6796-2024</t>
+          <t>A 15987-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45342.56502314815</v>
+        <v>45749</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13230,7 +13220,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13267,14 +13257,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 50279-2023</t>
+          <t>A 57208-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45216.44960648148</v>
+        <v>44895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13287,7 +13277,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13324,14 +13314,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 57709-2022</t>
+          <t>A 2537-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44897</v>
+        <v>46037.44983796297</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13344,7 +13334,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13381,14 +13371,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 30136-2022</t>
+          <t>A 3864-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44757.46511574074</v>
+        <v>44951.76491898148</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13400,13 +13390,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>1.2</v>
+        <v>6.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13443,14 +13428,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 32855-2023</t>
+          <t>A 7192-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45124</v>
+        <v>46058.49831018518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13463,7 +13448,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13500,14 +13485,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 3864-2023</t>
+          <t>A 25965-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44951.76491898148</v>
+        <v>45090.79171296296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13520,7 +13505,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>6.2</v>
+        <v>2.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13557,14 +13542,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 29169-2021</t>
+          <t>A 38928-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44358</v>
+        <v>45548</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13577,7 +13562,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13614,14 +13599,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 58284-2023</t>
+          <t>A 7242-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45250.53486111111</v>
+        <v>46058.5840625</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13634,7 +13619,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13671,14 +13656,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 2086-2023</t>
+          <t>A 50629-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44939</v>
+        <v>45945</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13691,7 +13676,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.5</v>
+        <v>6.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13728,14 +13713,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 2359-2023</t>
+          <t>A 7707-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44942</v>
+        <v>45349.35894675926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13748,7 +13733,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13785,14 +13770,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 57161-2022</t>
+          <t>A 14254-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44895.59303240741</v>
+        <v>45009.90423611111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13805,7 +13790,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13842,14 +13827,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 27967-2024</t>
+          <t>A 47871-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45476.37760416666</v>
+        <v>44855.43434027778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13862,7 +13847,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13899,14 +13884,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 47890-2022</t>
+          <t>A 40190-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44855</v>
+        <v>44820.591875</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13919,7 +13904,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13956,14 +13941,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 8752-2021</t>
+          <t>A 20099-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44246</v>
+        <v>45772.46916666667</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13976,7 +13961,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>6.8</v>
+        <v>1.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14013,14 +13998,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 5927-2023</t>
+          <t>A 10797-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44963</v>
+        <v>45722.50984953704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14033,7 +14018,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.9</v>
+        <v>15.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14070,14 +14055,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 31925-2024</t>
+          <t>A 40017-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45510</v>
+        <v>45168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14090,7 +14075,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14127,14 +14112,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 2399-2025</t>
+          <t>A 34279-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45672</v>
+        <v>45138</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14147,7 +14132,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14184,14 +14169,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 29335-2022</t>
+          <t>A 54661-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44752</v>
+        <v>45235.61505787037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14203,13 +14188,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14246,14 +14226,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 22699-2024</t>
+          <t>A 54646-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45448.32910879629</v>
+        <v>45235.40707175926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14266,7 +14246,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.4</v>
+        <v>5.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14303,14 +14283,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 25965-2023</t>
+          <t>A 2092-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45090.79171296296</v>
+        <v>44939</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14323,7 +14303,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14360,14 +14340,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 19390-2023</t>
+          <t>A 21023-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45048</v>
+        <v>45439.64483796297</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14380,7 +14360,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14417,14 +14397,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 65211-2021</t>
+          <t>A 62180-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44515.50362268519</v>
+        <v>44915</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14436,8 +14416,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>4.9</v>
+        <v>7.5</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14474,14 +14459,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 63029-2023</t>
+          <t>A 62181-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45272</v>
+        <v>44915</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14493,8 +14478,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>6.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14531,14 +14521,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 14430-2023</t>
+          <t>A 23990-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45012</v>
+        <v>45078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14551,7 +14541,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14588,14 +14578,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 23692-2023</t>
+          <t>A 1935-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45077.60907407408</v>
+        <v>45308</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14608,7 +14598,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14645,14 +14635,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 23739-2023</t>
+          <t>A 52372-2021</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45077.7675</v>
+        <v>44465</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14665,7 +14655,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14702,14 +14692,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 23740-2023</t>
+          <t>A 22406-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45077</v>
+        <v>45446</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14722,7 +14712,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14759,14 +14749,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 23898-2023</t>
+          <t>A 26179-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45078.54318287037</v>
+        <v>45091.52637731482</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14779,7 +14769,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14816,14 +14806,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 56460-2023</t>
+          <t>A 27967-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45243</v>
+        <v>45476.37760416666</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14836,7 +14826,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>5.3</v>
+        <v>0.4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14873,14 +14863,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 5954-2025</t>
+          <t>A 26837-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45695.4777662037</v>
+        <v>44740.4811574074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14893,7 +14883,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14930,14 +14920,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 38214-2023</t>
+          <t>A 25967-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45161</v>
+        <v>45090.79582175926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14950,7 +14940,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14987,14 +14977,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 27540-2024</t>
+          <t>A 22410-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45474</v>
+        <v>45446</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15007,7 +14997,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15044,14 +15034,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 9695-2023</t>
+          <t>A 29334-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44984</v>
+        <v>44752</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15063,8 +15053,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15101,14 +15096,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 25962-2023</t>
+          <t>A 5941-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45090.77961805555</v>
+        <v>45695.46671296296</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15121,7 +15116,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>7.3</v>
+        <v>0.6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15158,14 +15153,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 981-2023</t>
+          <t>A 29335-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44935.35828703704</v>
+        <v>44752</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15177,8 +15172,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G251" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15215,14 +15215,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 1904-2023</t>
+          <t>A 42653-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44939</v>
+        <v>45566.33113425926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15272,14 +15272,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 51577-2023</t>
+          <t>A 44882-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45222.45756944444</v>
+        <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15329,14 +15329,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 3830-2022</t>
+          <t>A 56460-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44587.35361111111</v>
+        <v>45243</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15386,14 +15386,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 40184-2022</t>
+          <t>A 1783-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44820.58752314815</v>
+        <v>45671.4491087963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15443,14 +15443,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 17641-2023</t>
+          <t>A 8752-2021</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45035</v>
+        <v>44246</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15500,14 +15500,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 10797-2025</t>
+          <t>A 26178-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45722.50984953704</v>
+        <v>45091.52565972223</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>15.1</v>
+        <v>0.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15557,14 +15557,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 44882-2022</t>
+          <t>A 51577-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44841</v>
+        <v>45222.45756944444</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15614,14 +15614,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 21867-2025</t>
+          <t>A 63029-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45784.37122685185</v>
+        <v>45272</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15671,14 +15671,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 168-2025</t>
+          <t>A 58284-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45659.64137731482</v>
+        <v>45250.53486111111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>6.9</v>
+        <v>0.3</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15728,14 +15728,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 49362-2024</t>
+          <t>A 27497-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45595.62802083333</v>
+        <v>45474</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15785,14 +15785,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 22391-2024</t>
+          <t>A 48966-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45446</v>
+        <v>45209.60576388889</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15842,14 +15842,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 27486-2024</t>
+          <t>A 2405-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45474.48015046296</v>
+        <v>45674.35796296296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15899,14 +15899,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 25958-2023</t>
+          <t>A 27540-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45090</v>
+        <v>45474</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15956,14 +15956,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 60271-2024</t>
+          <t>A 9773-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45642</v>
+        <v>45362</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16013,14 +16013,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 12631-2021</t>
+          <t>A 57795-2022</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44270</v>
+        <v>44897.66587962963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16070,14 +16070,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 17458-2023</t>
+          <t>A 50279-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45034</v>
+        <v>45216.44960648148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16127,14 +16127,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 23469-2025</t>
+          <t>A 33796-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45792.43915509259</v>
+        <v>45133.57142361111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16184,14 +16184,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 54669-2023</t>
+          <t>A 2090-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45235.63085648148</v>
+        <v>44939</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16241,14 +16241,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 11460-2025</t>
+          <t>A 57161-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45726</v>
+        <v>44895.59303240741</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16298,14 +16298,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 26032-2025</t>
+          <t>A 57709-2022</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45804.69063657407</v>
+        <v>44897</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16355,14 +16355,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 25588-2025</t>
+          <t>A 2086-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45803.49103009259</v>
+        <v>44939</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16412,14 +16412,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 25589-2025</t>
+          <t>A 50304-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45803.49381944445</v>
+        <v>45209</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.5</v>
+        <v>17.9</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16469,14 +16469,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 26020-2025</t>
+          <t>A 11126-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45804.67818287037</v>
+        <v>45723</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16526,14 +16526,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 27449-2025</t>
+          <t>A 37620-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45813.33200231481</v>
+        <v>45159.4530787037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16583,14 +16583,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 27523-2025</t>
+          <t>A 9695-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45813</v>
+        <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16640,14 +16640,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 27988-2025</t>
+          <t>A 2399-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45817.58586805555</v>
+        <v>45672</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>11.8</v>
+        <v>1.9</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16697,14 +16697,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 15478-2025</t>
+          <t>A 22699-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45747.5475</v>
+        <v>45448.32910879629</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16754,14 +16754,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 21146-2022</t>
+          <t>A 36572-2021</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44704</v>
+        <v>44391.58083333333</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>7.4</v>
+        <v>0.4</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16811,14 +16811,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 28693-2025</t>
+          <t>A 20492-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45819.83893518519</v>
+        <v>45435.8712962963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16868,14 +16868,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 29642-2025</t>
+          <t>A 49362-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45825</v>
+        <v>45595.62802083333</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16925,14 +16925,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 17270-2025</t>
+          <t>A 168-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45756.5531712963</v>
+        <v>45659.64137731482</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.7</v>
+        <v>6.9</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16982,14 +16982,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 12038-2025</t>
+          <t>A 21867-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45728.65583333333</v>
+        <v>45784.37122685185</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17039,14 +17039,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 32704-2025</t>
+          <t>A 25958-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45839</v>
+        <v>45090</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17096,14 +17096,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 33752-2025</t>
+          <t>A 27486-2024</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45842.36796296296</v>
+        <v>45474.48015046296</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17153,14 +17153,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 11115-2025</t>
+          <t>A 22391-2024</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45723</v>
+        <v>45446</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17210,14 +17210,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 35168-2025</t>
+          <t>A 60271-2024</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45852</v>
+        <v>45642</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>5.2</v>
+        <v>1.8</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17267,14 +17267,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 18285-2025</t>
+          <t>A 12631-2021</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45762</v>
+        <v>44270</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17324,14 +17324,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 61602-2024</t>
+          <t>A 11460-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45646.6387962963</v>
+        <v>45726</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17381,14 +17381,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 35490-2025</t>
+          <t>A 17458-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45855.79797453704</v>
+        <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17438,14 +17438,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 35489-2025</t>
+          <t>A 54669-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45855.79260416667</v>
+        <v>45235.63085648148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>6.3</v>
+        <v>1</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17495,14 +17495,14 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 35808-2025</t>
+          <t>A 23469-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45861.41337962963</v>
+        <v>45792.43915509259</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45916</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45853.6421875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>45545.36309027778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45510</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45684.70283564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44516.32994212963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45670</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45911</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>45015</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44298</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>44788.44263888889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44820.59869212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44788.45163194444</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44676.44231481481</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44546</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44846.67469907407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44752</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44387</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44414.37533564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>44440.43105324074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>44537.84666666666</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44799</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44526.32802083333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>44813</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>44635</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>44340.5113425926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>44543.32719907408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44636.62268518518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>44804.63545138889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>44841.84542824074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44599</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>45705.57094907408</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45048</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44552.84040509259</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44841.40362268518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>45362.60480324074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>45610.6337037037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45365.64063657408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45077</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44545.31795138889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44235</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>45715.29788194445</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>45736.62430555555</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>45037.44637731482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>44855</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>45078.54318287037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>45163</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>45398.59821759259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>45887.42040509259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>45235.62601851852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45803.49381944445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>45803.49103009259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>45887.55858796297</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>45804.69063657407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>45804.67818287037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>45090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>45171.54957175926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>45833.46824074074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>45124</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>45305.84925925926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>45305</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>45707.35076388889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>45443.36605324074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>45887.58900462963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>44351</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>44897</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>45468</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>45891.60197916667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>45278.38888888889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>45813</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>45813.33200231481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>45679</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44936.73979166667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>45337</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>45747.5475</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>45817.58586805555</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>44804.57</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>45002.38854166667</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>44704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>45695.4777662037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>44270.4590625</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>45432</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>45903.40931712963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>45903.37215277777</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>45903.42753472222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>45077.60907407408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>45819.83893518519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45541.37159722222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>45659.64508101852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>45908.40152777778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>45908.37888888889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45908.37359953704</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45908.381875</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45908.40429398148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45825</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45737.48324074074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>45915.44501157408</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>45913.26221064815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>45911.87390046296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>45915.44359953704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>45035</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>45916.45373842592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>45916.44782407407</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>45916.48872685185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>45916.47453703704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>45918</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>45918.5110300926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>45918.32309027778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>45918.55475694445</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>45918.50546296296</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>45918.49697916667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>45918.31138888889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>45918.43986111111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>45918.44703703704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>45922.64444444444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>45167.55505787037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>45079</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44515.50362268519</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>45084.6352662037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>45728.65583333333</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>45930.45893518518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>45756.5531712963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>45839</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>45936.58152777778</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>45937.44994212963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>45178.7221412037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>45099</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44994.401875</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>45077</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45842.36796296296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44844.42034722222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45918.55711805556</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45723</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45951.46241898148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45867</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45762</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45855.79797453704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45715.62260416667</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45646.6387962963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45855.79260416667</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>45861.41337962963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45957</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>45957</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>45798.65046296296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>45798.65300925926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>45958</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>45798.64627314815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>45848.26144675926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>45848.26725694445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>45848.27251157408</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>45072</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>45012</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>45279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>45965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>45880</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>45090.77961805555</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>44935.35828703704</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>44757.46511574074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>45161</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>45077.7675</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>45342.56502314815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>45975.54347222222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>45887.5771875</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>45887.59670138889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>45974.57391203703</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>45975.35782407408</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44358</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>45975.41037037037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>45140</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>45978.38018518518</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44820.58752314815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>45979.61408564815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>45981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>45980.34996527778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>45981</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44617.43976851852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>45510</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>45985.50454861111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44939</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>46031.40648148148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>45090</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>44466.46428240741</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>46037.38482638889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>46037.37762731482</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45538.52853009259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>45887</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>45999.41315972222</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>45958</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>44939</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>45953</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45953</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>46043.80326388889</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>44971</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>45723.6369675926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44587.35361111111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44704</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>44900</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>46049.38898148148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>46049.42719907407</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>45960</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>44942</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>45237</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>45749</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>46037.44983796297</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44951.76491898148</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>46058.49831018518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>45090.79171296296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>45548</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>46058.5840625</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>45945</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>45349.35894675926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>45009.90423611111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44855.43434027778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44820.591875</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>45772.46916666667</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>45722.50984953704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>45168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>45138</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>45235.61505787037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45235.40707175926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44939</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45439.64483796297</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44915</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44915</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45308</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44465</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45446</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45091.52637731482</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45476.37760416666</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44740.4811574074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45090.79582175926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45446</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44752</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45695.46671296296</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44752</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>45566.33113425926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>45243</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>45671.4491087963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>44246</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45091.52565972223</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
         <v>45222.45756944444</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>45272</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>45250.53486111111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>45474</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>45209.60576388889</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>45674.35796296296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>45474</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>45362</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>44897.66587962963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>45216.44960648148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>45133.57142361111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>44939</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>44895.59303240741</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>44897</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>44939</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>45209</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>45723</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>45159.4530787037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>45672</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>45448.32910879629</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44391.58083333333</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>45435.8712962963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>45595.62802083333</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>45659.64137731482</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>45784.37122685185</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>45090</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>45474.48015046296</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>45446</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>45642</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44270</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45726</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45235.63085648148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45792.43915509259</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45916</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45853.6421875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>45545.36309027778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45510</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45684.70283564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44516.32994212963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45670</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45911</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>45015</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44298</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>44788.44263888889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44820.59869212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44788.45163194444</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44676.44231481481</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44546</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44846.67469907407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44752</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44387</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44414.37533564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>44440.43105324074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>44537.84666666666</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44799</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44526.32802083333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>44813</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>44635</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>44340.5113425926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>44543.32719907408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44636.62268518518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>44804.63545138889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>44841.84542824074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44599</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>45705.57094907408</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45048</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44552.84040509259</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44841.40362268518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>45362.60480324074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>45610.6337037037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45365.64063657408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45077</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44545.31795138889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44235</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>45715.29788194445</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>45736.62430555555</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>45037.44637731482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>44855</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>45078.54318287037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>45163</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>45398.59821759259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>45887.42040509259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>45235.62601851852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45803.49381944445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>45803.49103009259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>45887.55858796297</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>45804.69063657407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>45804.67818287037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>45090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>45171.54957175926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>45833.46824074074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>45124</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>45305.84925925926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>45305</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>45707.35076388889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>45443.36605324074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>45887.58900462963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>44351</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>44897</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>45468</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>45891.60197916667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>45278.38888888889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>45813</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>45813.33200231481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>45679</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44936.73979166667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>45337</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>45747.5475</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>45817.58586805555</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>44804.57</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>45002.38854166667</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>44704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>45695.4777662037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>44270.4590625</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>45432</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>45903.40931712963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>45903.37215277777</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>45903.42753472222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>45077.60907407408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>45819.83893518519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45541.37159722222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>45659.64508101852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>45908.40152777778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>45908.37888888889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45908.37359953704</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45908.381875</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45908.40429398148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45825</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45737.48324074074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>45915.44501157408</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>45913.26221064815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>45911.87390046296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>45915.44359953704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>45035</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>45916.45373842592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>45916.44782407407</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>45916.48872685185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>45916.47453703704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>45918</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>45918.5110300926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>45918.32309027778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>45918.55475694445</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>45918.50546296296</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>45918.49697916667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>45918.31138888889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>45918.43986111111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>45918.44703703704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>45922.64444444444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>45167.55505787037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>45079</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44515.50362268519</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>45084.6352662037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>45728.65583333333</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>45930.45893518518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>45756.5531712963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>45839</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>45936.58152777778</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>45937.44994212963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>45178.7221412037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>45099</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44994.401875</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>45077</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45842.36796296296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44844.42034722222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45918.55711805556</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45723</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45951.46241898148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45867</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45762</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45855.79797453704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45715.62260416667</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45646.6387962963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45855.79260416667</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>45861.41337962963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45957</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>45957</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>45798.65046296296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>45798.65300925926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>45958</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>45798.64627314815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>45848.26144675926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>45848.26725694445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>45848.27251157408</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>45072</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>45012</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>45279</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>45965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>45880</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>45090.77961805555</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>44935.35828703704</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>44757.46511574074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>45161</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>45077.7675</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>45342.56502314815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>45975.54347222222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>45887.5771875</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>45887.59670138889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>45974.57391203703</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>45975.35782407408</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44358</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>45975.41037037037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>45140</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>45978.38018518518</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44820.58752314815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>45979.61408564815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>45981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>45980.34996527778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>45981</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44617.43976851852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>45510</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>45985.50454861111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44939</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>46031.40648148148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>45090</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>44466.46428240741</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>46037.38482638889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>46037.37762731482</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45538.52853009259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>45887</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>45999.41315972222</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>45958</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>44939</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>45953</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45953</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>46043.80326388889</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>44971</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>45723.6369675926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44587.35361111111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44704</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>44900</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>46049.38898148148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>46049.42719907407</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>45960</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>44942</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>45237</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>45749</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>46037.44983796297</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44951.76491898148</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>46058.49831018518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>45090.79171296296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>45548</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>46058.5840625</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>45945</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>45349.35894675926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>45009.90423611111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44855.43434027778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44820.591875</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>45772.46916666667</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>45722.50984953704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>45168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>45138</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>45235.61505787037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45235.40707175926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44939</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45439.64483796297</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44915</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44915</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45308</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44465</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45446</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45091.52637731482</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45476.37760416666</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44740.4811574074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45090.79582175926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45446</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44752</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45695.46671296296</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44752</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>45566.33113425926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>45243</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>45671.4491087963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>44246</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45091.52565972223</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
         <v>45222.45756944444</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>45272</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>45250.53486111111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>45474</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>45209.60576388889</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>45674.35796296296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>45474</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>45362</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>44897.66587962963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>45216.44960648148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>45133.57142361111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>44939</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>44895.59303240741</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>44897</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>44939</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>45209</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>45723</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>45159.4530787037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>45672</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>45448.32910879629</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44391.58083333333</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>45435.8712962963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>45595.62802083333</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>45659.64137731482</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>45784.37122685185</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>45090</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>45474.48015046296</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>45446</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>45642</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44270</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45726</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45235.63085648148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45792.43915509259</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z292"/>
+  <dimension ref="A1:Z291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45916</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45853.6421875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>45545.36309027778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45510</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45684.70283564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44516.32994212963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,14 +1197,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 1604-2025</t>
+          <t>A 43471-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45670</v>
+        <v>45911</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1216,13 +1216,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1256,289 +1251,294 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Granspira</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 43471-2025 artfynd.xlsx", "A 43471-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 43471-2025 karta.png", "A 43471-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 43471-2025 FSC-klagomål.docx", "A 43471-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 43471-2025 FSC-klagomål mail.docx", "A 43471-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 43471-2025 tillsynsbegäran.docx", "A 43471-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 43471-2025 tillsynsbegäran mail.docx", "A 43471-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 57429-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45980</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Slåttergubbe</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 57429-2025 artfynd.xlsx", "A 57429-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 57429-2025 karta.png", "A 57429-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 57429-2025 FSC-klagomål.docx", "A 57429-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 57429-2025 FSC-klagomål mail.docx", "A 57429-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 57429-2025 tillsynsbegäran.docx", "A 57429-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 57429-2025 tillsynsbegäran mail.docx", "A 57429-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 1604-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45670</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Igelkott</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 1604-2025 artfynd.xlsx", "A 1604-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 1604-2025 karta.png", "A 1604-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 1604-2025 FSC-klagomål.docx", "A 1604-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 1604-2025 FSC-klagomål mail.docx", "A 1604-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 1604-2025 tillsynsbegäran.docx", "A 1604-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 1604-2025 tillsynsbegäran mail.docx", "A 1604-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 43471-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45911</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 15068-2023</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45015</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Granspira</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 43471-2025 artfynd.xlsx", "A 43471-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 43471-2025 karta.png", "A 43471-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 43471-2025 FSC-klagomål.docx", "A 43471-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 43471-2025 FSC-klagomål mail.docx", "A 43471-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 43471-2025 tillsynsbegäran.docx", "A 43471-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 43471-2025 tillsynsbegäran mail.docx", "A 43471-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 15068-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45015</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Kambräken</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 15068-2023 artfynd.xlsx", "A 15068-2023")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 15068-2023 karta.png", "A 15068-2023")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 15068-2023 FSC-klagomål.docx", "A 15068-2023")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 15068-2023 FSC-klagomål mail.docx", "A 15068-2023")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 15068-2023 tillsynsbegäran.docx", "A 15068-2023")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 15068-2023 tillsynsbegäran mail.docx", "A 15068-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 57429-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45980</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Slåttergubbe</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 57429-2025 artfynd.xlsx", "A 57429-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 57429-2025 karta.png", "A 57429-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 57429-2025 FSC-klagomål.docx", "A 57429-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 57429-2025 FSC-klagomål mail.docx", "A 57429-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 57429-2025 tillsynsbegäran.docx", "A 57429-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 57429-2025 tillsynsbegäran mail.docx", "A 57429-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44298</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>44788.44263888889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44820.59869212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44788.45163194444</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44676.44231481481</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44546</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44846.67469907407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44752</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44387</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44414.37533564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>44440.43105324074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>44537.84666666666</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44799</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44526.32802083333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>44813</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>44635</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,14 +2754,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 24712-2021</t>
+          <t>A 71637-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44340.5113425926</v>
+        <v>44543.32719907408</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2811,14 +2811,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 71637-2021</t>
+          <t>A 24712-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44543.32719907408</v>
+        <v>44340.5113425926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>44636.62268518518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2925,14 +2925,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 36595-2022</t>
+          <t>A 45063-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44804.63545138889</v>
+        <v>44841.84542824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2982,14 +2982,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 45063-2022</t>
+          <t>A 36595-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44841.84542824074</v>
+        <v>44804.63545138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3039,14 +3039,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 6020-2022</t>
+          <t>A 26178-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44599</v>
+        <v>45091.52565972223</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3096,14 +3096,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 7541-2025</t>
+          <t>A 26179-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45705.57094907408</v>
+        <v>45091.52637731482</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.2</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3153,14 +3153,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 19390-2023</t>
+          <t>A 20099-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45048</v>
+        <v>45772.46916666667</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3210,14 +3210,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 73830-2021</t>
+          <t>A 62180-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44552.84040509259</v>
+        <v>44915</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3229,8 +3229,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3267,14 +3272,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 44814-2022</t>
+          <t>A 62181-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44841.40362268518</v>
+        <v>44915</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3286,8 +3291,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3331,7 +3341,7 @@
         <v>45362.60480324074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3381,14 +3391,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 5927-2023</t>
+          <t>A 9773-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44963</v>
+        <v>45362</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3401,7 +3411,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3438,14 +3448,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 52876-2024</t>
+          <t>A 21023-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45610.6337037037</v>
+        <v>45439.64483796297</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3458,7 +3468,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3495,14 +3505,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 10379-2024</t>
+          <t>A 24154-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45365.64063657408</v>
+        <v>45079</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3515,7 +3525,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3552,14 +3562,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 23740-2023</t>
+          <t>A 27521-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45077</v>
+        <v>44351</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3572,7 +3582,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.1</v>
+        <v>10.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3609,14 +3619,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 72261-2021</t>
+          <t>A 19643-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44545.31795138889</v>
+        <v>45432</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3628,8 +3638,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3666,14 +3681,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 6237-2021</t>
+          <t>A 58130-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44235</v>
+        <v>44900</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3686,7 +3701,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.7</v>
+        <v>23.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3723,14 +3738,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 9359-2025</t>
+          <t>A 22406-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45715.29788194445</v>
+        <v>45446</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3743,7 +3758,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3780,14 +3795,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 13611-2025</t>
+          <t>A 26058-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45736.62430555555</v>
+        <v>45468</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3800,7 +3815,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3837,14 +3852,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 17737-2023</t>
+          <t>A 47871-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45037.44637731482</v>
+        <v>44855.43434027778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3857,7 +3872,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3894,14 +3909,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 47890-2022</t>
+          <t>A 44880-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44855</v>
+        <v>44841</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3914,7 +3929,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3951,14 +3966,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 23898-2023</t>
+          <t>A 57208-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45078.54318287037</v>
+        <v>44895</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3971,7 +3986,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4008,14 +4023,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 39622-2023</t>
+          <t>A 64091-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45163</v>
+        <v>45279</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4028,7 +4043,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>10.7</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4065,14 +4080,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 31704-2023</t>
+          <t>A 36572-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45117</v>
+        <v>44391.58083333333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4085,7 +4100,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.7</v>
+        <v>0.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4122,14 +4137,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 14912-2024</t>
+          <t>A 40814-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45398.59821759259</v>
+        <v>45171.54957175926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4142,7 +4157,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4179,14 +4194,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 38772-2025</t>
+          <t>A 40017-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45887.42040509259</v>
+        <v>45168</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4199,7 +4214,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4236,14 +4251,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 54667-2023</t>
+          <t>A 42653-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45235.62601851852</v>
+        <v>45566.33113425926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4256,7 +4271,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4293,14 +4308,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 25589-2025</t>
+          <t>A 33796-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45803.49381944445</v>
+        <v>45133.57142361111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4350,14 +4365,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 25588-2025</t>
+          <t>A 6137-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45803.49103009259</v>
+        <v>45337</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4370,7 +4385,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.1</v>
+        <v>11.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4407,14 +4422,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 38857-2025</t>
+          <t>A 2088-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45887.55858796297</v>
+        <v>44939</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4427,7 +4442,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4464,14 +4479,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 26032-2025</t>
+          <t>A 2092-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45804.69063657407</v>
+        <v>44939</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4484,7 +4499,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4521,14 +4536,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 26020-2025</t>
+          <t>A 52528-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45804.67818287037</v>
+        <v>44466.46428240741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4541,7 +4556,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4578,14 +4593,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 25963-2023</t>
+          <t>A 36838-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45090</v>
+        <v>45538.52853009259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4598,7 +4613,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4635,14 +4650,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 40814-2023</t>
+          <t>A 34279-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45171.54957175926</v>
+        <v>45138</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4655,7 +4670,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4692,14 +4707,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 31399-2025</t>
+          <t>A 57795-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45833.46824074074</v>
+        <v>44897.66587962963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4712,7 +4727,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4749,14 +4764,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 32855-2023</t>
+          <t>A 73830-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45124</v>
+        <v>44552.84040509259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4769,7 +4784,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4806,14 +4821,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 1492-2024</t>
+          <t>A 6020-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45305.84925925926</v>
+        <v>44599</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4826,7 +4841,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4863,14 +4878,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 1493-2024</t>
+          <t>A 1783-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45305</v>
+        <v>45671.4491087963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4883,7 +4898,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4920,14 +4935,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 7915-2025</t>
+          <t>A 21146-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45707.35076388889</v>
+        <v>44704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4940,7 +4955,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>7.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4977,14 +4992,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 21910-2024</t>
+          <t>A 28693-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45443.36605324074</v>
+        <v>45819.83893518519</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4997,7 +5012,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5034,14 +5049,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 38893-2025</t>
+          <t>A 13068-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45887.58900462963</v>
+        <v>45002.38854166667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5054,7 +5069,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5091,14 +5106,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 27521-2021</t>
+          <t>A 29642-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44351</v>
+        <v>45825</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5111,7 +5126,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>10.3</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5148,14 +5163,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 57703-2022</t>
+          <t>A 17737-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44897</v>
+        <v>45037.44637731482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5168,7 +5183,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5205,14 +5220,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 26058-2024</t>
+          <t>A 31399-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45468</v>
+        <v>45833.46824074074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5225,7 +5240,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5262,14 +5277,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 39864-2025</t>
+          <t>A 38857-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45891.60197916667</v>
+        <v>45887.55858796297</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5282,7 +5297,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5319,14 +5334,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 63783-2023</t>
+          <t>A 38897-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45278.38888888889</v>
+        <v>45887.59670138889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5354,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5376,14 +5391,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 27523-2025</t>
+          <t>A 38893-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45813</v>
+        <v>45887.58900462963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5396,7 +5411,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5433,14 +5448,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 27449-2025</t>
+          <t>A 38772-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45813.33200231481</v>
+        <v>45887.42040509259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5468,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5490,14 +5505,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 3205-2025</t>
+          <t>A 20492-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45679</v>
+        <v>45435.8712962963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5509,13 +5524,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>6.7</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5552,14 +5562,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 1397-2023</t>
+          <t>A 38879-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44936.73979166667</v>
+        <v>45887.5771875</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5572,7 +5582,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5609,14 +5619,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 6137-2024</t>
+          <t>A 22975-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45337</v>
+        <v>45072</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5629,7 +5639,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>11.7</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5666,14 +5676,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 15478-2025</t>
+          <t>A 7915-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45747.5475</v>
+        <v>45707.35076388889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5686,7 +5696,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5723,14 +5733,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 27988-2025</t>
+          <t>A 17270-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45817.58586805555</v>
+        <v>45756.5531712963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5753,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>11.8</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5780,14 +5790,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 36543-2022</t>
+          <t>A 12038-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44804.57</v>
+        <v>45728.65583333333</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5800,7 +5810,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5837,14 +5847,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 13068-2023</t>
+          <t>A 12625-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45002.38854166667</v>
+        <v>44270.4590625</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5857,7 +5867,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5894,14 +5904,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 21146-2022</t>
+          <t>A 39864-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44704</v>
+        <v>45891.60197916667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5914,7 +5924,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>7.4</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5951,14 +5961,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 5954-2025</t>
+          <t>A 32704-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45695.4777662037</v>
+        <v>45839</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5971,7 +5981,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6008,14 +6018,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 12625-2021</t>
+          <t>A 38928-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44270.4590625</v>
+        <v>45548</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6028,7 +6038,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6065,14 +6075,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 19643-2024</t>
+          <t>A 63783-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45432</v>
+        <v>45278.38888888889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6084,13 +6094,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6127,14 +6132,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 41912-2025</t>
+          <t>A 33752-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45903.40931712963</v>
+        <v>45842.36796296296</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6147,7 +6152,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6184,14 +6189,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 41887-2025</t>
+          <t>A 9359-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45903.37215277777</v>
+        <v>45715.29788194445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6204,7 +6209,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6241,14 +6246,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 41926-2025</t>
+          <t>A 11115-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45903.42753472222</v>
+        <v>45723</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6261,7 +6266,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6298,14 +6303,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 23692-2023</t>
+          <t>A 52876-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45077.60907407408</v>
+        <v>45610.6337037037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6318,7 +6323,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6355,14 +6360,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 28693-2025</t>
+          <t>A 35168-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45819.83893518519</v>
+        <v>45852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6375,7 +6380,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6412,14 +6417,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 37501-2024</t>
+          <t>A 18285-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45541.37159722222</v>
+        <v>45762</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6432,7 +6437,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6469,14 +6474,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 44880-2022</t>
+          <t>A 61602-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44841</v>
+        <v>45646.6387962963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6489,7 +6494,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6526,14 +6531,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 171-2025</t>
+          <t>A 41912-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45659.64508101852</v>
+        <v>45903.40931712963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6546,7 +6551,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6583,14 +6588,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 42725-2025</t>
+          <t>A 35490-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45908.40152777778</v>
+        <v>45855.79797453704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6603,7 +6608,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6640,14 +6645,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 42713-2025</t>
+          <t>A 35489-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45908.37888888889</v>
+        <v>45855.79260416667</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6660,7 +6665,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.1</v>
+        <v>6.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6697,14 +6702,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 42708-2025</t>
+          <t>A 41887-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45908.37359953704</v>
+        <v>45903.37215277777</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6717,7 +6722,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6754,14 +6759,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 42714-2025</t>
+          <t>A 41926-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45908.381875</v>
+        <v>45903.42753472222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6774,7 +6779,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6818,7 +6823,7 @@
         <v>45908.40429398148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6868,14 +6873,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 29642-2025</t>
+          <t>A 42177-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45825</v>
+        <v>45178.7221412037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6888,7 +6893,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6925,14 +6930,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 13797-2025</t>
+          <t>A 30638-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45737.48324074074</v>
+        <v>45112</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6945,7 +6950,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6982,14 +6987,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 9691-2023</t>
+          <t>A 42714-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44984</v>
+        <v>45908.381875</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7002,7 +7007,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7039,14 +7044,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 43992-2025</t>
+          <t>A 42725-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45915.44501157408</v>
+        <v>45908.40152777778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7059,7 +7064,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7096,14 +7101,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 43900-2025</t>
+          <t>A 35808-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45913.26221064815</v>
+        <v>45861.41337962963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7116,7 +7121,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7153,14 +7158,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 43641-2025</t>
+          <t>A 42708-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45911.87390046296</v>
+        <v>45908.37359953704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7173,7 +7178,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.5</v>
+        <v>0.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7210,14 +7215,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 43990-2025</t>
+          <t>A 42713-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45915.44359953704</v>
+        <v>45908.37888888889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7230,7 +7235,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7267,14 +7272,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 17641-2023</t>
+          <t>A 24664-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45035</v>
+        <v>45798.64627314815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7287,7 +7292,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>7.3</v>
+        <v>1.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7324,14 +7329,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 44364-2025</t>
+          <t>A 13797-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45916.45373842592</v>
+        <v>45737.48324074074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7344,7 +7349,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.6</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7381,14 +7386,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 44355-2025</t>
+          <t>A 24671-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45916.44782407407</v>
+        <v>45798.65046296296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7401,7 +7406,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7438,14 +7443,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 44386-2025</t>
+          <t>A 24674-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45916.48872685185</v>
+        <v>45798.65300925926</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7458,7 +7463,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7495,14 +7500,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 44376-2025</t>
+          <t>A 43641-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45916.47453703704</v>
+        <v>45911.87390046296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7515,7 +7520,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7552,14 +7557,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 44864-2025</t>
+          <t>A 34631-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45918</v>
+        <v>45848.26144675926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7572,7 +7577,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7609,14 +7614,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 44903-2025</t>
+          <t>A 34632-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45918.5110300926</v>
+        <v>45848.26725694445</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7629,7 +7634,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7666,14 +7671,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 44793-2025</t>
+          <t>A 34633-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45918.32309027778</v>
+        <v>45848.27251157408</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7686,7 +7691,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7723,14 +7728,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 44923-2025</t>
+          <t>A 44376-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45918.55475694445</v>
+        <v>45916.47453703704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7743,7 +7748,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7780,14 +7785,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 44897-2025</t>
+          <t>A 44386-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45918.50546296296</v>
+        <v>45916.48872685185</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7800,7 +7805,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7837,14 +7842,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 44890-2025</t>
+          <t>A 43900-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45918.49697916667</v>
+        <v>45913.26221064815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7857,7 +7862,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7894,14 +7899,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 44791-2025</t>
+          <t>A 28221-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45918.31138888889</v>
+        <v>45099</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7914,7 +7919,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.3</v>
+        <v>6.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7951,14 +7956,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 44846-2025</t>
+          <t>A 44364-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45918.43986111111</v>
+        <v>45916.45373842592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7971,7 +7976,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8008,14 +8013,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 44852-2025</t>
+          <t>A 171-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45918.44703703704</v>
+        <v>45659.64508101852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8065,14 +8070,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 45556-2025</t>
+          <t>A 44355-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45922.64444444444</v>
+        <v>45916.44782407407</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8085,7 +8090,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8122,14 +8127,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 39650-2023</t>
+          <t>A 43990-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45167.55505787037</v>
+        <v>45915.44359953704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8142,7 +8147,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8179,14 +8184,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 24154-2023</t>
+          <t>A 43992-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45079</v>
+        <v>45915.44501157408</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8236,14 +8241,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 65211-2021</t>
+          <t>A 44923-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44515.50362268519</v>
+        <v>45918.55475694445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8256,7 +8261,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8293,14 +8298,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 24765-2023</t>
+          <t>A 44903-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45084.6352662037</v>
+        <v>45918.5110300926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8313,7 +8318,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8350,14 +8355,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 12038-2025</t>
+          <t>A 44846-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45728.65583333333</v>
+        <v>45918.43986111111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8370,7 +8375,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8407,14 +8412,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 47268-2025</t>
+          <t>A 44852-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45930.45893518518</v>
+        <v>45918.44703703704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8427,7 +8432,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8464,14 +8469,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 17270-2025</t>
+          <t>A 44890-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45756.5531712963</v>
+        <v>45918.49697916667</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8484,7 +8489,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8521,14 +8526,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 32704-2025</t>
+          <t>A 44793-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45839</v>
+        <v>45918.32309027778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8541,7 +8546,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8578,14 +8583,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 48672-2025</t>
+          <t>A 44791-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45936.58152777778</v>
+        <v>45918.31138888889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8598,7 +8603,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8635,14 +8640,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 48870-2025</t>
+          <t>A 44864-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45937.44994212963</v>
+        <v>45918</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8655,7 +8660,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8692,14 +8697,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 42177-2023</t>
+          <t>A 37778-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45178.7221412037</v>
+        <v>45880</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8712,7 +8717,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8749,14 +8754,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 28221-2023</t>
+          <t>A 44897-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45099</v>
+        <v>45918.50546296296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,7 +8774,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6.7</v>
+        <v>2.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8806,14 +8811,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 11605-2023</t>
+          <t>A 45556-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44994.401875</v>
+        <v>45922.64444444444</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8826,7 +8831,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8863,14 +8868,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 23693-2023</t>
+          <t>A 45192-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45077</v>
+        <v>44844.42034722222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8888,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8920,14 +8925,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 33752-2025</t>
+          <t>A 36543-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45842.36796296296</v>
+        <v>44804.57</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8945,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8977,14 +8982,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 45192-2022</t>
+          <t>A 5941-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44844.42034722222</v>
+        <v>45695.46671296296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +9002,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9034,14 +9039,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 44925-2025</t>
+          <t>A 40190-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45918.55711805556</v>
+        <v>44820.591875</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9059,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9091,14 +9096,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 11115-2025</t>
+          <t>A 44814-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45723</v>
+        <v>44841.40362268518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9116,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9148,14 +9153,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 35168-2025</t>
+          <t>A 3205-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45852</v>
+        <v>45679</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9167,8 +9172,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>5.2</v>
+        <v>6.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9205,14 +9215,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 51654-2025</t>
+          <t>A 47268-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45951.46241898148</v>
+        <v>45930.45893518518</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9235,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9262,14 +9272,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 36280-2025</t>
+          <t>A 1397-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45867</v>
+        <v>44936.73979166667</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9292,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9319,14 +9329,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 18285-2025</t>
+          <t>A 7541-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45762</v>
+        <v>45705.57094907408</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9339,7 +9349,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.2</v>
+        <v>6.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9376,14 +9386,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 35490-2025</t>
+          <t>A 23693-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45855.79797453704</v>
+        <v>45077</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9396,7 +9406,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9433,14 +9443,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 9573-2025</t>
+          <t>A 23990-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45715.62260416667</v>
+        <v>45078</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9453,7 +9463,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9490,14 +9500,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 61602-2024</t>
+          <t>A 48672-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45646.6387962963</v>
+        <v>45936.58152777778</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9510,7 +9520,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9547,14 +9557,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 35489-2025</t>
+          <t>A 34591-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45855.79260416667</v>
+        <v>45140</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9567,7 +9577,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>6.3</v>
+        <v>1.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9604,14 +9614,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 35808-2025</t>
+          <t>A 52372-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45861.41337962963</v>
+        <v>44465</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9624,7 +9634,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9661,14 +9671,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 53017-2025</t>
+          <t>A 11126-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45957</v>
+        <v>45723</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9681,7 +9691,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9718,14 +9728,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 53019-2025</t>
+          <t>A 48870-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45957</v>
+        <v>45937.44994212963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9738,7 +9748,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9775,14 +9785,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 24671-2025</t>
+          <t>A 13611-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45798.65046296296</v>
+        <v>45736.62430555555</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9795,7 +9805,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9832,14 +9842,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 24674-2025</t>
+          <t>A 54667-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45798.65300925926</v>
+        <v>45235.62601851852</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9852,7 +9862,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9889,14 +9899,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 53142-2025</t>
+          <t>A 44925-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45958</v>
+        <v>45918.55711805556</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9909,7 +9919,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9946,14 +9956,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 24664-2025</t>
+          <t>A 57703-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45798.64627314815</v>
+        <v>44897</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9966,7 +9976,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10003,14 +10013,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 34631-2025</t>
+          <t>A 36280-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45848.26144675926</v>
+        <v>45867</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10023,7 +10033,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10060,14 +10070,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 34632-2025</t>
+          <t>A 2090-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45848.26725694445</v>
+        <v>44939</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10080,7 +10090,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10117,14 +10127,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 34633-2025</t>
+          <t>A 51654-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45848.27251157408</v>
+        <v>45951.46241898148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10137,7 +10147,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10174,14 +10184,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 22975-2023</t>
+          <t>A 25963-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10194,7 +10204,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10231,14 +10241,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 14430-2023</t>
+          <t>A 53142-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45012</v>
+        <v>45958</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10251,7 +10261,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10288,14 +10298,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 64091-2023</t>
+          <t>A 53017-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45279</v>
+        <v>45957</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10308,7 +10318,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10345,14 +10355,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 54506-2025</t>
+          <t>A 53019-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45965</v>
+        <v>45957</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10365,7 +10375,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10402,14 +10412,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 37778-2025</t>
+          <t>A 8204-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45880</v>
+        <v>44971</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10422,7 +10432,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10459,14 +10469,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 25962-2023</t>
+          <t>A 24765-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45090.77961805555</v>
+        <v>45084.6352662037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10479,7 +10489,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10516,14 +10526,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 981-2023</t>
+          <t>A 54506-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44935.35828703704</v>
+        <v>45965</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10536,7 +10546,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10573,14 +10583,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 30136-2022</t>
+          <t>A 9691-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44757.46511574074</v>
+        <v>44984</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10592,13 +10602,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10635,14 +10640,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 38214-2023</t>
+          <t>A 39650-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45161</v>
+        <v>45167.55505787037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10655,7 +10660,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10692,14 +10697,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 23739-2023</t>
+          <t>A 14912-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45077.7675</v>
+        <v>45398.59821759259</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10712,7 +10717,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10749,14 +10754,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 6796-2024</t>
+          <t>A 1935-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45342.56502314815</v>
+        <v>45308</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10769,7 +10774,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10806,14 +10811,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 56581-2025</t>
+          <t>A 72261-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45975.54347222222</v>
+        <v>44545.31795138889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10863,14 +10868,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 38879-2025</t>
+          <t>A 56264-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45887.5771875</v>
+        <v>45974.57391203703</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10920,14 +10925,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 38897-2025</t>
+          <t>A 14254-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45887.59670138889</v>
+        <v>45009.90423611111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10977,14 +10982,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 56264-2025</t>
+          <t>A 56765-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45974.57391203703</v>
+        <v>45978.38018518518</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10997,7 +11002,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11034,14 +11039,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 56455-2025</t>
+          <t>A 56581-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45975.35782407408</v>
+        <v>45975.54347222222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11054,7 +11059,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11091,14 +11096,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 29169-2021</t>
+          <t>A 37620-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44358</v>
+        <v>45159.4530787037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11111,7 +11116,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11155,7 +11160,7 @@
         <v>45975.41037037037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11205,14 +11210,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 34591-2023</t>
+          <t>A 56455-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45140</v>
+        <v>45975.35782407408</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11225,7 +11230,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11262,14 +11267,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 56765-2025</t>
+          <t>A 57343-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45978.38018518518</v>
+        <v>45980.34996527778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11282,7 +11287,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11319,14 +11324,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 40184-2022</t>
+          <t>A 57221-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44820.58752314815</v>
+        <v>45979.61408564815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11339,7 +11344,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11376,14 +11381,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 57221-2025</t>
+          <t>A 57790-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45979.61408564815</v>
+        <v>45981</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11396,7 +11401,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11440,7 +11445,7 @@
         <v>45981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11490,14 +11495,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 57343-2025</t>
+          <t>A 31704-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45980.34996527778</v>
+        <v>45117</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11510,7 +11515,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.7</v>
+        <v>6.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11547,14 +11552,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 57790-2025</t>
+          <t>A 7707-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45981</v>
+        <v>45349.35894675926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11567,7 +11572,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11604,14 +11609,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 9559-2022</t>
+          <t>A 58347-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44617.43976851852</v>
+        <v>45985.50454861111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11624,7 +11629,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11661,14 +11666,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 31925-2024</t>
+          <t>A 1225-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45510</v>
+        <v>46031.40648148148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11681,7 +11686,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.9</v>
+        <v>5.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11718,14 +11723,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 58347-2025</t>
+          <t>A 38899-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45985.50454861111</v>
+        <v>45887</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11738,7 +11743,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11775,14 +11780,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 30638-2023</t>
+          <t>A 2474-2026</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45112</v>
+        <v>46037.37762731482</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11795,7 +11800,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.9</v>
+        <v>8.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11832,14 +11837,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 2088-2023</t>
+          <t>A 2480-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44939</v>
+        <v>46037.38482638889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11852,7 +11857,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11889,14 +11894,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 1225-2026</t>
+          <t>A 2405-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46031.40648148148</v>
+        <v>45674.35796296296</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11909,7 +11914,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11953,7 +11958,7 @@
         <v>45090</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12003,14 +12008,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 52528-2021</t>
+          <t>A 25967-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44466.46428240741</v>
+        <v>45090.79582175926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12023,7 +12028,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12060,14 +12065,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 2480-2026</t>
+          <t>A 9559-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46037.38482638889</v>
+        <v>44617.43976851852</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12080,7 +12085,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12117,14 +12122,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 2474-2026</t>
+          <t>A 60789-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46037.37762731482</v>
+        <v>45999.41315972222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12137,7 +12142,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>8.6</v>
+        <v>2.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12174,14 +12179,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 36838-2024</t>
+          <t>A 48966-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45538.52853009259</v>
+        <v>45209.60576388889</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12194,7 +12199,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12231,14 +12236,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 38899-2025</t>
+          <t>A 3934-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45887</v>
+        <v>46043.80326388889</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12251,7 +12256,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12288,14 +12293,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 60789-2025</t>
+          <t>A 50304-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45999.41315972222</v>
+        <v>45209</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12308,7 +12313,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.9</v>
+        <v>17.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12345,14 +12350,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 53163-2025</t>
+          <t>A 26837-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45958</v>
+        <v>44740.4811574074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12365,7 +12370,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12402,14 +12407,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 1904-2023</t>
+          <t>A 29334-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44939</v>
+        <v>44752</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12421,8 +12426,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12459,14 +12469,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 52243-2025</t>
+          <t>A 27497-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45953</v>
+        <v>45474</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12479,7 +12489,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12516,14 +12526,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 52246-2025</t>
+          <t>A 54646-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45953</v>
+        <v>45235.40707175926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12536,7 +12546,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12573,14 +12583,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 3934-2026</t>
+          <t>A 4989-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46043.80326388889</v>
+        <v>46049.38898148148</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12593,7 +12603,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12630,14 +12640,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 8204-2023</t>
+          <t>A 21910-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44971</v>
+        <v>45443.36605324074</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12650,7 +12660,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12687,14 +12697,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 11121-2025</t>
+          <t>A 21152-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45723.6369675926</v>
+        <v>44704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12707,7 +12717,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12744,14 +12754,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 3830-2022</t>
+          <t>A 11121-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44587.35361111111</v>
+        <v>45723.6369675926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12764,7 +12774,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12801,14 +12811,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 21152-2022</t>
+          <t>A 1492-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44704</v>
+        <v>45305.84925925926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12821,7 +12831,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12858,14 +12868,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 58130-2022</t>
+          <t>A 1493-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44900</v>
+        <v>45305</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12878,7 +12888,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>23.2</v>
+        <v>1.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12915,14 +12925,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 4989-2026</t>
+          <t>A 9573-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46049.38898148148</v>
+        <v>45715.62260416667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12935,7 +12945,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12972,14 +12982,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 5002-2026</t>
+          <t>A 22410-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46049.42719907407</v>
+        <v>45446</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12992,7 +13002,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13029,14 +13039,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 53676-2025</t>
+          <t>A 55049-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45960</v>
+        <v>45237</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13049,7 +13059,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13086,14 +13096,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 2359-2023</t>
+          <t>A 10379-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44942</v>
+        <v>45365.64063657408</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13106,7 +13116,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13143,14 +13153,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 55049-2023</t>
+          <t>A 54661-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45237</v>
+        <v>45235.61505787037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13163,7 +13173,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13200,14 +13210,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 15987-2025</t>
+          <t>A 11605-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45749</v>
+        <v>44994.401875</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13220,7 +13230,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13257,14 +13267,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 57208-2022</t>
+          <t>A 37501-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44895</v>
+        <v>45541.37159722222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13277,7 +13287,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13314,14 +13324,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 2537-2026</t>
+          <t>A 7192-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46037.44983796297</v>
+        <v>46058.49831018518</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13334,7 +13344,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13371,14 +13381,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 3864-2023</t>
+          <t>A 50629-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44951.76491898148</v>
+        <v>45945</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13391,7 +13401,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13428,14 +13438,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 7192-2026</t>
+          <t>A 15987-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46058.49831018518</v>
+        <v>45749</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13448,7 +13458,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13485,14 +13495,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 25965-2023</t>
+          <t>A 7242-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45090.79171296296</v>
+        <v>46058.5840625</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13505,7 +13515,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13542,14 +13552,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 38928-2024</t>
+          <t>A 39622-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45548</v>
+        <v>45163</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13562,7 +13572,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.5</v>
+        <v>10.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13599,14 +13609,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 7242-2026</t>
+          <t>A 6796-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>46058.5840625</v>
+        <v>45342.56502314815</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13619,7 +13629,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13656,14 +13666,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 50629-2025</t>
+          <t>A 50279-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45945</v>
+        <v>45216.44960648148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13676,7 +13686,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13713,14 +13723,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 7707-2024</t>
+          <t>A 2537-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45349.35894675926</v>
+        <v>46037.44983796297</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13733,7 +13743,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13770,14 +13780,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 14254-2023</t>
+          <t>A 53676-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45009.90423611111</v>
+        <v>45960</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13790,7 +13800,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13827,14 +13837,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 47871-2022</t>
+          <t>A 5002-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44855.43434027778</v>
+        <v>46049</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13847,7 +13857,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13884,14 +13894,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 40190-2022</t>
+          <t>A 52243-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44820.591875</v>
+        <v>45953</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13904,7 +13914,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13941,14 +13951,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 20099-2025</t>
+          <t>A 53163-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45772.46916666667</v>
+        <v>45958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13961,7 +13971,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13998,14 +14008,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 10797-2025</t>
+          <t>A 52246-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45722.50984953704</v>
+        <v>45953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14018,7 +14028,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>15.1</v>
+        <v>0.8</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14055,14 +14065,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 40017-2023</t>
+          <t>A 57709-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45168</v>
+        <v>44897</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14075,7 +14085,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14112,14 +14122,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 34279-2023</t>
+          <t>A 30136-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45138</v>
+        <v>44757.46511574074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14129,6 +14139,11 @@
       <c r="E233" t="inlineStr">
         <is>
           <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G233" t="n">
@@ -14169,14 +14184,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 54661-2023</t>
+          <t>A 32855-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45235.61505787037</v>
+        <v>45124</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14189,7 +14204,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14226,14 +14241,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 54646-2023</t>
+          <t>A 3864-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45235.40707175926</v>
+        <v>44951.76491898148</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14246,7 +14261,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14283,14 +14298,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 2092-2023</t>
+          <t>A 29169-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44939</v>
+        <v>44358</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14303,7 +14318,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14340,14 +14355,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 21023-2024</t>
+          <t>A 58284-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45439.64483796297</v>
+        <v>45250.53486111111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14360,7 +14375,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14397,14 +14412,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 62180-2022</t>
+          <t>A 2086-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44915</v>
+        <v>44939</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14416,13 +14431,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14459,14 +14469,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 62181-2022</t>
+          <t>A 2359-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44915</v>
+        <v>44942</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14478,13 +14488,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14521,14 +14526,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 23990-2023</t>
+          <t>A 57161-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45078</v>
+        <v>44895.59303240741</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14578,14 +14583,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 1935-2024</t>
+          <t>A 27967-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45308</v>
+        <v>45476.37760416666</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14598,7 +14603,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14635,14 +14640,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 52372-2021</t>
+          <t>A 47890-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44465</v>
+        <v>44855</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14655,7 +14660,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14692,14 +14697,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 22406-2024</t>
+          <t>A 8752-2021</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45446</v>
+        <v>44246</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14712,7 +14717,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.7</v>
+        <v>6.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14749,14 +14754,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 26179-2023</t>
+          <t>A 5927-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45091.52637731482</v>
+        <v>44963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14769,7 +14774,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14806,14 +14811,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 27967-2024</t>
+          <t>A 31925-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45476.37760416666</v>
+        <v>45510</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14826,7 +14831,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14863,14 +14868,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 26837-2022</t>
+          <t>A 2399-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44740.4811574074</v>
+        <v>45672</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14883,7 +14888,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14920,14 +14925,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 25967-2023</t>
+          <t>A 29335-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45090.79582175926</v>
+        <v>44752</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14939,8 +14944,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14977,14 +14987,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 22410-2024</t>
+          <t>A 22699-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45446</v>
+        <v>45448.32910879629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14997,7 +15007,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15034,14 +15044,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 29334-2022</t>
+          <t>A 25965-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44752</v>
+        <v>45090.79171296296</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15053,13 +15063,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15096,14 +15101,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 5941-2025</t>
+          <t>A 19390-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45695.46671296296</v>
+        <v>45048</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15116,7 +15121,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15153,14 +15158,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 29335-2022</t>
+          <t>A 65211-2021</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44752</v>
+        <v>44515.50362268519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15172,13 +15177,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15215,14 +15215,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 42653-2024</t>
+          <t>A 63029-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45566.33113425926</v>
+        <v>45272</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15272,14 +15272,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 44882-2022</t>
+          <t>A 14430-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44841</v>
+        <v>45012</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15329,14 +15329,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 56460-2023</t>
+          <t>A 23692-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45243</v>
+        <v>45077.60907407408</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15386,14 +15386,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 1783-2025</t>
+          <t>A 23739-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45671.4491087963</v>
+        <v>45077.7675</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15443,14 +15443,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 8752-2021</t>
+          <t>A 23740-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44246</v>
+        <v>45077</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>6.8</v>
+        <v>2.1</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15500,14 +15500,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 26178-2023</t>
+          <t>A 23898-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45091.52565972223</v>
+        <v>45078.54318287037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15557,14 +15557,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 51577-2023</t>
+          <t>A 56460-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45222.45756944444</v>
+        <v>45243</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15614,14 +15614,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 63029-2023</t>
+          <t>A 5954-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45272</v>
+        <v>45695.4777662037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15671,14 +15671,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 58284-2023</t>
+          <t>A 38214-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45250.53486111111</v>
+        <v>45161</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15728,14 +15728,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 27497-2024</t>
+          <t>A 27540-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
         <v>45474</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15785,14 +15785,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 48966-2023</t>
+          <t>A 9695-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45209.60576388889</v>
+        <v>44984</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15842,14 +15842,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 2405-2025</t>
+          <t>A 25962-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45674.35796296296</v>
+        <v>45090.77961805555</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.2</v>
+        <v>7.3</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15899,14 +15899,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 27540-2024</t>
+          <t>A 981-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45474</v>
+        <v>44935.35828703704</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15956,14 +15956,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 9773-2024</t>
+          <t>A 1904-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45362</v>
+        <v>44939</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16013,14 +16013,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 57795-2022</t>
+          <t>A 51577-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44897.66587962963</v>
+        <v>45222.45756944444</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16070,14 +16070,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 50279-2023</t>
+          <t>A 3830-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45216.44960648148</v>
+        <v>44587.35361111111</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16127,14 +16127,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 33796-2023</t>
+          <t>A 40184-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45133.57142361111</v>
+        <v>44820.58752314815</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16184,14 +16184,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 2090-2023</t>
+          <t>A 17641-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44939</v>
+        <v>45035</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.6</v>
+        <v>7.3</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16241,14 +16241,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 57161-2022</t>
+          <t>A 10797-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44895.59303240741</v>
+        <v>45722.50984953704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>15.1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16298,14 +16298,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 57709-2022</t>
+          <t>A 44882-2022</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44897</v>
+        <v>44841</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16355,14 +16355,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 2086-2023</t>
+          <t>A 21867-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44939</v>
+        <v>45784.37122685185</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16412,14 +16412,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 50304-2023</t>
+          <t>A 168-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45209</v>
+        <v>45659.64137731482</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>17.9</v>
+        <v>6.9</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16469,14 +16469,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 11126-2025</t>
+          <t>A 49362-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45723</v>
+        <v>45595.62802083333</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16526,14 +16526,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 37620-2023</t>
+          <t>A 22391-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45159.4530787037</v>
+        <v>45446</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16583,14 +16583,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 9695-2023</t>
+          <t>A 27486-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44984</v>
+        <v>45474.48015046296</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16640,14 +16640,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 2399-2025</t>
+          <t>A 25958-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45672</v>
+        <v>45090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16697,14 +16697,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 22699-2024</t>
+          <t>A 60271-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45448.32910879629</v>
+        <v>45642</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16754,14 +16754,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 36572-2021</t>
+          <t>A 12631-2021</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44391.58083333333</v>
+        <v>44270</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16811,14 +16811,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 20492-2024</t>
+          <t>A 17458-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45435.8712962963</v>
+        <v>45034</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16868,14 +16868,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 49362-2024</t>
+          <t>A 23469-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45595.62802083333</v>
+        <v>45792.43915509259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16925,14 +16925,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 168-2025</t>
+          <t>A 54669-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45659.64137731482</v>
+        <v>45235.63085648148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>6.9</v>
+        <v>1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16982,14 +16982,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 21867-2025</t>
+          <t>A 11460-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45784.37122685185</v>
+        <v>45726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17039,14 +17039,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 25958-2023</t>
+          <t>A 26032-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45090</v>
+        <v>45804.69063657407</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17096,14 +17096,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 27486-2024</t>
+          <t>A 25588-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45474.48015046296</v>
+        <v>45803.49103009259</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17153,14 +17153,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 22391-2024</t>
+          <t>A 25589-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45446</v>
+        <v>45803.49381944445</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17210,14 +17210,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 60271-2024</t>
+          <t>A 26020-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45642</v>
+        <v>45804.67818287037</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17267,14 +17267,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 12631-2021</t>
+          <t>A 27449-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44270</v>
+        <v>45813.33200231481</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17324,14 +17324,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 11460-2025</t>
+          <t>A 27523-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45726</v>
+        <v>45813</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17381,14 +17381,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 17458-2023</t>
+          <t>A 27988-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45034</v>
+        <v>45817.58586805555</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.5</v>
+        <v>11.8</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17435,17 +17435,17 @@
       </c>
       <c r="R290" s="2" t="inlineStr"/>
     </row>
-    <row r="291" ht="15" customHeight="1">
+    <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 54669-2023</t>
+          <t>A 15478-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45235.63085648148</v>
+        <v>45747.5475</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17491,63 +17491,6 @@
         <v>0</v>
       </c>
       <c r="R291" s="2" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>A 23469-2025</t>
-        </is>
-      </c>
-      <c r="B292" s="1" t="n">
-        <v>45792.43915509259</v>
-      </c>
-      <c r="C292" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="G292" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" t="n">
-        <v>0</v>
-      </c>
-      <c r="K292" t="n">
-        <v>0</v>
-      </c>
-      <c r="L292" t="n">
-        <v>0</v>
-      </c>
-      <c r="M292" t="n">
-        <v>0</v>
-      </c>
-      <c r="N292" t="n">
-        <v>0</v>
-      </c>
-      <c r="O292" t="n">
-        <v>0</v>
-      </c>
-      <c r="P292" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q292" t="n">
-        <v>0</v>
-      </c>
-      <c r="R292" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z291"/>
+  <dimension ref="A1:Z292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45916</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45853.6421875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>45545.36309027778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45510</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45684.70283564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44516.32994212963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,14 +1197,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 43471-2025</t>
+          <t>A 1604-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45911</v>
+        <v>45670</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1216,8 +1216,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1251,294 +1256,289 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Igelkott</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 1604-2025 artfynd.xlsx", "A 1604-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 1604-2025 karta.png", "A 1604-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 1604-2025 FSC-klagomål.docx", "A 1604-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 1604-2025 FSC-klagomål mail.docx", "A 1604-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 1604-2025 tillsynsbegäran.docx", "A 1604-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 1604-2025 tillsynsbegäran mail.docx", "A 1604-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 43471-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45911</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Granspira</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 43471-2025 artfynd.xlsx", "A 43471-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 43471-2025 karta.png", "A 43471-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 43471-2025 FSC-klagomål.docx", "A 43471-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 43471-2025 FSC-klagomål mail.docx", "A 43471-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 43471-2025 tillsynsbegäran.docx", "A 43471-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 43471-2025 tillsynsbegäran mail.docx", "A 43471-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 15068-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45015</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Kambräken</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 15068-2023 artfynd.xlsx", "A 15068-2023")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 15068-2023 karta.png", "A 15068-2023")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 15068-2023 FSC-klagomål.docx", "A 15068-2023")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 15068-2023 FSC-klagomål mail.docx", "A 15068-2023")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 15068-2023 tillsynsbegäran.docx", "A 15068-2023")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 15068-2023 tillsynsbegäran mail.docx", "A 15068-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 57429-2025</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45980</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>2.8</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Slåttergubbe</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 57429-2025 artfynd.xlsx", "A 57429-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 57429-2025 karta.png", "A 57429-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 57429-2025 FSC-klagomål.docx", "A 57429-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 57429-2025 FSC-klagomål mail.docx", "A 57429-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 57429-2025 tillsynsbegäran.docx", "A 57429-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 57429-2025 tillsynsbegäran mail.docx", "A 57429-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 1604-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45670</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Igelkott</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 1604-2025 artfynd.xlsx", "A 1604-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 1604-2025 karta.png", "A 1604-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 1604-2025 FSC-klagomål.docx", "A 1604-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 1604-2025 FSC-klagomål mail.docx", "A 1604-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 1604-2025 tillsynsbegäran.docx", "A 1604-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 1604-2025 tillsynsbegäran mail.docx", "A 1604-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 15068-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45015</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Kambräken</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 15068-2023 artfynd.xlsx", "A 15068-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 15068-2023 karta.png", "A 15068-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 15068-2023 FSC-klagomål.docx", "A 15068-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 15068-2023 FSC-klagomål mail.docx", "A 15068-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 15068-2023 tillsynsbegäran.docx", "A 15068-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 15068-2023 tillsynsbegäran mail.docx", "A 15068-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44298</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>44788.44263888889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44820.59869212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44788.45163194444</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44676.44231481481</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44546</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44846.67469907407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44752</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44387</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44414.37533564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>44440.43105324074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>44537.84666666666</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44799</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44526.32802083333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>44813</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>44635</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,14 +2754,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 71637-2021</t>
+          <t>A 24712-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44543.32719907408</v>
+        <v>44340.5113425926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2811,14 +2811,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 24712-2021</t>
+          <t>A 71637-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44340.5113425926</v>
+        <v>44543.32719907408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>44636.62268518518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>44841.84542824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>44804.63545138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,14 +3039,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 26178-2023</t>
+          <t>A 7541-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45091.52565972223</v>
+        <v>45705.57094907408</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.7</v>
+        <v>6.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3096,14 +3096,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 26179-2023</t>
+          <t>A 48966-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45091.52637731482</v>
+        <v>45209.60576388889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3153,14 +3153,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 20099-2025</t>
+          <t>A 38772-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45772.46916666667</v>
+        <v>45887.42040509259</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3210,14 +3210,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 62180-2022</t>
+          <t>A 6020-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44915</v>
+        <v>44599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3229,13 +3229,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3272,14 +3267,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 62181-2022</t>
+          <t>A 2405-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44915</v>
+        <v>45674.35796296296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3291,13 +3286,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>6.4</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3334,14 +3324,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 9748-2024</t>
+          <t>A 27540-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45362.60480324074</v>
+        <v>45474</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3354,7 +3344,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3398,7 +3388,7 @@
         <v>45362</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3448,14 +3438,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 21023-2024</t>
+          <t>A 57795-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45439.64483796297</v>
+        <v>44897.66587962963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3468,7 +3458,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3505,14 +3495,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 24154-2023</t>
+          <t>A 50279-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45079</v>
+        <v>45216.44960648148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3525,7 +3515,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3562,14 +3552,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 27521-2021</t>
+          <t>A 38857-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44351</v>
+        <v>45887.55858796297</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3582,7 +3572,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>10.3</v>
+        <v>1.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3619,14 +3609,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 19643-2024</t>
+          <t>A 19390-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45432</v>
+        <v>45048</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3638,13 +3628,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3681,14 +3666,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 58130-2022</t>
+          <t>A 33796-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44900</v>
+        <v>45133.57142361111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3701,7 +3686,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>23.2</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3738,14 +3723,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 22406-2024</t>
+          <t>A 31399-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45446</v>
+        <v>45833.46824074074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3758,7 +3743,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3795,14 +3780,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 26058-2024</t>
+          <t>A 73830-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45468</v>
+        <v>44552.84040509259</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3815,7 +3800,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3852,14 +3837,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 47871-2022</t>
+          <t>A 7915-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44855.43434027778</v>
+        <v>45707.35076388889</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3872,7 +3857,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3909,14 +3894,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 44880-2022</t>
+          <t>A 38893-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44841</v>
+        <v>45887.58900462963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3929,7 +3914,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3966,14 +3951,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 57208-2022</t>
+          <t>A 9748-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44895</v>
+        <v>45362.60480324074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3986,7 +3971,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4023,14 +4008,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 64091-2023</t>
+          <t>A 2090-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45279</v>
+        <v>44939</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4043,7 +4028,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4080,14 +4065,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 36572-2021</t>
+          <t>A 57161-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44391.58083333333</v>
+        <v>44895.59303240741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4100,7 +4085,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4137,14 +4122,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 40814-2023</t>
+          <t>A 57709-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45171.54957175926</v>
+        <v>44897</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4157,7 +4142,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4194,14 +4179,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 40017-2023</t>
+          <t>A 44814-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45168</v>
+        <v>44841.40362268518</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4214,7 +4199,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>5.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4251,14 +4236,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 42653-2024</t>
+          <t>A 2086-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45566.33113425926</v>
+        <v>44939</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4308,14 +4293,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 33796-2023</t>
+          <t>A 50304-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45133.57142361111</v>
+        <v>45209</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4328,7 +4313,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>17.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4365,14 +4350,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 6137-2024</t>
+          <t>A 39864-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45337</v>
+        <v>45891.60197916667</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4385,7 +4370,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>11.7</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4422,14 +4407,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 2088-2023</t>
+          <t>A 11126-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44939</v>
+        <v>45723</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4442,7 +4427,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4479,14 +4464,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 2092-2023</t>
+          <t>A 37620-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44939</v>
+        <v>45159.4530787037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4499,7 +4484,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4536,14 +4521,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 52528-2021</t>
+          <t>A 9695-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44466.46428240741</v>
+        <v>44984</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4556,7 +4541,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4593,14 +4578,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 36838-2024</t>
+          <t>A 2399-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45538.52853009259</v>
+        <v>45672</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4613,7 +4598,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4650,14 +4635,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 34279-2023</t>
+          <t>A 5927-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45138</v>
+        <v>44963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4670,7 +4655,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4707,14 +4692,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 57795-2022</t>
+          <t>A 52876-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44897.66587962963</v>
+        <v>45610.6337037037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4727,7 +4712,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4764,14 +4749,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 73830-2021</t>
+          <t>A 22699-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44552.84040509259</v>
+        <v>45448.32910879629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4784,7 +4769,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4821,14 +4806,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 6020-2022</t>
+          <t>A 41912-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44599</v>
+        <v>45903.40931712963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4841,7 +4826,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4878,14 +4863,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 1783-2025</t>
+          <t>A 41887-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45671.4491087963</v>
+        <v>45903.37215277777</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4898,7 +4883,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4935,14 +4920,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 21146-2022</t>
+          <t>A 10379-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44704</v>
+        <v>45365.64063657408</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4955,7 +4940,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>7.4</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4992,14 +4977,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 28693-2025</t>
+          <t>A 23740-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45819.83893518519</v>
+        <v>45077</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5012,7 +4997,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5049,14 +5034,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 13068-2023</t>
+          <t>A 41926-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45002.38854166667</v>
+        <v>45903.42753472222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5069,7 +5054,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5106,14 +5091,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 29642-2025</t>
+          <t>A 36572-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45825</v>
+        <v>44391.58083333333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5126,7 +5111,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5163,14 +5148,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 17737-2023</t>
+          <t>A 72261-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45037.44637731482</v>
+        <v>44545.31795138889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5183,7 +5168,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5220,14 +5205,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 31399-2025</t>
+          <t>A 17737-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45833.46824074074</v>
+        <v>45037.44637731482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5240,7 +5225,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5277,14 +5262,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 38857-2025</t>
+          <t>A 20492-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45887.55858796297</v>
+        <v>45435.8712962963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5297,7 +5282,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5334,14 +5319,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 38897-2025</t>
+          <t>A 9359-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45887.59670138889</v>
+        <v>45715.29788194445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5354,7 +5339,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5391,14 +5376,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 38893-2025</t>
+          <t>A 13611-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45887.58900462963</v>
+        <v>45736.62430555555</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5411,7 +5396,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5448,14 +5433,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 38772-2025</t>
+          <t>A 42725-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45887.42040509259</v>
+        <v>45908.40152777778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5468,7 +5453,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5505,14 +5490,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 20492-2024</t>
+          <t>A 42713-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45435.8712962963</v>
+        <v>45908.37888888889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5525,7 +5510,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5562,14 +5547,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 38879-2025</t>
+          <t>A 42708-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45887.5771875</v>
+        <v>45908.37359953704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5582,7 +5567,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5619,14 +5604,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 22975-2023</t>
+          <t>A 42714-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45072</v>
+        <v>45908.381875</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5639,7 +5624,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5676,14 +5661,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 7915-2025</t>
+          <t>A 42728-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45707.35076388889</v>
+        <v>45908.40429398148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5696,7 +5681,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5733,14 +5718,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 17270-2025</t>
+          <t>A 49362-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45756.5531712963</v>
+        <v>45595.62802083333</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5753,7 +5738,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5790,14 +5775,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 12038-2025</t>
+          <t>A 39622-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45728.65583333333</v>
+        <v>45163</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5810,7 +5795,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>10.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5847,14 +5832,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 12625-2021</t>
+          <t>A 168-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44270.4590625</v>
+        <v>45659.64137731482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5867,7 +5852,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>6.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5904,14 +5889,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 39864-2025</t>
+          <t>A 47890-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45891.60197916667</v>
+        <v>44855</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5924,7 +5909,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5961,14 +5946,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 32704-2025</t>
+          <t>A 21867-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45839</v>
+        <v>45784.37122685185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5981,7 +5966,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6018,14 +6003,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 38928-2024</t>
+          <t>A 23898-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45548</v>
+        <v>45078.54318287037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6038,7 +6023,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6075,14 +6060,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 63783-2023</t>
+          <t>A 25958-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45278.38888888889</v>
+        <v>45090</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6095,7 +6080,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6132,14 +6117,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 33752-2025</t>
+          <t>A 31704-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45842.36796296296</v>
+        <v>45117</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6152,7 +6137,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.7</v>
+        <v>6.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6189,14 +6174,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 9359-2025</t>
+          <t>A 27486-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45715.29788194445</v>
+        <v>45474.48015046296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6209,7 +6194,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6246,14 +6231,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 11115-2025</t>
+          <t>A 22391-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45723</v>
+        <v>45446</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6266,7 +6251,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6303,14 +6288,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 52876-2024</t>
+          <t>A 14912-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45610.6337037037</v>
+        <v>45398.59821759259</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6308,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6360,14 +6345,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 35168-2025</t>
+          <t>A 60271-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45852</v>
+        <v>45642</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6365,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.2</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6417,14 +6402,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 18285-2025</t>
+          <t>A 13797-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45762</v>
+        <v>45737.48324074074</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6437,7 +6422,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6474,14 +6459,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 61602-2024</t>
+          <t>A 43992-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45646.6387962963</v>
+        <v>45915.44501157408</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6479,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6531,14 +6516,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 41912-2025</t>
+          <t>A 43900-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45903.40931712963</v>
+        <v>45913.26221064815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6536,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6588,14 +6573,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 35490-2025</t>
+          <t>A 12631-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45855.79797453704</v>
+        <v>44270</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6593,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6645,14 +6630,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 35489-2025</t>
+          <t>A 11460-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45855.79260416667</v>
+        <v>45726</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6650,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>6.3</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6702,14 +6687,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 41887-2025</t>
+          <t>A 43641-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45903.37215277777</v>
+        <v>45911.87390046296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6707,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6759,14 +6744,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 41926-2025</t>
+          <t>A 17458-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45903.42753472222</v>
+        <v>45034</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6779,7 +6764,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6816,14 +6801,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 42728-2025</t>
+          <t>A 54669-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45908.40429398148</v>
+        <v>45235.63085648148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6821,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6873,14 +6858,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 42177-2023</t>
+          <t>A 43990-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45178.7221412037</v>
+        <v>45915.44359953704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,14 +6915,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 30638-2023</t>
+          <t>A 44364-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45112</v>
+        <v>45916.45373842592</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6935,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.9</v>
+        <v>5.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6987,14 +6972,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 42714-2025</t>
+          <t>A 54667-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45908.381875</v>
+        <v>45235.62601851852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +6992,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7044,14 +7029,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 42725-2025</t>
+          <t>A 23469-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45908.40152777778</v>
+        <v>45792.43915509259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7049,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7101,14 +7086,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 35808-2025</t>
+          <t>A 44355-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45861.41337962963</v>
+        <v>45916.44782407407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7106,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7158,14 +7143,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 42708-2025</t>
+          <t>A 44386-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45908.37359953704</v>
+        <v>45916.48872685185</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7163,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7215,14 +7200,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 42713-2025</t>
+          <t>A 44376-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45908.37888888889</v>
+        <v>45916.47453703704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7220,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7272,14 +7257,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 24664-2025</t>
+          <t>A 25963-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45798.64627314815</v>
+        <v>45090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7277,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7329,14 +7314,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 13797-2025</t>
+          <t>A 40814-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45737.48324074074</v>
+        <v>45171.54957175926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7334,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7386,14 +7371,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 24671-2025</t>
+          <t>A 32855-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45798.65046296296</v>
+        <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7391,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7443,14 +7428,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 24674-2025</t>
+          <t>A 44864-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45798.65300925926</v>
+        <v>45918</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7448,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7500,14 +7485,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 43641-2025</t>
+          <t>A 1492-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45911.87390046296</v>
+        <v>45305.84925925926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7505,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7557,14 +7542,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 34631-2025</t>
+          <t>A 1493-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45848.26144675926</v>
+        <v>45305</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7562,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7614,14 +7599,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 34632-2025</t>
+          <t>A 44903-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45848.26725694445</v>
+        <v>45918.5110300926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7619,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7671,14 +7656,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 34633-2025</t>
+          <t>A 44793-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45848.27251157408</v>
+        <v>45918.32309027778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7676,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7728,14 +7713,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 44376-2025</t>
+          <t>A 21910-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45916.47453703704</v>
+        <v>45443.36605324074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7733,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7785,14 +7770,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 44386-2025</t>
+          <t>A 44923-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45916.48872685185</v>
+        <v>45918.55475694445</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7790,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7842,14 +7827,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 43900-2025</t>
+          <t>A 27521-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45913.26221064815</v>
+        <v>44351</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7862,7 +7847,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.1</v>
+        <v>10.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7899,14 +7884,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 28221-2023</t>
+          <t>A 57703-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45099</v>
+        <v>44897</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7904,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>6.7</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7956,14 +7941,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 44364-2025</t>
+          <t>A 44897-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45916.45373842592</v>
+        <v>45918.50546296296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7961,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>5.6</v>
+        <v>2.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8013,14 +7998,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 171-2025</t>
+          <t>A 44890-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45659.64508101852</v>
+        <v>45918.49697916667</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8018,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8070,14 +8055,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 44355-2025</t>
+          <t>A 44791-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45916.44782407407</v>
+        <v>45918.31138888889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8075,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8127,14 +8112,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 43990-2025</t>
+          <t>A 26058-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45915.44359953704</v>
+        <v>45468</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8184,14 +8169,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 43992-2025</t>
+          <t>A 44846-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45915.44501157408</v>
+        <v>45918.43986111111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8189,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8241,14 +8226,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 44923-2025</t>
+          <t>A 44852-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45918.55475694445</v>
+        <v>45918.44703703704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8261,7 +8246,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8298,14 +8283,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 44903-2025</t>
+          <t>A 25589-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45918.5110300926</v>
+        <v>45803.49381944445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8303,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8355,14 +8340,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 44846-2025</t>
+          <t>A 63783-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45918.43986111111</v>
+        <v>45278.38888888889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8360,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8412,14 +8397,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 44852-2025</t>
+          <t>A 25588-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45918.44703703704</v>
+        <v>45803.49103009259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8417,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8469,14 +8454,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 44890-2025</t>
+          <t>A 45556-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45918.49697916667</v>
+        <v>45922.64444444444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8474,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8526,14 +8511,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 44793-2025</t>
+          <t>A 3205-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45918.32309027778</v>
+        <v>45679</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8545,8 +8530,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>1.6</v>
+        <v>6.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8583,14 +8573,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 44791-2025</t>
+          <t>A 1397-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45918.31138888889</v>
+        <v>44936.73979166667</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8593,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8640,14 +8630,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 44864-2025</t>
+          <t>A 26032-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45918</v>
+        <v>45804.69063657407</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8650,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8697,14 +8687,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 37778-2025</t>
+          <t>A 6137-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45880</v>
+        <v>45337</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8707,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.4</v>
+        <v>11.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8754,14 +8744,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 44897-2025</t>
+          <t>A 26020-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45918.50546296296</v>
+        <v>45804.67818287037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8764,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8811,14 +8801,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 45556-2025</t>
+          <t>A 36543-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45922.64444444444</v>
+        <v>44804.57</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8821,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8868,14 +8858,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 45192-2022</t>
+          <t>A 13068-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44844.42034722222</v>
+        <v>45002.38854166667</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8878,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8925,14 +8915,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 36543-2022</t>
+          <t>A 5954-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44804.57</v>
+        <v>45695.4777662037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8935,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8982,14 +8972,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 5941-2025</t>
+          <t>A 12625-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45695.46671296296</v>
+        <v>44270.4590625</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9039,14 +9029,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 40190-2022</t>
+          <t>A 19643-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44820.591875</v>
+        <v>45432</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9058,8 +9048,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9096,14 +9091,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 44814-2022</t>
+          <t>A 27523-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44841.40362268518</v>
+        <v>45813</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9116,7 +9111,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5.2</v>
+        <v>0.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9153,14 +9148,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 3205-2025</t>
+          <t>A 23692-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45679</v>
+        <v>45077.60907407408</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9172,13 +9167,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>6.7</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9215,14 +9205,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 47268-2025</t>
+          <t>A 27449-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45930.45893518518</v>
+        <v>45813.33200231481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9235,7 +9225,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9272,14 +9262,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 1397-2023</t>
+          <t>A 37501-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44936.73979166667</v>
+        <v>45541.37159722222</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9329,14 +9319,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 7541-2025</t>
+          <t>A 44880-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45705.57094907408</v>
+        <v>44841</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9349,7 +9339,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>6.2</v>
+        <v>0.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9386,14 +9376,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 23693-2023</t>
+          <t>A 15478-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45077</v>
+        <v>45747.5475</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9406,7 +9396,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9443,14 +9433,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 23990-2023</t>
+          <t>A 27988-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45078</v>
+        <v>45817.58586805555</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9463,7 +9453,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>11.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9500,14 +9490,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 48672-2025</t>
+          <t>A 171-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45936.58152777778</v>
+        <v>45659.64508101852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9520,7 +9510,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9557,14 +9547,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 34591-2023</t>
+          <t>A 21146-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45140</v>
+        <v>44704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9577,7 +9567,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.4</v>
+        <v>7.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9614,14 +9604,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 52372-2021</t>
+          <t>A 9691-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44465</v>
+        <v>44984</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9634,7 +9624,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9671,14 +9661,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 11126-2025</t>
+          <t>A 28693-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45723</v>
+        <v>45819.83893518519</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9691,7 +9681,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9728,14 +9718,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 48870-2025</t>
+          <t>A 17641-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45937.44994212963</v>
+        <v>45035</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9748,7 +9738,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.7</v>
+        <v>7.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9785,14 +9775,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 13611-2025</t>
+          <t>A 29642-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45736.62430555555</v>
+        <v>45825</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9805,7 +9795,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9842,14 +9832,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 54667-2023</t>
+          <t>A 47268-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45235.62601851852</v>
+        <v>45930.45893518518</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9862,7 +9852,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9899,14 +9889,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 44925-2025</t>
+          <t>A 39650-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45918.55711805556</v>
+        <v>45167.55505787037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9919,7 +9909,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9956,14 +9946,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 57703-2022</t>
+          <t>A 24154-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44897</v>
+        <v>45079</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9966,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10013,14 +10003,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 36280-2025</t>
+          <t>A 65211-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45867</v>
+        <v>44515.50362268519</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10033,7 +10023,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.6</v>
+        <v>4.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10070,14 +10060,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 2090-2023</t>
+          <t>A 24765-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44939</v>
+        <v>45084.6352662037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10090,7 +10080,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10127,14 +10117,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 51654-2025</t>
+          <t>A 12038-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45951.46241898148</v>
+        <v>45728.65583333333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10147,7 +10137,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10184,14 +10174,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 25963-2023</t>
+          <t>A 17270-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45090</v>
+        <v>45756.5531712963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10204,7 +10194,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10241,14 +10231,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 53142-2025</t>
+          <t>A 32704-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45958</v>
+        <v>45839</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10261,7 +10251,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10298,14 +10288,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 53017-2025</t>
+          <t>A 48672-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45957</v>
+        <v>45936.58152777778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10318,7 +10308,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10355,14 +10345,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 53019-2025</t>
+          <t>A 48870-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45957</v>
+        <v>45937.44994212963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10375,7 +10365,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10412,14 +10402,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 8204-2023</t>
+          <t>A 33752-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44971</v>
+        <v>45842.36796296296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10432,7 +10422,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10469,14 +10459,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 24765-2023</t>
+          <t>A 11115-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45084.6352662037</v>
+        <v>45723</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10489,7 +10479,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10526,14 +10516,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 54506-2025</t>
+          <t>A 42177-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45965</v>
+        <v>45178.7221412037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10583,14 +10573,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 9691-2023</t>
+          <t>A 35168-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44984</v>
+        <v>45852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10603,7 +10593,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.7</v>
+        <v>5.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10640,14 +10630,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 39650-2023</t>
+          <t>A 18285-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45167.55505787037</v>
+        <v>45762</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10650,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10697,14 +10687,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 14912-2024</t>
+          <t>A 35490-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45398.59821759259</v>
+        <v>45855.79797453704</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10717,7 +10707,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10754,14 +10744,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 1935-2024</t>
+          <t>A 61602-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45308</v>
+        <v>45646.6387962963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10774,7 +10764,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10811,14 +10801,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 72261-2021</t>
+          <t>A 35489-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44545.31795138889</v>
+        <v>45855.79260416667</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10831,7 +10821,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.7</v>
+        <v>6.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10868,14 +10858,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 56264-2025</t>
+          <t>A 28221-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45974.57391203703</v>
+        <v>45099</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10888,7 +10878,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.8</v>
+        <v>6.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10925,14 +10915,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 14254-2023</t>
+          <t>A 11605-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45009.90423611111</v>
+        <v>44994.401875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10945,7 +10935,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10982,14 +10972,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 56765-2025</t>
+          <t>A 23693-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45978.38018518518</v>
+        <v>45077</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11002,7 +10992,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11039,14 +11029,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 56581-2025</t>
+          <t>A 45192-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45975.54347222222</v>
+        <v>44844.42034722222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11059,7 +11049,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11096,14 +11086,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 37620-2023</t>
+          <t>A 35808-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45159.4530787037</v>
+        <v>45861.41337962963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11116,7 +11106,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11153,14 +11143,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 56487-2025</t>
+          <t>A 9573-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45975.41037037037</v>
+        <v>45715.62260416667</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11173,7 +11163,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11210,14 +11200,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 56455-2025</t>
+          <t>A 44925-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45975.35782407408</v>
+        <v>45918.55711805556</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11230,7 +11220,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11267,14 +11257,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 57343-2025</t>
+          <t>A 24671-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45980.34996527778</v>
+        <v>45798.65046296296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11287,7 +11277,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11324,14 +11314,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 57221-2025</t>
+          <t>A 24674-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45979.61408564815</v>
+        <v>45798.65300925926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11344,7 +11334,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11381,14 +11371,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 57790-2025</t>
+          <t>A 24664-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45981</v>
+        <v>45798.64627314815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11401,7 +11391,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11438,14 +11428,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 57774-2025</t>
+          <t>A 34631-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45981</v>
+        <v>45848.26144675926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11458,7 +11448,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11495,14 +11485,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 31704-2023</t>
+          <t>A 34632-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45117</v>
+        <v>45848.26725694445</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11515,7 +11505,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>6.7</v>
+        <v>1.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11552,14 +11542,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 7707-2024</t>
+          <t>A 34633-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45349.35894675926</v>
+        <v>45848.27251157408</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11572,7 +11562,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11609,14 +11599,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 58347-2025</t>
+          <t>A 37778-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45985.50454861111</v>
+        <v>45880</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11629,7 +11619,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11666,14 +11656,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 1225-2026</t>
+          <t>A 51654-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46031.40648148148</v>
+        <v>45951.46241898148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11686,7 +11676,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11723,14 +11713,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 38899-2025</t>
+          <t>A 22975-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45887</v>
+        <v>45072</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11743,7 +11733,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11780,14 +11770,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 2474-2026</t>
+          <t>A 36280-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46037.37762731482</v>
+        <v>45867</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11800,7 +11790,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>8.6</v>
+        <v>0.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11837,14 +11827,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 2480-2026</t>
+          <t>A 14430-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46037.38482638889</v>
+        <v>45012</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11857,7 +11847,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11894,14 +11884,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 2405-2025</t>
+          <t>A 64091-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45674.35796296296</v>
+        <v>45279</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11914,7 +11904,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11951,14 +11941,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 25960-2023</t>
+          <t>A 38879-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45090</v>
+        <v>45887.5771875</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11971,7 +11961,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12008,14 +11998,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 25967-2023</t>
+          <t>A 25962-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45090.79582175926</v>
+        <v>45090.77961805555</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12028,7 +12018,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.9</v>
+        <v>7.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12065,14 +12055,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 9559-2022</t>
+          <t>A 981-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44617.43976851852</v>
+        <v>44935.35828703704</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12085,7 +12075,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12122,14 +12112,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 60789-2025</t>
+          <t>A 53017-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45999.41315972222</v>
+        <v>45957</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12142,7 +12132,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12179,14 +12169,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 48966-2023</t>
+          <t>A 53019-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45209.60576388889</v>
+        <v>45957</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12199,7 +12189,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12236,14 +12226,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 3934-2026</t>
+          <t>A 30136-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46043.80326388889</v>
+        <v>44757.46511574074</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12255,8 +12245,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12293,14 +12288,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 50304-2023</t>
+          <t>A 38897-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45209</v>
+        <v>45887.59670138889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12313,7 +12308,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>17.9</v>
+        <v>0.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12350,14 +12345,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 26837-2022</t>
+          <t>A 38214-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44740.4811574074</v>
+        <v>45161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12370,7 +12365,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12407,14 +12402,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 29334-2022</t>
+          <t>A 53142-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44752</v>
+        <v>45958</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12426,13 +12421,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12469,14 +12459,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 27497-2024</t>
+          <t>A 23739-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45474</v>
+        <v>45077.7675</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12489,7 +12479,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12526,14 +12516,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 54646-2023</t>
+          <t>A 6796-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45235.40707175926</v>
+        <v>45342.56502314815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12546,7 +12536,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>5.3</v>
+        <v>2.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12583,14 +12573,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 4989-2026</t>
+          <t>A 29169-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46049.38898148148</v>
+        <v>44358</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12603,7 +12593,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12640,14 +12630,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 21910-2024</t>
+          <t>A 34591-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45443.36605324074</v>
+        <v>45140</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12697,14 +12687,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 21152-2022</t>
+          <t>A 40184-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44704</v>
+        <v>44820.58752314815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12717,7 +12707,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12754,14 +12744,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 11121-2025</t>
+          <t>A 54506-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45723.6369675926</v>
+        <v>45965</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12774,7 +12764,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12811,14 +12801,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 1492-2024</t>
+          <t>A 9559-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45305.84925925926</v>
+        <v>44617.43976851852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12831,7 +12821,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12868,14 +12858,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 1493-2024</t>
+          <t>A 31925-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45305</v>
+        <v>45510</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12888,7 +12878,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12925,14 +12915,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 9573-2025</t>
+          <t>A 56581-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45715.62260416667</v>
+        <v>45975.54347222222</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12945,7 +12935,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12982,14 +12972,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 22410-2024</t>
+          <t>A 56264-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45446</v>
+        <v>45974.57391203703</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13002,7 +12992,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13039,14 +13029,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 55049-2023</t>
+          <t>A 56455-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45237</v>
+        <v>45975.35782407408</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13059,7 +13049,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13096,14 +13086,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 10379-2024</t>
+          <t>A 56487-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45365.64063657408</v>
+        <v>45975.41037037037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13116,7 +13106,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13153,14 +13143,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 54661-2023</t>
+          <t>A 56765-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45235.61505787037</v>
+        <v>45978.38018518518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13173,7 +13163,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13210,14 +13200,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 11605-2023</t>
+          <t>A 30638-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44994.401875</v>
+        <v>45112</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13230,7 +13220,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13267,14 +13257,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 37501-2024</t>
+          <t>A 57221-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45541.37159722222</v>
+        <v>45979.61408564815</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13287,7 +13277,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13324,14 +13314,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 7192-2026</t>
+          <t>A 2088-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46058.49831018518</v>
+        <v>44939</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13344,7 +13334,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13381,14 +13371,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 50629-2025</t>
+          <t>A 57774-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45945</v>
+        <v>45981</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13401,7 +13391,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>6.3</v>
+        <v>2.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13438,14 +13428,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 15987-2025</t>
+          <t>A 57343-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45749</v>
+        <v>45980.34996527778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13458,7 +13448,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13495,14 +13485,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 7242-2026</t>
+          <t>A 57790-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46058.5840625</v>
+        <v>45981</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13515,7 +13505,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13552,14 +13542,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 39622-2023</t>
+          <t>A 58347-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45163</v>
+        <v>45985.50454861111</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13572,7 +13562,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>10.7</v>
+        <v>3.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13609,14 +13599,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 6796-2024</t>
+          <t>A 25960-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45342.56502314815</v>
+        <v>45090</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13629,7 +13619,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13666,14 +13656,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 50279-2023</t>
+          <t>A 1225-2026</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45216.44960648148</v>
+        <v>46031.40648148148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13686,7 +13676,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13723,14 +13713,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 2537-2026</t>
+          <t>A 52528-2021</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>46037.44983796297</v>
+        <v>44466.46428240741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13743,7 +13733,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13780,14 +13770,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 53676-2025</t>
+          <t>A 36838-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45960</v>
+        <v>45538.52853009259</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13800,7 +13790,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13837,14 +13827,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 5002-2026</t>
+          <t>A 2480-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46049</v>
+        <v>46037.38482638889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13857,7 +13847,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13894,14 +13884,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 52243-2025</t>
+          <t>A 2474-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45953</v>
+        <v>46037.37762731482</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13914,7 +13904,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>4.6</v>
+        <v>8.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13951,14 +13941,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 53163-2025</t>
+          <t>A 38899-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45958</v>
+        <v>45887</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13971,7 +13961,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14008,14 +13998,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 52246-2025</t>
+          <t>A 60789-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45953</v>
+        <v>45999.41315972222</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14028,7 +14018,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14065,14 +14055,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 57709-2022</t>
+          <t>A 1904-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44897</v>
+        <v>44939</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14085,7 +14075,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14122,14 +14112,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 30136-2022</t>
+          <t>A 8204-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44757.46511574074</v>
+        <v>44971</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14141,13 +14131,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14184,14 +14169,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 32855-2023</t>
+          <t>A 3934-2026</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45124</v>
+        <v>46043.80326388889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14204,7 +14189,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14241,14 +14226,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 3864-2023</t>
+          <t>A 11121-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44951.76491898148</v>
+        <v>45723.6369675926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14261,7 +14246,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>6.2</v>
+        <v>0.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14298,14 +14283,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 29169-2021</t>
+          <t>A 3830-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44358</v>
+        <v>44587.35361111111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14318,7 +14303,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14355,14 +14340,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 58284-2023</t>
+          <t>A 21152-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45250.53486111111</v>
+        <v>44704</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14375,7 +14360,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.3</v>
+        <v>2.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14412,14 +14397,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 2086-2023</t>
+          <t>A 58130-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44939</v>
+        <v>44900</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14432,7 +14417,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.5</v>
+        <v>23.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14469,14 +14454,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 2359-2023</t>
+          <t>A 4989-2026</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44942</v>
+        <v>46049.38898148148</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14489,7 +14474,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14526,14 +14511,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 57161-2022</t>
+          <t>A 2359-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44895.59303240741</v>
+        <v>44942</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14546,7 +14531,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14583,14 +14568,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 27967-2024</t>
+          <t>A 55049-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45476.37760416666</v>
+        <v>45237</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14603,7 +14588,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14640,14 +14625,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 47890-2022</t>
+          <t>A 15987-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44855</v>
+        <v>45749</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14660,7 +14645,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14697,14 +14682,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 8752-2021</t>
+          <t>A 57208-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44246</v>
+        <v>44895</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14717,7 +14702,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>6.8</v>
+        <v>1.4</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14754,14 +14739,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 5927-2023</t>
+          <t>A 3864-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44963</v>
+        <v>44951.76491898148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14774,7 +14759,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.9</v>
+        <v>6.2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14811,14 +14796,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 31925-2024</t>
+          <t>A 25965-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45510</v>
+        <v>45090.79171296296</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14831,7 +14816,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14868,14 +14853,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 2399-2025</t>
+          <t>A 38928-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45672</v>
+        <v>45548</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14888,7 +14873,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14925,14 +14910,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 29335-2022</t>
+          <t>A 7707-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44752</v>
+        <v>45349.35894675926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14944,13 +14929,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14987,14 +14967,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 22699-2024</t>
+          <t>A 14254-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45448.32910879629</v>
+        <v>45009.90423611111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15007,7 +14987,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15044,14 +15024,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 25965-2023</t>
+          <t>A 7192-2026</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45090.79171296296</v>
+        <v>46058.49831018518</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15064,7 +15044,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15101,14 +15081,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 19390-2023</t>
+          <t>A 7242-2026</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45048</v>
+        <v>46058.5840625</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15121,7 +15101,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15158,14 +15138,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 65211-2021</t>
+          <t>A 50629-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44515.50362268519</v>
+        <v>45945</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15178,7 +15158,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>4.9</v>
+        <v>6.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15215,14 +15195,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 63029-2023</t>
+          <t>A 52243-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45272</v>
+        <v>45953</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15235,7 +15215,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15272,14 +15252,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 14430-2023</t>
+          <t>A 8024-2026</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45012</v>
+        <v>46063.55767361111</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15291,8 +15271,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15329,14 +15314,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 23692-2023</t>
+          <t>A 53163-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45077.60907407408</v>
+        <v>45958</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15349,7 +15334,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15386,14 +15371,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 23739-2023</t>
+          <t>A 5002-2026</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45077.7675</v>
+        <v>46049</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15406,7 +15391,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15443,14 +15428,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 23740-2023</t>
+          <t>A 52246-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45077</v>
+        <v>45953</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15463,7 +15448,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15500,14 +15485,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 23898-2023</t>
+          <t>A 47871-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45078.54318287037</v>
+        <v>44855.43434027778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15520,7 +15505,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15557,14 +15542,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 56460-2023</t>
+          <t>A 2537-2026</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45243</v>
+        <v>46037.44983796297</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15577,7 +15562,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>5.3</v>
+        <v>2.9</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15614,14 +15599,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 5954-2025</t>
+          <t>A 40190-2022</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45695.4777662037</v>
+        <v>44820.591875</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15634,7 +15619,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15671,14 +15656,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 38214-2023</t>
+          <t>A 53676-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45161</v>
+        <v>45960</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15691,7 +15676,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15728,14 +15713,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 27540-2024</t>
+          <t>A 20099-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45474</v>
+        <v>45772.46916666667</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15748,7 +15733,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15785,14 +15770,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 9695-2023</t>
+          <t>A 10797-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44984</v>
+        <v>45722.50984953704</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15805,7 +15790,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.7</v>
+        <v>15.1</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15842,14 +15827,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 25962-2023</t>
+          <t>A 40017-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45090.77961805555</v>
+        <v>45168</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15862,7 +15847,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>7.3</v>
+        <v>0.6</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15899,14 +15884,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 981-2023</t>
+          <t>A 34279-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44935.35828703704</v>
+        <v>45138</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15919,7 +15904,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15956,14 +15941,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 1904-2023</t>
+          <t>A 54661-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44939</v>
+        <v>45235.61505787037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15976,7 +15961,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16013,14 +15998,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 51577-2023</t>
+          <t>A 54646-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45222.45756944444</v>
+        <v>45235.40707175926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16033,7 +16018,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16070,14 +16055,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 3830-2022</t>
+          <t>A 2092-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44587.35361111111</v>
+        <v>44939</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16090,7 +16075,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16127,14 +16112,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 40184-2022</t>
+          <t>A 21023-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44820.58752314815</v>
+        <v>45439.64483796297</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16147,7 +16132,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16184,14 +16169,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 17641-2023</t>
+          <t>A 62180-2022</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45035</v>
+        <v>44915</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16203,8 +16188,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16241,14 +16231,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 10797-2025</t>
+          <t>A 62181-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45722.50984953704</v>
+        <v>44915</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16260,8 +16250,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G270" t="n">
-        <v>15.1</v>
+        <v>6.4</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16298,14 +16293,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 44882-2022</t>
+          <t>A 23990-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44841</v>
+        <v>45078</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16318,7 +16313,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16355,14 +16350,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 21867-2025</t>
+          <t>A 1935-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45784.37122685185</v>
+        <v>45308</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16375,7 +16370,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16412,14 +16407,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 168-2025</t>
+          <t>A 52372-2021</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45659.64137731482</v>
+        <v>44465</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16432,7 +16427,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>6.9</v>
+        <v>0.4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16469,14 +16464,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 49362-2024</t>
+          <t>A 22406-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45595.62802083333</v>
+        <v>45446</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16489,7 +16484,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16526,14 +16521,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 22391-2024</t>
+          <t>A 26179-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45446</v>
+        <v>45091.52637731482</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16546,7 +16541,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16583,14 +16578,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 27486-2024</t>
+          <t>A 27967-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45474.48015046296</v>
+        <v>45476.37760416666</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16603,7 +16598,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16640,14 +16635,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 25958-2023</t>
+          <t>A 26837-2022</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45090</v>
+        <v>44740.4811574074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16660,7 +16655,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16697,14 +16692,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 60271-2024</t>
+          <t>A 25967-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45642</v>
+        <v>45090.79582175926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16717,7 +16712,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.8</v>
+        <v>4.9</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16754,14 +16749,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 12631-2021</t>
+          <t>A 22410-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44270</v>
+        <v>45446</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16774,7 +16769,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16811,14 +16806,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 17458-2023</t>
+          <t>A 29334-2022</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45034</v>
+        <v>44752</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16830,8 +16825,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G280" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16868,14 +16868,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 23469-2025</t>
+          <t>A 5941-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45792.43915509259</v>
+        <v>45695.46671296296</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16925,14 +16925,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 54669-2023</t>
+          <t>A 29335-2022</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45235.63085648148</v>
+        <v>44752</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16944,8 +16944,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16982,14 +16987,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 11460-2025</t>
+          <t>A 42653-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45726</v>
+        <v>45566.33113425926</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17002,7 +17007,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17039,14 +17044,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 26032-2025</t>
+          <t>A 44882-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45804.69063657407</v>
+        <v>44841</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17096,14 +17101,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 25588-2025</t>
+          <t>A 56460-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45803.49103009259</v>
+        <v>45243</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17116,7 +17121,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17153,14 +17158,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 25589-2025</t>
+          <t>A 1783-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45803.49381944445</v>
+        <v>45671.4491087963</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17173,7 +17178,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17210,14 +17215,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 26020-2025</t>
+          <t>A 8752-2021</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45804.67818287037</v>
+        <v>44246</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17230,7 +17235,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.6</v>
+        <v>6.8</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17267,14 +17272,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 27449-2025</t>
+          <t>A 26178-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45813.33200231481</v>
+        <v>45091.52565972223</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17287,7 +17292,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17324,14 +17329,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 27523-2025</t>
+          <t>A 51577-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45813</v>
+        <v>45222.45756944444</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17344,7 +17349,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17381,14 +17386,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 27988-2025</t>
+          <t>A 63029-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45817.58586805555</v>
+        <v>45272</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17401,7 +17406,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>11.8</v>
+        <v>2</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17435,17 +17440,17 @@
       </c>
       <c r="R290" s="2" t="inlineStr"/>
     </row>
-    <row r="291">
+    <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 15478-2025</t>
+          <t>A 58284-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45747.5475</v>
+        <v>45250.53486111111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17458,7 +17463,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17491,6 +17496,63 @@
         <v>0</v>
       </c>
       <c r="R291" s="2" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>A 27497-2024</t>
+        </is>
+      </c>
+      <c r="B292" s="1" t="n">
+        <v>45474</v>
+      </c>
+      <c r="C292" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G292" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N292" t="n">
+        <v>0</v>
+      </c>
+      <c r="O292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>0</v>
+      </c>
+      <c r="R292" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45916</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,14 +757,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 35245-2025</t>
+          <t>A 31926-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45853.6421875</v>
+        <v>45510</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -777,16 +777,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>8.699999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -810,219 +810,219 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Havstulpanlav
+Klippfrullania
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 31926-2024 artfynd.xlsx", "A 31926-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 31926-2024 karta.png", "A 31926-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 31926-2024 FSC-klagomål.docx", "A 31926-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 31926-2024 FSC-klagomål mail.docx", "A 31926-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 31926-2024 tillsynsbegäran.docx", "A 31926-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 31926-2024 tillsynsbegäran mail.docx", "A 31926-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 38101-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45545.36309027778</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Skrattmås
+Vedflikmossa
+Ärtsångare</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 38101-2024 artfynd.xlsx", "A 38101-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 38101-2024 karta.png", "A 38101-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 38101-2024 FSC-klagomål.docx", "A 38101-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 38101-2024 FSC-klagomål mail.docx", "A 38101-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 38101-2024 tillsynsbegäran.docx", "A 38101-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 38101-2024 tillsynsbegäran mail.docx", "A 38101-2024")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/fåglar/A 38101-2024 prioriterade fågelarter.docx", "A 38101-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 35245-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45853.6421875</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Entita
 Talltita
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 35245-2025 artfynd.xlsx", "A 35245-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 35245-2025 karta.png", "A 35245-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 35245-2025 FSC-klagomål.docx", "A 35245-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 35245-2025 FSC-klagomål mail.docx", "A 35245-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 35245-2025 tillsynsbegäran.docx", "A 35245-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 35245-2025 tillsynsbegäran mail.docx", "A 35245-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/fåglar/A 35245-2025 prioriterade fågelarter.docx", "A 35245-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 38101-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45545.36309027778</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Skrattmås
-Vedflikmossa
-Ärtsångare</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 38101-2024 artfynd.xlsx", "A 38101-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 38101-2024 karta.png", "A 38101-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 38101-2024 FSC-klagomål.docx", "A 38101-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 38101-2024 FSC-klagomål mail.docx", "A 38101-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 38101-2024 tillsynsbegäran.docx", "A 38101-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 38101-2024 tillsynsbegäran mail.docx", "A 38101-2024")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/fåglar/A 38101-2024 prioriterade fågelarter.docx", "A 38101-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 31926-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45510</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Havstulpanlav
-Klippfrullania
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 31926-2024 artfynd.xlsx", "A 31926-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 31926-2024 karta.png", "A 31926-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 31926-2024 FSC-klagomål.docx", "A 31926-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 31926-2024 FSC-klagomål mail.docx", "A 31926-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 31926-2024 tillsynsbegäran.docx", "A 31926-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 31926-2024 tillsynsbegäran mail.docx", "A 31926-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45684.70283564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44516.32994212963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45670</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1287,14 +1287,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 43471-2025</t>
+          <t>A 15068-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45911</v>
+        <v>45015</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1307,16 +1307,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>9.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1341,119 +1341,119 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Kambräken</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 15068-2023 artfynd.xlsx", "A 15068-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 15068-2023 karta.png", "A 15068-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 15068-2023 FSC-klagomål.docx", "A 15068-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 15068-2023 FSC-klagomål mail.docx", "A 15068-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 15068-2023 tillsynsbegäran.docx", "A 15068-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 15068-2023 tillsynsbegäran mail.docx", "A 15068-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 43471-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45911</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Granspira</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 43471-2025 artfynd.xlsx", "A 43471-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 43471-2025 karta.png", "A 43471-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 43471-2025 FSC-klagomål.docx", "A 43471-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 43471-2025 FSC-klagomål mail.docx", "A 43471-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 43471-2025 tillsynsbegäran.docx", "A 43471-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 43471-2025 tillsynsbegäran mail.docx", "A 43471-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 15068-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45015</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Kambräken</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 15068-2023 artfynd.xlsx", "A 15068-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 15068-2023 karta.png", "A 15068-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 15068-2023 FSC-klagomål.docx", "A 15068-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 15068-2023 FSC-klagomål mail.docx", "A 15068-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 15068-2023 tillsynsbegäran.docx", "A 15068-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 15068-2023 tillsynsbegäran mail.docx", "A 15068-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44298</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>44788.44263888889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44820.59869212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44788.45163194444</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44676.44231481481</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44546</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44846.67469907407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44752</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,14 +2174,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 35910-2021</t>
+          <t>A 68082-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44387</v>
+        <v>44526.32802083333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>6.7</v>
+        <v>19.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2231,14 +2231,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 39365-2021</t>
+          <t>A 35910-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44414.37533564815</v>
+        <v>44387</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.9</v>
+        <v>6.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2288,14 +2288,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 8111-2022</t>
+          <t>A 38556-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44607</v>
+        <v>44813</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2307,13 +2307,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2350,14 +2345,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 45443-2021</t>
+          <t>A 35533-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44440.43105324074</v>
+        <v>44799</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2369,8 +2364,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2407,14 +2407,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 70802-2021</t>
+          <t>A 39365-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44537.84666666666</v>
+        <v>44414.37533564815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2464,14 +2464,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 39772-2021</t>
+          <t>A 8111-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44416</v>
+        <v>44607</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2483,8 +2483,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2521,14 +2526,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 35533-2022</t>
+          <t>A 45443-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44799</v>
+        <v>44440.43105324074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2540,13 +2545,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2583,14 +2583,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 68082-2021</t>
+          <t>A 71637-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44526.32802083333</v>
+        <v>44543.32719907408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>19.7</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2640,14 +2640,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 38556-2022</t>
+          <t>A 24712-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44813</v>
+        <v>44340.5113425926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2697,14 +2697,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 11970-2022</t>
+          <t>A 70802-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44635</v>
+        <v>44537.84666666666</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2754,14 +2754,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 24712-2021</t>
+          <t>A 12139-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44340.5113425926</v>
+        <v>44636.62268518518</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2811,14 +2811,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 71637-2021</t>
+          <t>A 11970-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44543.32719907408</v>
+        <v>44635</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2868,14 +2868,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12139-2022</t>
+          <t>A 39772-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44636.62268518518</v>
+        <v>44416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2925,14 +2925,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 45063-2022</t>
+          <t>A 26058-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44841.84542824074</v>
+        <v>45468</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2982,14 +2982,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 36595-2022</t>
+          <t>A 47871-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44804.63545138889</v>
+        <v>44855.43434027778</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3039,14 +3039,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 7541-2025</t>
+          <t>A 44880-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45705.57094907408</v>
+        <v>44841</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6.2</v>
+        <v>0.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3096,14 +3096,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 48966-2023</t>
+          <t>A 57208-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45209.60576388889</v>
+        <v>44895</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3153,14 +3153,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 38772-2025</t>
+          <t>A 36572-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45887.42040509259</v>
+        <v>44391.58083333333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.3</v>
+        <v>0.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3210,14 +3210,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 6020-2022</t>
+          <t>A 45063-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44599</v>
+        <v>44841.84542824074</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3267,14 +3267,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 2405-2025</t>
+          <t>A 36595-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45674.35796296296</v>
+        <v>44804.63545138889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3324,14 +3324,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 27540-2024</t>
+          <t>A 64091-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45474</v>
+        <v>45279</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3381,14 +3381,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 9773-2024</t>
+          <t>A 26178-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45362</v>
+        <v>45091.52565972223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3438,14 +3438,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 57795-2022</t>
+          <t>A 26179-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44897.66587962963</v>
+        <v>45091.52637731482</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3495,14 +3495,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 50279-2023</t>
+          <t>A 57703-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45216.44960648148</v>
+        <v>44897</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3552,14 +3552,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 38857-2025</t>
+          <t>A 40814-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45887.55858796297</v>
+        <v>45171.54957175926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3609,14 +3609,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 19390-2023</t>
+          <t>A 40017-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45048</v>
+        <v>45168</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3666,14 +3666,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 33796-2023</t>
+          <t>A 20099-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45133.57142361111</v>
+        <v>45772.46916666667</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3723,14 +3723,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 31399-2025</t>
+          <t>A 9773-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45833.46824074074</v>
+        <v>45362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3780,14 +3780,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 73830-2021</t>
+          <t>A 2090-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44552.84040509259</v>
+        <v>44939</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3837,14 +3837,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 7915-2025</t>
+          <t>A 42653-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45707.35076388889</v>
+        <v>45566.33113425926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3894,14 +3894,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 38893-2025</t>
+          <t>A 33796-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45887.58900462963</v>
+        <v>45133.57142361111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3951,14 +3951,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 9748-2024</t>
+          <t>A 6137-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45362.60480324074</v>
+        <v>45337</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.2</v>
+        <v>11.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4008,14 +4008,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 2090-2023</t>
+          <t>A 2088-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
         <v>44939</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4065,14 +4065,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 57161-2022</t>
+          <t>A 2092-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44895.59303240741</v>
+        <v>44939</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4122,14 +4122,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 57709-2022</t>
+          <t>A 62180-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44897</v>
+        <v>44915</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4141,8 +4141,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4179,14 +4184,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 44814-2022</t>
+          <t>A 62181-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44841.40362268518</v>
+        <v>44915</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4198,8 +4203,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4236,14 +4246,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 2086-2023</t>
+          <t>A 52528-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44939</v>
+        <v>44466.46428240741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4256,7 +4266,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4293,14 +4303,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 50304-2023</t>
+          <t>A 25963-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45209</v>
+        <v>45090</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4313,7 +4323,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>17.9</v>
+        <v>4.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4350,14 +4360,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 39864-2025</t>
+          <t>A 9748-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45891.60197916667</v>
+        <v>45362.60480324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4370,7 +4380,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4407,14 +4417,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 11126-2025</t>
+          <t>A 8204-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45723</v>
+        <v>44971</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4427,7 +4437,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4464,14 +4474,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 37620-2023</t>
+          <t>A 24765-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45159.4530787037</v>
+        <v>45084.6352662037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4484,7 +4494,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4521,14 +4531,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 9695-2023</t>
+          <t>A 36838-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44984</v>
+        <v>45538.52853009259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4541,7 +4551,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4578,14 +4588,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 2399-2025</t>
+          <t>A 34279-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45672</v>
+        <v>45138</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4598,7 +4608,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4635,14 +4645,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 5927-2023</t>
+          <t>A 24154-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44963</v>
+        <v>45079</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4655,7 +4665,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4692,14 +4702,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 52876-2024</t>
+          <t>A 21023-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45610.6337037037</v>
+        <v>45439.64483796297</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4712,7 +4722,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4749,14 +4759,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 22699-2024</t>
+          <t>A 57795-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45448.32910879629</v>
+        <v>44897.66587962963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4769,7 +4779,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4806,14 +4816,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 41912-2025</t>
+          <t>A 1783-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45903.40931712963</v>
+        <v>45671.4491087963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4826,7 +4836,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4863,14 +4873,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 41887-2025</t>
+          <t>A 73830-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45903.37215277777</v>
+        <v>44552.84040509259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4883,7 +4893,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4920,14 +4930,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 10379-2024</t>
+          <t>A 6020-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45365.64063657408</v>
+        <v>44599</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4940,7 +4950,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4977,14 +4987,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 23740-2023</t>
+          <t>A 9691-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45077</v>
+        <v>44984</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4997,7 +5007,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5034,14 +5044,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 41926-2025</t>
+          <t>A 39650-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45903.42753472222</v>
+        <v>45167.55505787037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5054,7 +5064,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5091,14 +5101,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 36572-2021</t>
+          <t>A 58130-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44391.58083333333</v>
+        <v>44900</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5111,7 +5121,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.4</v>
+        <v>23.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5148,14 +5158,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 72261-2021</t>
+          <t>A 27521-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44545.31795138889</v>
+        <v>44351</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5168,7 +5178,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>10.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5205,14 +5215,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 17737-2023</t>
+          <t>A 19643-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45037.44637731482</v>
+        <v>45432</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5224,8 +5234,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5262,14 +5277,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 20492-2024</t>
+          <t>A 22406-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45435.8712962963</v>
+        <v>45446</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5282,7 +5297,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5319,14 +5334,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 9359-2025</t>
+          <t>A 14912-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45715.29788194445</v>
+        <v>45398.59821759259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5354,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5376,14 +5391,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 13611-2025</t>
+          <t>A 26020-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45736.62430555555</v>
+        <v>45804.67818287037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5396,7 +5411,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5433,14 +5448,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 42725-2025</t>
+          <t>A 13068-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45908.40152777778</v>
+        <v>45002.38854166667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5468,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5490,14 +5505,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 42713-2025</t>
+          <t>A 1935-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45908.37888888889</v>
+        <v>45308</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5510,7 +5525,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5547,14 +5562,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 42708-2025</t>
+          <t>A 72261-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45908.37359953704</v>
+        <v>44545.31795138889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5567,7 +5582,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5604,14 +5619,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 42714-2025</t>
+          <t>A 58284-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45908.381875</v>
+        <v>45250.53486111111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5624,7 +5639,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5661,14 +5676,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 42728-2025</t>
+          <t>A 14254-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45908.40429398148</v>
+        <v>45009.90423611111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5696,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5718,14 +5733,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 49362-2024</t>
+          <t>A 17737-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45595.62802083333</v>
+        <v>45037.44637731482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5738,7 +5753,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5775,14 +5790,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 39622-2023</t>
+          <t>A 37620-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45163</v>
+        <v>45159.4530787037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5795,7 +5810,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>10.7</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5832,14 +5847,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 168-2025</t>
+          <t>A 2086-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45659.64137731482</v>
+        <v>44939</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5852,7 +5867,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6.9</v>
+        <v>2.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5889,14 +5904,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 47890-2022</t>
+          <t>A 27449-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44855</v>
+        <v>45813.33200231481</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5909,7 +5924,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5946,14 +5961,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 21867-2025</t>
+          <t>A 27523-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45784.37122685185</v>
+        <v>45813</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5966,7 +5981,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6003,14 +6018,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 23898-2023</t>
+          <t>A 20492-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45078.54318287037</v>
+        <v>45435.8712962963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6023,7 +6038,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6060,14 +6075,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 25958-2023</t>
+          <t>A 22975-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45090</v>
+        <v>45072</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6080,7 +6095,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6117,14 +6132,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 31704-2023</t>
+          <t>A 27988-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45117</v>
+        <v>45817.58586805555</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6137,7 +6152,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6.7</v>
+        <v>11.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6174,14 +6189,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 27486-2024</t>
+          <t>A 15478-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45474.48015046296</v>
+        <v>45747.5475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6194,7 +6209,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6231,14 +6246,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 22391-2024</t>
+          <t>A 21146-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45446</v>
+        <v>44704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6251,7 +6266,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.3</v>
+        <v>7.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6288,14 +6303,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 14912-2024</t>
+          <t>A 31704-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45398.59821759259</v>
+        <v>45117</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6308,7 +6323,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>6.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6345,14 +6360,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 60271-2024</t>
+          <t>A 7707-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45642</v>
+        <v>45349.35894675926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6365,7 +6380,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6402,14 +6417,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 13797-2025</t>
+          <t>A 28693-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45737.48324074074</v>
+        <v>45819.83893518519</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6422,7 +6437,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6459,14 +6474,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 43992-2025</t>
+          <t>A 12625-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45915.44501157408</v>
+        <v>44270.4590625</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6479,7 +6494,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6516,14 +6531,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 43900-2025</t>
+          <t>A 38928-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45913.26221064815</v>
+        <v>45548</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6536,7 +6551,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6573,14 +6588,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 12631-2021</t>
+          <t>A 63783-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44270</v>
+        <v>45278.38888888889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6593,7 +6608,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6630,14 +6645,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 11460-2025</t>
+          <t>A 9359-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45726</v>
+        <v>45715.29788194445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6650,7 +6665,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6687,14 +6702,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 43641-2025</t>
+          <t>A 29642-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45911.87390046296</v>
+        <v>45825</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6707,7 +6722,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5.5</v>
+        <v>1.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6744,14 +6759,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 17458-2023</t>
+          <t>A 2359-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45034</v>
+        <v>44942</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6801,14 +6816,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 54669-2023</t>
+          <t>A 52876-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45235.63085648148</v>
+        <v>45610.6337037037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6821,7 +6836,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6858,14 +6873,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 43990-2025</t>
+          <t>A 57161-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45915.44359953704</v>
+        <v>44895.59303240741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6878,7 +6893,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6915,14 +6930,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 44364-2025</t>
+          <t>A 27967-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45916.45373842592</v>
+        <v>45476.37760416666</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6935,7 +6950,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.6</v>
+        <v>0.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6972,14 +6987,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 54667-2023</t>
+          <t>A 47890-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45235.62601851852</v>
+        <v>44855</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6992,7 +7007,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7029,14 +7044,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 23469-2025</t>
+          <t>A 42177-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45792.43915509259</v>
+        <v>45178.7221412037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7086,14 +7101,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 44355-2025</t>
+          <t>A 30638-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45916.44782407407</v>
+        <v>45112</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7106,7 +7121,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7143,14 +7158,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 44386-2025</t>
+          <t>A 17270-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45916.48872685185</v>
+        <v>45756.5531712963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7163,7 +7178,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7200,14 +7215,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 44376-2025</t>
+          <t>A 8752-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45916.47453703704</v>
+        <v>44246</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7220,7 +7235,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7257,14 +7272,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 25963-2023</t>
+          <t>A 12038-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45090</v>
+        <v>45728.65583333333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7277,7 +7292,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7314,14 +7329,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 40814-2023</t>
+          <t>A 5927-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45171.54957175926</v>
+        <v>44963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7334,7 +7349,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7371,14 +7386,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 32855-2023</t>
+          <t>A 31925-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45124</v>
+        <v>45510</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7391,7 +7406,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7428,14 +7443,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 44864-2025</t>
+          <t>A 2405-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45918</v>
+        <v>45674.35796296296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7448,7 +7463,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7485,14 +7500,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 1492-2024</t>
+          <t>A 32704-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45305.84925925926</v>
+        <v>45839</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7505,7 +7520,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7542,14 +7557,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 1493-2024</t>
+          <t>A 25960-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45305</v>
+        <v>45090</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7562,7 +7577,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7599,14 +7614,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 44903-2025</t>
+          <t>A 25967-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45918.5110300926</v>
+        <v>45090.79582175926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7619,7 +7634,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.6</v>
+        <v>4.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7656,14 +7671,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 44793-2025</t>
+          <t>A 2399-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45918.32309027778</v>
+        <v>45672</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7676,7 +7691,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7713,14 +7728,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 21910-2024</t>
+          <t>A 29335-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45443.36605324074</v>
+        <v>44752</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7732,8 +7747,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7770,14 +7790,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 44923-2025</t>
+          <t>A 22699-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45918.55475694445</v>
+        <v>45448.32910879629</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7790,7 +7810,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7827,14 +7847,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 27521-2021</t>
+          <t>A 25965-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44351</v>
+        <v>45090.79171296296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7847,7 +7867,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>10.3</v>
+        <v>2.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7884,14 +7904,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 57703-2022</t>
+          <t>A 9559-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44897</v>
+        <v>44617.43976851852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7904,7 +7924,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7941,14 +7961,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 44897-2025</t>
+          <t>A 19390-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45918.50546296296</v>
+        <v>45048</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7961,7 +7981,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7998,14 +8018,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 44890-2025</t>
+          <t>A 65211-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45918.49697916667</v>
+        <v>44515.50362268519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8018,7 +8038,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8055,14 +8075,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 44791-2025</t>
+          <t>A 33752-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45918.31138888889</v>
+        <v>45842.36796296296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8075,7 +8095,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8112,14 +8132,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 26058-2024</t>
+          <t>A 11115-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45468</v>
+        <v>45723</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8132,7 +8152,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8169,14 +8189,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 44846-2025</t>
+          <t>A 48966-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45918.43986111111</v>
+        <v>45209.60576388889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8189,7 +8209,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8226,14 +8246,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 44852-2025</t>
+          <t>A 50304-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45918.44703703704</v>
+        <v>45209</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8246,7 +8266,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.1</v>
+        <v>17.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8283,14 +8303,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 25589-2025</t>
+          <t>A 63029-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45803.49381944445</v>
+        <v>45272</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8303,7 +8323,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8340,14 +8360,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 63783-2023</t>
+          <t>A 28221-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45278.38888888889</v>
+        <v>45099</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8360,7 +8380,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.8</v>
+        <v>6.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8397,14 +8417,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 25588-2025</t>
+          <t>A 35168-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45803.49103009259</v>
+        <v>45852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8417,7 +8437,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8454,14 +8474,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 45556-2025</t>
+          <t>A 171-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45922.64444444444</v>
+        <v>45659.64508101852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8474,7 +8494,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8511,14 +8531,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 3205-2025</t>
+          <t>A 18285-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45679</v>
+        <v>45762</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8530,13 +8550,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>6.7</v>
+        <v>1.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8573,14 +8588,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 1397-2023</t>
+          <t>A 61602-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44936.73979166667</v>
+        <v>45646.6387962963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8593,7 +8608,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8630,14 +8645,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 26032-2025</t>
+          <t>A 35490-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45804.69063657407</v>
+        <v>45855.79797453704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8650,7 +8665,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8687,14 +8702,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 6137-2024</t>
+          <t>A 35489-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45337</v>
+        <v>45855.79260416667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8707,7 +8722,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>11.7</v>
+        <v>6.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8744,14 +8759,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 26020-2025</t>
+          <t>A 26837-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45804.67818287037</v>
+        <v>44740.4811574074</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8764,7 +8779,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8801,14 +8816,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 36543-2022</t>
+          <t>A 29334-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44804.57</v>
+        <v>44752</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8820,8 +8835,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8858,14 +8878,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 13068-2023</t>
+          <t>A 35808-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45002.38854166667</v>
+        <v>45861.41337962963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8878,7 +8898,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8915,14 +8935,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 5954-2025</t>
+          <t>A 45192-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45695.4777662037</v>
+        <v>44844.42034722222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8935,7 +8955,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8972,14 +8992,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 12625-2021</t>
+          <t>A 27497-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44270.4590625</v>
+        <v>45474</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8992,7 +9012,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9029,14 +9049,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 19643-2024</t>
+          <t>A 24664-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45432</v>
+        <v>45798.64627314815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9048,13 +9068,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9091,14 +9106,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 27523-2025</t>
+          <t>A 54646-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45813</v>
+        <v>45235.40707175926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9126,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9148,14 +9163,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 23692-2023</t>
+          <t>A 36543-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45077.60907407408</v>
+        <v>44804.57</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9183,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9205,14 +9220,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 27449-2025</t>
+          <t>A 24671-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45813.33200231481</v>
+        <v>45798.65046296296</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9262,14 +9277,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 37501-2024</t>
+          <t>A 24674-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45541.37159722222</v>
+        <v>45798.65300925926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9297,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9319,14 +9334,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 44880-2022</t>
+          <t>A 34631-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44841</v>
+        <v>45848.26144675926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9339,7 +9354,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9376,14 +9391,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 15478-2025</t>
+          <t>A 34632-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45747.5475</v>
+        <v>45848.26725694445</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9396,7 +9411,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9433,14 +9448,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 27988-2025</t>
+          <t>A 34633-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45817.58586805555</v>
+        <v>45848.27251157408</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9453,7 +9468,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>11.8</v>
+        <v>0.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9490,14 +9505,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 171-2025</t>
+          <t>A 5941-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45659.64508101852</v>
+        <v>45695.46671296296</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9510,7 +9525,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9547,14 +9562,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 21146-2022</t>
+          <t>A 40190-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44704</v>
+        <v>44820.591875</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9567,7 +9582,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>7.4</v>
+        <v>1.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9604,14 +9619,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 9691-2023</t>
+          <t>A 14430-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44984</v>
+        <v>45012</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9624,7 +9639,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9661,14 +9676,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 28693-2025</t>
+          <t>A 44814-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45819.83893518519</v>
+        <v>44841.40362268518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9681,7 +9696,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9718,14 +9733,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 17641-2023</t>
+          <t>A 3205-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45035</v>
+        <v>45679</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9737,8 +9752,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9775,14 +9795,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 29642-2025</t>
+          <t>A 21910-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45825</v>
+        <v>45443.36605324074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9795,7 +9815,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9832,14 +9852,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 47268-2025</t>
+          <t>A 37778-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45930.45893518518</v>
+        <v>45880</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9852,7 +9872,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9889,14 +9909,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 39650-2023</t>
+          <t>A 21152-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45167.55505787037</v>
+        <v>44704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9909,7 +9929,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9946,14 +9966,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 24154-2023</t>
+          <t>A 23692-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45079</v>
+        <v>45077.60907407408</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9966,7 +9986,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10003,14 +10023,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 65211-2021</t>
+          <t>A 23739-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44515.50362268519</v>
+        <v>45077.7675</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10023,7 +10043,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10060,14 +10080,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 24765-2023</t>
+          <t>A 23740-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45084.6352662037</v>
+        <v>45077</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10080,7 +10100,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10117,14 +10137,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 12038-2025</t>
+          <t>A 1397-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45728.65583333333</v>
+        <v>44936.73979166667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10137,7 +10157,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10174,14 +10194,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 17270-2025</t>
+          <t>A 11121-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45756.5531712963</v>
+        <v>45723.6369675926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10194,7 +10214,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10231,14 +10251,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 32704-2025</t>
+          <t>A 1492-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45839</v>
+        <v>45305.84925925926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10251,7 +10271,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10288,14 +10308,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 48672-2025</t>
+          <t>A 1493-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45936.58152777778</v>
+        <v>45305</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10308,7 +10328,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10345,14 +10365,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 48870-2025</t>
+          <t>A 9573-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45937.44994212963</v>
+        <v>45715.62260416667</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10365,7 +10385,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10402,14 +10422,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 33752-2025</t>
+          <t>A 22410-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45842.36796296296</v>
+        <v>45446</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10422,7 +10442,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10459,14 +10479,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 11115-2025</t>
+          <t>A 55049-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45723</v>
+        <v>45237</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10479,7 +10499,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10516,14 +10536,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 42177-2023</t>
+          <t>A 7541-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45178.7221412037</v>
+        <v>45705.57094907408</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10536,7 +10556,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.5</v>
+        <v>6.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10573,14 +10593,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 35168-2025</t>
+          <t>A 10379-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45852</v>
+        <v>45365.64063657408</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10593,7 +10613,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>5.2</v>
+        <v>0.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10630,14 +10650,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 18285-2025</t>
+          <t>A 54661-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45762</v>
+        <v>45235.61505787037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10650,7 +10670,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10687,14 +10707,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 35490-2025</t>
+          <t>A 23693-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45855.79797453704</v>
+        <v>45077</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10707,7 +10727,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10744,14 +10764,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 61602-2024</t>
+          <t>A 11605-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45646.6387962963</v>
+        <v>44994.401875</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10764,7 +10784,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10801,14 +10821,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 35489-2025</t>
+          <t>A 23990-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45855.79260416667</v>
+        <v>45078</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10821,7 +10841,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>6.3</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10858,14 +10878,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 28221-2023</t>
+          <t>A 34591-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45099</v>
+        <v>45140</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10878,7 +10898,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>6.7</v>
+        <v>1.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10915,14 +10935,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 11605-2023</t>
+          <t>A 37501-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44994.401875</v>
+        <v>45541.37159722222</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10935,7 +10955,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10972,14 +10992,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 23693-2023</t>
+          <t>A 52372-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45077</v>
+        <v>44465</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10992,7 +11012,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11029,14 +11049,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 45192-2022</t>
+          <t>A 11126-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44844.42034722222</v>
+        <v>45723</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11049,7 +11069,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11086,14 +11106,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 35808-2025</t>
+          <t>A 15987-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45861.41337962963</v>
+        <v>45749</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11106,7 +11126,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11143,14 +11163,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 9573-2025</t>
+          <t>A 39622-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45715.62260416667</v>
+        <v>45163</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11163,7 +11183,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.2</v>
+        <v>10.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11200,14 +11220,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 44925-2025</t>
+          <t>A 6796-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45918.55711805556</v>
+        <v>45342.56502314815</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11220,7 +11240,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11257,14 +11277,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 24671-2025</t>
+          <t>A 13611-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45798.65046296296</v>
+        <v>45736.62430555555</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11277,7 +11297,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11314,14 +11334,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 24674-2025</t>
+          <t>A 50279-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45798.65300925926</v>
+        <v>45216.44960648148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11334,7 +11354,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11371,14 +11391,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 24664-2025</t>
+          <t>A 54667-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45798.64627314815</v>
+        <v>45235.62601851852</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11391,7 +11411,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11428,14 +11448,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 34631-2025</t>
+          <t>A 57709-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45848.26144675926</v>
+        <v>44897</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11448,7 +11468,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11485,14 +11505,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 34632-2025</t>
+          <t>A 23898-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45848.26725694445</v>
+        <v>45078.54318287037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11505,7 +11525,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11542,14 +11562,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 34633-2025</t>
+          <t>A 31399-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45848.27251157408</v>
+        <v>45833.46824074074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11562,7 +11582,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11599,14 +11619,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 37778-2025</t>
+          <t>A 30136-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45880</v>
+        <v>44757.46511574074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11618,8 +11638,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11656,14 +11681,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 51654-2025</t>
+          <t>A 38857-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45951.46241898148</v>
+        <v>45887.55858796297</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11676,7 +11701,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11713,14 +11738,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 22975-2023</t>
+          <t>A 38897-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45072</v>
+        <v>45887.59670138889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11733,7 +11758,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11770,14 +11795,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 36280-2025</t>
+          <t>A 38893-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45867</v>
+        <v>45887.58900462963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11790,7 +11815,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11827,14 +11852,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 14430-2023</t>
+          <t>A 56460-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45012</v>
+        <v>45243</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11847,7 +11872,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11884,14 +11909,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 64091-2023</t>
+          <t>A 38772-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45279</v>
+        <v>45887.42040509259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11904,7 +11929,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11941,14 +11966,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 38879-2025</t>
+          <t>A 5954-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45887.5771875</v>
+        <v>45695.4777662037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11961,7 +11986,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11998,14 +12023,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 25962-2023</t>
+          <t>A 38879-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45090.77961805555</v>
+        <v>45887.5771875</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12018,7 +12043,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>7.3</v>
+        <v>0.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12055,14 +12080,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 981-2023</t>
+          <t>A 7915-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44935.35828703704</v>
+        <v>45707.35076388889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12075,7 +12100,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12112,14 +12137,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 53017-2025</t>
+          <t>A 32855-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45957</v>
+        <v>45124</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12132,7 +12157,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12169,14 +12194,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 53019-2025</t>
+          <t>A 3864-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45957</v>
+        <v>44951.76491898148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12189,7 +12214,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.2</v>
+        <v>6.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12226,14 +12251,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 30136-2022</t>
+          <t>A 29169-2021</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44757.46511574074</v>
+        <v>44358</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12245,13 +12270,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12288,14 +12308,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 38897-2025</t>
+          <t>A 39864-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45887.59670138889</v>
+        <v>45891.60197916667</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12308,7 +12328,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12352,7 +12372,7 @@
         <v>45161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12402,14 +12422,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 53142-2025</t>
+          <t>A 27540-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45958</v>
+        <v>45474</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12422,7 +12442,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12459,14 +12479,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 23739-2023</t>
+          <t>A 9695-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45077.7675</v>
+        <v>44984</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12479,7 +12499,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12516,14 +12536,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 6796-2024</t>
+          <t>A 25962-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45342.56502314815</v>
+        <v>45090.77961805555</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12536,7 +12556,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.4</v>
+        <v>7.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12573,14 +12593,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 29169-2021</t>
+          <t>A 981-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44358</v>
+        <v>44935.35828703704</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12593,7 +12613,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12630,14 +12650,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 34591-2023</t>
+          <t>A 41912-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45140</v>
+        <v>45903.40931712963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12650,7 +12670,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12687,14 +12707,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 40184-2022</t>
+          <t>A 41887-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44820.58752314815</v>
+        <v>45903.37215277777</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12707,7 +12727,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12744,14 +12764,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 54506-2025</t>
+          <t>A 41926-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45965</v>
+        <v>45903.42753472222</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12801,14 +12821,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 9559-2022</t>
+          <t>A 1904-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44617.43976851852</v>
+        <v>44939</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12821,7 +12841,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12858,14 +12878,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 31925-2024</t>
+          <t>A 42728-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45510</v>
+        <v>45908.40429398148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12878,7 +12898,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12915,14 +12935,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 56581-2025</t>
+          <t>A 51577-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45975.54347222222</v>
+        <v>45222.45756944444</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12935,7 +12955,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12972,14 +12992,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 56264-2025</t>
+          <t>A 42714-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45974.57391203703</v>
+        <v>45908.381875</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12992,7 +13012,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13029,14 +13049,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 56455-2025</t>
+          <t>A 42725-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45975.35782407408</v>
+        <v>45908.40152777778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13049,7 +13069,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13086,14 +13106,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 56487-2025</t>
+          <t>A 3830-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45975.41037037037</v>
+        <v>44587.35361111111</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13106,7 +13126,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13143,14 +13163,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 56765-2025</t>
+          <t>A 42708-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45978.38018518518</v>
+        <v>45908.37359953704</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13163,7 +13183,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>4.4</v>
+        <v>0.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13200,14 +13220,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 30638-2023</t>
+          <t>A 42713-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45112</v>
+        <v>45908.37888888889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13220,7 +13240,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13257,14 +13277,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 57221-2025</t>
+          <t>A 40184-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45979.61408564815</v>
+        <v>44820.58752314815</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13277,7 +13297,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13314,14 +13334,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 2088-2023</t>
+          <t>A 13797-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44939</v>
+        <v>45737.48324074074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13334,7 +13354,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13371,14 +13391,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 57774-2025</t>
+          <t>A 43641-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45981</v>
+        <v>45911.87390046296</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13391,7 +13411,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13428,14 +13448,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 57343-2025</t>
+          <t>A 44376-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45980.34996527778</v>
+        <v>45916.47453703704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13448,7 +13468,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.7</v>
+        <v>7.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13485,14 +13505,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 57790-2025</t>
+          <t>A 44386-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45981</v>
+        <v>45916.48872685185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13505,7 +13525,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13542,14 +13562,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 58347-2025</t>
+          <t>A 43900-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45985.50454861111</v>
+        <v>45913.26221064815</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13562,7 +13582,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13599,14 +13619,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 25960-2023</t>
+          <t>A 44364-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45090</v>
+        <v>45916.45373842592</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13619,7 +13639,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.9</v>
+        <v>5.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13656,14 +13676,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 1225-2026</t>
+          <t>A 44355-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>46031.40648148148</v>
+        <v>45916.44782407407</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13676,7 +13696,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13713,14 +13733,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 52528-2021</t>
+          <t>A 43990-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44466.46428240741</v>
+        <v>45915.44359953704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13733,7 +13753,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13770,14 +13790,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 36838-2024</t>
+          <t>A 43992-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45538.52853009259</v>
+        <v>45915.44501157408</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13790,7 +13810,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13827,14 +13847,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 2480-2026</t>
+          <t>A 44923-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46037.38482638889</v>
+        <v>45918.55475694445</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13847,7 +13867,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13884,14 +13904,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 2474-2026</t>
+          <t>A 44903-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46037.37762731482</v>
+        <v>45918.5110300926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13904,7 +13924,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>8.6</v>
+        <v>0.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13941,14 +13961,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 38899-2025</t>
+          <t>A 44846-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45887</v>
+        <v>45918.43986111111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13961,7 +13981,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13998,14 +14018,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 60789-2025</t>
+          <t>A 44852-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45999.41315972222</v>
+        <v>45918.44703703704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14018,7 +14038,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14055,14 +14075,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 1904-2023</t>
+          <t>A 44890-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44939</v>
+        <v>45918.49697916667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14075,7 +14095,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14112,14 +14132,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 8204-2023</t>
+          <t>A 44793-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44971</v>
+        <v>45918.32309027778</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14132,7 +14152,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14169,14 +14189,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 3934-2026</t>
+          <t>A 44791-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46043.80326388889</v>
+        <v>45918.31138888889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14189,7 +14209,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14226,14 +14246,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 11121-2025</t>
+          <t>A 44864-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45723.6369675926</v>
+        <v>45918</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14246,7 +14266,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.2</v>
+        <v>4.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14283,14 +14303,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 3830-2022</t>
+          <t>A 17641-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44587.35361111111</v>
+        <v>45035</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14303,7 +14323,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>4</v>
+        <v>7.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14340,14 +14360,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 21152-2022</t>
+          <t>A 44897-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44704</v>
+        <v>45918.50546296296</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14360,7 +14380,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14397,14 +14417,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 58130-2022</t>
+          <t>A 10797-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44900</v>
+        <v>45722.50984953704</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14417,7 +14437,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>23.2</v>
+        <v>15.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14454,14 +14474,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 4989-2026</t>
+          <t>A 45556-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>46049.38898148148</v>
+        <v>45922.64444444444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14474,7 +14494,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14511,14 +14531,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 2359-2023</t>
+          <t>A 44882-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44942</v>
+        <v>44841</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14531,7 +14551,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14568,14 +14588,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 55049-2023</t>
+          <t>A 47268-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45237</v>
+        <v>45930.45893518518</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14588,7 +14608,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14625,14 +14645,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 15987-2025</t>
+          <t>A 21867-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45749</v>
+        <v>45784.37122685185</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14645,7 +14665,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14682,14 +14702,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 57208-2022</t>
+          <t>A 168-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44895</v>
+        <v>45659.64137731482</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14702,7 +14722,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.4</v>
+        <v>6.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14739,14 +14759,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 3864-2023</t>
+          <t>A 49362-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44951.76491898148</v>
+        <v>45595.62802083333</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14759,7 +14779,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>6.2</v>
+        <v>3.1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14796,14 +14816,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 25965-2023</t>
+          <t>A 22391-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45090.79171296296</v>
+        <v>45446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14816,7 +14836,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14853,14 +14873,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 38928-2024</t>
+          <t>A 27486-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45548</v>
+        <v>45474.48015046296</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14873,7 +14893,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14910,14 +14930,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 7707-2024</t>
+          <t>A 25958-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45349.35894675926</v>
+        <v>45090</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14930,7 +14950,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14967,14 +14987,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 14254-2023</t>
+          <t>A 48672-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45009.90423611111</v>
+        <v>45936.58152777778</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14987,7 +15007,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15024,14 +15044,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 7192-2026</t>
+          <t>A 48870-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>46058.49831018518</v>
+        <v>45937.44994212963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15044,7 +15064,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15081,14 +15101,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 7242-2026</t>
+          <t>A 60271-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>46058.5840625</v>
+        <v>45642</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15101,7 +15121,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15138,14 +15158,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 50629-2025</t>
+          <t>A 12631-2021</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45945</v>
+        <v>44270</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15158,7 +15178,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>6.3</v>
+        <v>2.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15195,14 +15215,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 52243-2025</t>
+          <t>A 17458-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45953</v>
+        <v>45034</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15215,7 +15235,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15252,14 +15272,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 8024-2026</t>
+          <t>A 23469-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>46063.55767361111</v>
+        <v>45792.43915509259</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15271,13 +15291,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15314,14 +15329,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 53163-2025</t>
+          <t>A 44925-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45958</v>
+        <v>45918.55711805556</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15334,7 +15349,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15371,14 +15386,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 5002-2026</t>
+          <t>A 54669-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>46049</v>
+        <v>45235.63085648148</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15391,7 +15406,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15428,14 +15443,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 52246-2025</t>
+          <t>A 11460-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45953</v>
+        <v>45726</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15448,7 +15463,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15485,14 +15500,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 47871-2022</t>
+          <t>A 36280-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44855.43434027778</v>
+        <v>45867</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15505,7 +15520,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15542,14 +15557,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 2537-2026</t>
+          <t>A 51654-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>46037.44983796297</v>
+        <v>45951.46241898148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15562,7 +15577,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15599,14 +15614,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 40190-2022</t>
+          <t>A 53142-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44820.591875</v>
+        <v>45958</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15619,7 +15634,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15656,14 +15671,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 53676-2025</t>
+          <t>A 53017-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45960</v>
+        <v>45957</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15676,7 +15691,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15713,14 +15728,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 20099-2025</t>
+          <t>A 53019-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45772.46916666667</v>
+        <v>45957</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15733,7 +15748,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15770,14 +15785,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 10797-2025</t>
+          <t>A 54506-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45722.50984953704</v>
+        <v>45965</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15790,7 +15805,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>15.1</v>
+        <v>0.5</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15827,14 +15842,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 40017-2023</t>
+          <t>A 26032-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45168</v>
+        <v>45804.69063657407</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15847,7 +15862,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15884,14 +15899,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 34279-2023</t>
+          <t>A 25588-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45138</v>
+        <v>45803.49103009259</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15904,7 +15919,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15941,14 +15956,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 54661-2023</t>
+          <t>A 25589-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45235.61505787037</v>
+        <v>45803.49381944445</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15961,7 +15976,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15998,14 +16013,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 54646-2023</t>
+          <t>A 56264-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45235.40707175926</v>
+        <v>45974.57391203703</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16018,7 +16033,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>5.3</v>
+        <v>0.8</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16055,14 +16070,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 2092-2023</t>
+          <t>A 56765-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44939</v>
+        <v>45978.38018518518</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16075,7 +16090,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16112,14 +16127,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 21023-2024</t>
+          <t>A 56581-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45439.64483796297</v>
+        <v>45975.54347222222</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16132,7 +16147,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16169,14 +16184,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 62180-2022</t>
+          <t>A 56487-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44915</v>
+        <v>45975.41037037037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16188,13 +16203,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G269" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16231,14 +16241,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 62181-2022</t>
+          <t>A 56455-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44915</v>
+        <v>45975.35782407408</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16250,13 +16260,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G270" t="n">
-        <v>6.4</v>
+        <v>0.4</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16293,14 +16298,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 23990-2023</t>
+          <t>A 57343-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45078</v>
+        <v>45980.34996527778</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16313,7 +16318,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16350,14 +16355,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 1935-2024</t>
+          <t>A 57221-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45308</v>
+        <v>45979.61408564815</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16370,7 +16375,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16407,14 +16412,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 52372-2021</t>
+          <t>A 57790-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44465</v>
+        <v>45981</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16427,7 +16432,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16464,14 +16469,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 22406-2024</t>
+          <t>A 57774-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45446</v>
+        <v>45981</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16484,7 +16489,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16521,14 +16526,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 26179-2023</t>
+          <t>A 58347-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45091.52637731482</v>
+        <v>45985.50454861111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16541,7 +16546,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16578,14 +16583,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 27967-2024</t>
+          <t>A 1225-2026</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45476.37760416666</v>
+        <v>46031.40648148148</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16598,7 +16603,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.4</v>
+        <v>5.6</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16635,14 +16640,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 26837-2022</t>
+          <t>A 38899-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44740.4811574074</v>
+        <v>45887</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16655,7 +16660,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16692,14 +16697,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 25967-2023</t>
+          <t>A 2474-2026</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45090.79582175926</v>
+        <v>46037.37762731482</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16712,7 +16717,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>4.9</v>
+        <v>8.6</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16749,14 +16754,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 22410-2024</t>
+          <t>A 2480-2026</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45446</v>
+        <v>46037.38482638889</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16769,7 +16774,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16806,14 +16811,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 29334-2022</t>
+          <t>A 60789-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44752</v>
+        <v>45999.41315972222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16825,13 +16830,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G280" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16868,14 +16868,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 5941-2025</t>
+          <t>A 3934-2026</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45695.46671296296</v>
+        <v>46043.80326388889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16925,14 +16925,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 29335-2022</t>
+          <t>A 4989-2026</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44752</v>
+        <v>46049.38898148148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16944,13 +16944,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G282" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16987,14 +16982,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 42653-2024</t>
+          <t>A 7192-2026</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45566.33113425926</v>
+        <v>46058.49831018518</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17007,7 +17002,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17044,14 +17039,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 44882-2022</t>
+          <t>A 50629-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44841</v>
+        <v>45945</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17064,7 +17059,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>0.5</v>
+        <v>6.3</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17101,14 +17096,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 56460-2023</t>
+          <t>A 7242-2026</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45243</v>
+        <v>46058.5840625</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17121,7 +17116,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17158,14 +17153,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 1783-2025</t>
+          <t>A 2537-2026</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45671.4491087963</v>
+        <v>46037.44983796297</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17178,7 +17173,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17215,14 +17210,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 8752-2021</t>
+          <t>A 53676-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>44246</v>
+        <v>45960</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17235,7 +17230,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>6.8</v>
+        <v>1.5</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17272,14 +17267,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 26178-2023</t>
+          <t>A 52243-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45091.52565972223</v>
+        <v>45953</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17292,7 +17287,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17329,14 +17324,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 51577-2023</t>
+          <t>A 53163-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45222.45756944444</v>
+        <v>45958</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17349,7 +17344,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17386,14 +17381,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 63029-2023</t>
+          <t>A 52246-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45272</v>
+        <v>45953</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17406,7 +17401,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17443,14 +17438,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 58284-2023</t>
+          <t>A 8024-2026</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45250.53486111111</v>
+        <v>46063</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17462,8 +17457,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G291" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17500,14 +17500,14 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 27497-2024</t>
+          <t>A 5002-2026</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45474</v>
+        <v>46049</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45916</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,14 +757,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 31926-2024</t>
+          <t>A 38101-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45510</v>
+        <v>45545.36309027778</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -777,17 +777,17 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>3</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -810,128 +810,128 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Skrattmås
+Vedflikmossa
+Ärtsångare</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 38101-2024 artfynd.xlsx", "A 38101-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 38101-2024 karta.png", "A 38101-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 38101-2024 FSC-klagomål.docx", "A 38101-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 38101-2024 FSC-klagomål mail.docx", "A 38101-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 38101-2024 tillsynsbegäran.docx", "A 38101-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 38101-2024 tillsynsbegäran mail.docx", "A 38101-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/fåglar/A 38101-2024 prioriterade fågelarter.docx", "A 38101-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 31926-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45510</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Havstulpanlav
 Klippfrullania
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 31926-2024 artfynd.xlsx", "A 31926-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 31926-2024 karta.png", "A 31926-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 31926-2024 FSC-klagomål.docx", "A 31926-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 31926-2024 FSC-klagomål mail.docx", "A 31926-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 31926-2024 tillsynsbegäran.docx", "A 31926-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 31926-2024 tillsynsbegäran mail.docx", "A 31926-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 38101-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45545.36309027778</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Skrattmås
-Vedflikmossa
-Ärtsångare</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 38101-2024 artfynd.xlsx", "A 38101-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 38101-2024 karta.png", "A 38101-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 38101-2024 FSC-klagomål.docx", "A 38101-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 38101-2024 FSC-klagomål mail.docx", "A 38101-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 38101-2024 tillsynsbegäran.docx", "A 38101-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 38101-2024 tillsynsbegäran mail.docx", "A 38101-2024")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/fåglar/A 38101-2024 prioriterade fågelarter.docx", "A 38101-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>45853.6421875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45684.70283564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44516.32994212963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45670</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1287,14 +1287,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 15068-2023</t>
+          <t>A 43471-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45015</v>
+        <v>45911</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1307,17 +1307,17 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>9.9</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1341,119 +1341,119 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Granspira</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 43471-2025 artfynd.xlsx", "A 43471-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 43471-2025 karta.png", "A 43471-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 43471-2025 FSC-klagomål.docx", "A 43471-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 43471-2025 FSC-klagomål mail.docx", "A 43471-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 43471-2025 tillsynsbegäran.docx", "A 43471-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 43471-2025 tillsynsbegäran mail.docx", "A 43471-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 15068-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45015</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Kambräken</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 15068-2023 artfynd.xlsx", "A 15068-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 15068-2023 karta.png", "A 15068-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 15068-2023 FSC-klagomål.docx", "A 15068-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 15068-2023 FSC-klagomål mail.docx", "A 15068-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 15068-2023 tillsynsbegäran.docx", "A 15068-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 15068-2023 tillsynsbegäran mail.docx", "A 15068-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 43471-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45911</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Granspira</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 43471-2025 artfynd.xlsx", "A 43471-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 43471-2025 karta.png", "A 43471-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 43471-2025 FSC-klagomål.docx", "A 43471-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 43471-2025 FSC-klagomål mail.docx", "A 43471-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 43471-2025 tillsynsbegäran.docx", "A 43471-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 43471-2025 tillsynsbegäran mail.docx", "A 43471-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44298</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>44788.44263888889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44820.59869212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44788.45163194444</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44676.44231481481</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44546</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44846.67469907407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44752</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,14 +2174,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 68082-2021</t>
+          <t>A 35910-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44526.32802083333</v>
+        <v>44387</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>19.7</v>
+        <v>6.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2231,14 +2231,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 35910-2021</t>
+          <t>A 39365-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44387</v>
+        <v>44414.37533564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6.7</v>
+        <v>2.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2288,14 +2288,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 38556-2022</t>
+          <t>A 8111-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44813</v>
+        <v>44607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2307,8 +2307,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2345,14 +2350,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 35533-2022</t>
+          <t>A 45443-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44799</v>
+        <v>44440.43105324074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2364,13 +2369,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2407,14 +2407,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 39365-2021</t>
+          <t>A 70802-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44414.37533564815</v>
+        <v>44537.84666666666</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2464,14 +2464,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 8111-2022</t>
+          <t>A 39772-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44607</v>
+        <v>44416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2483,13 +2483,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2526,14 +2521,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 45443-2021</t>
+          <t>A 35533-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44440.43105324074</v>
+        <v>44799</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2545,8 +2540,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2583,14 +2583,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 71637-2021</t>
+          <t>A 68082-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44543.32719907408</v>
+        <v>44526.32802083333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>19.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2640,14 +2640,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 24712-2021</t>
+          <t>A 38556-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44340.5113425926</v>
+        <v>44813</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2697,14 +2697,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 70802-2021</t>
+          <t>A 11970-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44537.84666666666</v>
+        <v>44635</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2754,14 +2754,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 12139-2022</t>
+          <t>A 71637-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44636.62268518518</v>
+        <v>44543.32719907408</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2811,14 +2811,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 11970-2022</t>
+          <t>A 24712-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44635</v>
+        <v>44340.5113425926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2868,14 +2868,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 39772-2021</t>
+          <t>A 12139-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44416</v>
+        <v>44636.62268518518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2925,14 +2925,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 26058-2024</t>
+          <t>A 45063-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45468</v>
+        <v>44841.84542824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2982,14 +2982,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 47871-2022</t>
+          <t>A 36595-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44855.43434027778</v>
+        <v>44804.63545138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3039,14 +3039,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 44880-2022</t>
+          <t>A 6020-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44841</v>
+        <v>44599</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3096,14 +3096,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 57208-2022</t>
+          <t>A 7541-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44895</v>
+        <v>45705.57094907408</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>6.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3153,14 +3153,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 36572-2021</t>
+          <t>A 19390-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44391.58083333333</v>
+        <v>45048</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3210,14 +3210,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 45063-2022</t>
+          <t>A 73830-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44841.84542824074</v>
+        <v>44552.84040509259</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3267,14 +3267,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 36595-2022</t>
+          <t>A 44814-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44804.63545138889</v>
+        <v>44841.40362268518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.6</v>
+        <v>5.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3324,14 +3324,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 64091-2023</t>
+          <t>A 9748-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45279</v>
+        <v>45362.60480324074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3381,14 +3381,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 26178-2023</t>
+          <t>A 5927-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45091.52565972223</v>
+        <v>44963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3438,14 +3438,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 26179-2023</t>
+          <t>A 52876-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45091.52637731482</v>
+        <v>45610.6337037037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3495,14 +3495,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 57703-2022</t>
+          <t>A 10379-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44897</v>
+        <v>45365.64063657408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3552,14 +3552,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 40814-2023</t>
+          <t>A 23740-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45171.54957175926</v>
+        <v>45077</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3609,14 +3609,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 40017-2023</t>
+          <t>A 72261-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45168</v>
+        <v>44545.31795138889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3666,14 +3666,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 20099-2025</t>
+          <t>A 9359-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45772.46916666667</v>
+        <v>45715.29788194445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3723,14 +3723,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 9773-2024</t>
+          <t>A 17737-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45362</v>
+        <v>45037.44637731482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3780,14 +3780,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 2090-2023</t>
+          <t>A 13611-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44939</v>
+        <v>45736.62430555555</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3837,14 +3837,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 42653-2024</t>
+          <t>A 47890-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45566.33113425926</v>
+        <v>44855</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3894,14 +3894,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 33796-2023</t>
+          <t>A 23469-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45133.57142361111</v>
+        <v>45792.43915509259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,14 +3951,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 6137-2024</t>
+          <t>A 39622-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45337</v>
+        <v>45163</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>11.7</v>
+        <v>10.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4008,14 +4008,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 2088-2023</t>
+          <t>A 23898-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44939</v>
+        <v>45078.54318287037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4065,14 +4065,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 2092-2023</t>
+          <t>A 7192-2026</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44939</v>
+        <v>46058.49831018518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4122,14 +4122,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 62180-2022</t>
+          <t>A 38772-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44915</v>
+        <v>45887.42040509259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4141,13 +4141,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>7.5</v>
+        <v>4.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4184,14 +4179,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 62181-2022</t>
+          <t>A 7242-2026</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44915</v>
+        <v>46058.5840625</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4203,13 +4198,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>6.4</v>
+        <v>1.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4246,14 +4236,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 52528-2021</t>
+          <t>A 50629-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44466.46428240741</v>
+        <v>45945</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4266,7 +4256,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.4</v>
+        <v>6.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4303,14 +4293,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 25963-2023</t>
+          <t>A 31704-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45090</v>
+        <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4323,7 +4313,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.8</v>
+        <v>6.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4360,14 +4350,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 9748-2024</t>
+          <t>A 14912-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45362.60480324074</v>
+        <v>45398.59821759259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4380,7 +4370,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4417,14 +4407,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 8204-2023</t>
+          <t>A 52243-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44971</v>
+        <v>45953</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4437,7 +4427,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4474,14 +4464,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 24765-2023</t>
+          <t>A 53163-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45084.6352662037</v>
+        <v>45958</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4494,7 +4484,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4531,14 +4521,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 36838-2024</t>
+          <t>A 25589-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45538.52853009259</v>
+        <v>45803.49381944445</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4551,7 +4541,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4588,14 +4578,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 34279-2023</t>
+          <t>A 52246-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45138</v>
+        <v>45953</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4608,7 +4598,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4645,14 +4635,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 24154-2023</t>
+          <t>A 25588-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45079</v>
+        <v>45803.49103009259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4665,7 +4655,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4702,14 +4692,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 21023-2024</t>
+          <t>A 38857-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45439.64483796297</v>
+        <v>45887.55858796297</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4722,7 +4712,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4759,14 +4749,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 57795-2022</t>
+          <t>A 54667-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44897.66587962963</v>
+        <v>45235.62601851852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4779,7 +4769,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4816,14 +4806,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 1783-2025</t>
+          <t>A 26032-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45671.4491087963</v>
+        <v>45804.69063657407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4836,7 +4826,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4873,14 +4863,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 73830-2021</t>
+          <t>A 26020-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44552.84040509259</v>
+        <v>45804.67818287037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4893,7 +4883,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4930,14 +4920,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 6020-2022</t>
+          <t>A 31399-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44599</v>
+        <v>45833.46824074074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4950,7 +4940,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4987,14 +4977,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 9691-2023</t>
+          <t>A 2537-2026</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44984</v>
+        <v>46037.44983796297</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5007,7 +4997,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5044,14 +5034,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 39650-2023</t>
+          <t>A 53676-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45167.55505787037</v>
+        <v>45960</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5064,7 +5054,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5101,14 +5091,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 58130-2022</t>
+          <t>A 7915-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44900</v>
+        <v>45707.35076388889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5121,7 +5111,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>23.2</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5158,14 +5148,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 27521-2021</t>
+          <t>A 38893-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44351</v>
+        <v>45887.58900462963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5178,7 +5168,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>10.3</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5215,14 +5205,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 19643-2024</t>
+          <t>A 5002-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45432</v>
+        <v>46049</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5234,13 +5224,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5277,14 +5262,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 22406-2024</t>
+          <t>A 8024-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45446</v>
+        <v>46063</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5296,8 +5281,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5334,14 +5324,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 14912-2024</t>
+          <t>A 25963-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45398.59821759259</v>
+        <v>45090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5354,7 +5344,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5391,14 +5381,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 26020-2025</t>
+          <t>A 40814-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45804.67818287037</v>
+        <v>45171.54957175926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5411,7 +5401,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5448,14 +5438,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 13068-2023</t>
+          <t>A 32855-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45002.38854166667</v>
+        <v>45124</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5468,7 +5458,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5505,14 +5495,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 1935-2024</t>
+          <t>A 1492-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45308</v>
+        <v>45305.84925925926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5525,7 +5515,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.2</v>
+        <v>3.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5562,14 +5552,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 72261-2021</t>
+          <t>A 1493-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44545.31795138889</v>
+        <v>45305</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5582,7 +5572,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5619,14 +5609,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 58284-2023</t>
+          <t>A 21910-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45250.53486111111</v>
+        <v>45443.36605324074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5639,7 +5629,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5676,14 +5666,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 14254-2023</t>
+          <t>A 27523-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45009.90423611111</v>
+        <v>45813</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5696,7 +5686,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5733,14 +5723,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 17737-2023</t>
+          <t>A 27449-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45037.44637731482</v>
+        <v>45813.33200231481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5753,7 +5743,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5790,14 +5780,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 37620-2023</t>
+          <t>A 27521-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45159.4530787037</v>
+        <v>44351</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5810,7 +5800,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>10.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5847,14 +5837,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 2086-2023</t>
+          <t>A 57703-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44939</v>
+        <v>44897</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5867,7 +5857,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5904,14 +5894,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 27449-2025</t>
+          <t>A 26058-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45813.33200231481</v>
+        <v>45468</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5924,7 +5914,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5961,14 +5951,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 27523-2025</t>
+          <t>A 15478-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45813</v>
+        <v>45747.5475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5981,7 +5971,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6018,14 +6008,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 20492-2024</t>
+          <t>A 27988-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45435.8712962963</v>
+        <v>45817.58586805555</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6038,7 +6028,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>11.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6075,14 +6065,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 22975-2023</t>
+          <t>A 63783-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45072</v>
+        <v>45278.38888888889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6095,7 +6085,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6132,14 +6122,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 27988-2025</t>
+          <t>A 21146-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45817.58586805555</v>
+        <v>44704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6152,7 +6142,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>11.8</v>
+        <v>7.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6189,14 +6179,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 15478-2025</t>
+          <t>A 39864-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45747.5475</v>
+        <v>45891.60197916667</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6209,7 +6199,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6246,14 +6236,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 21146-2022</t>
+          <t>A 3205-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44704</v>
+        <v>45679</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6265,8 +6255,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6303,14 +6298,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 31704-2023</t>
+          <t>A 1397-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45117</v>
+        <v>44936.73979166667</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6318,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6.7</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6360,14 +6355,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 7707-2024</t>
+          <t>A 6137-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45349.35894675926</v>
+        <v>45337</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6375,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>11.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6424,7 +6419,7 @@
         <v>45819.83893518519</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,14 +6469,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 12625-2021</t>
+          <t>A 36543-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44270.4590625</v>
+        <v>44804.57</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6489,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6531,14 +6526,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 38928-2024</t>
+          <t>A 13068-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45548</v>
+        <v>45002.38854166667</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6546,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6588,14 +6583,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 63783-2023</t>
+          <t>A 29642-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45278.38888888889</v>
+        <v>45825</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6603,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6645,14 +6640,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 9359-2025</t>
+          <t>A 5954-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45715.29788194445</v>
+        <v>45695.4777662037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6660,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6702,14 +6697,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 29642-2025</t>
+          <t>A 12625-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45825</v>
+        <v>44270.4590625</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6717,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6759,14 +6754,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 2359-2023</t>
+          <t>A 19643-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44942</v>
+        <v>45432</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6778,8 +6773,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6816,14 +6816,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 52876-2024</t>
+          <t>A 23692-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45610.6337037037</v>
+        <v>45077.60907407408</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6873,14 +6873,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 57161-2022</t>
+          <t>A 37501-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44895.59303240741</v>
+        <v>45541.37159722222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6930,14 +6930,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 27967-2024</t>
+          <t>A 44880-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45476.37760416666</v>
+        <v>44841</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6987,14 +6987,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 47890-2022</t>
+          <t>A 171-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44855</v>
+        <v>45659.64508101852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7044,14 +7044,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 42177-2023</t>
+          <t>A 12038-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45178.7221412037</v>
+        <v>45728.65583333333</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7101,14 +7101,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 30638-2023</t>
+          <t>A 17270-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45112</v>
+        <v>45756.5531712963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7158,14 +7158,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 17270-2025</t>
+          <t>A 9691-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45756.5531712963</v>
+        <v>44984</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7215,14 +7215,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 8752-2021</t>
+          <t>A 32704-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44246</v>
+        <v>45839</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.8</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7272,14 +7272,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 12038-2025</t>
+          <t>A 17641-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45728.65583333333</v>
+        <v>45035</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>7.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7329,14 +7329,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 5927-2023</t>
+          <t>A 33752-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44963</v>
+        <v>45842.36796296296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7386,14 +7386,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 31925-2024</t>
+          <t>A 41912-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45510</v>
+        <v>45903.40931712963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7443,14 +7443,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 2405-2025</t>
+          <t>A 39650-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45674.35796296296</v>
+        <v>45167.55505787037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7500,14 +7500,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 32704-2025</t>
+          <t>A 41887-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45839</v>
+        <v>45903.37215277777</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7557,14 +7557,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 25960-2023</t>
+          <t>A 11115-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45090</v>
+        <v>45723</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7614,14 +7614,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 25967-2023</t>
+          <t>A 24154-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45090.79582175926</v>
+        <v>45079</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7671,14 +7671,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 2399-2025</t>
+          <t>A 65211-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45672</v>
+        <v>44515.50362268519</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>4.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7728,14 +7728,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 29335-2022</t>
+          <t>A 41926-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44752</v>
+        <v>45903.42753472222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7747,13 +7747,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7790,14 +7785,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 22699-2024</t>
+          <t>A 24765-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45448.32910879629</v>
+        <v>45084.6352662037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7810,7 +7805,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7847,14 +7842,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 25965-2023</t>
+          <t>A 35168-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45090.79171296296</v>
+        <v>45852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7867,7 +7862,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.5</v>
+        <v>5.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7904,14 +7899,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 9559-2022</t>
+          <t>A 18285-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44617.43976851852</v>
+        <v>45762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7924,7 +7919,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7961,14 +7956,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 19390-2023</t>
+          <t>A 35490-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45048</v>
+        <v>45855.79797453704</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7981,7 +7976,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8018,14 +8013,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 65211-2021</t>
+          <t>A 61602-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44515.50362268519</v>
+        <v>45646.6387962963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8038,7 +8033,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8075,14 +8070,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 33752-2025</t>
+          <t>A 35489-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45842.36796296296</v>
+        <v>45855.79260416667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8095,7 +8090,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.7</v>
+        <v>6.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8132,14 +8127,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 11115-2025</t>
+          <t>A 35808-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45723</v>
+        <v>45861.41337962963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8152,7 +8147,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8189,14 +8184,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 48966-2023</t>
+          <t>A 42725-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45209.60576388889</v>
+        <v>45908.40152777778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8209,7 +8204,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8246,14 +8241,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 50304-2023</t>
+          <t>A 42713-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45209</v>
+        <v>45908.37888888889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8266,7 +8261,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>17.9</v>
+        <v>2.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8303,14 +8298,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 63029-2023</t>
+          <t>A 42708-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45272</v>
+        <v>45908.37359953704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8323,7 +8318,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8360,14 +8355,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 28221-2023</t>
+          <t>A 42714-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45099</v>
+        <v>45908.381875</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8380,7 +8375,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6.7</v>
+        <v>0.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8417,14 +8412,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 35168-2025</t>
+          <t>A 24671-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45852</v>
+        <v>45798.65046296296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8437,7 +8432,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8474,14 +8469,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 171-2025</t>
+          <t>A 24674-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45659.64508101852</v>
+        <v>45798.65300925926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8494,7 +8489,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8531,14 +8526,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 18285-2025</t>
+          <t>A 42728-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45762</v>
+        <v>45908.40429398148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8551,7 +8546,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8588,14 +8583,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 61602-2024</t>
+          <t>A 24664-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45646.6387962963</v>
+        <v>45798.64627314815</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8608,7 +8603,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8645,14 +8640,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 35490-2025</t>
+          <t>A 34631-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45855.79797453704</v>
+        <v>45848.26144675926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8665,7 +8660,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8702,14 +8697,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 35489-2025</t>
+          <t>A 34632-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45855.79260416667</v>
+        <v>45848.26725694445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8722,7 +8717,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>6.3</v>
+        <v>1.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8759,14 +8754,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 26837-2022</t>
+          <t>A 34633-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44740.4811574074</v>
+        <v>45848.27251157408</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8779,7 +8774,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8816,14 +8811,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 29334-2022</t>
+          <t>A 42177-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44752</v>
+        <v>45178.7221412037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8835,13 +8830,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8878,14 +8868,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 35808-2025</t>
+          <t>A 13797-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45861.41337962963</v>
+        <v>45737.48324074074</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8898,7 +8888,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8935,14 +8925,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 45192-2022</t>
+          <t>A 37778-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44844.42034722222</v>
+        <v>45880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8955,7 +8945,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8992,14 +8982,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 27497-2024</t>
+          <t>A 28221-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45474</v>
+        <v>45099</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9012,7 +9002,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.2</v>
+        <v>6.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9049,14 +9039,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 24664-2025</t>
+          <t>A 11605-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45798.64627314815</v>
+        <v>44994.401875</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9069,7 +9059,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9106,14 +9096,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 54646-2023</t>
+          <t>A 23693-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45235.40707175926</v>
+        <v>45077</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9126,7 +9116,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9163,14 +9153,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 36543-2022</t>
+          <t>A 43992-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44804.57</v>
+        <v>45915.44501157408</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9183,7 +9173,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9220,14 +9210,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 24671-2025</t>
+          <t>A 45192-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45798.65046296296</v>
+        <v>44844.42034722222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9240,7 +9230,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9277,14 +9267,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 24674-2025</t>
+          <t>A 43900-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45798.65300925926</v>
+        <v>45913.26221064815</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9297,7 +9287,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9334,14 +9324,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 34631-2025</t>
+          <t>A 43641-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45848.26144675926</v>
+        <v>45911.87390046296</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9354,7 +9344,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9391,14 +9381,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 34632-2025</t>
+          <t>A 43990-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45848.26725694445</v>
+        <v>45915.44359953704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9411,7 +9401,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9448,14 +9438,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 34633-2025</t>
+          <t>A 44364-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45848.27251157408</v>
+        <v>45916.45373842592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9468,7 +9458,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.8</v>
+        <v>5.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9505,14 +9495,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 5941-2025</t>
+          <t>A 38879-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45695.46671296296</v>
+        <v>45887.5771875</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9525,7 +9515,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9562,14 +9552,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 40190-2022</t>
+          <t>A 38897-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44820.591875</v>
+        <v>45887.59670138889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9582,7 +9572,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9619,14 +9609,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 14430-2023</t>
+          <t>A 44355-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45012</v>
+        <v>45916.44782407407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9639,7 +9629,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9676,14 +9666,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 44814-2022</t>
+          <t>A 9573-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44841.40362268518</v>
+        <v>45715.62260416667</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9696,7 +9686,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9733,14 +9723,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 3205-2025</t>
+          <t>A 44386-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45679</v>
+        <v>45916.48872685185</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9752,13 +9742,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>6.7</v>
+        <v>1.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9795,14 +9780,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 21910-2024</t>
+          <t>A 44376-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45443.36605324074</v>
+        <v>45916.47453703704</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9815,7 +9800,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9852,14 +9837,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 37778-2025</t>
+          <t>A 44864-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45880</v>
+        <v>45918</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9872,7 +9857,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9909,14 +9894,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 21152-2022</t>
+          <t>A 44903-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44704</v>
+        <v>45918.5110300926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9929,7 +9914,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9966,14 +9951,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 23692-2023</t>
+          <t>A 44793-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45077.60907407408</v>
+        <v>45918.32309027778</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9986,7 +9971,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10023,14 +10008,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 23739-2023</t>
+          <t>A 44923-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45077.7675</v>
+        <v>45918.55475694445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10043,7 +10028,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10080,14 +10065,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 23740-2023</t>
+          <t>A 44897-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45077</v>
+        <v>45918.50546296296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10100,7 +10085,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10137,14 +10122,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 1397-2023</t>
+          <t>A 44890-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44936.73979166667</v>
+        <v>45918.49697916667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10157,7 +10142,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10194,14 +10179,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 11121-2025</t>
+          <t>A 44791-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45723.6369675926</v>
+        <v>45918.31138888889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10214,7 +10199,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10251,14 +10236,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 1492-2024</t>
+          <t>A 44846-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45305.84925925926</v>
+        <v>45918.43986111111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10271,7 +10256,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10308,14 +10293,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 1493-2024</t>
+          <t>A 44852-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45305</v>
+        <v>45918.44703703704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10328,7 +10313,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10365,14 +10350,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 9573-2025</t>
+          <t>A 45556-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45715.62260416667</v>
+        <v>45922.64444444444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10385,7 +10370,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10422,14 +10407,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 22410-2024</t>
+          <t>A 22975-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45446</v>
+        <v>45072</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10442,7 +10427,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10479,14 +10464,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 55049-2023</t>
+          <t>A 47268-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45237</v>
+        <v>45930.45893518518</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10499,7 +10484,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10536,14 +10521,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 7541-2025</t>
+          <t>A 14430-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45705.57094907408</v>
+        <v>45012</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10556,7 +10541,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>6.2</v>
+        <v>0.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10593,14 +10578,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 10379-2024</t>
+          <t>A 64091-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45365.64063657408</v>
+        <v>45279</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10650,14 +10635,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 54661-2023</t>
+          <t>A 48672-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45235.61505787037</v>
+        <v>45936.58152777778</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10670,7 +10655,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10707,14 +10692,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 23693-2023</t>
+          <t>A 25962-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45077</v>
+        <v>45090.77961805555</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10727,7 +10712,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4.5</v>
+        <v>7.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10764,14 +10749,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 11605-2023</t>
+          <t>A 981-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44994.401875</v>
+        <v>44935.35828703704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10784,7 +10769,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10821,14 +10806,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 23990-2023</t>
+          <t>A 30136-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45078</v>
+        <v>44757.46511574074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10840,8 +10825,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10878,14 +10868,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 34591-2023</t>
+          <t>A 38214-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45140</v>
+        <v>45161</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10898,7 +10888,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10935,14 +10925,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 37501-2024</t>
+          <t>A 48870-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45541.37159722222</v>
+        <v>45937.44994212963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10955,7 +10945,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10992,14 +10982,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 52372-2021</t>
+          <t>A 23739-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44465</v>
+        <v>45077.7675</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11012,7 +11002,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11049,14 +11039,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 11126-2025</t>
+          <t>A 6796-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45723</v>
+        <v>45342.56502314815</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11069,7 +11059,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11106,14 +11096,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 15987-2025</t>
+          <t>A 29169-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45749</v>
+        <v>44358</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11126,7 +11116,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11163,14 +11153,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 39622-2023</t>
+          <t>A 34591-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45163</v>
+        <v>45140</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11183,7 +11173,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>10.7</v>
+        <v>1.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11220,14 +11210,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 6796-2024</t>
+          <t>A 40184-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45342.56502314815</v>
+        <v>44820.58752314815</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11240,7 +11230,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11277,14 +11267,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 13611-2025</t>
+          <t>A 44925-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45736.62430555555</v>
+        <v>45918.55711805556</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11297,7 +11287,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11334,14 +11324,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 50279-2023</t>
+          <t>A 9559-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45216.44960648148</v>
+        <v>44617.43976851852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11354,7 +11344,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11391,14 +11381,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 54667-2023</t>
+          <t>A 31925-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45235.62601851852</v>
+        <v>45510</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11411,7 +11401,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11448,14 +11438,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 57709-2022</t>
+          <t>A 51654-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44897</v>
+        <v>45951.46241898148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11468,7 +11458,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11505,14 +11495,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 23898-2023</t>
+          <t>A 36280-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45078.54318287037</v>
+        <v>45867</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11562,14 +11552,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 31399-2025</t>
+          <t>A 30638-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45833.46824074074</v>
+        <v>45112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11582,7 +11572,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11619,14 +11609,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 30136-2022</t>
+          <t>A 2088-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44757.46511574074</v>
+        <v>44939</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11638,13 +11628,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11681,14 +11666,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 38857-2025</t>
+          <t>A 53017-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45887.55858796297</v>
+        <v>45957</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11701,7 +11686,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11738,14 +11723,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 38897-2025</t>
+          <t>A 53019-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45887.59670138889</v>
+        <v>45957</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11758,7 +11743,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11795,14 +11780,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 38893-2025</t>
+          <t>A 53142-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45887.58900462963</v>
+        <v>45958</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11815,7 +11800,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11852,14 +11837,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 56460-2023</t>
+          <t>A 25960-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45243</v>
+        <v>45090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11872,7 +11857,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11909,14 +11894,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 38772-2025</t>
+          <t>A 52528-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45887.42040509259</v>
+        <v>44466.46428240741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11929,7 +11914,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11966,14 +11951,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 5954-2025</t>
+          <t>A 36838-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45695.4777662037</v>
+        <v>45538.52853009259</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11986,7 +11971,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12023,14 +12008,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 38879-2025</t>
+          <t>A 54506-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45887.5771875</v>
+        <v>45965</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12043,7 +12028,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12080,14 +12065,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 7915-2025</t>
+          <t>A 1904-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45707.35076388889</v>
+        <v>44939</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12100,7 +12085,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12137,14 +12122,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 32855-2023</t>
+          <t>A 56581-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45124</v>
+        <v>45975.54347222222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12157,7 +12142,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12194,14 +12179,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 3864-2023</t>
+          <t>A 56264-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44951.76491898148</v>
+        <v>45974.57391203703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12214,7 +12199,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>6.2</v>
+        <v>0.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12251,14 +12236,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 29169-2021</t>
+          <t>A 56455-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44358</v>
+        <v>45975.35782407408</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12271,7 +12256,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4.8</v>
+        <v>0.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12308,14 +12293,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 39864-2025</t>
+          <t>A 56487-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45891.60197916667</v>
+        <v>45975.41037037037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12328,7 +12313,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12365,14 +12350,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 38214-2023</t>
+          <t>A 56765-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45161</v>
+        <v>45978.38018518518</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12385,7 +12370,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12422,14 +12407,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 27540-2024</t>
+          <t>A 57221-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45474</v>
+        <v>45979.61408564815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12442,7 +12427,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12479,14 +12464,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 9695-2023</t>
+          <t>A 8204-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44984</v>
+        <v>44971</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12499,7 +12484,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12536,14 +12521,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 25962-2023</t>
+          <t>A 11121-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45090.77961805555</v>
+        <v>45723.6369675926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12556,7 +12541,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>7.3</v>
+        <v>0.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12593,14 +12578,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 981-2023</t>
+          <t>A 3830-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44935.35828703704</v>
+        <v>44587.35361111111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12613,7 +12598,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12650,14 +12635,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 41912-2025</t>
+          <t>A 57774-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45903.40931712963</v>
+        <v>45981</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12670,7 +12655,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12707,14 +12692,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 41887-2025</t>
+          <t>A 57343-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45903.37215277777</v>
+        <v>45980.34996527778</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12727,7 +12712,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12764,14 +12749,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 41926-2025</t>
+          <t>A 21152-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45903.42753472222</v>
+        <v>44704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12784,7 +12769,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12821,14 +12806,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 1904-2023</t>
+          <t>A 58130-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44939</v>
+        <v>44900</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12841,7 +12826,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.7</v>
+        <v>23.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12878,14 +12863,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 42728-2025</t>
+          <t>A 57790-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45908.40429398148</v>
+        <v>45981</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12898,7 +12883,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12935,14 +12920,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 51577-2023</t>
+          <t>A 58347-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45222.45756944444</v>
+        <v>45985.50454861111</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12955,7 +12940,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12992,14 +12977,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 42714-2025</t>
+          <t>A 2359-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45908.381875</v>
+        <v>44942</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13012,7 +12997,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13049,14 +13034,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 42725-2025</t>
+          <t>A 55049-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45908.40152777778</v>
+        <v>45237</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13069,7 +13054,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13106,14 +13091,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 3830-2022</t>
+          <t>A 1225-2026</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44587.35361111111</v>
+        <v>46031.40648148148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13126,7 +13111,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13163,14 +13148,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 42708-2025</t>
+          <t>A 15987-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45908.37359953704</v>
+        <v>45749</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13183,7 +13168,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.3</v>
+        <v>6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13220,14 +13205,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 42713-2025</t>
+          <t>A 57208-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45908.37888888889</v>
+        <v>44895</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13240,7 +13225,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13277,14 +13262,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 40184-2022</t>
+          <t>A 3864-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44820.58752314815</v>
+        <v>44951.76491898148</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13297,7 +13282,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.2</v>
+        <v>6.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13334,14 +13319,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 13797-2025</t>
+          <t>A 25965-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45737.48324074074</v>
+        <v>45090.79171296296</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13354,7 +13339,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13391,14 +13376,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 43641-2025</t>
+          <t>A 2480-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45911.87390046296</v>
+        <v>46037.38482638889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13411,7 +13396,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13448,14 +13433,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 44376-2025</t>
+          <t>A 2474-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45916.47453703704</v>
+        <v>46037.37762731482</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13468,7 +13453,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13505,14 +13490,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 44386-2025</t>
+          <t>A 38928-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45916.48872685185</v>
+        <v>45548</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13525,7 +13510,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13562,14 +13547,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 43900-2025</t>
+          <t>A 7707-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45913.26221064815</v>
+        <v>45349.35894675926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13582,7 +13567,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13619,14 +13604,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 44364-2025</t>
+          <t>A 38899-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45916.45373842592</v>
+        <v>45887</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13639,7 +13624,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13676,14 +13661,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 44355-2025</t>
+          <t>A 60789-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45916.44782407407</v>
+        <v>45999.41315972222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13696,7 +13681,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13733,14 +13718,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 43990-2025</t>
+          <t>A 14254-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45915.44359953704</v>
+        <v>45009.90423611111</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13790,14 +13775,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 43992-2025</t>
+          <t>A 3934-2026</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45915.44501157408</v>
+        <v>46043.80326388889</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13810,7 +13795,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13847,14 +13832,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 44923-2025</t>
+          <t>A 4989-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45918.55475694445</v>
+        <v>46049.38898148148</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13867,7 +13852,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13904,14 +13889,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 44903-2025</t>
+          <t>A 47871-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45918.5110300926</v>
+        <v>44855.43434027778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13924,7 +13909,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13961,14 +13946,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 44846-2025</t>
+          <t>A 40190-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45918.43986111111</v>
+        <v>44820.591875</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13981,7 +13966,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14018,14 +14003,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 44852-2025</t>
+          <t>A 20099-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45918.44703703704</v>
+        <v>45772.46916666667</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14038,7 +14023,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14075,14 +14060,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 44890-2025</t>
+          <t>A 10797-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45918.49697916667</v>
+        <v>45722.50984953704</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14095,7 +14080,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>4.7</v>
+        <v>15.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14132,14 +14117,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 44793-2025</t>
+          <t>A 40017-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45918.32309027778</v>
+        <v>45168</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14152,7 +14137,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14189,14 +14174,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 44791-2025</t>
+          <t>A 34279-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45918.31138888889</v>
+        <v>45138</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14209,7 +14194,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14246,14 +14231,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 44864-2025</t>
+          <t>A 54661-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45918</v>
+        <v>45235.61505787037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14266,7 +14251,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14303,14 +14288,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 17641-2023</t>
+          <t>A 54646-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45035</v>
+        <v>45235.40707175926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14323,7 +14308,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>7.3</v>
+        <v>5.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14360,14 +14345,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 44897-2025</t>
+          <t>A 2092-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45918.50546296296</v>
+        <v>44939</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14380,7 +14365,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14417,14 +14402,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 10797-2025</t>
+          <t>A 21023-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45722.50984953704</v>
+        <v>45439.64483796297</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14437,7 +14422,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>15.1</v>
+        <v>0.5</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14474,14 +14459,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 45556-2025</t>
+          <t>A 62180-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45922.64444444444</v>
+        <v>44915</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14493,8 +14478,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14531,14 +14521,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 44882-2022</t>
+          <t>A 62181-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44841</v>
+        <v>44915</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14550,8 +14540,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>0.5</v>
+        <v>6.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14588,14 +14583,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 47268-2025</t>
+          <t>A 23990-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45930.45893518518</v>
+        <v>45078</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14608,7 +14603,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14645,14 +14640,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 21867-2025</t>
+          <t>A 1935-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45784.37122685185</v>
+        <v>45308</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14665,7 +14660,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14702,14 +14697,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 168-2025</t>
+          <t>A 52372-2021</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45659.64137731482</v>
+        <v>44465</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14722,7 +14717,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>6.9</v>
+        <v>0.4</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14759,14 +14754,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 49362-2024</t>
+          <t>A 22406-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45595.62802083333</v>
+        <v>45446</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14779,7 +14774,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14816,14 +14811,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 22391-2024</t>
+          <t>A 26179-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45446</v>
+        <v>45091.52637731482</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14836,7 +14831,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14873,14 +14868,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 27486-2024</t>
+          <t>A 27967-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45474.48015046296</v>
+        <v>45476.37760416666</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14893,7 +14888,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14930,14 +14925,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 25958-2023</t>
+          <t>A 26837-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45090</v>
+        <v>44740.4811574074</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14950,7 +14945,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14987,14 +14982,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 48672-2025</t>
+          <t>A 25967-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45936.58152777778</v>
+        <v>45090.79582175926</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15007,7 +15002,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15044,14 +15039,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 48870-2025</t>
+          <t>A 22410-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45937.44994212963</v>
+        <v>45446</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15064,7 +15059,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15101,14 +15096,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 60271-2024</t>
+          <t>A 29334-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45642</v>
+        <v>44752</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15120,8 +15115,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G250" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15158,14 +15158,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 12631-2021</t>
+          <t>A 5941-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44270</v>
+        <v>45695.46671296296</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15215,14 +15215,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 17458-2023</t>
+          <t>A 29335-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45034</v>
+        <v>44752</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15234,8 +15234,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15272,14 +15277,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 23469-2025</t>
+          <t>A 42653-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45792.43915509259</v>
+        <v>45566.33113425926</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15292,7 +15297,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15329,14 +15334,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 44925-2025</t>
+          <t>A 44882-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45918.55711805556</v>
+        <v>44841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15349,7 +15354,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15386,14 +15391,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 54669-2023</t>
+          <t>A 56460-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45235.63085648148</v>
+        <v>45243</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15406,7 +15411,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15443,14 +15448,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 11460-2025</t>
+          <t>A 1783-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45726</v>
+        <v>45671.4491087963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15463,7 +15468,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15500,14 +15505,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 36280-2025</t>
+          <t>A 8752-2021</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45867</v>
+        <v>44246</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15520,7 +15525,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.6</v>
+        <v>6.8</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15557,14 +15562,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 51654-2025</t>
+          <t>A 26178-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45951.46241898148</v>
+        <v>45091.52565972223</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15614,14 +15619,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 53142-2025</t>
+          <t>A 51577-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45958</v>
+        <v>45222.45756944444</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15634,7 +15639,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15671,14 +15676,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 53017-2025</t>
+          <t>A 63029-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45957</v>
+        <v>45272</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15691,7 +15696,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15728,14 +15733,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 53019-2025</t>
+          <t>A 58284-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45957</v>
+        <v>45250.53486111111</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15748,7 +15753,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15785,14 +15790,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 54506-2025</t>
+          <t>A 27497-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45965</v>
+        <v>45474</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15805,7 +15810,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15842,14 +15847,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 26032-2025</t>
+          <t>A 48966-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45804.69063657407</v>
+        <v>45209.60576388889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15862,7 +15867,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15899,14 +15904,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 25588-2025</t>
+          <t>A 2405-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45803.49103009259</v>
+        <v>45674.35796296296</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15919,7 +15924,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15956,14 +15961,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 25589-2025</t>
+          <t>A 27540-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45803.49381944445</v>
+        <v>45474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15976,7 +15981,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16013,14 +16018,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 56264-2025</t>
+          <t>A 9773-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45974.57391203703</v>
+        <v>45362</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16033,7 +16038,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16070,14 +16075,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 56765-2025</t>
+          <t>A 57795-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45978.38018518518</v>
+        <v>44897.66587962963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16090,7 +16095,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16127,14 +16132,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 56581-2025</t>
+          <t>A 50279-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45975.54347222222</v>
+        <v>45216.44960648148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16147,7 +16152,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16184,14 +16189,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 56487-2025</t>
+          <t>A 33796-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45975.41037037037</v>
+        <v>45133.57142361111</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16204,7 +16209,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16241,14 +16246,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 56455-2025</t>
+          <t>A 2090-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45975.35782407408</v>
+        <v>44939</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16261,7 +16266,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16298,14 +16303,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 57343-2025</t>
+          <t>A 57161-2022</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45980.34996527778</v>
+        <v>44895.59303240741</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16318,7 +16323,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16355,14 +16360,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 57221-2025</t>
+          <t>A 57709-2022</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45979.61408564815</v>
+        <v>44897</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16375,7 +16380,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16412,14 +16417,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 57790-2025</t>
+          <t>A 2086-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45981</v>
+        <v>44939</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16432,7 +16437,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16469,14 +16474,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 57774-2025</t>
+          <t>A 50304-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45981</v>
+        <v>45209</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16489,7 +16494,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.1</v>
+        <v>17.9</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16526,14 +16531,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 58347-2025</t>
+          <t>A 11126-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45985.50454861111</v>
+        <v>45723</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16546,7 +16551,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16583,14 +16588,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 1225-2026</t>
+          <t>A 37620-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>46031.40648148148</v>
+        <v>45159.4530787037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16603,7 +16608,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>5.6</v>
+        <v>0.5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16640,14 +16645,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 38899-2025</t>
+          <t>A 9695-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45887</v>
+        <v>44984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16660,7 +16665,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16697,14 +16702,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 2474-2026</t>
+          <t>A 2399-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>46037.37762731482</v>
+        <v>45672</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16717,7 +16722,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>8.6</v>
+        <v>1.9</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16754,14 +16759,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 2480-2026</t>
+          <t>A 22699-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>46037.38482638889</v>
+        <v>45448.32910879629</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16774,7 +16779,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16811,14 +16816,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 60789-2025</t>
+          <t>A 36572-2021</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45999.41315972222</v>
+        <v>44391.58083333333</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16831,7 +16836,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16868,14 +16873,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 3934-2026</t>
+          <t>A 20492-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>46043.80326388889</v>
+        <v>45435.8712962963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16888,7 +16893,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16925,14 +16930,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 4989-2026</t>
+          <t>A 49362-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>46049.38898148148</v>
+        <v>45595.62802083333</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16945,7 +16950,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16982,14 +16987,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 7192-2026</t>
+          <t>A 168-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>46058.49831018518</v>
+        <v>45659.64137731482</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17002,7 +17007,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.7</v>
+        <v>6.9</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17039,14 +17044,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 50629-2025</t>
+          <t>A 21867-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45945</v>
+        <v>45784.37122685185</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17059,7 +17064,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>6.3</v>
+        <v>1.2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17096,14 +17101,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 7242-2026</t>
+          <t>A 25958-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>46058.5840625</v>
+        <v>45090</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17116,7 +17121,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17153,14 +17158,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 2537-2026</t>
+          <t>A 27486-2024</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>46037.44983796297</v>
+        <v>45474.48015046296</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17173,7 +17178,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17210,14 +17215,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 53676-2025</t>
+          <t>A 22391-2024</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45960</v>
+        <v>45446</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17230,7 +17235,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17267,14 +17272,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 52243-2025</t>
+          <t>A 60271-2024</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45953</v>
+        <v>45642</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17287,7 +17292,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17324,14 +17329,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 53163-2025</t>
+          <t>A 12631-2021</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45958</v>
+        <v>44270</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17344,7 +17349,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17381,14 +17386,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 52246-2025</t>
+          <t>A 11460-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45953</v>
+        <v>45726</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17401,7 +17406,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17438,14 +17443,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 8024-2026</t>
+          <t>A 17458-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>46063</v>
+        <v>45034</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17457,13 +17462,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G291" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17500,14 +17500,14 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 5002-2026</t>
+          <t>A 54669-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>46049</v>
+        <v>45235.63085648148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z292"/>
+  <dimension ref="A1:Z295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45916</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,14 +757,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 38101-2024</t>
+          <t>A 35245-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45545.36309027778</v>
+        <v>45853.6421875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -777,17 +777,17 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -810,219 +810,219 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Talltita
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 35245-2025 artfynd.xlsx", "A 35245-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 35245-2025 karta.png", "A 35245-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 35245-2025 FSC-klagomål.docx", "A 35245-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 35245-2025 FSC-klagomål mail.docx", "A 35245-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 35245-2025 tillsynsbegäran.docx", "A 35245-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 35245-2025 tillsynsbegäran mail.docx", "A 35245-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/fåglar/A 35245-2025 prioriterade fågelarter.docx", "A 35245-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 38101-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45545.36309027778</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Skrattmås
 Vedflikmossa
 Ärtsångare</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 38101-2024 artfynd.xlsx", "A 38101-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 38101-2024 karta.png", "A 38101-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 38101-2024 FSC-klagomål.docx", "A 38101-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 38101-2024 FSC-klagomål mail.docx", "A 38101-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 38101-2024 tillsynsbegäran.docx", "A 38101-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 38101-2024 tillsynsbegäran mail.docx", "A 38101-2024")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/fåglar/A 38101-2024 prioriterade fågelarter.docx", "A 38101-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 31926-2024</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>45510</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>1.9</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>3</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>3</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Havstulpanlav
 Klippfrullania
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 31926-2024 artfynd.xlsx", "A 31926-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 31926-2024 karta.png", "A 31926-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 31926-2024 FSC-klagomål.docx", "A 31926-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 31926-2024 FSC-klagomål mail.docx", "A 31926-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 31926-2024 tillsynsbegäran.docx", "A 31926-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 31926-2024 tillsynsbegäran mail.docx", "A 31926-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 35245-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45853.6421875</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Talltita
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 35245-2025 artfynd.xlsx", "A 35245-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 35245-2025 karta.png", "A 35245-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 35245-2025 FSC-klagomål.docx", "A 35245-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 35245-2025 FSC-klagomål mail.docx", "A 35245-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 35245-2025 tillsynsbegäran.docx", "A 35245-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 35245-2025 tillsynsbegäran mail.docx", "A 35245-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/fåglar/A 35245-2025 prioriterade fågelarter.docx", "A 35245-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45684.70283564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44516.32994212963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45670</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45911</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,14 +1372,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 15068-2023</t>
+          <t>A 57429-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45015</v>
+        <v>45980</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1392,20 +1392,20 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>9.9</v>
+        <v>2.8</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
@@ -1416,129 +1416,129 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Slåttergubbe</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 57429-2025 artfynd.xlsx", "A 57429-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 57429-2025 karta.png", "A 57429-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 57429-2025 FSC-klagomål.docx", "A 57429-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 57429-2025 FSC-klagomål mail.docx", "A 57429-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 57429-2025 tillsynsbegäran.docx", "A 57429-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 57429-2025 tillsynsbegäran mail.docx", "A 57429-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 15068-2023</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45015</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Kambräken</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 15068-2023 artfynd.xlsx", "A 15068-2023")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 15068-2023 karta.png", "A 15068-2023")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 15068-2023 FSC-klagomål.docx", "A 15068-2023")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 15068-2023 FSC-klagomål mail.docx", "A 15068-2023")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 15068-2023 tillsynsbegäran.docx", "A 15068-2023")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 15068-2023 tillsynsbegäran mail.docx", "A 15068-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 57429-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45980</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Slåttergubbe</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 57429-2025 artfynd.xlsx", "A 57429-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 57429-2025 karta.png", "A 57429-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 57429-2025 FSC-klagomål.docx", "A 57429-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 57429-2025 FSC-klagomål mail.docx", "A 57429-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 57429-2025 tillsynsbegäran.docx", "A 57429-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 57429-2025 tillsynsbegäran mail.docx", "A 57429-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44298</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>44788.44263888889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44820.59869212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44788.45163194444</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44676.44231481481</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44546</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44846.67469907407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44752</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44387</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44414.37533564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>44440.43105324074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>44537.84666666666</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44799</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44526.32802083333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>44813</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>44635</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,14 +2754,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 71637-2021</t>
+          <t>A 24712-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44543.32719907408</v>
+        <v>44340.5113425926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2811,14 +2811,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 24712-2021</t>
+          <t>A 71637-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44340.5113425926</v>
+        <v>44543.32719907408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>44636.62268518518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>44841.84542824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>44804.63545138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,14 +3039,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 6020-2022</t>
+          <t>A 7541-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44599</v>
+        <v>45705.57094907408</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>6.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3096,14 +3096,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 7541-2025</t>
+          <t>A 19390-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45705.57094907408</v>
+        <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3153,14 +3153,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 19390-2023</t>
+          <t>A 73830-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45048</v>
+        <v>44552.84040509259</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3210,14 +3210,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 73830-2021</t>
+          <t>A 44814-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44552.84040509259</v>
+        <v>44841.40362268518</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3267,14 +3267,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 44814-2022</t>
+          <t>A 9748-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44841.40362268518</v>
+        <v>45362.60480324074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5.2</v>
+        <v>2.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3324,14 +3324,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 9748-2024</t>
+          <t>A 6020-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45362.60480324074</v>
+        <v>44599</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3381,14 +3381,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 5927-2023</t>
+          <t>A 10379-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44963</v>
+        <v>45365.64063657408</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3438,14 +3438,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 52876-2024</t>
+          <t>A 5927-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45610.6337037037</v>
+        <v>44963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3495,14 +3495,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 10379-2024</t>
+          <t>A 52876-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45365.64063657408</v>
+        <v>45610.6337037037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>45077</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44545.31795138889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3666,14 +3666,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 9359-2025</t>
+          <t>A 17737-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45715.29788194445</v>
+        <v>45037.44637731482</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3723,14 +3723,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 17737-2023</t>
+          <t>A 60271-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45037.44637731482</v>
+        <v>45642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3780,14 +3780,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 13611-2025</t>
+          <t>A 9359-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45736.62430555555</v>
+        <v>45715.29788194445</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3837,14 +3837,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 47890-2022</t>
+          <t>A 13611-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44855</v>
+        <v>45736.62430555555</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3894,14 +3894,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 23469-2025</t>
+          <t>A 38772-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45792.43915509259</v>
+        <v>45887.42040509259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3951,14 +3951,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 39622-2023</t>
+          <t>A 3934-2026</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45163</v>
+        <v>46043.80326388889</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>10.7</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4008,14 +4008,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 23898-2023</t>
+          <t>A 12631-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45078.54318287037</v>
+        <v>44270</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4065,14 +4065,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 7192-2026</t>
+          <t>A 11460-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>46058.49831018518</v>
+        <v>45726</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4122,14 +4122,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 38772-2025</t>
+          <t>A 17458-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45887.42040509259</v>
+        <v>45034</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4179,14 +4179,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 7242-2026</t>
+          <t>A 54669-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>46058.5840625</v>
+        <v>45235.63085648148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4236,14 +4236,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 50629-2025</t>
+          <t>A 38857-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45945</v>
+        <v>45887.55858796297</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6.3</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4293,14 +4293,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 31704-2023</t>
+          <t>A 23469-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45117</v>
+        <v>45792.43915509259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6.7</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4350,14 +4350,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 14912-2024</t>
+          <t>A 39622-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45398.59821759259</v>
+        <v>45163</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.6</v>
+        <v>10.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4407,14 +4407,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 52243-2025</t>
+          <t>A 31399-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45953</v>
+        <v>45833.46824074074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4464,14 +4464,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 53163-2025</t>
+          <t>A 47890-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45958</v>
+        <v>44855</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4521,14 +4521,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 25589-2025</t>
+          <t>A 7915-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45803.49381944445</v>
+        <v>45707.35076388889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4578,14 +4578,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 52246-2025</t>
+          <t>A 38893-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45953</v>
+        <v>45887.58900462963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4635,14 +4635,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 25588-2025</t>
+          <t>A 23898-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45803.49103009259</v>
+        <v>45078.54318287037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4692,14 +4692,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38857-2025</t>
+          <t>A 39864-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45887.55858796297</v>
+        <v>45891.60197916667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4749,14 +4749,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 54667-2023</t>
+          <t>A 31704-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45235.62601851852</v>
+        <v>45117</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>6.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4806,14 +4806,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 26032-2025</t>
+          <t>A 25589-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45804.69063657407</v>
+        <v>45803.49381944445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4863,14 +4863,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 26020-2025</t>
+          <t>A 14912-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45804.67818287037</v>
+        <v>45398.59821759259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4920,14 +4920,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 31399-2025</t>
+          <t>A 25588-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45833.46824074074</v>
+        <v>45803.49103009259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4977,14 +4977,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 2537-2026</t>
+          <t>A 26032-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>46037.44983796297</v>
+        <v>45804.69063657407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5034,14 +5034,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 53676-2025</t>
+          <t>A 26020-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45960</v>
+        <v>45804.67818287037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5091,14 +5091,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7915-2025</t>
+          <t>A 54667-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45707.35076388889</v>
+        <v>45235.62601851852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5148,14 +5148,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 38893-2025</t>
+          <t>A 41912-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45887.58900462963</v>
+        <v>45903.40931712963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5205,14 +5205,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 5002-2026</t>
+          <t>A 27523-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46049</v>
+        <v>45813</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5262,14 +5262,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 8024-2026</t>
+          <t>A 41887-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46063</v>
+        <v>45903.37215277777</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5279,11 +5279,6 @@
       <c r="E78" t="inlineStr">
         <is>
           <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -5324,14 +5319,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 25963-2023</t>
+          <t>A 27449-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45090</v>
+        <v>45813.33200231481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5344,7 +5339,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5381,14 +5376,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 40814-2023</t>
+          <t>A 41926-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45171.54957175926</v>
+        <v>45903.42753472222</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5401,7 +5396,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5438,14 +5433,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 32855-2023</t>
+          <t>A 15478-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45124</v>
+        <v>45747.5475</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5458,7 +5453,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5495,14 +5490,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 1492-2024</t>
+          <t>A 27988-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45305.84925925926</v>
+        <v>45817.58586805555</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5515,7 +5510,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.2</v>
+        <v>11.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5552,14 +5547,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 1493-2024</t>
+          <t>A 25963-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45305</v>
+        <v>45090</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5572,7 +5567,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5609,14 +5604,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 21910-2024</t>
+          <t>A 21146-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45443.36605324074</v>
+        <v>44704</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5629,7 +5624,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.4</v>
+        <v>7.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5666,14 +5661,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 27523-2025</t>
+          <t>A 4989-2026</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45813</v>
+        <v>46049.38898148148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5686,7 +5681,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5723,14 +5718,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 27449-2025</t>
+          <t>A 40814-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45813.33200231481</v>
+        <v>45171.54957175926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5738,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5780,14 +5775,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 27521-2021</t>
+          <t>A 32855-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44351</v>
+        <v>45124</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5800,7 +5795,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>10.3</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5837,14 +5832,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 57703-2022</t>
+          <t>A 1492-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44897</v>
+        <v>45305.84925925926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5857,7 +5852,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5894,14 +5889,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 26058-2024</t>
+          <t>A 1493-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45468</v>
+        <v>45305</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5914,7 +5909,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5951,14 +5946,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 15478-2025</t>
+          <t>A 21910-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45747.5475</v>
+        <v>45443.36605324074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5971,7 +5966,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6008,14 +6003,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 27988-2025</t>
+          <t>A 27521-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45817.58586805555</v>
+        <v>44351</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6028,7 +6023,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>11.8</v>
+        <v>10.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6065,14 +6060,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 63783-2023</t>
+          <t>A 57703-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45278.38888888889</v>
+        <v>44897</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,14 +6117,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 21146-2022</t>
+          <t>A 26058-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44704</v>
+        <v>45468</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6142,7 +6137,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>7.4</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6179,14 +6174,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 39864-2025</t>
+          <t>A 28693-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45891.60197916667</v>
+        <v>45819.83893518519</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6199,7 +6194,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6236,14 +6231,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 3205-2025</t>
+          <t>A 42725-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45679</v>
+        <v>45908.40152777778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6255,13 +6250,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>6.7</v>
+        <v>3.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6298,14 +6288,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 1397-2023</t>
+          <t>A 42713-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44936.73979166667</v>
+        <v>45908.37888888889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6318,7 +6308,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6355,14 +6345,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 6137-2024</t>
+          <t>A 42708-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45337</v>
+        <v>45908.37359953704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6375,7 +6365,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>11.7</v>
+        <v>0.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6412,14 +6402,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 28693-2025</t>
+          <t>A 42714-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45819.83893518519</v>
+        <v>45908.381875</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6432,7 +6422,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6469,14 +6459,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 36543-2022</t>
+          <t>A 63783-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44804.57</v>
+        <v>45278.38888888889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6489,7 +6479,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6526,14 +6516,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 13068-2023</t>
+          <t>A 42728-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45002.38854166667</v>
+        <v>45908.40429398148</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6546,7 +6536,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6590,7 +6580,7 @@
         <v>45825</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,14 +6630,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 5954-2025</t>
+          <t>A 3205-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45695.4777662037</v>
+        <v>45679</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6659,8 +6649,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6697,14 +6692,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 12625-2021</t>
+          <t>A 13797-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44270.4590625</v>
+        <v>45737.48324074074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6717,7 +6712,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6754,14 +6749,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 19643-2024</t>
+          <t>A 1397-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45432</v>
+        <v>44936.73979166667</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6773,13 +6768,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6816,14 +6806,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 23692-2023</t>
+          <t>A 43992-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45077.60907407408</v>
+        <v>45915.44501157408</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6826,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6873,14 +6863,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 37501-2024</t>
+          <t>A 6137-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45541.37159722222</v>
+        <v>45337</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6883,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>11.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6930,14 +6920,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 44880-2022</t>
+          <t>A 43900-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44841</v>
+        <v>45913.26221064815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6940,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.3</v>
+        <v>4.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6987,14 +6977,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 171-2025</t>
+          <t>A 43641-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45659.64508101852</v>
+        <v>45911.87390046296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +6997,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7044,14 +7034,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 12038-2025</t>
+          <t>A 43990-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45728.65583333333</v>
+        <v>45915.44359953704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7054,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7101,14 +7091,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 17270-2025</t>
+          <t>A 36543-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45756.5531712963</v>
+        <v>44804.57</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7111,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7158,14 +7148,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 9691-2023</t>
+          <t>A 44364-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44984</v>
+        <v>45916.45373842592</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7168,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>5.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7215,14 +7205,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 32704-2025</t>
+          <t>A 13068-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45839</v>
+        <v>45002.38854166667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7225,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7272,14 +7262,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 17641-2023</t>
+          <t>A 5954-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45035</v>
+        <v>45695.4777662037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7282,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7329,14 +7319,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 33752-2025</t>
+          <t>A 44355-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45842.36796296296</v>
+        <v>45916.44782407407</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7339,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7386,14 +7376,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 41912-2025</t>
+          <t>A 44386-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45903.40931712963</v>
+        <v>45916.48872685185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7396,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7443,14 +7433,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 39650-2023</t>
+          <t>A 44376-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45167.55505787037</v>
+        <v>45916.47453703704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7453,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7500,14 +7490,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 41887-2025</t>
+          <t>A 12625-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45903.37215277777</v>
+        <v>44270.4590625</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7510,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7557,14 +7547,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 11115-2025</t>
+          <t>A 44864-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45723</v>
+        <v>45918</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7567,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7614,14 +7604,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 24154-2023</t>
+          <t>A 44903-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45079</v>
+        <v>45918.5110300926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7624,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7671,14 +7661,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 65211-2021</t>
+          <t>A 44793-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44515.50362268519</v>
+        <v>45918.32309027778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7681,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.9</v>
+        <v>1.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7728,14 +7718,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 41926-2025</t>
+          <t>A 44923-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45903.42753472222</v>
+        <v>45918.55475694445</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7738,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7785,14 +7775,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 24765-2023</t>
+          <t>A 44897-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45084.6352662037</v>
+        <v>45918.50546296296</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7795,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7842,14 +7832,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 35168-2025</t>
+          <t>A 19643-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45852</v>
+        <v>45432</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7861,8 +7851,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>5.2</v>
+        <v>2.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7899,14 +7894,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 18285-2025</t>
+          <t>A 44890-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45762</v>
+        <v>45918.49697916667</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7914,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7956,14 +7951,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 35490-2025</t>
+          <t>A 44791-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45855.79797453704</v>
+        <v>45918.31138888889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7971,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8013,14 +8008,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 61602-2024</t>
+          <t>A 44846-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45646.6387962963</v>
+        <v>45918.43986111111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8028,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8070,14 +8065,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 35489-2025</t>
+          <t>A 44852-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45855.79260416667</v>
+        <v>45918.44703703704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8085,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>6.3</v>
+        <v>2.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8127,14 +8122,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 35808-2025</t>
+          <t>A 12038-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45861.41337962963</v>
+        <v>45728.65583333333</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8147,7 +8142,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8184,14 +8179,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 42725-2025</t>
+          <t>A 45556-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45908.40152777778</v>
+        <v>45922.64444444444</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8199,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8241,14 +8236,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 42713-2025</t>
+          <t>A 23692-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45908.37888888889</v>
+        <v>45077.60907407408</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8261,7 +8256,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8298,14 +8293,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 42708-2025</t>
+          <t>A 17270-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45908.37359953704</v>
+        <v>45756.5531712963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8313,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8355,14 +8350,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 42714-2025</t>
+          <t>A 37501-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45908.381875</v>
+        <v>45541.37159722222</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8370,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8412,14 +8407,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 24671-2025</t>
+          <t>A 44880-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45798.65046296296</v>
+        <v>44841</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8427,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8469,14 +8464,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 24674-2025</t>
+          <t>A 32704-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45798.65300925926</v>
+        <v>45839</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8484,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8526,14 +8521,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 42728-2025</t>
+          <t>A 171-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45908.40429398148</v>
+        <v>45659.64508101852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8546,7 +8541,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8583,14 +8578,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 24664-2025</t>
+          <t>A 9691-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45798.64627314815</v>
+        <v>44984</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8598,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8640,14 +8635,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 34631-2025</t>
+          <t>A 17641-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45848.26144675926</v>
+        <v>45035</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8655,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>7.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8697,14 +8692,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 34632-2025</t>
+          <t>A 47268-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45848.26725694445</v>
+        <v>45930.45893518518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8712,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8754,14 +8749,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 34633-2025</t>
+          <t>A 33752-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45848.27251157408</v>
+        <v>45842.36796296296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8769,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8811,14 +8806,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 42177-2023</t>
+          <t>A 11115-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45178.7221412037</v>
+        <v>45723</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8826,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8868,14 +8863,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 13797-2025</t>
+          <t>A 35168-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45737.48324074074</v>
+        <v>45852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8883,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8925,14 +8920,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 37778-2025</t>
+          <t>A 18285-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45880</v>
+        <v>45762</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8940,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8982,14 +8977,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 28221-2023</t>
+          <t>A 48672-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45099</v>
+        <v>45936.58152777778</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9002,7 +8997,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>6.7</v>
+        <v>1.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9039,14 +9034,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 11605-2023</t>
+          <t>A 35490-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44994.401875</v>
+        <v>45855.79797453704</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9059,7 +9054,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9096,14 +9091,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 23693-2023</t>
+          <t>A 39650-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45077</v>
+        <v>45167.55505787037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9116,7 +9111,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9153,14 +9148,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 43992-2025</t>
+          <t>A 61602-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45915.44501157408</v>
+        <v>45646.6387962963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9173,7 +9168,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9210,14 +9205,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 45192-2022</t>
+          <t>A 35489-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44844.42034722222</v>
+        <v>45855.79260416667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9230,7 +9225,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.8</v>
+        <v>6.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9267,14 +9262,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 43900-2025</t>
+          <t>A 48870-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45913.26221064815</v>
+        <v>45937.44994212963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9287,7 +9282,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9324,14 +9319,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 43641-2025</t>
+          <t>A 35808-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45911.87390046296</v>
+        <v>45861.41337962963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9344,7 +9339,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9381,14 +9376,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 43990-2025</t>
+          <t>A 24154-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45915.44359953704</v>
+        <v>45079</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9401,7 +9396,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9438,14 +9433,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 44364-2025</t>
+          <t>A 65211-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45916.45373842592</v>
+        <v>44515.50362268519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9458,7 +9453,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9495,14 +9490,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 38879-2025</t>
+          <t>A 24765-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45887.5771875</v>
+        <v>45084.6352662037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9510,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9552,14 +9547,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 38897-2025</t>
+          <t>A 24671-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45887.59670138889</v>
+        <v>45798.65046296296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9567,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9609,14 +9604,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 44355-2025</t>
+          <t>A 24674-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45916.44782407407</v>
+        <v>45798.65300925926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9624,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9666,14 +9661,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 9573-2025</t>
+          <t>A 24664-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45715.62260416667</v>
+        <v>45798.64627314815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9681,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9723,14 +9718,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 44386-2025</t>
+          <t>A 34631-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45916.48872685185</v>
+        <v>45848.26144675926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9738,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9780,14 +9775,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 44376-2025</t>
+          <t>A 34632-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45916.47453703704</v>
+        <v>45848.26725694445</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9800,7 +9795,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9837,14 +9832,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 44864-2025</t>
+          <t>A 34633-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45918</v>
+        <v>45848.27251157408</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9857,7 +9852,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9894,14 +9889,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 44903-2025</t>
+          <t>A 44925-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45918.5110300926</v>
+        <v>45918.55711805556</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9951,14 +9946,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 44793-2025</t>
+          <t>A 51654-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45918.32309027778</v>
+        <v>45951.46241898148</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9971,7 +9966,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10008,14 +10003,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 44923-2025</t>
+          <t>A 36280-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45918.55475694445</v>
+        <v>45867</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10028,7 +10023,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10065,14 +10060,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 44897-2025</t>
+          <t>A 37778-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45918.50546296296</v>
+        <v>45880</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10085,7 +10080,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10122,14 +10117,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 44890-2025</t>
+          <t>A 53017-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45918.49697916667</v>
+        <v>45957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10142,7 +10137,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10179,14 +10174,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 44791-2025</t>
+          <t>A 53019-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45918.31138888889</v>
+        <v>45957</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10199,7 +10194,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10236,14 +10231,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 44846-2025</t>
+          <t>A 38879-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45918.43986111111</v>
+        <v>45887.5771875</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10256,7 +10251,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10293,14 +10288,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 44852-2025</t>
+          <t>A 53142-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45918.44703703704</v>
+        <v>45958</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10313,7 +10308,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10350,14 +10345,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 45556-2025</t>
+          <t>A 38897-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45922.64444444444</v>
+        <v>45887.59670138889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10370,7 +10365,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10407,14 +10402,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 22975-2023</t>
+          <t>A 7192-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45072</v>
+        <v>46058.49831018518</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10427,7 +10422,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10464,14 +10459,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 47268-2025</t>
+          <t>A 7242-2026</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45930.45893518518</v>
+        <v>46058.5840625</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10484,7 +10479,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10521,14 +10516,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 14430-2023</t>
+          <t>A 50629-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45012</v>
+        <v>45945</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10541,7 +10536,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.9</v>
+        <v>6.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10578,14 +10573,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 64091-2023</t>
+          <t>A 42177-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45279</v>
+        <v>45178.7221412037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10598,7 +10593,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10635,14 +10630,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 48672-2025</t>
+          <t>A 52243-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45936.58152777778</v>
+        <v>45953</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10655,7 +10650,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10692,14 +10687,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 25962-2023</t>
+          <t>A 28221-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45090.77961805555</v>
+        <v>45099</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10712,7 +10707,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10749,14 +10744,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 981-2023</t>
+          <t>A 11605-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44935.35828703704</v>
+        <v>44994.401875</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10769,7 +10764,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10806,14 +10801,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 30136-2022</t>
+          <t>A 54506-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44757.46511574074</v>
+        <v>45965</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10825,13 +10820,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10868,14 +10858,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 38214-2023</t>
+          <t>A 23693-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45161</v>
+        <v>45077</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10888,7 +10878,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10925,14 +10915,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 48870-2025</t>
+          <t>A 53163-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45937.44994212963</v>
+        <v>45958</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10945,7 +10935,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10982,14 +10972,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 23739-2023</t>
+          <t>A 45192-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45077.7675</v>
+        <v>44844.42034722222</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11002,7 +10992,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11039,14 +11029,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 6796-2024</t>
+          <t>A 52246-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45342.56502314815</v>
+        <v>45953</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11059,7 +11049,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11096,14 +11086,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 29169-2021</t>
+          <t>A 2537-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44358</v>
+        <v>46037.44983796297</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11116,7 +11106,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11153,14 +11143,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 34591-2023</t>
+          <t>A 53676-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45140</v>
+        <v>45960</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11173,7 +11163,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11210,14 +11200,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 40184-2022</t>
+          <t>A 56581-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44820.58752314815</v>
+        <v>45975.54347222222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11230,7 +11220,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11267,14 +11257,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 44925-2025</t>
+          <t>A 9573-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45918.55711805556</v>
+        <v>45715.62260416667</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11287,7 +11277,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11324,14 +11314,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 9559-2022</t>
+          <t>A 56264-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44617.43976851852</v>
+        <v>45974.57391203703</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11344,7 +11334,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11381,14 +11371,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 31925-2024</t>
+          <t>A 56455-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45510</v>
+        <v>45975.35782407408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11401,7 +11391,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11438,14 +11428,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 51654-2025</t>
+          <t>A 56487-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45951.46241898148</v>
+        <v>45975.41037037037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11458,7 +11448,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11495,14 +11485,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 36280-2025</t>
+          <t>A 56765-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45867</v>
+        <v>45978.38018518518</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11515,7 +11505,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11552,14 +11542,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 30638-2023</t>
+          <t>A 57221-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45112</v>
+        <v>45979.61408564815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11572,7 +11562,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11609,14 +11599,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 2088-2023</t>
+          <t>A 57774-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44939</v>
+        <v>45981</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11629,7 +11619,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11666,14 +11656,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 53017-2025</t>
+          <t>A 57343-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45957</v>
+        <v>45980.34996527778</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11686,7 +11676,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11723,14 +11713,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 53019-2025</t>
+          <t>A 57790-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45957</v>
+        <v>45981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11743,7 +11733,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11780,14 +11770,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 53142-2025</t>
+          <t>A 58347-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45958</v>
+        <v>45985.50454861111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11800,7 +11790,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.3</v>
+        <v>3.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11837,14 +11827,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 25960-2023</t>
+          <t>A 9125-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45090</v>
+        <v>46069.68701388889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11857,7 +11847,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11894,14 +11884,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 52528-2021</t>
+          <t>A 22975-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44466.46428240741</v>
+        <v>45072</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11914,7 +11904,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11951,14 +11941,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 36838-2024</t>
+          <t>A 9105-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45538.52853009259</v>
+        <v>46069.65299768518</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11971,7 +11961,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12008,14 +11998,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 54506-2025</t>
+          <t>A 5002-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45965</v>
+        <v>46049</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12028,7 +12018,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12065,14 +12055,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 1904-2023</t>
+          <t>A 14430-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44939</v>
+        <v>45012</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12085,7 +12075,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12122,14 +12112,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 56581-2025</t>
+          <t>A 8024-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45975.54347222222</v>
+        <v>46063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12141,8 +12131,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12179,14 +12174,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 56264-2025</t>
+          <t>A 64091-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45974.57391203703</v>
+        <v>45279</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12199,7 +12194,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12236,14 +12231,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 56455-2025</t>
+          <t>A 9127-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45975.35782407408</v>
+        <v>46069.6934375</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12256,7 +12251,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12293,14 +12288,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 56487-2025</t>
+          <t>A 25962-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45975.41037037037</v>
+        <v>45090.77961805555</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12313,7 +12308,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3</v>
+        <v>7.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12350,14 +12345,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 56765-2025</t>
+          <t>A 981-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45978.38018518518</v>
+        <v>44935.35828703704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12370,7 +12365,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12407,14 +12402,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 57221-2025</t>
+          <t>A 30136-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45979.61408564815</v>
+        <v>44757.46511574074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12426,8 +12421,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12464,14 +12464,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 8204-2023</t>
+          <t>A 38214-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44971</v>
+        <v>45161</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12521,14 +12521,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 11121-2025</t>
+          <t>A 1225-2026</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45723.6369675926</v>
+        <v>46031.40648148148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.2</v>
+        <v>5.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12578,14 +12578,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 3830-2022</t>
+          <t>A 23739-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44587.35361111111</v>
+        <v>45077.7675</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12635,14 +12635,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 57774-2025</t>
+          <t>A 6796-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45981</v>
+        <v>45342.56502314815</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12692,14 +12692,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 57343-2025</t>
+          <t>A 29169-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45980.34996527778</v>
+        <v>44358</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12749,14 +12749,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 21152-2022</t>
+          <t>A 2480-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44704</v>
+        <v>46037.38482638889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12806,14 +12806,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 58130-2022</t>
+          <t>A 34591-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44900</v>
+        <v>45140</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>23.2</v>
+        <v>1.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12863,14 +12863,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 57790-2025</t>
+          <t>A 2474-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45981</v>
+        <v>46037.37762731482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.8</v>
+        <v>8.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12920,14 +12920,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 58347-2025</t>
+          <t>A 40184-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45985.50454861111</v>
+        <v>44820.58752314815</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.2</v>
+        <v>0.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12977,14 +12977,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 2359-2023</t>
+          <t>A 38899-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44942</v>
+        <v>45887</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13034,14 +13034,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 55049-2023</t>
+          <t>A 60789-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45237</v>
+        <v>45999.41315972222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13091,14 +13091,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 1225-2026</t>
+          <t>A 9559-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46031.40648148148</v>
+        <v>44617.43976851852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>5.6</v>
+        <v>1.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13148,14 +13148,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 15987-2025</t>
+          <t>A 31925-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45749</v>
+        <v>45510</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13205,14 +13205,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 57208-2022</t>
+          <t>A 30638-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44895</v>
+        <v>45112</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13262,14 +13262,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 3864-2023</t>
+          <t>A 2088-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44951.76491898148</v>
+        <v>44939</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>6.2</v>
+        <v>2.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13319,14 +13319,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 25965-2023</t>
+          <t>A 25960-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45090.79171296296</v>
+        <v>45090</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13376,14 +13376,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 2480-2026</t>
+          <t>A 52528-2021</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46037.38482638889</v>
+        <v>44466.46428240741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13433,14 +13433,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 2474-2026</t>
+          <t>A 36838-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46037.37762731482</v>
+        <v>45538.52853009259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>8.6</v>
+        <v>1.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13490,14 +13490,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 38928-2024</t>
+          <t>A 1904-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45548</v>
+        <v>44939</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13547,14 +13547,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 7707-2024</t>
+          <t>A 8204-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45349.35894675926</v>
+        <v>44971</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13604,14 +13604,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 38899-2025</t>
+          <t>A 11121-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45887</v>
+        <v>45723.6369675926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.3</v>
+        <v>0.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13661,14 +13661,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 60789-2025</t>
+          <t>A 3830-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45999.41315972222</v>
+        <v>44587.35361111111</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13718,14 +13718,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 14254-2023</t>
+          <t>A 21152-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45009.90423611111</v>
+        <v>44704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13775,14 +13775,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 3934-2026</t>
+          <t>A 58130-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46043.80326388889</v>
+        <v>44900</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.1</v>
+        <v>23.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13832,14 +13832,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 4989-2026</t>
+          <t>A 2359-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46049.38898148148</v>
+        <v>44942</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13889,14 +13889,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 47871-2022</t>
+          <t>A 55049-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44855.43434027778</v>
+        <v>45237</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13946,14 +13946,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 40190-2022</t>
+          <t>A 15987-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44820.591875</v>
+        <v>45749</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14003,14 +14003,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 20099-2025</t>
+          <t>A 57208-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45772.46916666667</v>
+        <v>44895</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14060,14 +14060,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 10797-2025</t>
+          <t>A 3864-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45722.50984953704</v>
+        <v>44951.76491898148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>15.1</v>
+        <v>6.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14117,14 +14117,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 40017-2023</t>
+          <t>A 25965-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45168</v>
+        <v>45090.79171296296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14174,14 +14174,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 34279-2023</t>
+          <t>A 38928-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45138</v>
+        <v>45548</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14231,14 +14231,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 54661-2023</t>
+          <t>A 7707-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45235.61505787037</v>
+        <v>45349.35894675926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14288,14 +14288,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 54646-2023</t>
+          <t>A 14254-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45235.40707175926</v>
+        <v>45009.90423611111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14345,14 +14345,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 2092-2023</t>
+          <t>A 47871-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44939</v>
+        <v>44855.43434027778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14402,14 +14402,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 21023-2024</t>
+          <t>A 40190-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45439.64483796297</v>
+        <v>44820.591875</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14459,14 +14459,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 62180-2022</t>
+          <t>A 20099-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44915</v>
+        <v>45772.46916666667</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14478,13 +14478,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14521,14 +14516,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 62181-2022</t>
+          <t>A 10797-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44915</v>
+        <v>45722.50984953704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14540,13 +14535,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>6.4</v>
+        <v>15.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14583,14 +14573,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 23990-2023</t>
+          <t>A 40017-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45078</v>
+        <v>45168</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14603,7 +14593,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14640,14 +14630,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 1935-2024</t>
+          <t>A 34279-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45308</v>
+        <v>45138</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14660,7 +14650,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14697,14 +14687,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 52372-2021</t>
+          <t>A 54661-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44465</v>
+        <v>45235.61505787037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14717,7 +14707,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14754,14 +14744,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 22406-2024</t>
+          <t>A 54646-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45446</v>
+        <v>45235.40707175926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14774,7 +14764,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14811,14 +14801,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 26179-2023</t>
+          <t>A 2092-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45091.52637731482</v>
+        <v>44939</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14831,7 +14821,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14868,14 +14858,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 27967-2024</t>
+          <t>A 21023-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45476.37760416666</v>
+        <v>45439.64483796297</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14888,7 +14878,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14925,14 +14915,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 26837-2022</t>
+          <t>A 62180-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44740.4811574074</v>
+        <v>44915</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14944,8 +14934,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14982,14 +14977,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 25967-2023</t>
+          <t>A 62181-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45090.79582175926</v>
+        <v>44915</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15001,8 +14996,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15039,14 +15039,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 22410-2024</t>
+          <t>A 23990-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45446</v>
+        <v>45078</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15096,14 +15096,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 29334-2022</t>
+          <t>A 1935-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44752</v>
+        <v>45308</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15115,13 +15115,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G250" t="n">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15158,14 +15153,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 5941-2025</t>
+          <t>A 52372-2021</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45695.46671296296</v>
+        <v>44465</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15178,7 +15173,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15215,14 +15210,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 29335-2022</t>
+          <t>A 22406-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44752</v>
+        <v>45446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15234,13 +15229,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15277,14 +15267,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 42653-2024</t>
+          <t>A 26179-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45566.33113425926</v>
+        <v>45091.52637731482</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15297,7 +15287,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15334,14 +15324,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 44882-2022</t>
+          <t>A 27967-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44841</v>
+        <v>45476.37760416666</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15354,7 +15344,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15391,14 +15381,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 56460-2023</t>
+          <t>A 26837-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45243</v>
+        <v>44740.4811574074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15411,7 +15401,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>5.3</v>
+        <v>1.7</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15448,14 +15438,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 1783-2025</t>
+          <t>A 25967-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45671.4491087963</v>
+        <v>45090.79582175926</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15468,7 +15458,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15505,14 +15495,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 8752-2021</t>
+          <t>A 22410-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44246</v>
+        <v>45446</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15525,7 +15515,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15562,14 +15552,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 26178-2023</t>
+          <t>A 29334-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45091.52565972223</v>
+        <v>44752</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15581,8 +15571,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G258" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15619,14 +15614,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 51577-2023</t>
+          <t>A 5941-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45222.45756944444</v>
+        <v>45695.46671296296</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15639,7 +15634,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15676,14 +15671,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 63029-2023</t>
+          <t>A 29335-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45272</v>
+        <v>44752</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15695,8 +15690,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15733,14 +15733,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 58284-2023</t>
+          <t>A 42653-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45250.53486111111</v>
+        <v>45566.33113425926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15790,14 +15790,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 27497-2024</t>
+          <t>A 44882-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45474</v>
+        <v>44841</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15847,14 +15847,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 48966-2023</t>
+          <t>A 56460-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45209.60576388889</v>
+        <v>45243</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15904,14 +15904,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 2405-2025</t>
+          <t>A 1783-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45674.35796296296</v>
+        <v>45671.4491087963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15961,14 +15961,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 27540-2024</t>
+          <t>A 8752-2021</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45474</v>
+        <v>44246</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.7</v>
+        <v>6.8</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16018,14 +16018,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 9773-2024</t>
+          <t>A 26178-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45362</v>
+        <v>45091.52565972223</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16075,14 +16075,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 57795-2022</t>
+          <t>A 51577-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44897.66587962963</v>
+        <v>45222.45756944444</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16132,14 +16132,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 50279-2023</t>
+          <t>A 63029-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45216.44960648148</v>
+        <v>45272</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16189,14 +16189,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 33796-2023</t>
+          <t>A 58284-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45133.57142361111</v>
+        <v>45250.53486111111</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16246,14 +16246,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 2090-2023</t>
+          <t>A 27497-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44939</v>
+        <v>45474</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16303,14 +16303,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 57161-2022</t>
+          <t>A 48966-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44895.59303240741</v>
+        <v>45209.60576388889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16360,14 +16360,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 57709-2022</t>
+          <t>A 2405-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44897</v>
+        <v>45674.35796296296</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16417,14 +16417,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 2086-2023</t>
+          <t>A 27540-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44939</v>
+        <v>45474</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16474,14 +16474,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 50304-2023</t>
+          <t>A 9773-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45209</v>
+        <v>45362</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>17.9</v>
+        <v>0.5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16531,14 +16531,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 11126-2025</t>
+          <t>A 57795-2022</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45723</v>
+        <v>44897.66587962963</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16588,14 +16588,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 37620-2023</t>
+          <t>A 50279-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45159.4530787037</v>
+        <v>45216.44960648148</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16645,14 +16645,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 9695-2023</t>
+          <t>A 33796-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44984</v>
+        <v>45133.57142361111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16702,14 +16702,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 2399-2025</t>
+          <t>A 2090-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45672</v>
+        <v>44939</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16759,14 +16759,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 22699-2024</t>
+          <t>A 57161-2022</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45448.32910879629</v>
+        <v>44895.59303240741</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16816,14 +16816,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 36572-2021</t>
+          <t>A 57709-2022</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44391.58083333333</v>
+        <v>44897</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16873,14 +16873,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 20492-2024</t>
+          <t>A 2086-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45435.8712962963</v>
+        <v>44939</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16930,14 +16930,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 49362-2024</t>
+          <t>A 50304-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45595.62802083333</v>
+        <v>45209</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>3.1</v>
+        <v>17.9</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16987,14 +16987,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 168-2025</t>
+          <t>A 11126-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45659.64137731482</v>
+        <v>45723</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>6.9</v>
+        <v>0.7</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17044,14 +17044,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 21867-2025</t>
+          <t>A 37620-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45784.37122685185</v>
+        <v>45159.4530787037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17101,14 +17101,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 25958-2023</t>
+          <t>A 9695-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45090</v>
+        <v>44984</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17158,14 +17158,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 27486-2024</t>
+          <t>A 2399-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45474.48015046296</v>
+        <v>45672</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17215,14 +17215,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 22391-2024</t>
+          <t>A 22699-2024</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45446</v>
+        <v>45448.32910879629</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17272,14 +17272,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 60271-2024</t>
+          <t>A 36572-2021</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45642</v>
+        <v>44391.58083333333</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17329,14 +17329,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 12631-2021</t>
+          <t>A 20492-2024</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44270</v>
+        <v>45435.8712962963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17386,14 +17386,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 11460-2025</t>
+          <t>A 49362-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45726</v>
+        <v>45595.62802083333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17443,14 +17443,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 17458-2023</t>
+          <t>A 168-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45034</v>
+        <v>45659.64137731482</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.5</v>
+        <v>6.9</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17497,17 +17497,17 @@
       </c>
       <c r="R291" s="2" t="inlineStr"/>
     </row>
-    <row r="292">
+    <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 54669-2023</t>
+          <t>A 21867-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45235.63085648148</v>
+        <v>45784.37122685185</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17553,6 +17553,177 @@
         <v>0</v>
       </c>
       <c r="R292" s="2" t="inlineStr"/>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>A 25958-2023</t>
+        </is>
+      </c>
+      <c r="B293" s="1" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C293" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G293" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N293" t="n">
+        <v>0</v>
+      </c>
+      <c r="O293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R293" s="2" t="inlineStr"/>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>A 27486-2024</t>
+        </is>
+      </c>
+      <c r="B294" s="1" t="n">
+        <v>45474.48015046296</v>
+      </c>
+      <c r="C294" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G294" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N294" t="n">
+        <v>0</v>
+      </c>
+      <c r="O294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>0</v>
+      </c>
+      <c r="R294" s="2" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>A 22391-2024</t>
+        </is>
+      </c>
+      <c r="B295" s="1" t="n">
+        <v>45446</v>
+      </c>
+      <c r="C295" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G295" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0</v>
+      </c>
+      <c r="O295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R295" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z295"/>
+  <dimension ref="A1:Z296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45916</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45853.6421875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>45545.36309027778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45510</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45684.70283564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44516.32994212963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45670</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1287,14 +1287,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 43471-2025</t>
+          <t>A 57429-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45911</v>
+        <v>45980</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1316,10 +1316,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1334,126 +1334,126 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Slåttergubbe</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 57429-2025 artfynd.xlsx", "A 57429-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 57429-2025 karta.png", "A 57429-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 57429-2025 FSC-klagomål.docx", "A 57429-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 57429-2025 FSC-klagomål mail.docx", "A 57429-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 57429-2025 tillsynsbegäran.docx", "A 57429-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 57429-2025 tillsynsbegäran mail.docx", "A 57429-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 43471-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45911</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Granspira</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 43471-2025 artfynd.xlsx", "A 43471-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 43471-2025 karta.png", "A 43471-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 43471-2025 FSC-klagomål.docx", "A 43471-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 43471-2025 FSC-klagomål mail.docx", "A 43471-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 43471-2025 tillsynsbegäran.docx", "A 43471-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 43471-2025 tillsynsbegäran mail.docx", "A 43471-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 57429-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45980</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Slåttergubbe</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 57429-2025 artfynd.xlsx", "A 57429-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 57429-2025 karta.png", "A 57429-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 57429-2025 FSC-klagomål.docx", "A 57429-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 57429-2025 FSC-klagomål mail.docx", "A 57429-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 57429-2025 tillsynsbegäran.docx", "A 57429-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 57429-2025 tillsynsbegäran mail.docx", "A 57429-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45015</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44298</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>44788.44263888889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44820.59869212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44788.45163194444</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44676.44231481481</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44546</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44846.67469907407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44752</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44387</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44414.37533564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>44440.43105324074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>44537.84666666666</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44799</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44526.32802083333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>44813</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>44635</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>44340.5113425926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>44543.32719907408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44636.62268518518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>44841.84542824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>44804.63545138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>45705.57094907408</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3096,14 +3096,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 19390-2023</t>
+          <t>A 6020-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45048</v>
+        <v>44599</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3153,14 +3153,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 73830-2021</t>
+          <t>A 19390-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44552.84040509259</v>
+        <v>45048</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3210,14 +3210,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 44814-2022</t>
+          <t>A 9748-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44841.40362268518</v>
+        <v>45362.60480324074</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.2</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3267,14 +3267,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 9748-2024</t>
+          <t>A 73830-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45362.60480324074</v>
+        <v>44552.84040509259</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3324,14 +3324,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 6020-2022</t>
+          <t>A 44814-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44599</v>
+        <v>44841.40362268518</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.4</v>
+        <v>5.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3381,14 +3381,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 10379-2024</t>
+          <t>A 38772-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45365.64063657408</v>
+        <v>45887.42040509259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3438,14 +3438,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 5927-2023</t>
+          <t>A 25958-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44963</v>
+        <v>45090</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3495,14 +3495,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 52876-2024</t>
+          <t>A 5927-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45610.6337037037</v>
+        <v>44963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3552,14 +3552,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 23740-2023</t>
+          <t>A 52876-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45077</v>
+        <v>45610.6337037037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3609,14 +3609,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 72261-2021</t>
+          <t>A 27486-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44545.31795138889</v>
+        <v>45474.48015046296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3666,14 +3666,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 17737-2023</t>
+          <t>A 10379-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45037.44637731482</v>
+        <v>45365.64063657408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3723,14 +3723,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 60271-2024</t>
+          <t>A 22391-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45642</v>
+        <v>45446</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3780,14 +3780,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 9359-2025</t>
+          <t>A 23740-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45715.29788194445</v>
+        <v>45077</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3837,14 +3837,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 13611-2025</t>
+          <t>A 60271-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45736.62430555555</v>
+        <v>45642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3894,14 +3894,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 38772-2025</t>
+          <t>A 38857-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45887.42040509259</v>
+        <v>45887.55858796297</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3951,14 +3951,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 3934-2026</t>
+          <t>A 72261-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>46043.80326388889</v>
+        <v>44545.31795138889</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>44270</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>45726</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>45034</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>45235.63085648148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4236,14 +4236,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 38857-2025</t>
+          <t>A 31399-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45887.55858796297</v>
+        <v>45833.46824074074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4293,14 +4293,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 23469-2025</t>
+          <t>A 56581-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45792.43915509259</v>
+        <v>45975.54347222222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4350,14 +4350,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 39622-2023</t>
+          <t>A 7915-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45163</v>
+        <v>45707.35076388889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>10.7</v>
+        <v>1.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4407,14 +4407,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 31399-2025</t>
+          <t>A 38893-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45833.46824074074</v>
+        <v>45887.58900462963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4464,14 +4464,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 47890-2022</t>
+          <t>A 17737-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44855</v>
+        <v>45037.44637731482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4521,14 +4521,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 7915-2025</t>
+          <t>A 23469-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45707.35076388889</v>
+        <v>45792.43915509259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4578,14 +4578,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 38893-2025</t>
+          <t>A 9359-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45887.58900462963</v>
+        <v>45715.29788194445</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4635,14 +4635,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 23898-2023</t>
+          <t>A 13611-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45078.54318287037</v>
+        <v>45736.62430555555</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4692,14 +4692,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 39864-2025</t>
+          <t>A 56264-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45891.60197916667</v>
+        <v>45974.57391203703</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4749,14 +4749,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 31704-2023</t>
+          <t>A 39864-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45117</v>
+        <v>45891.60197916667</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>6.7</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4806,14 +4806,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 25589-2025</t>
+          <t>A 56455-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45803.49381944445</v>
+        <v>45975.35782407408</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4863,14 +4863,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 14912-2024</t>
+          <t>A 56487-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45398.59821759259</v>
+        <v>45975.41037037037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4920,14 +4920,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 25588-2025</t>
+          <t>A 39622-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45803.49103009259</v>
+        <v>45163</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>10.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4977,14 +4977,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 26032-2025</t>
+          <t>A 56765-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45804.69063657407</v>
+        <v>45978.38018518518</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5034,14 +5034,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 26020-2025</t>
+          <t>A 47890-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45804.67818287037</v>
+        <v>44855</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5091,14 +5091,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 54667-2023</t>
+          <t>A 23898-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45235.62601851852</v>
+        <v>45078.54318287037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5148,14 +5148,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 41912-2025</t>
+          <t>A 57221-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45903.40931712963</v>
+        <v>45979.61408564815</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5205,14 +5205,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 27523-2025</t>
+          <t>A 25589-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45813</v>
+        <v>45803.49381944445</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5262,14 +5262,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 41887-2025</t>
+          <t>A 25588-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45903.37215277777</v>
+        <v>45803.49103009259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5319,14 +5319,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 27449-2025</t>
+          <t>A 26032-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45813.33200231481</v>
+        <v>45804.69063657407</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5376,14 +5376,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 41926-2025</t>
+          <t>A 31704-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45903.42753472222</v>
+        <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>6.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5433,14 +5433,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 15478-2025</t>
+          <t>A 26020-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45747.5475</v>
+        <v>45804.67818287037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5490,14 +5490,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 27988-2025</t>
+          <t>A 57774-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45817.58586805555</v>
+        <v>45981</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>11.8</v>
+        <v>2.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5547,14 +5547,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 25963-2023</t>
+          <t>A 41912-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45090</v>
+        <v>45903.40931712963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5604,14 +5604,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 21146-2022</t>
+          <t>A 14912-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44704</v>
+        <v>45398.59821759259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>7.4</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5661,14 +5661,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 4989-2026</t>
+          <t>A 57343-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46049.38898148148</v>
+        <v>45980.34996527778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5718,14 +5718,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 40814-2023</t>
+          <t>A 41887-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45171.54957175926</v>
+        <v>45903.37215277777</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5775,14 +5775,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 32855-2023</t>
+          <t>A 41926-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45124</v>
+        <v>45903.42753472222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5832,14 +5832,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 1492-2024</t>
+          <t>A 57790-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45305.84925925926</v>
+        <v>45981</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5889,14 +5889,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 1493-2024</t>
+          <t>A 54667-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45305</v>
+        <v>45235.62601851852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5946,14 +5946,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 21910-2024</t>
+          <t>A 42725-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45443.36605324074</v>
+        <v>45908.40152777778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6003,14 +6003,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 27521-2021</t>
+          <t>A 42713-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44351</v>
+        <v>45908.37888888889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>10.3</v>
+        <v>2.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6060,14 +6060,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 57703-2022</t>
+          <t>A 27523-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44897</v>
+        <v>45813</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6117,14 +6117,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 26058-2024</t>
+          <t>A 42708-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45468</v>
+        <v>45908.37359953704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6174,14 +6174,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 28693-2025</t>
+          <t>A 42714-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45819.83893518519</v>
+        <v>45908.381875</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6231,14 +6231,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 42725-2025</t>
+          <t>A 27449-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45908.40152777778</v>
+        <v>45813.33200231481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6288,14 +6288,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 42713-2025</t>
+          <t>A 42728-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45908.37888888889</v>
+        <v>45908.40429398148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6345,14 +6345,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 42708-2025</t>
+          <t>A 13797-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45908.37359953704</v>
+        <v>45737.48324074074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6402,14 +6402,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 42714-2025</t>
+          <t>A 15478-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45908.381875</v>
+        <v>45747.5475</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6459,14 +6459,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 63783-2023</t>
+          <t>A 27988-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45278.38888888889</v>
+        <v>45817.58586805555</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.8</v>
+        <v>11.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6516,14 +6516,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 42728-2025</t>
+          <t>A 43992-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45908.40429398148</v>
+        <v>45915.44501157408</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6573,14 +6573,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 29642-2025</t>
+          <t>A 43900-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45825</v>
+        <v>45913.26221064815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6630,14 +6630,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 3205-2025</t>
+          <t>A 43641-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45679</v>
+        <v>45911.87390046296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6649,13 +6649,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6692,14 +6687,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 13797-2025</t>
+          <t>A 43990-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45737.48324074074</v>
+        <v>45915.44359953704</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6712,7 +6707,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6749,14 +6744,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 1397-2023</t>
+          <t>A 21146-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44936.73979166667</v>
+        <v>44704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6769,7 +6764,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>7.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6806,14 +6801,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 43992-2025</t>
+          <t>A 25963-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45915.44501157408</v>
+        <v>45090</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6826,7 +6821,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6863,14 +6858,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 6137-2024</t>
+          <t>A 44364-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45337</v>
+        <v>45916.45373842592</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6883,7 +6878,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>11.7</v>
+        <v>5.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6920,14 +6915,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 43900-2025</t>
+          <t>A 40814-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45913.26221064815</v>
+        <v>45171.54957175926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6935,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6977,14 +6972,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 43641-2025</t>
+          <t>A 32855-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45911.87390046296</v>
+        <v>45124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6997,7 +6992,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7034,14 +7029,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 43990-2025</t>
+          <t>A 1492-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45915.44359953704</v>
+        <v>45305.84925925926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7054,7 +7049,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7091,14 +7086,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 36543-2022</t>
+          <t>A 1493-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44804.57</v>
+        <v>45305</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7111,7 +7106,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7148,14 +7143,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 44364-2025</t>
+          <t>A 21910-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45916.45373842592</v>
+        <v>45443.36605324074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7168,7 +7163,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.6</v>
+        <v>1.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7205,14 +7200,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 13068-2023</t>
+          <t>A 44355-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45002.38854166667</v>
+        <v>45916.44782407407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7225,7 +7220,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7262,14 +7257,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 5954-2025</t>
+          <t>A 44386-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45695.4777662037</v>
+        <v>45916.48872685185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7282,7 +7277,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7319,14 +7314,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 44355-2025</t>
+          <t>A 44376-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45916.44782407407</v>
+        <v>45916.47453703704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7339,7 +7334,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7376,14 +7371,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 44386-2025</t>
+          <t>A 44864-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45916.48872685185</v>
+        <v>45918</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7396,7 +7391,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7433,14 +7428,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 44376-2025</t>
+          <t>A 44903-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45916.47453703704</v>
+        <v>45918.5110300926</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7453,7 +7448,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>7.5</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7490,14 +7485,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 12625-2021</t>
+          <t>A 44793-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44270.4590625</v>
+        <v>45918.32309027778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7510,7 +7505,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7547,14 +7542,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 44864-2025</t>
+          <t>A 28693-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45918</v>
+        <v>45819.83893518519</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7567,7 +7562,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7604,14 +7599,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 44903-2025</t>
+          <t>A 27521-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45918.5110300926</v>
+        <v>44351</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7624,7 +7619,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.6</v>
+        <v>10.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7661,14 +7656,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 44793-2025</t>
+          <t>A 57703-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45918.32309027778</v>
+        <v>44897</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7681,7 +7676,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7725,7 +7720,7 @@
         <v>45918.55475694445</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7782,7 +7777,7 @@
         <v>45918.50546296296</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7832,14 +7827,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 19643-2024</t>
+          <t>A 44890-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45432</v>
+        <v>45918.49697916667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7851,13 +7846,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7894,14 +7884,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 44890-2025</t>
+          <t>A 44791-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45918.49697916667</v>
+        <v>45918.31138888889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7914,7 +7904,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7951,14 +7941,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 44791-2025</t>
+          <t>A 44846-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45918.31138888889</v>
+        <v>45918.43986111111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7971,7 +7961,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8008,14 +7998,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 44846-2025</t>
+          <t>A 44852-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45918.43986111111</v>
+        <v>45918.44703703704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8028,7 +8018,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8065,14 +8055,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 44852-2025</t>
+          <t>A 26058-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45918.44703703704</v>
+        <v>45468</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8085,7 +8075,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8122,14 +8112,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 12038-2025</t>
+          <t>A 45556-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45728.65583333333</v>
+        <v>45922.64444444444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8142,7 +8132,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8179,14 +8169,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 45556-2025</t>
+          <t>A 29642-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45922.64444444444</v>
+        <v>45825</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8199,7 +8189,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8236,14 +8226,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 23692-2023</t>
+          <t>A 63783-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45077.60907407408</v>
+        <v>45278.38888888889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8256,7 +8246,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8293,14 +8283,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 17270-2025</t>
+          <t>A 3205-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45756.5531712963</v>
+        <v>45679</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8312,8 +8302,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>0.7</v>
+        <v>6.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8350,14 +8345,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 37501-2024</t>
+          <t>A 1397-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45541.37159722222</v>
+        <v>44936.73979166667</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8407,14 +8402,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 44880-2022</t>
+          <t>A 6137-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44841</v>
+        <v>45337</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8427,7 +8422,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.3</v>
+        <v>11.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8464,14 +8459,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 32704-2025</t>
+          <t>A 58347-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45839</v>
+        <v>45985.50454861111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8484,7 +8479,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8521,14 +8516,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 171-2025</t>
+          <t>A 36543-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45659.64508101852</v>
+        <v>44804.57</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8541,7 +8536,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8578,14 +8573,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 9691-2023</t>
+          <t>A 13068-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44984</v>
+        <v>45002.38854166667</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8598,7 +8593,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8635,14 +8630,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 17641-2023</t>
+          <t>A 5954-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45035</v>
+        <v>45695.4777662037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8655,7 +8650,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8692,14 +8687,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 47268-2025</t>
+          <t>A 12625-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45930.45893518518</v>
+        <v>44270.4590625</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8712,7 +8707,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8749,14 +8744,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 33752-2025</t>
+          <t>A 47268-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45842.36796296296</v>
+        <v>45930.45893518518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,7 +8764,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8806,14 +8801,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 11115-2025</t>
+          <t>A 19643-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45723</v>
+        <v>45432</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8825,8 +8820,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8863,14 +8863,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 35168-2025</t>
+          <t>A 12038-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45852</v>
+        <v>45728.65583333333</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>5.2</v>
+        <v>1.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8920,14 +8920,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 18285-2025</t>
+          <t>A 23692-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45762</v>
+        <v>45077.60907407408</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8977,14 +8977,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 48672-2025</t>
+          <t>A 37501-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45936.58152777778</v>
+        <v>45541.37159722222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9034,14 +9034,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 35490-2025</t>
+          <t>A 44880-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45855.79797453704</v>
+        <v>44841</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.1</v>
+        <v>0.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9091,14 +9091,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 39650-2023</t>
+          <t>A 17270-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45167.55505787037</v>
+        <v>45756.5531712963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9148,14 +9148,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 61602-2024</t>
+          <t>A 171-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45646.6387962963</v>
+        <v>45659.64508101852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9205,14 +9205,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 35489-2025</t>
+          <t>A 48672-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45855.79260416667</v>
+        <v>45936.58152777778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>6.3</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9262,14 +9262,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 48870-2025</t>
+          <t>A 32704-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45937.44994212963</v>
+        <v>45839</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9319,14 +9319,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 35808-2025</t>
+          <t>A 48870-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45861.41337962963</v>
+        <v>45937.44994212963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9376,14 +9376,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 24154-2023</t>
+          <t>A 9691-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45079</v>
+        <v>44984</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9433,14 +9433,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 65211-2021</t>
+          <t>A 17641-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44515.50362268519</v>
+        <v>45035</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.9</v>
+        <v>7.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9490,14 +9490,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 24765-2023</t>
+          <t>A 33752-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45084.6352662037</v>
+        <v>45842.36796296296</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9547,14 +9547,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 24671-2025</t>
+          <t>A 44925-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45798.65046296296</v>
+        <v>45918.55711805556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9604,14 +9604,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 24674-2025</t>
+          <t>A 11115-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45798.65300925926</v>
+        <v>45723</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9661,14 +9661,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 24664-2025</t>
+          <t>A 39650-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45798.64627314815</v>
+        <v>45167.55505787037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9718,14 +9718,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 34631-2025</t>
+          <t>A 35168-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45848.26144675926</v>
+        <v>45852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9775,14 +9775,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 34632-2025</t>
+          <t>A 24154-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45848.26725694445</v>
+        <v>45079</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9832,14 +9832,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 34633-2025</t>
+          <t>A 65211-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45848.27251157408</v>
+        <v>44515.50362268519</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9889,14 +9889,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 44925-2025</t>
+          <t>A 18285-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45918.55711805556</v>
+        <v>45762</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>45951.46241898148</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>45867</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10060,14 +10060,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 37778-2025</t>
+          <t>A 35490-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45880</v>
+        <v>45855.79797453704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10117,14 +10117,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 53017-2025</t>
+          <t>A 24765-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45957</v>
+        <v>45084.6352662037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10174,14 +10174,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 53019-2025</t>
+          <t>A 61602-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45957</v>
+        <v>45646.6387962963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10231,14 +10231,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 38879-2025</t>
+          <t>A 35489-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45887.5771875</v>
+        <v>45855.79260416667</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.8</v>
+        <v>6.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10288,14 +10288,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 53142-2025</t>
+          <t>A 35808-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45958</v>
+        <v>45861.41337962963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10345,14 +10345,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 38897-2025</t>
+          <t>A 53017-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45887.59670138889</v>
+        <v>45957</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10402,14 +10402,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 7192-2026</t>
+          <t>A 53019-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46058.49831018518</v>
+        <v>45957</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10459,14 +10459,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 7242-2026</t>
+          <t>A 53142-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46058.5840625</v>
+        <v>45958</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10516,14 +10516,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 50629-2025</t>
+          <t>A 24671-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45945</v>
+        <v>45798.65046296296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10573,14 +10573,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 42177-2023</t>
+          <t>A 24674-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45178.7221412037</v>
+        <v>45798.65300925926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10630,14 +10630,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 52243-2025</t>
+          <t>A 24664-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45953</v>
+        <v>45798.64627314815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10687,14 +10687,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 28221-2023</t>
+          <t>A 34631-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45099</v>
+        <v>45848.26144675926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10707,7 +10707,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>6.7</v>
+        <v>2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10744,14 +10744,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 11605-2023</t>
+          <t>A 34632-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44994.401875</v>
+        <v>45848.26725694445</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10801,14 +10801,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 54506-2025</t>
+          <t>A 34633-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45965</v>
+        <v>45848.27251157408</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10858,14 +10858,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 23693-2023</t>
+          <t>A 54506-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45077</v>
+        <v>45965</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10915,14 +10915,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 53163-2025</t>
+          <t>A 42177-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45958</v>
+        <v>45178.7221412037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10972,14 +10972,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 45192-2022</t>
+          <t>A 37778-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44844.42034722222</v>
+        <v>45880</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11029,14 +11029,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 52246-2025</t>
+          <t>A 1225-2026</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45953</v>
+        <v>46031.40648148148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.8</v>
+        <v>5.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11086,14 +11086,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 2537-2026</t>
+          <t>A 28221-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46037.44983796297</v>
+        <v>45099</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.9</v>
+        <v>6.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11143,14 +11143,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 53676-2025</t>
+          <t>A 11605-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45960</v>
+        <v>44994.401875</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11163,7 +11163,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11200,14 +11200,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 56581-2025</t>
+          <t>A 23693-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45975.54347222222</v>
+        <v>45077</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11220,7 +11220,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11257,14 +11257,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 9573-2025</t>
+          <t>A 45192-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45715.62260416667</v>
+        <v>44844.42034722222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11314,14 +11314,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 56264-2025</t>
+          <t>A 38879-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45974.57391203703</v>
+        <v>45887.5771875</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11371,14 +11371,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 56455-2025</t>
+          <t>A 9573-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45975.35782407408</v>
+        <v>45715.62260416667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11391,7 +11391,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11428,14 +11428,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 56487-2025</t>
+          <t>A 38897-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45975.41037037037</v>
+        <v>45887.59670138889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11485,14 +11485,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 56765-2025</t>
+          <t>A 2480-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45978.38018518518</v>
+        <v>46037.38482638889</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11542,14 +11542,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 57221-2025</t>
+          <t>A 2474-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45979.61408564815</v>
+        <v>46037.37762731482</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.1</v>
+        <v>8.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11599,14 +11599,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 57774-2025</t>
+          <t>A 38899-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45981</v>
+        <v>45887</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11656,14 +11656,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 57343-2025</t>
+          <t>A 60789-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45980.34996527778</v>
+        <v>45999.41315972222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11713,14 +11713,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 57790-2025</t>
+          <t>A 22975-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45981</v>
+        <v>45072</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11770,14 +11770,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 58347-2025</t>
+          <t>A 14430-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45985.50454861111</v>
+        <v>45012</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11827,14 +11827,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 9125-2026</t>
+          <t>A 64091-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46069.68701388889</v>
+        <v>45279</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11884,14 +11884,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 22975-2023</t>
+          <t>A 3934-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45072</v>
+        <v>46043.80326388889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11941,14 +11941,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 9105-2026</t>
+          <t>A 25962-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46069.65299768518</v>
+        <v>45090.77961805555</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.1</v>
+        <v>7.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11998,14 +11998,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 5002-2026</t>
+          <t>A 981-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46049</v>
+        <v>44935.35828703704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12055,14 +12055,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 14430-2023</t>
+          <t>A 30136-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45012</v>
+        <v>44757.46511574074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12074,8 +12074,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12112,14 +12117,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 8024-2026</t>
+          <t>A 38214-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46063</v>
+        <v>45161</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12131,13 +12136,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12174,14 +12174,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 64091-2023</t>
+          <t>A 23739-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45279</v>
+        <v>45077.7675</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12231,14 +12231,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 9127-2026</t>
+          <t>A 4989-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46069.6934375</v>
+        <v>46049.38898148148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12288,14 +12288,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 25962-2023</t>
+          <t>A 6796-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45090.77961805555</v>
+        <v>45342.56502314815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>7.3</v>
+        <v>2.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12345,14 +12345,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 981-2023</t>
+          <t>A 29169-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44935.35828703704</v>
+        <v>44358</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12402,14 +12402,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 30136-2022</t>
+          <t>A 34591-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44757.46511574074</v>
+        <v>45140</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12421,13 +12421,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12464,14 +12459,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 38214-2023</t>
+          <t>A 40184-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45161</v>
+        <v>44820.58752314815</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12484,7 +12479,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.6</v>
+        <v>0.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12521,14 +12516,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 1225-2026</t>
+          <t>A 9559-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46031.40648148148</v>
+        <v>44617.43976851852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12541,7 +12536,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>5.6</v>
+        <v>1.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12578,14 +12573,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 23739-2023</t>
+          <t>A 31925-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45077.7675</v>
+        <v>45510</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12598,7 +12593,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12635,14 +12630,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 6796-2024</t>
+          <t>A 30638-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45342.56502314815</v>
+        <v>45112</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12655,7 +12650,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12692,14 +12687,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 29169-2021</t>
+          <t>A 2088-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44358</v>
+        <v>44939</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12712,7 +12707,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12749,14 +12744,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 2480-2026</t>
+          <t>A 7192-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46037.38482638889</v>
+        <v>46058.49831018518</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12769,7 +12764,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12806,14 +12801,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 34591-2023</t>
+          <t>A 7242-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45140</v>
+        <v>46058.5840625</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12826,7 +12821,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12863,14 +12858,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 2474-2026</t>
+          <t>A 50629-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46037.37762731482</v>
+        <v>45945</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12883,7 +12878,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>8.6</v>
+        <v>6.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12920,14 +12915,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 40184-2022</t>
+          <t>A 52243-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44820.58752314815</v>
+        <v>45953</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12940,7 +12935,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.2</v>
+        <v>4.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12977,14 +12972,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 38899-2025</t>
+          <t>A 25960-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45887</v>
+        <v>45090</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12997,7 +12992,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13034,14 +13029,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 60789-2025</t>
+          <t>A 53163-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45999.41315972222</v>
+        <v>45958</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13054,7 +13049,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13091,14 +13086,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 9559-2022</t>
+          <t>A 52246-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44617.43976851852</v>
+        <v>45953</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13111,7 +13106,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13148,14 +13143,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 31925-2024</t>
+          <t>A 2537-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45510</v>
+        <v>46037.44983796297</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13205,14 +13200,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 30638-2023</t>
+          <t>A 53676-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45112</v>
+        <v>45960</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13225,7 +13220,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13262,14 +13257,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 2088-2023</t>
+          <t>A 52528-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44939</v>
+        <v>44466.46428240741</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13282,7 +13277,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13319,14 +13314,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 25960-2023</t>
+          <t>A 36838-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45090</v>
+        <v>45538.52853009259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13339,7 +13334,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13376,14 +13371,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 52528-2021</t>
+          <t>A 9125-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44466.46428240741</v>
+        <v>46069.68701388889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13396,7 +13391,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13433,14 +13428,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 36838-2024</t>
+          <t>A 9105-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45538.52853009259</v>
+        <v>46069.65299768518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13453,7 +13448,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13490,14 +13485,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 1904-2023</t>
+          <t>A 5002-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44939</v>
+        <v>46049</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13510,7 +13505,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13547,14 +13542,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 8204-2023</t>
+          <t>A 8024-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44971</v>
+        <v>46063</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13564,6 +13559,11 @@
       <c r="E223" t="inlineStr">
         <is>
           <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G223" t="n">
@@ -13604,14 +13604,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 11121-2025</t>
+          <t>A 1904-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45723.6369675926</v>
+        <v>44939</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13661,14 +13661,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 3830-2022</t>
+          <t>A 9127-2026</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44587.35361111111</v>
+        <v>46069.6934375</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13718,14 +13718,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 21152-2022</t>
+          <t>A 8204-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44704</v>
+        <v>44971</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13775,14 +13775,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 58130-2022</t>
+          <t>A 11121-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44900</v>
+        <v>45723.6369675926</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>23.2</v>
+        <v>0.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13832,14 +13832,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 2359-2023</t>
+          <t>A 3830-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44942</v>
+        <v>44587.35361111111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13889,14 +13889,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 55049-2023</t>
+          <t>A 21152-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45237</v>
+        <v>44704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13946,14 +13946,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 15987-2025</t>
+          <t>A 9292-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45749</v>
+        <v>46070.59259259259</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14003,14 +14003,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 57208-2022</t>
+          <t>A 58130-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44895</v>
+        <v>44900</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.4</v>
+        <v>23.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14060,14 +14060,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 3864-2023</t>
+          <t>A 2359-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44951.76491898148</v>
+        <v>44942</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>6.2</v>
+        <v>1.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14117,14 +14117,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 25965-2023</t>
+          <t>A 55049-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45090.79171296296</v>
+        <v>45237</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14174,14 +14174,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 38928-2024</t>
+          <t>A 15987-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45548</v>
+        <v>45749</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14231,14 +14231,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 7707-2024</t>
+          <t>A 57208-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45349.35894675926</v>
+        <v>44895</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14288,14 +14288,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 14254-2023</t>
+          <t>A 3864-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45009.90423611111</v>
+        <v>44951.76491898148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.5</v>
+        <v>6.2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14345,14 +14345,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 47871-2022</t>
+          <t>A 25965-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44855.43434027778</v>
+        <v>45090.79171296296</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14402,14 +14402,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 40190-2022</t>
+          <t>A 38928-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44820.591875</v>
+        <v>45548</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14459,14 +14459,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 20099-2025</t>
+          <t>A 7707-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45772.46916666667</v>
+        <v>45349.35894675926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14516,14 +14516,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 10797-2025</t>
+          <t>A 14254-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45722.50984953704</v>
+        <v>45009.90423611111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>15.1</v>
+        <v>0.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14573,14 +14573,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 40017-2023</t>
+          <t>A 47871-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45168</v>
+        <v>44855.43434027778</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14630,14 +14630,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 34279-2023</t>
+          <t>A 40190-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45138</v>
+        <v>44820.591875</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14687,14 +14687,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 54661-2023</t>
+          <t>A 20099-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45235.61505787037</v>
+        <v>45772.46916666667</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14744,14 +14744,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 54646-2023</t>
+          <t>A 10797-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45235.40707175926</v>
+        <v>45722.50984953704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>5.3</v>
+        <v>15.1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14801,14 +14801,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 2092-2023</t>
+          <t>A 40017-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44939</v>
+        <v>45168</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14858,14 +14858,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 21023-2024</t>
+          <t>A 34279-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45439.64483796297</v>
+        <v>45138</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14915,14 +14915,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 62180-2022</t>
+          <t>A 54661-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44915</v>
+        <v>45235.61505787037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14934,13 +14934,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14977,14 +14972,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 62181-2022</t>
+          <t>A 54646-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44915</v>
+        <v>45235.40707175926</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14996,13 +14991,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15039,14 +15029,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 23990-2023</t>
+          <t>A 2092-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45078</v>
+        <v>44939</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15059,7 +15049,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15096,14 +15086,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 1935-2024</t>
+          <t>A 21023-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45308</v>
+        <v>45439.64483796297</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15116,7 +15106,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15153,14 +15143,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 52372-2021</t>
+          <t>A 62180-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44465</v>
+        <v>44915</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15172,8 +15162,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G251" t="n">
-        <v>0.4</v>
+        <v>7.5</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15210,14 +15205,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 22406-2024</t>
+          <t>A 62181-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45446</v>
+        <v>44915</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15229,8 +15224,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>0.7</v>
+        <v>6.4</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15267,14 +15267,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 26179-2023</t>
+          <t>A 23990-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45091.52637731482</v>
+        <v>45078</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15324,14 +15324,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 27967-2024</t>
+          <t>A 1935-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45476.37760416666</v>
+        <v>45308</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15381,14 +15381,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 26837-2022</t>
+          <t>A 52372-2021</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44740.4811574074</v>
+        <v>44465</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15438,14 +15438,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 25967-2023</t>
+          <t>A 22406-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45090.79582175926</v>
+        <v>45446</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15495,14 +15495,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 22410-2024</t>
+          <t>A 26179-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45446</v>
+        <v>45091.52637731482</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15552,14 +15552,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 29334-2022</t>
+          <t>A 27967-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44752</v>
+        <v>45476.37760416666</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15571,13 +15571,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G258" t="n">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15614,14 +15609,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 5941-2025</t>
+          <t>A 26837-2022</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45695.46671296296</v>
+        <v>44740.4811574074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15634,7 +15629,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15671,14 +15666,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 29335-2022</t>
+          <t>A 25967-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44752</v>
+        <v>45090.79582175926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15690,13 +15685,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G260" t="n">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15733,14 +15723,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 42653-2024</t>
+          <t>A 22410-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45566.33113425926</v>
+        <v>45446</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15753,7 +15743,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15790,14 +15780,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 44882-2022</t>
+          <t>A 29334-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44841</v>
+        <v>44752</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15809,8 +15799,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G262" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15847,14 +15842,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 56460-2023</t>
+          <t>A 5941-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45243</v>
+        <v>45695.46671296296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15867,7 +15862,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>5.3</v>
+        <v>0.6</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15904,14 +15899,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 1783-2025</t>
+          <t>A 29335-2022</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45671.4491087963</v>
+        <v>44752</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15923,8 +15918,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G264" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15961,14 +15961,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 8752-2021</t>
+          <t>A 42653-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44246</v>
+        <v>45566.33113425926</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>6.8</v>
+        <v>2.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16018,14 +16018,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 26178-2023</t>
+          <t>A 44882-2022</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45091.52565972223</v>
+        <v>44841</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16075,14 +16075,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 51577-2023</t>
+          <t>A 56460-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45222.45756944444</v>
+        <v>45243</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16132,14 +16132,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 63029-2023</t>
+          <t>A 1783-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45272</v>
+        <v>45671.4491087963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16189,14 +16189,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 58284-2023</t>
+          <t>A 8752-2021</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45250.53486111111</v>
+        <v>44246</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.3</v>
+        <v>6.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16246,14 +16246,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 27497-2024</t>
+          <t>A 26178-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45474</v>
+        <v>45091.52565972223</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16303,14 +16303,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 48966-2023</t>
+          <t>A 51577-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45209.60576388889</v>
+        <v>45222.45756944444</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16360,14 +16360,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 2405-2025</t>
+          <t>A 63029-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45674.35796296296</v>
+        <v>45272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16417,14 +16417,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 27540-2024</t>
+          <t>A 58284-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45474</v>
+        <v>45250.53486111111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16474,14 +16474,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 9773-2024</t>
+          <t>A 27497-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45362</v>
+        <v>45474</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16531,14 +16531,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 57795-2022</t>
+          <t>A 48966-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44897.66587962963</v>
+        <v>45209.60576388889</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16588,14 +16588,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 50279-2023</t>
+          <t>A 2405-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45216.44960648148</v>
+        <v>45674.35796296296</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16645,14 +16645,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 33796-2023</t>
+          <t>A 27540-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45133.57142361111</v>
+        <v>45474</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16702,14 +16702,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 2090-2023</t>
+          <t>A 9773-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44939</v>
+        <v>45362</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16759,14 +16759,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 57161-2022</t>
+          <t>A 57795-2022</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44895.59303240741</v>
+        <v>44897.66587962963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16816,14 +16816,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 57709-2022</t>
+          <t>A 50279-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44897</v>
+        <v>45216.44960648148</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16873,14 +16873,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 2086-2023</t>
+          <t>A 33796-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44939</v>
+        <v>45133.57142361111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16930,14 +16930,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 50304-2023</t>
+          <t>A 2090-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45209</v>
+        <v>44939</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>17.9</v>
+        <v>1.6</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16987,14 +16987,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 11126-2025</t>
+          <t>A 57161-2022</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45723</v>
+        <v>44895.59303240741</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17044,14 +17044,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 37620-2023</t>
+          <t>A 57709-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45159.4530787037</v>
+        <v>44897</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17101,14 +17101,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 9695-2023</t>
+          <t>A 2086-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44984</v>
+        <v>44939</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17158,14 +17158,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 2399-2025</t>
+          <t>A 50304-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45672</v>
+        <v>45209</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1.9</v>
+        <v>17.9</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17215,14 +17215,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 22699-2024</t>
+          <t>A 11126-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45448.32910879629</v>
+        <v>45723</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17272,14 +17272,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 36572-2021</t>
+          <t>A 37620-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44391.58083333333</v>
+        <v>45159.4530787037</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17329,14 +17329,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 20492-2024</t>
+          <t>A 9695-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45435.8712962963</v>
+        <v>44984</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17386,14 +17386,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 49362-2024</t>
+          <t>A 2399-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45595.62802083333</v>
+        <v>45672</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17443,14 +17443,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 168-2025</t>
+          <t>A 22699-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45659.64137731482</v>
+        <v>45448.32910879629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>6.9</v>
+        <v>0.4</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17500,14 +17500,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 21867-2025</t>
+          <t>A 36572-2021</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45784.37122685185</v>
+        <v>44391.58083333333</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17557,14 +17557,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 25958-2023</t>
+          <t>A 20492-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45090</v>
+        <v>45435.8712962963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17614,14 +17614,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 27486-2024</t>
+          <t>A 49362-2024</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45474.48015046296</v>
+        <v>45595.62802083333</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17668,17 +17668,17 @@
       </c>
       <c r="R294" s="2" t="inlineStr"/>
     </row>
-    <row r="295">
+    <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 22391-2024</t>
+          <t>A 168-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45446</v>
+        <v>45659.64137731482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>3.3</v>
+        <v>6.9</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17724,6 +17724,63 @@
         <v>0</v>
       </c>
       <c r="R295" s="2" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>A 21867-2025</t>
+        </is>
+      </c>
+      <c r="B296" s="1" t="n">
+        <v>45784.37122685185</v>
+      </c>
+      <c r="C296" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G296" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0</v>
+      </c>
+      <c r="O296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R296" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z296"/>
+  <dimension ref="A1:Z295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45916</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45853.6421875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>45545.36309027778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45510</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45684.70283564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44516.32994212963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,14 +1197,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 1604-2025</t>
+          <t>A 43471-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45670</v>
+        <v>45911</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1216,13 +1216,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1256,31 +1251,31 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Granspira</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 1604-2025 artfynd.xlsx", "A 1604-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 43471-2025 artfynd.xlsx", "A 43471-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 1604-2025 karta.png", "A 1604-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 43471-2025 karta.png", "A 43471-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 1604-2025 FSC-klagomål.docx", "A 1604-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 43471-2025 FSC-klagomål.docx", "A 43471-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 1604-2025 FSC-klagomål mail.docx", "A 1604-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 43471-2025 FSC-klagomål mail.docx", "A 43471-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 1604-2025 tillsynsbegäran.docx", "A 1604-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 43471-2025 tillsynsbegäran.docx", "A 43471-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 1604-2025 tillsynsbegäran mail.docx", "A 1604-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 43471-2025 tillsynsbegäran mail.docx", "A 43471-2025")</f>
         <v/>
       </c>
     </row>
@@ -1294,7 +1289,7 @@
         <v>45980</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,14 +1367,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 43471-2025</t>
+          <t>A 1604-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45911</v>
+        <v>45670</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1391,8 +1386,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1426,31 +1426,31 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Granspira</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 43471-2025 artfynd.xlsx", "A 43471-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 1604-2025 artfynd.xlsx", "A 1604-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 43471-2025 karta.png", "A 43471-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 1604-2025 karta.png", "A 1604-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 43471-2025 FSC-klagomål.docx", "A 43471-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 1604-2025 FSC-klagomål.docx", "A 1604-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 43471-2025 FSC-klagomål mail.docx", "A 43471-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 1604-2025 FSC-klagomål mail.docx", "A 1604-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 43471-2025 tillsynsbegäran.docx", "A 43471-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 1604-2025 tillsynsbegäran.docx", "A 1604-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 43471-2025 tillsynsbegäran mail.docx", "A 43471-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 1604-2025 tillsynsbegäran mail.docx", "A 1604-2025")</f>
         <v/>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
         <v>45015</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44298</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>44788.44263888889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44820.59869212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44788.45163194444</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44676.44231481481</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44546</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44846.67469907407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44752</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44387</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44414.37533564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>44440.43105324074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>44537.84666666666</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44799</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44526.32802083333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>44813</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>44635</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>44340.5113425926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>44543.32719907408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44636.62268518518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>44841.84542824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>44804.63545138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,14 +3039,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 7541-2025</t>
+          <t>A 26178-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45705.57094907408</v>
+        <v>45091.52565972223</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6.2</v>
+        <v>0.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3096,14 +3096,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 6020-2022</t>
+          <t>A 26179-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44599</v>
+        <v>45091.52637731482</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3153,14 +3153,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 19390-2023</t>
+          <t>A 20099-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45048</v>
+        <v>45772.46916666667</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3210,14 +3210,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 9748-2024</t>
+          <t>A 9773-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45362.60480324074</v>
+        <v>45362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3267,14 +3267,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 73830-2021</t>
+          <t>A 62180-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44552.84040509259</v>
+        <v>44915</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3286,8 +3286,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3324,14 +3329,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 44814-2022</t>
+          <t>A 62181-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44841.40362268518</v>
+        <v>44915</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3343,8 +3348,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3381,14 +3391,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 38772-2025</t>
+          <t>A 17641-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45887.42040509259</v>
+        <v>45035</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3401,7 +3411,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.3</v>
+        <v>7.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3438,14 +3448,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 25958-2023</t>
+          <t>A 9748-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45090</v>
+        <v>45362.60480324074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3458,7 +3468,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3495,14 +3505,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 5927-2023</t>
+          <t>A 10797-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44963</v>
+        <v>45722.50984953704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3515,7 +3525,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.9</v>
+        <v>15.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3552,14 +3562,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 52876-2024</t>
+          <t>A 44882-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45610.6337037037</v>
+        <v>44841</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3572,7 +3582,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3609,14 +3619,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 27486-2024</t>
+          <t>A 48672-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45474.48015046296</v>
+        <v>45936.58152777778</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3629,7 +3639,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3666,14 +3676,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 10379-2024</t>
+          <t>A 24154-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45365.64063657408</v>
+        <v>45079</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3686,7 +3696,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3723,14 +3733,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 22391-2024</t>
+          <t>A 31399-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45446</v>
+        <v>45833.46824074074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3743,7 +3753,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3780,14 +3790,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 23740-2023</t>
+          <t>A 21023-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45077</v>
+        <v>45439.64483796297</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3800,7 +3810,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3837,14 +3847,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 60271-2024</t>
+          <t>A 48870-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45642</v>
+        <v>45937.44994212963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3857,7 +3867,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3901,7 +3911,7 @@
         <v>45887.55858796297</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,14 +3961,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 72261-2021</t>
+          <t>A 38897-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44545.31795138889</v>
+        <v>45887.59670138889</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3971,7 +3981,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4008,14 +4018,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 12631-2021</t>
+          <t>A 38893-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44270</v>
+        <v>45887.58900462963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4028,7 +4038,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4065,14 +4075,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 11460-2025</t>
+          <t>A 21867-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45726</v>
+        <v>45784.37122685185</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4085,7 +4095,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4122,14 +4132,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 17458-2023</t>
+          <t>A 168-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45034</v>
+        <v>45659.64137731482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4142,7 +4152,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>6.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4179,14 +4189,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 54669-2023</t>
+          <t>A 38772-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45235.63085648148</v>
+        <v>45887.42040509259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4199,7 +4209,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4236,14 +4246,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 31399-2025</t>
+          <t>A 38879-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45833.46824074074</v>
+        <v>45887.5771875</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4256,7 +4266,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4293,14 +4303,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 56581-2025</t>
+          <t>A 49362-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45975.54347222222</v>
+        <v>45595.62802083333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4313,7 +4323,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4357,7 +4367,7 @@
         <v>45707.35076388889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4407,14 +4417,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 38893-2025</t>
+          <t>A 22391-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45887.58900462963</v>
+        <v>45446</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4427,7 +4437,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4464,14 +4474,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 17737-2023</t>
+          <t>A 27486-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45037.44637731482</v>
+        <v>45474.48015046296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4484,7 +4494,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4521,14 +4531,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 23469-2025</t>
+          <t>A 25958-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45792.43915509259</v>
+        <v>45090</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4541,7 +4551,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4578,14 +4588,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 9359-2025</t>
+          <t>A 39864-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45715.29788194445</v>
+        <v>45891.60197916667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4598,7 +4608,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4635,14 +4645,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 13611-2025</t>
+          <t>A 60271-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45736.62430555555</v>
+        <v>45642</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4655,7 +4665,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4692,14 +4702,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 56264-2025</t>
+          <t>A 58130-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45974.57391203703</v>
+        <v>44900</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4712,7 +4722,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>23.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4749,14 +4759,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 39864-2025</t>
+          <t>A 27521-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45891.60197916667</v>
+        <v>44351</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4769,7 +4779,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>10.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4806,14 +4816,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 56455-2025</t>
+          <t>A 12631-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45975.35782407408</v>
+        <v>44270</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4826,7 +4836,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4863,14 +4873,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 56487-2025</t>
+          <t>A 19643-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45975.41037037037</v>
+        <v>45432</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4882,8 +4892,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4920,14 +4935,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 39622-2023</t>
+          <t>A 22406-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45163</v>
+        <v>45446</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4940,7 +4955,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>10.7</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4977,14 +4992,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 56765-2025</t>
+          <t>A 17458-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45978.38018518518</v>
+        <v>45034</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4997,7 +5012,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5034,14 +5049,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 47890-2022</t>
+          <t>A 23469-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44855</v>
+        <v>45792.43915509259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5054,7 +5069,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5091,14 +5106,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 23898-2023</t>
+          <t>A 54669-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45078.54318287037</v>
+        <v>45235.63085648148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5111,7 +5126,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5148,14 +5163,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 57221-2025</t>
+          <t>A 11460-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45979.61408564815</v>
+        <v>45726</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5168,7 +5183,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5205,14 +5220,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 25589-2025</t>
+          <t>A 26058-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45803.49381944445</v>
+        <v>45468</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5262,14 +5277,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 25588-2025</t>
+          <t>A 47871-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45803.49103009259</v>
+        <v>44855.43434027778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5282,7 +5297,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5319,14 +5334,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 26032-2025</t>
+          <t>A 44880-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45804.69063657407</v>
+        <v>44841</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5354,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5376,14 +5391,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 31704-2023</t>
+          <t>A 57208-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45117</v>
+        <v>44895</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5396,7 +5411,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6.7</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5433,14 +5448,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 26020-2025</t>
+          <t>A 41912-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45804.67818287037</v>
+        <v>45903.40931712963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5468,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5490,14 +5505,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 57774-2025</t>
+          <t>A 36572-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45981</v>
+        <v>44391.58083333333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5510,7 +5525,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5547,14 +5562,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 41912-2025</t>
+          <t>A 41887-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45903.40931712963</v>
+        <v>45903.37215277777</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5567,7 +5582,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5604,14 +5619,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 14912-2024</t>
+          <t>A 44925-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45398.59821759259</v>
+        <v>45918.55711805556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5661,14 +5676,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 57343-2025</t>
+          <t>A 41926-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45980.34996527778</v>
+        <v>45903.42753472222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5696,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5718,14 +5733,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 41887-2025</t>
+          <t>A 42728-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45903.37215277777</v>
+        <v>45908.40429398148</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5738,7 +5753,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5775,14 +5790,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 41926-2025</t>
+          <t>A 64091-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45903.42753472222</v>
+        <v>45279</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5795,7 +5810,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5832,14 +5847,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 57790-2025</t>
+          <t>A 36280-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45981</v>
+        <v>45867</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5852,7 +5867,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5889,14 +5904,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 54667-2023</t>
+          <t>A 42714-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45235.62601851852</v>
+        <v>45908.381875</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5909,7 +5924,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5953,7 +5968,7 @@
         <v>45908.40152777778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6003,14 +6018,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 42713-2025</t>
+          <t>A 40814-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45908.37888888889</v>
+        <v>45171.54957175926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6023,7 +6038,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6060,14 +6075,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 27523-2025</t>
+          <t>A 40017-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45813</v>
+        <v>45168</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6080,7 +6095,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6124,7 +6139,7 @@
         <v>45908.37359953704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6174,14 +6189,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 42714-2025</t>
+          <t>A 42713-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45908.381875</v>
+        <v>45908.37888888889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6194,7 +6209,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6231,14 +6246,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 27449-2025</t>
+          <t>A 51654-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45813.33200231481</v>
+        <v>45951.46241898148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6251,7 +6266,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6288,14 +6303,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 42728-2025</t>
+          <t>A 42653-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45908.40429398148</v>
+        <v>45566.33113425926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6308,7 +6323,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6345,14 +6360,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 13797-2025</t>
+          <t>A 33796-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45737.48324074074</v>
+        <v>45133.57142361111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6365,7 +6380,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6402,14 +6417,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 15478-2025</t>
+          <t>A 53142-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45747.5475</v>
+        <v>45958</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6422,7 +6437,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6459,14 +6474,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 27988-2025</t>
+          <t>A 53017-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45817.58586805555</v>
+        <v>45957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6479,7 +6494,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>11.8</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6516,14 +6531,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 43992-2025</t>
+          <t>A 53019-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45915.44501157408</v>
+        <v>45957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6536,7 +6551,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6573,14 +6588,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 43900-2025</t>
+          <t>A 6137-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45913.26221064815</v>
+        <v>45337</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6593,7 +6608,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.1</v>
+        <v>11.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6630,14 +6645,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 43641-2025</t>
+          <t>A 2088-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45911.87390046296</v>
+        <v>44939</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6650,7 +6665,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6687,14 +6702,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 43990-2025</t>
+          <t>A 2092-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45915.44359953704</v>
+        <v>44939</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6707,7 +6722,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6744,14 +6759,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 21146-2022</t>
+          <t>A 52528-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44704</v>
+        <v>44466.46428240741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6764,7 +6779,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>7.4</v>
+        <v>1.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6801,14 +6816,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 25963-2023</t>
+          <t>A 13797-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45090</v>
+        <v>45737.48324074074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6821,7 +6836,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6858,14 +6873,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 44364-2025</t>
+          <t>A 43641-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45916.45373842592</v>
+        <v>45911.87390046296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6878,7 +6893,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6915,14 +6930,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 40814-2023</t>
+          <t>A 26032-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45171.54957175926</v>
+        <v>45804.69063657407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6935,7 +6950,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6972,14 +6987,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 32855-2023</t>
+          <t>A 44376-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45124</v>
+        <v>45916.47453703704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6992,7 +7007,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7029,14 +7044,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 1492-2024</t>
+          <t>A 44386-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45305.84925925926</v>
+        <v>45916.48872685185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7049,7 +7064,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7086,14 +7101,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 1493-2024</t>
+          <t>A 43900-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45305</v>
+        <v>45913.26221064815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7106,7 +7121,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7143,14 +7158,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 21910-2024</t>
+          <t>A 54506-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45443.36605324074</v>
+        <v>45965</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7163,7 +7178,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7200,14 +7215,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 44355-2025</t>
+          <t>A 25588-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45916.44782407407</v>
+        <v>45803.49103009259</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7220,7 +7235,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7257,14 +7272,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 44386-2025</t>
+          <t>A 25589-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45916.48872685185</v>
+        <v>45803.49381944445</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7277,7 +7292,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7314,14 +7329,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 44376-2025</t>
+          <t>A 44364-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45916.47453703704</v>
+        <v>45916.45373842592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7334,7 +7349,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>7.5</v>
+        <v>5.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7371,14 +7386,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 44864-2025</t>
+          <t>A 44355-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45918</v>
+        <v>45916.44782407407</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7391,7 +7406,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7428,14 +7443,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 44903-2025</t>
+          <t>A 43990-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45918.5110300926</v>
+        <v>45915.44359953704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7448,7 +7463,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7485,14 +7500,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 44793-2025</t>
+          <t>A 26020-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45918.32309027778</v>
+        <v>45804.67818287037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7542,14 +7557,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 28693-2025</t>
+          <t>A 43992-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45819.83893518519</v>
+        <v>45915.44501157408</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7562,7 +7577,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7599,14 +7614,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 27521-2021</t>
+          <t>A 44923-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44351</v>
+        <v>45918.55475694445</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7619,7 +7634,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>10.3</v>
+        <v>1.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7656,14 +7671,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 57703-2022</t>
+          <t>A 44903-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44897</v>
+        <v>45918.5110300926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7676,7 +7691,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7713,14 +7728,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 44923-2025</t>
+          <t>A 44846-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45918.55475694445</v>
+        <v>45918.43986111111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7733,7 +7748,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7770,14 +7785,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 44897-2025</t>
+          <t>A 44852-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45918.50546296296</v>
+        <v>45918.44703703704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7790,7 +7805,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7834,7 +7849,7 @@
         <v>45918.49697916667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7884,14 +7899,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 44791-2025</t>
+          <t>A 44793-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45918.31138888889</v>
+        <v>45918.32309027778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7904,7 +7919,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7941,14 +7956,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 44846-2025</t>
+          <t>A 44791-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45918.43986111111</v>
+        <v>45918.31138888889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7961,7 +7976,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7998,14 +8013,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 44852-2025</t>
+          <t>A 44864-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45918.44703703704</v>
+        <v>45918</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8018,7 +8033,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8055,14 +8070,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 26058-2024</t>
+          <t>A 36838-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45468</v>
+        <v>45538.52853009259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8075,7 +8090,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8112,14 +8127,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 45556-2025</t>
+          <t>A 44897-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45922.64444444444</v>
+        <v>45918.50546296296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8132,7 +8147,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8169,14 +8184,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 29642-2025</t>
+          <t>A 34279-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45825</v>
+        <v>45138</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8189,7 +8204,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8226,14 +8241,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 63783-2023</t>
+          <t>A 45556-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45278.38888888889</v>
+        <v>45922.64444444444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8246,7 +8261,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8283,14 +8298,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 3205-2025</t>
+          <t>A 57795-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45679</v>
+        <v>44897.66587962963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8302,13 +8317,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>6.7</v>
+        <v>2.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8345,14 +8355,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 1397-2023</t>
+          <t>A 27449-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44936.73979166667</v>
+        <v>45813.33200231481</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8365,7 +8375,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8402,14 +8412,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 6137-2024</t>
+          <t>A 27523-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45337</v>
+        <v>45813</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8422,7 +8432,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>11.7</v>
+        <v>0.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8459,14 +8469,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 58347-2025</t>
+          <t>A 1783-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45985.50454861111</v>
+        <v>45671.4491087963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8479,7 +8489,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8516,14 +8526,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 36543-2022</t>
+          <t>A 47268-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44804.57</v>
+        <v>45930.45893518518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8536,7 +8546,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8573,14 +8583,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 13068-2023</t>
+          <t>A 73830-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45002.38854166667</v>
+        <v>44552.84040509259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8593,7 +8603,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8630,14 +8640,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 5954-2025</t>
+          <t>A 6020-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45695.4777662037</v>
+        <v>44599</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8650,7 +8660,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8687,14 +8697,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 12625-2021</t>
+          <t>A 27988-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44270.4590625</v>
+        <v>45817.58586805555</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8707,7 +8717,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.6</v>
+        <v>11.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8744,14 +8754,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 47268-2025</t>
+          <t>A 15478-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45930.45893518518</v>
+        <v>45747.5475</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8764,7 +8774,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8801,14 +8811,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 19643-2024</t>
+          <t>A 21146-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45432</v>
+        <v>44704</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8820,13 +8830,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>2.9</v>
+        <v>7.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8863,14 +8868,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 12038-2025</t>
+          <t>A 56264-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45728.65583333333</v>
+        <v>45974.57391203703</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8888,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8920,14 +8925,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 23692-2023</t>
+          <t>A 28693-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45077.60907407408</v>
+        <v>45819.83893518519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8945,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8977,14 +8982,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 37501-2024</t>
+          <t>A 56765-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45541.37159722222</v>
+        <v>45978.38018518518</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +9002,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9034,14 +9039,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 44880-2022</t>
+          <t>A 56581-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44841</v>
+        <v>45975.54347222222</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9059,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9091,14 +9096,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 17270-2025</t>
+          <t>A 13068-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45756.5531712963</v>
+        <v>45002.38854166667</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9116,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9148,14 +9153,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 171-2025</t>
+          <t>A 56487-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45659.64508101852</v>
+        <v>45975.41037037037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9173,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9205,14 +9210,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 48672-2025</t>
+          <t>A 29642-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45936.58152777778</v>
+        <v>45825</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9230,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9262,14 +9267,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 32704-2025</t>
+          <t>A 56455-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45839</v>
+        <v>45975.35782407408</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9287,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9319,14 +9324,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 48870-2025</t>
+          <t>A 57343-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45937.44994212963</v>
+        <v>45980.34996527778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9339,7 +9344,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9376,14 +9381,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 9691-2023</t>
+          <t>A 57221-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44984</v>
+        <v>45979.61408564815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9396,7 +9401,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9433,14 +9438,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 17641-2023</t>
+          <t>A 17737-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45035</v>
+        <v>45037.44637731482</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9453,7 +9458,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>7.3</v>
+        <v>3.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9490,14 +9495,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 33752-2025</t>
+          <t>A 57790-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45842.36796296296</v>
+        <v>45981</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9510,7 +9515,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9547,14 +9552,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 44925-2025</t>
+          <t>A 57774-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45918.55711805556</v>
+        <v>45981</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9567,7 +9572,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9604,14 +9609,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 11115-2025</t>
+          <t>A 17270-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45723</v>
+        <v>45756.5531712963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9624,7 +9629,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9661,14 +9666,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 39650-2023</t>
+          <t>A 58347-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45167.55505787037</v>
+        <v>45985.50454861111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9718,14 +9723,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 35168-2025</t>
+          <t>A 12038-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45852</v>
+        <v>45728.65583333333</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9738,7 +9743,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>5.2</v>
+        <v>1.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9775,14 +9780,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 24154-2023</t>
+          <t>A 20492-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45079</v>
+        <v>45435.8712962963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9795,7 +9800,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9832,14 +9837,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 65211-2021</t>
+          <t>A 22975-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44515.50362268519</v>
+        <v>45072</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9852,7 +9857,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.9</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9889,14 +9894,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 18285-2025</t>
+          <t>A 32704-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45762</v>
+        <v>45839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9909,7 +9914,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9946,14 +9951,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 51654-2025</t>
+          <t>A 12625-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45951.46241898148</v>
+        <v>44270.4590625</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9966,7 +9971,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10003,14 +10008,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 36280-2025</t>
+          <t>A 33752-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45867</v>
+        <v>45842.36796296296</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10023,7 +10028,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10060,14 +10065,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 35490-2025</t>
+          <t>A 38928-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45855.79797453704</v>
+        <v>45548</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10080,7 +10085,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10117,14 +10122,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 24765-2023</t>
+          <t>A 11115-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45084.6352662037</v>
+        <v>45723</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10137,7 +10142,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10174,14 +10179,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 61602-2024</t>
+          <t>A 1225-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45646.6387962963</v>
+        <v>46031.40648148148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10194,7 +10199,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>5.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10231,14 +10236,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 35489-2025</t>
+          <t>A 63783-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45855.79260416667</v>
+        <v>45278.38888888889</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10251,7 +10256,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>6.3</v>
+        <v>0.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10288,14 +10293,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 35808-2025</t>
+          <t>A 35168-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45861.41337962963</v>
+        <v>45852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10308,7 +10313,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.7</v>
+        <v>5.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10345,14 +10350,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 53017-2025</t>
+          <t>A 9359-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45957</v>
+        <v>45715.29788194445</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10365,7 +10370,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10402,14 +10407,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 53019-2025</t>
+          <t>A 18285-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45957</v>
+        <v>45762</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10459,14 +10464,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 53142-2025</t>
+          <t>A 61602-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45958</v>
+        <v>45646.6387962963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10479,7 +10484,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10516,14 +10521,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 24671-2025</t>
+          <t>A 35490-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45798.65046296296</v>
+        <v>45855.79797453704</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10536,7 +10541,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10573,14 +10578,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 24674-2025</t>
+          <t>A 35489-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45798.65300925926</v>
+        <v>45855.79260416667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10593,7 +10598,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.8</v>
+        <v>6.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10630,14 +10635,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 24664-2025</t>
+          <t>A 35808-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45798.64627314815</v>
+        <v>45861.41337962963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10650,7 +10655,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10687,14 +10692,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 34631-2025</t>
+          <t>A 52876-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45848.26144675926</v>
+        <v>45610.6337037037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10707,7 +10712,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10744,14 +10749,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 34632-2025</t>
+          <t>A 38899-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45848.26725694445</v>
+        <v>45887</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10764,7 +10769,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10801,14 +10806,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 34633-2025</t>
+          <t>A 24664-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45848.27251157408</v>
+        <v>45798.64627314815</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10821,7 +10826,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10858,14 +10863,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 54506-2025</t>
+          <t>A 24671-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45965</v>
+        <v>45798.65046296296</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10878,7 +10883,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10915,14 +10920,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 42177-2023</t>
+          <t>A 24674-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45178.7221412037</v>
+        <v>45798.65300925926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10935,7 +10940,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10972,14 +10977,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 37778-2025</t>
+          <t>A 42177-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45880</v>
+        <v>45178.7221412037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10992,7 +10997,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11029,14 +11034,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 1225-2026</t>
+          <t>A 34631-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46031.40648148148</v>
+        <v>45848.26144675926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11049,7 +11054,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11086,14 +11091,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 28221-2023</t>
+          <t>A 34632-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45099</v>
+        <v>45848.26725694445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11106,7 +11111,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>6.7</v>
+        <v>1.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11143,14 +11148,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 11605-2023</t>
+          <t>A 34633-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44994.401875</v>
+        <v>45848.27251157408</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11163,7 +11168,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11200,14 +11205,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 23693-2023</t>
+          <t>A 30638-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45077</v>
+        <v>45112</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11220,7 +11225,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11257,14 +11262,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 45192-2022</t>
+          <t>A 2474-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44844.42034722222</v>
+        <v>46037.37762731482</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11277,7 +11282,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.8</v>
+        <v>8.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11314,14 +11319,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 38879-2025</t>
+          <t>A 2480-2026</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45887.5771875</v>
+        <v>46037.38482638889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11334,7 +11339,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11371,14 +11376,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 9573-2025</t>
+          <t>A 37778-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45715.62260416667</v>
+        <v>45880</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11391,7 +11396,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11428,14 +11433,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 38897-2025</t>
+          <t>A 28221-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45887.59670138889</v>
+        <v>45099</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11448,7 +11453,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.5</v>
+        <v>6.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11485,14 +11490,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 2480-2026</t>
+          <t>A 171-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46037.38482638889</v>
+        <v>45659.64508101852</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11505,7 +11510,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11542,14 +11547,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 2474-2026</t>
+          <t>A 60789-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46037.37762731482</v>
+        <v>45999.41315972222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11562,7 +11567,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>8.6</v>
+        <v>2.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11599,14 +11604,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 38899-2025</t>
+          <t>A 3934-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45887</v>
+        <v>46043.80326388889</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11619,7 +11624,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11656,14 +11661,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 60789-2025</t>
+          <t>A 45192-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45999.41315972222</v>
+        <v>44844.42034722222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11676,7 +11681,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11713,14 +11718,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 22975-2023</t>
+          <t>A 36543-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45072</v>
+        <v>44804.57</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11733,7 +11738,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11770,14 +11775,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 14430-2023</t>
+          <t>A 5941-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45012</v>
+        <v>45695.46671296296</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11790,7 +11795,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11827,14 +11832,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 64091-2023</t>
+          <t>A 40190-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45279</v>
+        <v>44820.591875</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11847,7 +11852,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11884,14 +11889,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 3934-2026</t>
+          <t>A 44814-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46043.80326388889</v>
+        <v>44841.40362268518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11904,7 +11909,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11941,14 +11946,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 25962-2023</t>
+          <t>A 3205-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45090.77961805555</v>
+        <v>45679</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11960,8 +11965,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11998,14 +12008,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 981-2023</t>
+          <t>A 1397-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44935.35828703704</v>
+        <v>44936.73979166667</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12018,7 +12028,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12055,14 +12065,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 30136-2022</t>
+          <t>A 7541-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44757.46511574074</v>
+        <v>45705.57094907408</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12074,13 +12084,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>1.2</v>
+        <v>6.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12117,14 +12122,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 38214-2023</t>
+          <t>A 4989-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45161</v>
+        <v>46049.38898148148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12137,7 +12142,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12174,14 +12179,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 23739-2023</t>
+          <t>A 23693-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45077.7675</v>
+        <v>45077</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12194,7 +12199,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12231,14 +12236,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 4989-2026</t>
+          <t>A 23990-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46049.38898148148</v>
+        <v>45078</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12251,7 +12256,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12288,14 +12293,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 6796-2024</t>
+          <t>A 34591-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45342.56502314815</v>
+        <v>45140</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12308,7 +12313,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12345,14 +12350,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 29169-2021</t>
+          <t>A 52372-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44358</v>
+        <v>44465</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12365,7 +12370,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>4.8</v>
+        <v>0.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12402,14 +12407,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 34591-2023</t>
+          <t>A 11126-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45140</v>
+        <v>45723</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12422,7 +12427,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12459,14 +12464,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 40184-2022</t>
+          <t>A 13611-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44820.58752314815</v>
+        <v>45736.62430555555</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12479,7 +12484,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12516,14 +12521,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 9559-2022</t>
+          <t>A 54667-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44617.43976851852</v>
+        <v>45235.62601851852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12536,7 +12541,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12573,14 +12578,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 31925-2024</t>
+          <t>A 57703-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45510</v>
+        <v>44897</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12593,7 +12598,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12630,14 +12635,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 30638-2023</t>
+          <t>A 7192-2026</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45112</v>
+        <v>46058.49831018518</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12650,7 +12655,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12687,14 +12692,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 2088-2023</t>
+          <t>A 50629-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44939</v>
+        <v>45945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12707,7 +12712,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.4</v>
+        <v>6.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12744,14 +12749,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 7192-2026</t>
+          <t>A 7242-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46058.49831018518</v>
+        <v>46058.5840625</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12764,7 +12769,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12801,14 +12806,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 7242-2026</t>
+          <t>A 2090-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46058.5840625</v>
+        <v>44939</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12821,7 +12826,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12858,14 +12863,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 50629-2025</t>
+          <t>A 2537-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45945</v>
+        <v>46037.44983796297</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12878,7 +12883,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>6.3</v>
+        <v>2.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12915,14 +12920,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 52243-2025</t>
+          <t>A 53676-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45953</v>
+        <v>45960</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12935,7 +12940,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12972,14 +12977,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 25960-2023</t>
+          <t>A 52243-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45090</v>
+        <v>45953</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12992,7 +12997,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13029,14 +13034,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 53163-2025</t>
+          <t>A 25963-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45958</v>
+        <v>45090</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13049,7 +13054,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13086,14 +13091,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 52246-2025</t>
+          <t>A 53163-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45953</v>
+        <v>45958</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13106,7 +13111,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13143,14 +13148,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 2537-2026</t>
+          <t>A 52246-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46037.44983796297</v>
+        <v>45953</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13163,7 +13168,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13200,14 +13205,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 53676-2025</t>
+          <t>A 8204-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45960</v>
+        <v>44971</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13220,7 +13225,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13257,14 +13262,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 52528-2021</t>
+          <t>A 24765-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44466.46428240741</v>
+        <v>45084.6352662037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13277,7 +13282,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13314,14 +13319,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 36838-2024</t>
+          <t>A 8024-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45538.52853009259</v>
+        <v>46063</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13333,8 +13338,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13371,14 +13381,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 9125-2026</t>
+          <t>A 5002-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46069.68701388889</v>
+        <v>46049</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13391,7 +13401,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13428,14 +13438,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 9105-2026</t>
+          <t>A 9292-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46069.65299768518</v>
+        <v>46070.59259259259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13448,7 +13458,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13485,14 +13495,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 5002-2026</t>
+          <t>A 9105-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46049</v>
+        <v>46069.65299768518</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13542,14 +13552,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 8024-2026</t>
+          <t>A 9691-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46063</v>
+        <v>44984</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13561,13 +13571,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13604,14 +13609,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 1904-2023</t>
+          <t>A 9127-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44939</v>
+        <v>46069.6934375</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13624,7 +13629,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13661,14 +13666,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 9127-2026</t>
+          <t>A 9125-2026</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>46069.6934375</v>
+        <v>46069.68701388889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13681,7 +13686,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13718,14 +13723,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 8204-2023</t>
+          <t>A 39650-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44971</v>
+        <v>45167.55505787037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13738,7 +13743,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13775,14 +13780,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 11121-2025</t>
+          <t>A 14912-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45723.6369675926</v>
+        <v>45398.59821759259</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13795,7 +13800,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13832,14 +13837,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 3830-2022</t>
+          <t>A 1935-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44587.35361111111</v>
+        <v>45308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13852,7 +13857,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13889,14 +13894,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 21152-2022</t>
+          <t>A 72261-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44704</v>
+        <v>44545.31795138889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13909,7 +13914,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13946,14 +13951,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 9292-2026</t>
+          <t>A 14254-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46070.59259259259</v>
+        <v>45009.90423611111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13966,7 +13971,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14003,14 +14008,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 58130-2022</t>
+          <t>A 37620-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44900</v>
+        <v>45159.4530787037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14023,7 +14028,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>23.2</v>
+        <v>0.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14060,14 +14065,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 2359-2023</t>
+          <t>A 31704-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44942</v>
+        <v>45117</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14080,7 +14085,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.5</v>
+        <v>6.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14117,14 +14122,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 55049-2023</t>
+          <t>A 7707-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45237</v>
+        <v>45349.35894675926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14137,7 +14142,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14174,14 +14179,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 15987-2025</t>
+          <t>A 2405-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45749</v>
+        <v>45674.35796296296</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14194,7 +14199,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14231,14 +14236,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 57208-2022</t>
+          <t>A 25960-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44895</v>
+        <v>45090</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14251,7 +14256,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14288,14 +14293,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 3864-2023</t>
+          <t>A 25967-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44951.76491898148</v>
+        <v>45090.79582175926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14308,7 +14313,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>6.2</v>
+        <v>4.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14345,14 +14350,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 25965-2023</t>
+          <t>A 9559-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45090.79171296296</v>
+        <v>44617.43976851852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14365,7 +14370,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14402,14 +14407,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 38928-2024</t>
+          <t>A 48966-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45548</v>
+        <v>45209.60576388889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14422,7 +14427,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14459,14 +14464,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 7707-2024</t>
+          <t>A 50304-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45349.35894675926</v>
+        <v>45209</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14479,7 +14484,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.7</v>
+        <v>17.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14516,14 +14521,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 14254-2023</t>
+          <t>A 26837-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45009.90423611111</v>
+        <v>44740.4811574074</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14536,7 +14541,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14573,14 +14578,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 47871-2022</t>
+          <t>A 29334-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44855.43434027778</v>
+        <v>44752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14592,8 +14597,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14630,14 +14640,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 40190-2022</t>
+          <t>A 27497-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44820.591875</v>
+        <v>45474</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14650,7 +14660,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14687,14 +14697,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 20099-2025</t>
+          <t>A 54646-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45772.46916666667</v>
+        <v>45235.40707175926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14707,7 +14717,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14744,14 +14754,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 10797-2025</t>
+          <t>A 21910-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45722.50984953704</v>
+        <v>45443.36605324074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14764,7 +14774,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>15.1</v>
+        <v>1.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14801,14 +14811,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 40017-2023</t>
+          <t>A 21152-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45168</v>
+        <v>44704</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14821,7 +14831,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14858,14 +14868,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 34279-2023</t>
+          <t>A 11121-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45138</v>
+        <v>45723.6369675926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14878,7 +14888,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14915,14 +14925,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 54661-2023</t>
+          <t>A 1492-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45235.61505787037</v>
+        <v>45305.84925925926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14935,7 +14945,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14972,14 +14982,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 54646-2023</t>
+          <t>A 1493-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45235.40707175926</v>
+        <v>45305</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14992,7 +15002,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15029,14 +15039,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 2092-2023</t>
+          <t>A 9573-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44939</v>
+        <v>45715.62260416667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15049,7 +15059,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15086,14 +15096,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 21023-2024</t>
+          <t>A 22410-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45439.64483796297</v>
+        <v>45446</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15106,7 +15116,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15143,14 +15153,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 62180-2022</t>
+          <t>A 55049-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44915</v>
+        <v>45237</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15162,13 +15172,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15205,14 +15210,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 62181-2022</t>
+          <t>A 10379-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44915</v>
+        <v>45365.64063657408</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15224,13 +15229,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>6.4</v>
+        <v>0.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15267,14 +15267,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 23990-2023</t>
+          <t>A 54661-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45078</v>
+        <v>45235.61505787037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15324,14 +15324,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 1935-2024</t>
+          <t>A 11605-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45308</v>
+        <v>44994.401875</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15381,14 +15381,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 52372-2021</t>
+          <t>A 37501-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44465</v>
+        <v>45541.37159722222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15438,14 +15438,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 22406-2024</t>
+          <t>A 15987-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45446</v>
+        <v>45749</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15495,14 +15495,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 26179-2023</t>
+          <t>A 39622-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45091.52637731482</v>
+        <v>45163</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.7</v>
+        <v>10.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15552,14 +15552,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 27967-2024</t>
+          <t>A 6796-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45476.37760416666</v>
+        <v>45342.56502314815</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15609,14 +15609,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 26837-2022</t>
+          <t>A 50279-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44740.4811574074</v>
+        <v>45216.44960648148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15666,14 +15666,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 25967-2023</t>
+          <t>A 57709-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45090.79582175926</v>
+        <v>44897</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15723,14 +15723,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 22410-2024</t>
+          <t>A 30136-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45446</v>
+        <v>44757.46511574074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15742,8 +15742,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15780,14 +15785,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 29334-2022</t>
+          <t>A 32855-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44752</v>
+        <v>45124</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15799,13 +15804,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G262" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15842,14 +15842,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 5941-2025</t>
+          <t>A 3864-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45695.46671296296</v>
+        <v>44951.76491898148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.6</v>
+        <v>6.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15899,14 +15899,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 29335-2022</t>
+          <t>A 29169-2021</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44752</v>
+        <v>44358</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15918,13 +15918,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G264" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15961,14 +15956,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 42653-2024</t>
+          <t>A 58284-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45566.33113425926</v>
+        <v>45250.53486111111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15981,7 +15976,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16018,14 +16013,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 44882-2022</t>
+          <t>A 2086-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44841</v>
+        <v>44939</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16038,7 +16033,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16075,14 +16070,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 56460-2023</t>
+          <t>A 2359-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45243</v>
+        <v>44942</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16095,7 +16090,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16132,14 +16127,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 1783-2025</t>
+          <t>A 57161-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45671.4491087963</v>
+        <v>44895.59303240741</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16152,7 +16147,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16189,14 +16184,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 8752-2021</t>
+          <t>A 27967-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44246</v>
+        <v>45476.37760416666</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16209,7 +16204,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>6.8</v>
+        <v>0.4</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16246,14 +16241,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 26178-2023</t>
+          <t>A 47890-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45091.52565972223</v>
+        <v>44855</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16266,7 +16261,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16303,14 +16298,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 51577-2023</t>
+          <t>A 5927-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45222.45756944444</v>
+        <v>44963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16323,7 +16318,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16360,14 +16355,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 63029-2023</t>
+          <t>A 31925-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45272</v>
+        <v>45510</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16380,7 +16375,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16417,14 +16412,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 58284-2023</t>
+          <t>A 2399-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45250.53486111111</v>
+        <v>45672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16437,7 +16432,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16474,14 +16469,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 27497-2024</t>
+          <t>A 29335-2022</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45474</v>
+        <v>44752</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16493,8 +16488,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G274" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16531,14 +16531,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 48966-2023</t>
+          <t>A 22699-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45209.60576388889</v>
+        <v>45448.32910879629</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16588,14 +16588,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 2405-2025</t>
+          <t>A 25965-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45674.35796296296</v>
+        <v>45090.79171296296</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16645,14 +16645,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 27540-2024</t>
+          <t>A 19390-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45474</v>
+        <v>45048</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16702,14 +16702,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 9773-2024</t>
+          <t>A 65211-2021</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45362</v>
+        <v>44515.50362268519</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.5</v>
+        <v>4.9</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16759,14 +16759,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 57795-2022</t>
+          <t>A 63029-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44897.66587962963</v>
+        <v>45272</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16816,14 +16816,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 50279-2023</t>
+          <t>A 14430-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45216.44960648148</v>
+        <v>45012</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16873,14 +16873,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 33796-2023</t>
+          <t>A 23692-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45133.57142361111</v>
+        <v>45077.60907407408</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16930,14 +16930,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 2090-2023</t>
+          <t>A 23739-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44939</v>
+        <v>45077.7675</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16987,14 +16987,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 57161-2022</t>
+          <t>A 23740-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44895.59303240741</v>
+        <v>45077</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17044,14 +17044,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 57709-2022</t>
+          <t>A 23898-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44897</v>
+        <v>45078.54318287037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17101,14 +17101,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 2086-2023</t>
+          <t>A 56460-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44939</v>
+        <v>45243</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17158,14 +17158,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 50304-2023</t>
+          <t>A 5954-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45209</v>
+        <v>45695.4777662037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>17.9</v>
+        <v>0</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17215,14 +17215,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 11126-2025</t>
+          <t>A 38214-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45723</v>
+        <v>45161</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17272,14 +17272,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 37620-2023</t>
+          <t>A 27540-2024</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45159.4530787037</v>
+        <v>45474</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17336,7 +17336,7 @@
         <v>44984</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17386,14 +17386,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 2399-2025</t>
+          <t>A 25962-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45672</v>
+        <v>45090.77961805555</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.9</v>
+        <v>7.3</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17443,14 +17443,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 22699-2024</t>
+          <t>A 981-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45448.32910879629</v>
+        <v>44935.35828703704</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17500,14 +17500,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 36572-2021</t>
+          <t>A 1904-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>44391.58083333333</v>
+        <v>44939</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17557,14 +17557,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 20492-2024</t>
+          <t>A 51577-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45435.8712962963</v>
+        <v>45222.45756944444</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17614,14 +17614,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 49362-2024</t>
+          <t>A 3830-2022</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45595.62802083333</v>
+        <v>44587.35361111111</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17668,17 +17668,17 @@
       </c>
       <c r="R294" s="2" t="inlineStr"/>
     </row>
-    <row r="295" ht="15" customHeight="1">
+    <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 168-2025</t>
+          <t>A 40184-2022</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45659.64137731482</v>
+        <v>44820.58752314815</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>6.9</v>
+        <v>0.2</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17724,63 +17724,6 @@
         <v>0</v>
       </c>
       <c r="R295" s="2" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>A 21867-2025</t>
-        </is>
-      </c>
-      <c r="B296" s="1" t="n">
-        <v>45784.37122685185</v>
-      </c>
-      <c r="C296" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="G296" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="n">
-        <v>0</v>
-      </c>
-      <c r="K296" t="n">
-        <v>0</v>
-      </c>
-      <c r="L296" t="n">
-        <v>0</v>
-      </c>
-      <c r="M296" t="n">
-        <v>0</v>
-      </c>
-      <c r="N296" t="n">
-        <v>0</v>
-      </c>
-      <c r="O296" t="n">
-        <v>0</v>
-      </c>
-      <c r="P296" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q296" t="n">
-        <v>0</v>
-      </c>
-      <c r="R296" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45916</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45853.6421875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>45545.36309027778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45510</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45684.70283564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44516.32994212963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,14 +1197,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 43471-2025</t>
+          <t>A 1604-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45911</v>
+        <v>45670</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1216,8 +1216,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1251,294 +1256,289 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Igelkott</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 1604-2025 artfynd.xlsx", "A 1604-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 1604-2025 karta.png", "A 1604-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 1604-2025 FSC-klagomål.docx", "A 1604-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 1604-2025 FSC-klagomål mail.docx", "A 1604-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 1604-2025 tillsynsbegäran.docx", "A 1604-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 1604-2025 tillsynsbegäran mail.docx", "A 1604-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 43471-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45911</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Granspira</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 43471-2025 artfynd.xlsx", "A 43471-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 43471-2025 karta.png", "A 43471-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 43471-2025 FSC-klagomål.docx", "A 43471-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 43471-2025 FSC-klagomål mail.docx", "A 43471-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 43471-2025 tillsynsbegäran.docx", "A 43471-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 43471-2025 tillsynsbegäran mail.docx", "A 43471-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 15068-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45015</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Kambräken</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 15068-2023 artfynd.xlsx", "A 15068-2023")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 15068-2023 karta.png", "A 15068-2023")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 15068-2023 FSC-klagomål.docx", "A 15068-2023")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 15068-2023 FSC-klagomål mail.docx", "A 15068-2023")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 15068-2023 tillsynsbegäran.docx", "A 15068-2023")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 15068-2023 tillsynsbegäran mail.docx", "A 15068-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 57429-2025</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45980</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>2.8</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Slåttergubbe</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 57429-2025 artfynd.xlsx", "A 57429-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 57429-2025 karta.png", "A 57429-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 57429-2025 FSC-klagomål.docx", "A 57429-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 57429-2025 FSC-klagomål mail.docx", "A 57429-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 57429-2025 tillsynsbegäran.docx", "A 57429-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 57429-2025 tillsynsbegäran mail.docx", "A 57429-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 1604-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45670</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Igelkott</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 1604-2025 artfynd.xlsx", "A 1604-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 1604-2025 karta.png", "A 1604-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 1604-2025 FSC-klagomål.docx", "A 1604-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 1604-2025 FSC-klagomål mail.docx", "A 1604-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 1604-2025 tillsynsbegäran.docx", "A 1604-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 1604-2025 tillsynsbegäran mail.docx", "A 1604-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 15068-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45015</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Kambräken</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 15068-2023 artfynd.xlsx", "A 15068-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 15068-2023 karta.png", "A 15068-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 15068-2023 FSC-klagomål.docx", "A 15068-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 15068-2023 FSC-klagomål mail.docx", "A 15068-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 15068-2023 tillsynsbegäran.docx", "A 15068-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 15068-2023 tillsynsbegäran mail.docx", "A 15068-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44298</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>44788.44263888889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44820.59869212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44788.45163194444</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44676.44231481481</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44546</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44846.67469907407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44752</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44387</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44414.37533564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>44440.43105324074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>44537.84666666666</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44799</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44526.32802083333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>44813</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>44635</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,14 +2754,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 24712-2021</t>
+          <t>A 71637-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44340.5113425926</v>
+        <v>44543.32719907408</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2811,14 +2811,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 71637-2021</t>
+          <t>A 24712-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44543.32719907408</v>
+        <v>44340.5113425926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>44636.62268518518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>44841.84542824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>44804.63545138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,14 +3039,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 26178-2023</t>
+          <t>A 6020-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45091.52565972223</v>
+        <v>44599</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3096,14 +3096,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 26179-2023</t>
+          <t>A 7541-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45091.52637731482</v>
+        <v>45705.57094907408</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>6.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3153,14 +3153,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 20099-2025</t>
+          <t>A 19390-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45772.46916666667</v>
+        <v>45048</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3210,14 +3210,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 9773-2024</t>
+          <t>A 73830-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45362</v>
+        <v>44552.84040509259</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3267,14 +3267,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 62180-2022</t>
+          <t>A 9748-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44915</v>
+        <v>45362.60480324074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3286,13 +3286,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3329,14 +3324,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 62181-2022</t>
+          <t>A 44814-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44915</v>
+        <v>44841.40362268518</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3348,13 +3343,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3391,14 +3381,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 17641-2023</t>
+          <t>A 5927-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45035</v>
+        <v>44963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3411,7 +3401,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7.3</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3448,14 +3438,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 9748-2024</t>
+          <t>A 52876-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45362.60480324074</v>
+        <v>45610.6337037037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3468,7 +3458,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3505,14 +3495,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 10797-2025</t>
+          <t>A 10379-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45722.50984953704</v>
+        <v>45365.64063657408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3525,7 +3515,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>15.1</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3562,14 +3552,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 44882-2022</t>
+          <t>A 23740-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44841</v>
+        <v>45077</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3582,7 +3572,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3619,14 +3609,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 48672-2025</t>
+          <t>A 72261-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45936.58152777778</v>
+        <v>44545.31795138889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3639,7 +3629,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3676,14 +3666,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 24154-2023</t>
+          <t>A 17737-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45079</v>
+        <v>45037.44637731482</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3696,7 +3686,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3733,14 +3723,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 31399-2025</t>
+          <t>A 39622-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45833.46824074074</v>
+        <v>45163</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3753,7 +3743,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>10.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3790,14 +3780,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 21023-2024</t>
+          <t>A 9359-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45439.64483796297</v>
+        <v>45715.29788194445</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3810,7 +3800,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3847,14 +3837,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 48870-2025</t>
+          <t>A 47890-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45937.44994212963</v>
+        <v>44855</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3867,7 +3857,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3904,14 +3894,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 38857-2025</t>
+          <t>A 23898-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45887.55858796297</v>
+        <v>45078.54318287037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3924,7 +3914,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3961,14 +3951,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 38897-2025</t>
+          <t>A 31704-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45887.59670138889</v>
+        <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3981,7 +3971,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>6.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4018,14 +4008,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 38893-2025</t>
+          <t>A 14912-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45887.58900462963</v>
+        <v>45398.59821759259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4038,7 +4028,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4075,14 +4065,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 21867-2025</t>
+          <t>A 13611-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45784.37122685185</v>
+        <v>45736.62430555555</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4095,7 +4085,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4132,14 +4122,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 168-2025</t>
+          <t>A 54667-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45659.64137731482</v>
+        <v>45235.62601851852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4152,7 +4142,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>6.9</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4189,14 +4179,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 38772-2025</t>
+          <t>A 25963-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45887.42040509259</v>
+        <v>45090</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4209,7 +4199,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4246,14 +4236,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 38879-2025</t>
+          <t>A 40814-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45887.5771875</v>
+        <v>45171.54957175926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4266,7 +4256,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4303,14 +4293,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 49362-2024</t>
+          <t>A 32855-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45595.62802083333</v>
+        <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4323,7 +4313,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4360,14 +4350,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 7915-2025</t>
+          <t>A 1492-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45707.35076388889</v>
+        <v>45305.84925925926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4380,7 +4370,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4417,14 +4407,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 22391-2024</t>
+          <t>A 1493-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45446</v>
+        <v>45305</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4437,7 +4427,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4474,14 +4464,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 27486-2024</t>
+          <t>A 21910-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45474.48015046296</v>
+        <v>45443.36605324074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4494,7 +4484,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4531,14 +4521,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 25958-2023</t>
+          <t>A 27521-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45090</v>
+        <v>44351</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4551,7 +4541,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.1</v>
+        <v>10.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4588,14 +4578,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 39864-2025</t>
+          <t>A 57703-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45891.60197916667</v>
+        <v>44897</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4608,7 +4598,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4645,14 +4635,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 60271-2024</t>
+          <t>A 26058-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45642</v>
+        <v>45468</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4665,7 +4655,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4702,14 +4692,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 58130-2022</t>
+          <t>A 63783-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44900</v>
+        <v>45278.38888888889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4722,7 +4712,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>23.2</v>
+        <v>0.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4759,14 +4749,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 27521-2021</t>
+          <t>A 27988-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44351</v>
+        <v>45817.58586805555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4779,7 +4769,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>10.3</v>
+        <v>11.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4816,14 +4806,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 12631-2021</t>
+          <t>A 3205-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44270</v>
+        <v>45679</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4835,8 +4825,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>2.4</v>
+        <v>6.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4873,14 +4868,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 19643-2024</t>
+          <t>A 1397-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45432</v>
+        <v>44936.73979166667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4892,13 +4887,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4935,14 +4925,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 22406-2024</t>
+          <t>A 6137-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45446</v>
+        <v>45337</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4955,7 +4945,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>11.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4992,14 +4982,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 17458-2023</t>
+          <t>A 21146-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45034</v>
+        <v>44704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5012,7 +5002,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>7.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5049,14 +5039,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 23469-2025</t>
+          <t>A 36543-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45792.43915509259</v>
+        <v>44804.57</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5069,7 +5059,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5106,14 +5096,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 54669-2023</t>
+          <t>A 13068-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45235.63085648148</v>
+        <v>45002.38854166667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5126,7 +5116,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5163,14 +5153,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 11460-2025</t>
+          <t>A 38857-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45726</v>
+        <v>45887.55858796297</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5183,7 +5173,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5220,14 +5210,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 26058-2024</t>
+          <t>A 5954-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45468</v>
+        <v>45695.4777662037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5240,7 +5230,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5277,14 +5267,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 47871-2022</t>
+          <t>A 31399-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44855.43434027778</v>
+        <v>45833.46824074074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5297,7 +5287,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5334,14 +5324,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 44880-2022</t>
+          <t>A 12625-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44841</v>
+        <v>44270.4590625</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5354,7 +5344,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5391,14 +5381,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 57208-2022</t>
+          <t>A 7915-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44895</v>
+        <v>45707.35076388889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5411,7 +5401,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5448,14 +5438,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 41912-2025</t>
+          <t>A 28693-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45903.40931712963</v>
+        <v>45819.83893518519</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5468,7 +5458,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5505,14 +5495,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 36572-2021</t>
+          <t>A 38893-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44391.58083333333</v>
+        <v>45887.58900462963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5525,7 +5515,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5562,14 +5552,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 41887-2025</t>
+          <t>A 19643-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45903.37215277777</v>
+        <v>45432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5581,8 +5571,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5619,14 +5614,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 44925-2025</t>
+          <t>A 29642-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45918.55711805556</v>
+        <v>45825</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5639,7 +5634,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5676,14 +5671,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 41926-2025</t>
+          <t>A 23692-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45903.42753472222</v>
+        <v>45077.60907407408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5696,7 +5691,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5733,14 +5728,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 42728-2025</t>
+          <t>A 39864-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45908.40429398148</v>
+        <v>45891.60197916667</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5753,7 +5748,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5790,14 +5785,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 64091-2023</t>
+          <t>A 37501-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45279</v>
+        <v>45541.37159722222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5810,7 +5805,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5847,14 +5842,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 36280-2025</t>
+          <t>A 44880-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45867</v>
+        <v>44841</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5867,7 +5862,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5904,14 +5899,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 42714-2025</t>
+          <t>A 171-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45908.381875</v>
+        <v>45659.64508101852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5924,7 +5919,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5961,14 +5956,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 42725-2025</t>
+          <t>A 9691-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45908.40152777778</v>
+        <v>44984</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5981,7 +5976,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6018,14 +6013,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 40814-2023</t>
+          <t>A 17641-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45171.54957175926</v>
+        <v>45035</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6038,7 +6033,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>7.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6075,14 +6070,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 40017-2023</t>
+          <t>A 12038-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45168</v>
+        <v>45728.65583333333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6095,7 +6090,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6132,14 +6127,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 42708-2025</t>
+          <t>A 41912-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45908.37359953704</v>
+        <v>45903.40931712963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6152,7 +6147,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6189,14 +6184,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 42713-2025</t>
+          <t>A 41887-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45908.37888888889</v>
+        <v>45903.37215277777</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6209,7 +6204,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6246,14 +6241,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 51654-2025</t>
+          <t>A 41926-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45951.46241898148</v>
+        <v>45903.42753472222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6266,7 +6261,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6303,14 +6298,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 42653-2024</t>
+          <t>A 17270-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45566.33113425926</v>
+        <v>45756.5531712963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6318,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6360,14 +6355,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 33796-2023</t>
+          <t>A 32704-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45133.57142361111</v>
+        <v>45839</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6375,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6417,14 +6412,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 53142-2025</t>
+          <t>A 39650-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45958</v>
+        <v>45167.55505787037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6437,7 +6432,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.3</v>
+        <v>3.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6474,14 +6469,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 53017-2025</t>
+          <t>A 42725-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45957</v>
+        <v>45908.40152777778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6489,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6531,14 +6526,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 53019-2025</t>
+          <t>A 42713-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45957</v>
+        <v>45908.37888888889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6546,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6588,14 +6583,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 6137-2024</t>
+          <t>A 42708-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45337</v>
+        <v>45908.37359953704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6603,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>11.7</v>
+        <v>0.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6645,14 +6640,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 2088-2023</t>
+          <t>A 42714-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44939</v>
+        <v>45908.381875</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6660,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6702,14 +6697,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 2092-2023</t>
+          <t>A 24154-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44939</v>
+        <v>45079</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6717,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6759,14 +6754,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 52528-2021</t>
+          <t>A 65211-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44466.46428240741</v>
+        <v>44515.50362268519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6779,7 +6774,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6816,14 +6811,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 13797-2025</t>
+          <t>A 42728-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45737.48324074074</v>
+        <v>45908.40429398148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6831,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6873,14 +6868,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 43641-2025</t>
+          <t>A 24765-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45911.87390046296</v>
+        <v>45084.6352662037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6888,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6930,14 +6925,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 26032-2025</t>
+          <t>A 13797-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45804.69063657407</v>
+        <v>45737.48324074074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6945,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6987,14 +6982,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 44376-2025</t>
+          <t>A 43992-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45916.47453703704</v>
+        <v>45915.44501157408</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +7002,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7044,14 +7039,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 44386-2025</t>
+          <t>A 43900-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45916.48872685185</v>
+        <v>45913.26221064815</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7059,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7101,14 +7096,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 43900-2025</t>
+          <t>A 33752-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45913.26221064815</v>
+        <v>45842.36796296296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7116,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7158,14 +7153,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 54506-2025</t>
+          <t>A 43641-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45965</v>
+        <v>45911.87390046296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7173,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7215,14 +7210,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 25588-2025</t>
+          <t>A 43990-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45803.49103009259</v>
+        <v>45915.44359953704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7230,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7272,14 +7267,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 25589-2025</t>
+          <t>A 44364-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45803.49381944445</v>
+        <v>45916.45373842592</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7287,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7329,14 +7324,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 44364-2025</t>
+          <t>A 11115-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45916.45373842592</v>
+        <v>45723</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7344,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.6</v>
+        <v>2.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7393,7 +7388,7 @@
         <v>45916.44782407407</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7443,14 +7438,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 43990-2025</t>
+          <t>A 44386-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45915.44359953704</v>
+        <v>45916.48872685185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7458,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7500,14 +7495,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 26020-2025</t>
+          <t>A 44376-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45804.67818287037</v>
+        <v>45916.47453703704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7515,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>7.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7557,14 +7552,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 43992-2025</t>
+          <t>A 35168-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45915.44501157408</v>
+        <v>45852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7572,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.8</v>
+        <v>5.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7614,14 +7609,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 44923-2025</t>
+          <t>A 44864-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45918.55475694445</v>
+        <v>45918</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7629,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7678,7 +7673,7 @@
         <v>45918.5110300926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,14 +7723,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 44846-2025</t>
+          <t>A 44793-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45918.43986111111</v>
+        <v>45918.32309027778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7743,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7785,14 +7780,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 44852-2025</t>
+          <t>A 18285-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45918.44703703704</v>
+        <v>45762</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7800,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7842,14 +7837,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 44890-2025</t>
+          <t>A 44923-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45918.49697916667</v>
+        <v>45918.55475694445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7862,7 +7857,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7899,14 +7894,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 44793-2025</t>
+          <t>A 44897-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45918.32309027778</v>
+        <v>45918.50546296296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7914,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7956,14 +7951,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 44791-2025</t>
+          <t>A 44890-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45918.31138888889</v>
+        <v>45918.49697916667</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7971,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8013,14 +8008,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 44864-2025</t>
+          <t>A 44791-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45918</v>
+        <v>45918.31138888889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8028,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8070,14 +8065,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 36838-2024</t>
+          <t>A 44846-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45538.52853009259</v>
+        <v>45918.43986111111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8085,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8127,14 +8122,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 44897-2025</t>
+          <t>A 44852-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45918.50546296296</v>
+        <v>45918.44703703704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8147,7 +8142,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8184,14 +8179,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 34279-2023</t>
+          <t>A 35490-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45138</v>
+        <v>45855.79797453704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8199,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8248,7 +8243,7 @@
         <v>45922.64444444444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8298,14 +8293,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 57795-2022</t>
+          <t>A 61602-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44897.66587962963</v>
+        <v>45646.6387962963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8313,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8355,14 +8350,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 27449-2025</t>
+          <t>A 35489-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45813.33200231481</v>
+        <v>45855.79260416667</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8370,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.9</v>
+        <v>6.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8412,14 +8407,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 27523-2025</t>
+          <t>A 35808-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45813</v>
+        <v>45861.41337962963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8427,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8469,14 +8464,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 1783-2025</t>
+          <t>A 42177-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45671.4491087963</v>
+        <v>45178.7221412037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8484,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8526,14 +8521,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 47268-2025</t>
+          <t>A 24671-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45930.45893518518</v>
+        <v>45798.65046296296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8546,7 +8541,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8583,14 +8578,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 73830-2021</t>
+          <t>A 24674-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44552.84040509259</v>
+        <v>45798.65300925926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8598,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8640,14 +8635,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 6020-2022</t>
+          <t>A 24664-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44599</v>
+        <v>45798.64627314815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8655,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8697,14 +8692,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 27988-2025</t>
+          <t>A 28221-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45817.58586805555</v>
+        <v>45099</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8712,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>11.8</v>
+        <v>6.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8754,14 +8749,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 15478-2025</t>
+          <t>A 47268-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45747.5475</v>
+        <v>45930.45893518518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8769,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8811,14 +8806,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 21146-2022</t>
+          <t>A 11605-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44704</v>
+        <v>44994.401875</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8826,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>7.4</v>
+        <v>1.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8868,14 +8863,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 56264-2025</t>
+          <t>A 34631-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45974.57391203703</v>
+        <v>45848.26144675926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8883,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8925,14 +8920,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 28693-2025</t>
+          <t>A 34632-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45819.83893518519</v>
+        <v>45848.26725694445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8940,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8982,14 +8977,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 56765-2025</t>
+          <t>A 34633-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45978.38018518518</v>
+        <v>45848.27251157408</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9002,7 +8997,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9039,14 +9034,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 56581-2025</t>
+          <t>A 23693-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45975.54347222222</v>
+        <v>45077</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9059,7 +9054,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9096,14 +9091,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 13068-2023</t>
+          <t>A 45192-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45002.38854166667</v>
+        <v>44844.42034722222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9116,7 +9111,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9153,14 +9148,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 56487-2025</t>
+          <t>A 48672-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45975.41037037037</v>
+        <v>45936.58152777778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9173,7 +9168,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9210,14 +9205,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 29642-2025</t>
+          <t>A 37778-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45825</v>
+        <v>45880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9230,7 +9225,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9267,14 +9262,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 56455-2025</t>
+          <t>A 9573-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45975.35782407408</v>
+        <v>45715.62260416667</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9287,7 +9282,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9324,14 +9319,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 57343-2025</t>
+          <t>A 48870-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45980.34996527778</v>
+        <v>45937.44994212963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9344,7 +9339,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9381,14 +9376,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 57221-2025</t>
+          <t>A 38879-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45979.61408564815</v>
+        <v>45887.5771875</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9401,7 +9396,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9438,14 +9433,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 17737-2023</t>
+          <t>A 38897-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45037.44637731482</v>
+        <v>45887.59670138889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9458,7 +9453,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9495,14 +9490,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 57790-2025</t>
+          <t>A 44925-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45981</v>
+        <v>45918.55711805556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9510,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9552,14 +9547,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 57774-2025</t>
+          <t>A 38772-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45981</v>
+        <v>45887.42040509259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9567,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9609,14 +9604,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 17270-2025</t>
+          <t>A 22975-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45756.5531712963</v>
+        <v>45072</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9624,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9666,14 +9661,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 58347-2025</t>
+          <t>A 14430-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45985.50454861111</v>
+        <v>45012</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9681,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9723,14 +9718,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 12038-2025</t>
+          <t>A 51654-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45728.65583333333</v>
+        <v>45951.46241898148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9738,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9780,14 +9775,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 20492-2024</t>
+          <t>A 36280-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45435.8712962963</v>
+        <v>45867</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9800,7 +9795,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9837,14 +9832,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 22975-2023</t>
+          <t>A 64091-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45072</v>
+        <v>45279</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9894,14 +9889,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 32704-2025</t>
+          <t>A 25962-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45839</v>
+        <v>45090.77961805555</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9914,7 +9909,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>7.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9951,14 +9946,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 12625-2021</t>
+          <t>A 981-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44270.4590625</v>
+        <v>44935.35828703704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9971,7 +9966,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10008,14 +10003,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 33752-2025</t>
+          <t>A 53017-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45842.36796296296</v>
+        <v>45957</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10028,7 +10023,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10065,14 +10060,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 38928-2024</t>
+          <t>A 53019-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45548</v>
+        <v>45957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10085,7 +10080,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10122,14 +10117,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 11115-2025</t>
+          <t>A 30136-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45723</v>
+        <v>44757.46511574074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10141,8 +10136,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10179,14 +10179,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 1225-2026</t>
+          <t>A 38214-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46031.40648148148</v>
+        <v>45161</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10236,14 +10236,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 63783-2023</t>
+          <t>A 53142-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45278.38888888889</v>
+        <v>45958</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10293,14 +10293,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 35168-2025</t>
+          <t>A 23739-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45852</v>
+        <v>45077.7675</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>5.2</v>
+        <v>1.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10350,14 +10350,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 9359-2025</t>
+          <t>A 6796-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45715.29788194445</v>
+        <v>45342.56502314815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10407,14 +10407,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 18285-2025</t>
+          <t>A 29169-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45762</v>
+        <v>44358</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10464,14 +10464,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 61602-2024</t>
+          <t>A 34591-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45646.6387962963</v>
+        <v>45140</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10521,14 +10521,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 35490-2025</t>
+          <t>A 40184-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45855.79797453704</v>
+        <v>44820.58752314815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.1</v>
+        <v>0.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10578,14 +10578,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 35489-2025</t>
+          <t>A 54506-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45855.79260416667</v>
+        <v>45965</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>6.3</v>
+        <v>0.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10635,14 +10635,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 35808-2025</t>
+          <t>A 9559-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45861.41337962963</v>
+        <v>44617.43976851852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10692,14 +10692,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 52876-2024</t>
+          <t>A 31925-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45610.6337037037</v>
+        <v>45510</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10749,14 +10749,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 38899-2025</t>
+          <t>A 56581-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45887</v>
+        <v>45975.54347222222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10806,14 +10806,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 24664-2025</t>
+          <t>A 30638-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45798.64627314815</v>
+        <v>45112</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10863,14 +10863,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 24671-2025</t>
+          <t>A 56264-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45798.65046296296</v>
+        <v>45974.57391203703</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10920,14 +10920,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 24674-2025</t>
+          <t>A 2088-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45798.65300925926</v>
+        <v>44939</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10977,14 +10977,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 42177-2023</t>
+          <t>A 56455-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45178.7221412037</v>
+        <v>45975.35782407408</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11034,14 +11034,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 34631-2025</t>
+          <t>A 56487-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45848.26144675926</v>
+        <v>45975.41037037037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11091,14 +11091,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 34632-2025</t>
+          <t>A 56765-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45848.26725694445</v>
+        <v>45978.38018518518</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11148,14 +11148,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 34633-2025</t>
+          <t>A 57221-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45848.27251157408</v>
+        <v>45979.61408564815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11205,14 +11205,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 30638-2023</t>
+          <t>A 57774-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45112</v>
+        <v>45981</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11262,14 +11262,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 2474-2026</t>
+          <t>A 57343-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46037.37762731482</v>
+        <v>45980.34996527778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>8.6</v>
+        <v>0.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11319,14 +11319,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 2480-2026</t>
+          <t>A 57790-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46037.38482638889</v>
+        <v>45981</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11376,14 +11376,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 37778-2025</t>
+          <t>A 25960-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45880</v>
+        <v>45090</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11433,14 +11433,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 28221-2023</t>
+          <t>A 58347-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45099</v>
+        <v>45985.50454861111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>6.7</v>
+        <v>3.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11490,14 +11490,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 171-2025</t>
+          <t>A 52528-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45659.64508101852</v>
+        <v>44466.46428240741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11547,14 +11547,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 60789-2025</t>
+          <t>A 36838-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45999.41315972222</v>
+        <v>45538.52853009259</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11604,14 +11604,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 3934-2026</t>
+          <t>A 2480-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46043.80326388889</v>
+        <v>46037.38482638889</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11661,14 +11661,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 45192-2022</t>
+          <t>A 2474-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44844.42034722222</v>
+        <v>46037.37762731482</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.8</v>
+        <v>8.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11718,14 +11718,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 36543-2022</t>
+          <t>A 38899-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44804.57</v>
+        <v>45887</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11775,14 +11775,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 5941-2025</t>
+          <t>A 60789-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45695.46671296296</v>
+        <v>45999.41315972222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11832,14 +11832,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 40190-2022</t>
+          <t>A 1904-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44820.591875</v>
+        <v>44939</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11889,14 +11889,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 44814-2022</t>
+          <t>A 8204-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44841.40362268518</v>
+        <v>44971</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11946,14 +11946,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 3205-2025</t>
+          <t>A 11121-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45679</v>
+        <v>45723.6369675926</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11965,13 +11965,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>6.7</v>
+        <v>0.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12008,14 +12003,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 1397-2023</t>
+          <t>A 3830-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44936.73979166667</v>
+        <v>44587.35361111111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12028,7 +12023,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12065,14 +12060,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 7541-2025</t>
+          <t>A 3934-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45705.57094907408</v>
+        <v>46043.80326388889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12085,7 +12080,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>6.2</v>
+        <v>1.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12122,14 +12117,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 4989-2026</t>
+          <t>A 21152-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46049.38898148148</v>
+        <v>44704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12142,7 +12137,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12179,14 +12174,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 23693-2023</t>
+          <t>A 58130-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45077</v>
+        <v>44900</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12199,7 +12194,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4.5</v>
+        <v>23.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12236,14 +12231,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 23990-2023</t>
+          <t>A 4989-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45078</v>
+        <v>46049.38898148148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12256,7 +12251,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12293,14 +12288,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 34591-2023</t>
+          <t>A 2359-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45140</v>
+        <v>44942</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12313,7 +12308,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12350,14 +12345,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 52372-2021</t>
+          <t>A 55049-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44465</v>
+        <v>45237</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12370,7 +12365,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12407,14 +12402,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 11126-2025</t>
+          <t>A 15987-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45723</v>
+        <v>45749</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12427,7 +12422,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12464,14 +12459,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 13611-2025</t>
+          <t>A 57208-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45736.62430555555</v>
+        <v>44895</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12484,7 +12479,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12521,14 +12516,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 54667-2023</t>
+          <t>A 3864-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45235.62601851852</v>
+        <v>44951.76491898148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12541,7 +12536,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.7</v>
+        <v>6.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12578,14 +12573,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 57703-2022</t>
+          <t>A 25965-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44897</v>
+        <v>45090.79171296296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12598,7 +12593,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12635,14 +12630,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 7192-2026</t>
+          <t>A 38928-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46058.49831018518</v>
+        <v>45548</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12655,7 +12650,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12692,14 +12687,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 50629-2025</t>
+          <t>A 7707-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45945</v>
+        <v>45349.35894675926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12712,7 +12707,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>6.3</v>
+        <v>0.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12749,14 +12744,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 7242-2026</t>
+          <t>A 7192-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46058.5840625</v>
+        <v>46058.49831018518</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12769,7 +12764,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12806,14 +12801,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 2090-2023</t>
+          <t>A 7242-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44939</v>
+        <v>46058.5840625</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12826,7 +12821,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12863,14 +12858,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 2537-2026</t>
+          <t>A 50629-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46037.44983796297</v>
+        <v>45945</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12883,7 +12878,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.9</v>
+        <v>6.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12920,14 +12915,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 53676-2025</t>
+          <t>A 52243-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45960</v>
+        <v>45953</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12940,7 +12935,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12977,14 +12972,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 52243-2025</t>
+          <t>A 53163-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45953</v>
+        <v>45958</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12997,7 +12992,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13034,14 +13029,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 25963-2023</t>
+          <t>A 14254-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45090</v>
+        <v>45009.90423611111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13054,7 +13049,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13091,14 +13086,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 53163-2025</t>
+          <t>A 52246-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45958</v>
+        <v>45953</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13111,7 +13106,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13148,14 +13143,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 52246-2025</t>
+          <t>A 2537-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45953</v>
+        <v>46037.44983796297</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13168,7 +13163,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13205,14 +13200,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 8204-2023</t>
+          <t>A 53676-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44971</v>
+        <v>45960</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13225,7 +13220,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13262,14 +13257,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 24765-2023</t>
+          <t>A 9125-2026</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45084.6352662037</v>
+        <v>46069.68701388889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13319,14 +13314,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 8024-2026</t>
+          <t>A 9105-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46063</v>
+        <v>46069.65299768518</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13338,13 +13333,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13388,7 +13378,7 @@
         <v>46049</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13438,14 +13428,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 9292-2026</t>
+          <t>A 8024-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46070.59259259259</v>
+        <v>46063</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13457,8 +13447,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13495,14 +13490,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 9105-2026</t>
+          <t>A 47871-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46069.65299768518</v>
+        <v>44855.43434027778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13515,7 +13510,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13552,14 +13547,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 9691-2023</t>
+          <t>A 9127-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44984</v>
+        <v>46069.6934375</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13572,7 +13567,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13609,14 +13604,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 9127-2026</t>
+          <t>A 40190-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>46069.6934375</v>
+        <v>44820.591875</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13629,7 +13624,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13666,14 +13661,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 9125-2026</t>
+          <t>A 20099-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>46069.68701388889</v>
+        <v>45772.46916666667</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13686,7 +13681,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13723,14 +13718,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 39650-2023</t>
+          <t>A 9292-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45167.55505787037</v>
+        <v>46070.59259259259</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13743,7 +13738,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13780,14 +13775,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 14912-2024</t>
+          <t>A 1225-2026</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45398.59821759259</v>
+        <v>46031.40648148148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13800,7 +13795,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13837,14 +13832,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 1935-2024</t>
+          <t>A 10797-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45308</v>
+        <v>45722.50984953704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13857,7 +13852,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.2</v>
+        <v>15.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13894,14 +13889,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 72261-2021</t>
+          <t>A 40017-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44545.31795138889</v>
+        <v>45168</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13914,7 +13909,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13951,14 +13946,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 14254-2023</t>
+          <t>A 34279-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45009.90423611111</v>
+        <v>45138</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13971,7 +13966,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14008,14 +14003,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 37620-2023</t>
+          <t>A 54661-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45159.4530787037</v>
+        <v>45235.61505787037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14028,7 +14023,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14065,14 +14060,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 31704-2023</t>
+          <t>A 54646-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45117</v>
+        <v>45235.40707175926</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14085,7 +14080,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>6.7</v>
+        <v>5.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14122,14 +14117,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 7707-2024</t>
+          <t>A 2092-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45349.35894675926</v>
+        <v>44939</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14142,7 +14137,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14179,14 +14174,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 2405-2025</t>
+          <t>A 21023-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45674.35796296296</v>
+        <v>45439.64483796297</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14199,7 +14194,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14236,14 +14231,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 25960-2023</t>
+          <t>A 62180-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45090</v>
+        <v>44915</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14255,8 +14250,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>1.9</v>
+        <v>7.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14293,14 +14293,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 25967-2023</t>
+          <t>A 62181-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45090.79582175926</v>
+        <v>44915</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14312,8 +14312,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14350,14 +14355,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 9559-2022</t>
+          <t>A 23990-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44617.43976851852</v>
+        <v>45078</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14370,7 +14375,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14407,14 +14412,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 48966-2023</t>
+          <t>A 1935-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45209.60576388889</v>
+        <v>45308</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14427,7 +14432,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14464,14 +14469,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 50304-2023</t>
+          <t>A 52372-2021</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45209</v>
+        <v>44465</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14484,7 +14489,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>17.9</v>
+        <v>0.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14521,14 +14526,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 26837-2022</t>
+          <t>A 22406-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44740.4811574074</v>
+        <v>45446</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14541,7 +14546,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14578,14 +14583,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 29334-2022</t>
+          <t>A 26179-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44752</v>
+        <v>45091.52637731482</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14597,13 +14602,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14640,14 +14640,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 27497-2024</t>
+          <t>A 27967-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45474</v>
+        <v>45476.37760416666</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14697,14 +14697,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 54646-2023</t>
+          <t>A 26837-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45235.40707175926</v>
+        <v>44740.4811574074</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>5.3</v>
+        <v>1.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14754,14 +14754,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 21910-2024</t>
+          <t>A 25967-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45443.36605324074</v>
+        <v>45090.79582175926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14811,14 +14811,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 21152-2022</t>
+          <t>A 22410-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44704</v>
+        <v>45446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14868,14 +14868,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 11121-2025</t>
+          <t>A 29334-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45723.6369675926</v>
+        <v>44752</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14887,8 +14887,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14925,14 +14930,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 1492-2024</t>
+          <t>A 5941-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45305.84925925926</v>
+        <v>45695.46671296296</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14945,7 +14950,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14982,14 +14987,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 1493-2024</t>
+          <t>A 29335-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45305</v>
+        <v>44752</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15001,8 +15006,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15039,14 +15049,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 9573-2025</t>
+          <t>A 42653-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45715.62260416667</v>
+        <v>45566.33113425926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15059,7 +15069,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15096,14 +15106,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 22410-2024</t>
+          <t>A 44882-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45446</v>
+        <v>44841</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15116,7 +15126,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15153,14 +15163,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 55049-2023</t>
+          <t>A 56460-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45237</v>
+        <v>45243</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15173,7 +15183,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15210,14 +15220,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 10379-2024</t>
+          <t>A 1783-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45365.64063657408</v>
+        <v>45671.4491087963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15230,7 +15240,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15267,14 +15277,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 54661-2023</t>
+          <t>A 26178-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45235.61505787037</v>
+        <v>45091.52565972223</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15287,7 +15297,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15324,14 +15334,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 11605-2023</t>
+          <t>A 51577-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44994.401875</v>
+        <v>45222.45756944444</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15344,7 +15354,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15381,14 +15391,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 37501-2024</t>
+          <t>A 63029-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45541.37159722222</v>
+        <v>45272</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15401,7 +15411,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15438,14 +15448,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 15987-2025</t>
+          <t>A 58284-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45749</v>
+        <v>45250.53486111111</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15458,7 +15468,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>6</v>
+        <v>0.3</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15495,14 +15505,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 39622-2023</t>
+          <t>A 27497-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45163</v>
+        <v>45474</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15515,7 +15525,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>10.7</v>
+        <v>2.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15552,14 +15562,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 6796-2024</t>
+          <t>A 48966-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45342.56502314815</v>
+        <v>45209.60576388889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15572,7 +15582,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15609,14 +15619,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 50279-2023</t>
+          <t>A 2405-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45216.44960648148</v>
+        <v>45674.35796296296</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15629,7 +15639,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15666,14 +15676,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 57709-2022</t>
+          <t>A 27540-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44897</v>
+        <v>45474</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15686,7 +15696,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15723,14 +15733,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 30136-2022</t>
+          <t>A 9773-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44757.46511574074</v>
+        <v>45362</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15742,13 +15752,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15785,14 +15790,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 32855-2023</t>
+          <t>A 57795-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45124</v>
+        <v>44897.66587962963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15805,7 +15810,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15842,14 +15847,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 3864-2023</t>
+          <t>A 50279-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44951.76491898148</v>
+        <v>45216.44960648148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15862,7 +15867,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>6.2</v>
+        <v>0.9</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15899,14 +15904,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 29169-2021</t>
+          <t>A 33796-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44358</v>
+        <v>45133.57142361111</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15919,7 +15924,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15956,14 +15961,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 58284-2023</t>
+          <t>A 2090-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45250.53486111111</v>
+        <v>44939</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15976,7 +15981,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16013,14 +16018,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 2086-2023</t>
+          <t>A 57161-2022</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44939</v>
+        <v>44895.59303240741</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16033,7 +16038,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16070,14 +16075,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 2359-2023</t>
+          <t>A 57709-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44942</v>
+        <v>44897</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16090,7 +16095,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16127,14 +16132,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 57161-2022</t>
+          <t>A 2086-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44895.59303240741</v>
+        <v>44939</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16147,7 +16152,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16184,14 +16189,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 27967-2024</t>
+          <t>A 50304-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45476.37760416666</v>
+        <v>45209</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16204,7 +16209,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.4</v>
+        <v>17.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16241,14 +16246,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 47890-2022</t>
+          <t>A 11126-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44855</v>
+        <v>45723</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16261,7 +16266,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16298,14 +16303,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 5927-2023</t>
+          <t>A 37620-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44963</v>
+        <v>45159.4530787037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16318,7 +16323,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16355,14 +16360,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 31925-2024</t>
+          <t>A 9695-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45510</v>
+        <v>44984</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16375,7 +16380,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16419,7 +16424,7 @@
         <v>45672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16469,14 +16474,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 29335-2022</t>
+          <t>A 22699-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44752</v>
+        <v>45448.32910879629</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16488,13 +16493,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G274" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16531,14 +16531,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 22699-2024</t>
+          <t>A 36572-2021</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45448.32910879629</v>
+        <v>44391.58083333333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16588,14 +16588,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 25965-2023</t>
+          <t>A 20492-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45090.79171296296</v>
+        <v>45435.8712962963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16645,14 +16645,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 19390-2023</t>
+          <t>A 49362-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45048</v>
+        <v>45595.62802083333</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16702,14 +16702,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 65211-2021</t>
+          <t>A 168-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44515.50362268519</v>
+        <v>45659.64137731482</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>4.9</v>
+        <v>6.9</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16759,14 +16759,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 63029-2023</t>
+          <t>A 21867-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45272</v>
+        <v>45784.37122685185</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16816,14 +16816,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 14430-2023</t>
+          <t>A 25958-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45012</v>
+        <v>45090</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16873,14 +16873,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 23692-2023</t>
+          <t>A 27486-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45077.60907407408</v>
+        <v>45474.48015046296</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16930,14 +16930,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 23739-2023</t>
+          <t>A 22391-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45077.7675</v>
+        <v>45446</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16987,14 +16987,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 23740-2023</t>
+          <t>A 60271-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45077</v>
+        <v>45642</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17044,14 +17044,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 23898-2023</t>
+          <t>A 12631-2021</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45078.54318287037</v>
+        <v>44270</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17101,14 +17101,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 56460-2023</t>
+          <t>A 11460-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45243</v>
+        <v>45726</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17158,14 +17158,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 5954-2025</t>
+          <t>A 17458-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45695.4777662037</v>
+        <v>45034</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17215,14 +17215,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 38214-2023</t>
+          <t>A 54669-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45161</v>
+        <v>45235.63085648148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17272,14 +17272,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 27540-2024</t>
+          <t>A 23469-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45474</v>
+        <v>45792.43915509259</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17329,14 +17329,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 9695-2023</t>
+          <t>A 25589-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44984</v>
+        <v>45803.49381944445</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17386,14 +17386,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 25962-2023</t>
+          <t>A 25588-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45090.77961805555</v>
+        <v>45803.49103009259</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>7.3</v>
+        <v>1.1</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17443,14 +17443,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 981-2023</t>
+          <t>A 26032-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44935.35828703704</v>
+        <v>45804.69063657407</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17500,14 +17500,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 1904-2023</t>
+          <t>A 26020-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>44939</v>
+        <v>45804.67818287037</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17557,14 +17557,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 51577-2023</t>
+          <t>A 27523-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45222.45756944444</v>
+        <v>45813</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17614,14 +17614,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 3830-2022</t>
+          <t>A 27449-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>44587.35361111111</v>
+        <v>45813.33200231481</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17671,14 +17671,14 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 40184-2022</t>
+          <t>A 15478-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>44820.58752314815</v>
+        <v>45747.5475</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45916</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45853.6421875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>45545.36309027778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45510</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45684.70283564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44516.32994212963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45670</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45911</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>45015</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44298</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>44788.44263888889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44820.59869212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44788.45163194444</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44676.44231481481</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44546</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44846.67469907407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44752</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44387</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44414.37533564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>44440.43105324074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>44537.84666666666</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44799</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44526.32802083333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>44813</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>44635</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>44543.32719907408</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>44340.5113425926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44636.62268518518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>44841.84542824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>44804.63545138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44599</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>45705.57094907408</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45048</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44552.84040509259</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45362.60480324074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44841.40362268518</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>45610.6337037037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45365.64063657408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45077</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44545.31795138889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>45037.44637731482</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>45163</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>45715.29788194445</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44855</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>45078.54318287037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>45398.59821759259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>45736.62430555555</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>45235.62601851852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>45090</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>45171.54957175926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>45305.84925925926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>45305</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>45443.36605324074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44351</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44897</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>45468</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>45278.38888888889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>45817.58586805555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>45679</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>44936.73979166667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>45337</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>44704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>44804.57</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>45002.38854166667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>45887.55858796297</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>45695.4777662037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>45833.46824074074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44270.4590625</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>45707.35076388889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>45819.83893518519</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>45887.58900462963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>45432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>45825</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>45077.60907407408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>45891.60197916667</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>45541.37159722222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>44841</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>45659.64508101852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>44984</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>45035</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>45728.65583333333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>45903.40931712963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>45903.37215277777</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>45903.42753472222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>45756.5531712963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>45839</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45167.55505787037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>45908.40152777778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>45908.37888888889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>45908.37359953704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>45908.381875</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45079</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44515.50362268519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45908.40429398148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45084.6352662037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45737.48324074074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45915.44501157408</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>45913.26221064815</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>45842.36796296296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>45911.87390046296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>45915.44359953704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>45916.45373842592</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>45723</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>45916.44782407407</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>45916.48872685185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>45916.47453703704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>45852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>45918</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>45918.5110300926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>45918.32309027778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>45762</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>45918.55475694445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>45918.50546296296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>45918.49697916667</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>45918.31138888889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>45918.43986111111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>45918.44703703704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>45855.79797453704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45922.64444444444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>45646.6387962963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>45855.79260416667</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>45861.41337962963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>45178.7221412037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>45798.65046296296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>45798.65300925926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>45798.64627314815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>45099</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>45930.45893518518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44994.401875</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>45848.26144675926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45848.26725694445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45848.27251157408</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45077</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44844.42034722222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45936.58152777778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45715.62260416667</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45937.44994212963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45887.5771875</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45887.59670138889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45918.55711805556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45887.42040509259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>45072</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45012</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>45951.46241898148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>45867</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>45279</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>45090.77961805555</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44935.35828703704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>45957</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>45957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44757.46511574074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>45161</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>45958</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>45077.7675</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>45342.56502314815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44358</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>45140</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44820.58752314815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>45965</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>44617.43976851852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>45510</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>45975.54347222222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>45112</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>45974.57391203703</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44939</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>45975.35782407408</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>45975.41037037037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>45978.38018518518</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>45979.61408564815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>45981</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>45980.34996527778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>45981</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>45090</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>45985.50454861111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44466.46428240741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>45538.52853009259</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>46037.38482638889</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>46037.37762731482</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>45887</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>45999.41315972222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44939</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>44971</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>45723.6369675926</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>44587.35361111111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>46043.80326388889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>44900</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>46049.38898148148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>44942</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>45237</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>45749</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44895</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>44951.76491898148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>45090.79171296296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>45548</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>45349.35894675926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>46058.49831018518</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>46058.5840625</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>45945</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>45953</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>45958</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>45009.90423611111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>45953</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>46037.44983796297</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>45960</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>46069.68701388889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>46069.65299768518</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>46049</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>46063</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44855.43434027778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>46069.6934375</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44820.591875</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>45772.46916666667</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>46070.59259259259</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>46031.40648148148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45722.50984953704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45168</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45138</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45235.61505787037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45235.40707175926</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44939</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>45439.64483796297</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44915</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44915</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>45078</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>45308</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44465</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         <v>45446</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>45091.52637731482</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>45476.37760416666</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>44740.4811574074</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>45090.79582175926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>45446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44752</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>45695.46671296296</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>44752</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>45566.33113425926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44841</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>45243</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45671.4491087963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>45091.52565972223</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>45222.45756944444</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>45272</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>45250.53486111111</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>45474</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45209.60576388889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45674.35796296296</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45474</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45362</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>44897.66587962963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45216.44960648148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45133.57142361111</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>44939</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>44895.59303240741</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>44897</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>44939</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>45209</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>45723</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>45159.4530787037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>44984</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>45672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>45448.32910879629</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44391.58083333333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>45435.8712962963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>45595.62802083333</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>45659.64137731482</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>45784.37122685185</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>45090</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>45474.48015046296</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>45446</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>45642</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>44270</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17108,7 +17108,7 @@
         <v>45726</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>45034</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17222,7 +17222,7 @@
         <v>45235.63085648148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17279,7 +17279,7 @@
         <v>45792.43915509259</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>45803.49381944445</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>45803.49103009259</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>45804.69063657407</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>45804.67818287037</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>45813</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>45813.33200231481</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45747.5475</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45916</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45853.6421875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>45545.36309027778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45510</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45684.70283564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44516.32994212963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45670</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45911</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>45015</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44298</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>44788.44263888889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44820.59869212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44788.45163194444</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44676.44231481481</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44546</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44846.67469907407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44752</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44387</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44414.37533564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>44440.43105324074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>44537.84666666666</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44799</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44526.32802083333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>44813</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>44635</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>44543.32719907408</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>44340.5113425926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44636.62268518518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>44841.84542824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>44804.63545138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44599</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>45705.57094907408</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45048</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44552.84040509259</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45362.60480324074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44841.40362268518</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>45610.6337037037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45365.64063657408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45077</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44545.31795138889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>45037.44637731482</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>45163</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>45715.29788194445</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44855</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>45078.54318287037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>45398.59821759259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>45736.62430555555</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>45235.62601851852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>45090</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>45171.54957175926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>45305.84925925926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>45305</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>45443.36605324074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44351</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44897</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>45468</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>45278.38888888889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>45817.58586805555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>45679</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>44936.73979166667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>45337</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>44704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>44804.57</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>45002.38854166667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>45887.55858796297</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>45695.4777662037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>45833.46824074074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44270.4590625</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>45707.35076388889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>45819.83893518519</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>45887.58900462963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>45432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>45825</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>45077.60907407408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>45891.60197916667</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>45541.37159722222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>44841</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>45659.64508101852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>44984</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>45035</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>45728.65583333333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>45903.40931712963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>45903.37215277777</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>45903.42753472222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>45756.5531712963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>45839</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45167.55505787037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>45908.40152777778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>45908.37888888889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>45908.37359953704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>45908.381875</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45079</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44515.50362268519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45908.40429398148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45084.6352662037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45737.48324074074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45915.44501157408</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>45913.26221064815</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>45842.36796296296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>45911.87390046296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>45915.44359953704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>45916.45373842592</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>45723</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>45916.44782407407</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>45916.48872685185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>45916.47453703704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>45852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>45918</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>45918.5110300926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>45918.32309027778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>45762</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>45918.55475694445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>45918.50546296296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>45918.49697916667</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>45918.31138888889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>45918.43986111111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>45918.44703703704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>45855.79797453704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45922.64444444444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>45646.6387962963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>45855.79260416667</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>45861.41337962963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>45178.7221412037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>45798.65046296296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>45798.65300925926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>45798.64627314815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>45099</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>45930.45893518518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44994.401875</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>45848.26144675926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45848.26725694445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45848.27251157408</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45077</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44844.42034722222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45936.58152777778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45715.62260416667</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45937.44994212963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45887.5771875</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45887.59670138889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45918.55711805556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45887.42040509259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>45072</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45012</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>45951.46241898148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>45867</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>45279</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>45090.77961805555</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44935.35828703704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>45957</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>45957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44757.46511574074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>45161</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>45958</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>45077.7675</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>45342.56502314815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44358</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>45140</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44820.58752314815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>45965</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>44617.43976851852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>45510</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>45975.54347222222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>45112</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>45974.57391203703</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44939</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>45975.35782407408</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>45975.41037037037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>45978.38018518518</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>45979.61408564815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>45981</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>45980.34996527778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>45981</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>45090</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>45985.50454861111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44466.46428240741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>45538.52853009259</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>46037.38482638889</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>46037.37762731482</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>45887</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>45999.41315972222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44939</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>44971</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>45723.6369675926</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>44587.35361111111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>46043.80326388889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>44900</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>46049.38898148148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>44942</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>45237</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>45749</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44895</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>44951.76491898148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>45090.79171296296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>45548</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>45349.35894675926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>46058.49831018518</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>46058.5840625</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>45945</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>45953</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>45958</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>45009.90423611111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>45953</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>46037.44983796297</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>45960</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>46069.68701388889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>46069.65299768518</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>46049</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>46063</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44855.43434027778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>46069.6934375</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44820.591875</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>45772.46916666667</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>46070.59259259259</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>46031.40648148148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45722.50984953704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45168</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45138</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45235.61505787037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45235.40707175926</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44939</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>45439.64483796297</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44915</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44915</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>45078</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>45308</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44465</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         <v>45446</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>45091.52637731482</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>45476.37760416666</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>44740.4811574074</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>45090.79582175926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>45446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44752</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>45695.46671296296</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>44752</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>45566.33113425926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44841</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>45243</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45671.4491087963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>45091.52565972223</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>45222.45756944444</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>45272</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>45250.53486111111</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>45474</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45209.60576388889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45674.35796296296</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45474</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45362</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>44897.66587962963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45216.44960648148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45133.57142361111</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>44939</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>44895.59303240741</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>44897</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>44939</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>45209</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>45723</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>45159.4530787037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>44984</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>45672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>45448.32910879629</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44391.58083333333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>45435.8712962963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>45595.62802083333</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>45659.64137731482</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>45784.37122685185</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>45090</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>45474.48015046296</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>45446</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>45642</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>44270</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17108,7 +17108,7 @@
         <v>45726</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>45034</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17222,7 +17222,7 @@
         <v>45235.63085648148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17279,7 +17279,7 @@
         <v>45792.43915509259</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>45803.49381944445</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>45803.49103009259</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>45804.69063657407</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>45804.67818287037</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>45813</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>45813.33200231481</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45747.5475</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45916</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,14 +757,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 35245-2025</t>
+          <t>A 38101-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45853.6421875</v>
+        <v>45545.36309027778</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -777,17 +777,17 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>8.699999999999999</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -810,219 +810,219 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Skrattmås
+Vedflikmossa
+Ärtsångare</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 38101-2024 artfynd.xlsx", "A 38101-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 38101-2024 karta.png", "A 38101-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 38101-2024 FSC-klagomål.docx", "A 38101-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 38101-2024 FSC-klagomål mail.docx", "A 38101-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 38101-2024 tillsynsbegäran.docx", "A 38101-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 38101-2024 tillsynsbegäran mail.docx", "A 38101-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/fåglar/A 38101-2024 prioriterade fågelarter.docx", "A 38101-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 31926-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45510</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Havstulpanlav
+Klippfrullania
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 31926-2024 artfynd.xlsx", "A 31926-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 31926-2024 karta.png", "A 31926-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 31926-2024 FSC-klagomål.docx", "A 31926-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 31926-2024 FSC-klagomål mail.docx", "A 31926-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 31926-2024 tillsynsbegäran.docx", "A 31926-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 31926-2024 tillsynsbegäran mail.docx", "A 31926-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 35245-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45853.6421875</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Entita
 Talltita
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 35245-2025 artfynd.xlsx", "A 35245-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 35245-2025 karta.png", "A 35245-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 35245-2025 FSC-klagomål.docx", "A 35245-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 35245-2025 FSC-klagomål mail.docx", "A 35245-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 35245-2025 tillsynsbegäran.docx", "A 35245-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 35245-2025 tillsynsbegäran mail.docx", "A 35245-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/fåglar/A 35245-2025 prioriterade fågelarter.docx", "A 35245-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 38101-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45545.36309027778</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Skrattmås
-Vedflikmossa
-Ärtsångare</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 38101-2024 artfynd.xlsx", "A 38101-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 38101-2024 karta.png", "A 38101-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 38101-2024 FSC-klagomål.docx", "A 38101-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 38101-2024 FSC-klagomål mail.docx", "A 38101-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 38101-2024 tillsynsbegäran.docx", "A 38101-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 38101-2024 tillsynsbegäran mail.docx", "A 38101-2024")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/fåglar/A 38101-2024 prioriterade fågelarter.docx", "A 38101-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 31926-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45510</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Havstulpanlav
-Klippfrullania
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 31926-2024 artfynd.xlsx", "A 31926-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 31926-2024 karta.png", "A 31926-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 31926-2024 FSC-klagomål.docx", "A 31926-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 31926-2024 FSC-klagomål mail.docx", "A 31926-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 31926-2024 tillsynsbegäran.docx", "A 31926-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 31926-2024 tillsynsbegäran mail.docx", "A 31926-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45684.70283564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44516.32994212963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,14 +1197,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 1604-2025</t>
+          <t>A 43471-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45670</v>
+        <v>45911</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1216,13 +1216,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1256,119 +1251,124 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Granspira</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 43471-2025 artfynd.xlsx", "A 43471-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 43471-2025 karta.png", "A 43471-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 43471-2025 FSC-klagomål.docx", "A 43471-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 43471-2025 FSC-klagomål mail.docx", "A 43471-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 43471-2025 tillsynsbegäran.docx", "A 43471-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 43471-2025 tillsynsbegäran mail.docx", "A 43471-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 1604-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45670</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Igelkott</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 1604-2025 artfynd.xlsx", "A 1604-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 1604-2025 karta.png", "A 1604-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 1604-2025 FSC-klagomål.docx", "A 1604-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 1604-2025 FSC-klagomål mail.docx", "A 1604-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 1604-2025 tillsynsbegäran.docx", "A 1604-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 1604-2025 tillsynsbegäran mail.docx", "A 1604-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 43471-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45911</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÖRKELLJUNGA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Granspira</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/artfynd/A 43471-2025 artfynd.xlsx", "A 43471-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/kartor/A 43471-2025 karta.png", "A 43471-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomål/A 43471-2025 FSC-klagomål.docx", "A 43471-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/klagomålsmail/A 43471-2025 FSC-klagomål mail.docx", "A 43471-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsyn/A 43471-2025 tillsynsbegäran.docx", "A 43471-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1257/tillsynsmail/A 43471-2025 tillsynsbegäran mail.docx", "A 43471-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>45015</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44298</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44416</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>44788.44263888889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44820.59869212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44788.45163194444</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44676.44231481481</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44546</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44846.67469907407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44752</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,14 +2174,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 35910-2021</t>
+          <t>A 45443-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44387</v>
+        <v>44440.43105324074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>6.7</v>
+        <v>3.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2231,14 +2231,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 39365-2021</t>
+          <t>A 35910-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44414.37533564815</v>
+        <v>44387</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.9</v>
+        <v>6.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2288,14 +2288,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 8111-2022</t>
+          <t>A 39365-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44607</v>
+        <v>44414.37533564815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2307,13 +2307,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2350,14 +2345,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 45443-2021</t>
+          <t>A 70802-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44440.43105324074</v>
+        <v>44537.84666666666</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2370,7 +2365,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2407,14 +2402,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 70802-2021</t>
+          <t>A 8111-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44537.84666666666</v>
+        <v>44607</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2426,8 +2421,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>44416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44799</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44526.32802083333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>44813</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>44635</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>44543.32719907408</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2811,14 +2811,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 24712-2021</t>
+          <t>A 12139-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44340.5113425926</v>
+        <v>44636.62268518518</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2868,14 +2868,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12139-2022</t>
+          <t>A 24712-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44636.62268518518</v>
+        <v>44340.5113425926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2925,14 +2925,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 45063-2022</t>
+          <t>A 26178-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44841.84542824074</v>
+        <v>45091.52565972223</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2982,14 +2982,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 36595-2022</t>
+          <t>A 26179-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44804.63545138889</v>
+        <v>45091.52637731482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3039,14 +3039,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 6020-2022</t>
+          <t>A 57795-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44599</v>
+        <v>44897.66587962963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3096,14 +3096,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 7541-2025</t>
+          <t>A 45063-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45705.57094907408</v>
+        <v>44841.84542824074</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.2</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3153,14 +3153,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 19390-2023</t>
+          <t>A 36595-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45048</v>
+        <v>44804.63545138889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3210,14 +3210,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 73830-2021</t>
+          <t>A 20099-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44552.84040509259</v>
+        <v>45772.46916666667</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3267,14 +3267,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 9748-2024</t>
+          <t>A 1783-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45362.60480324074</v>
+        <v>45671.4491087963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3324,14 +3324,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 44814-2022</t>
+          <t>A 9773-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44841.40362268518</v>
+        <v>45362</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3381,14 +3381,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 5927-2023</t>
+          <t>A 73830-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44963</v>
+        <v>44552.84040509259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3438,14 +3438,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 52876-2024</t>
+          <t>A 6020-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45610.6337037037</v>
+        <v>44599</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3495,14 +3495,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 10379-2024</t>
+          <t>A 62180-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45365.64063657408</v>
+        <v>44915</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3514,8 +3514,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>7.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3552,14 +3557,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 23740-2023</t>
+          <t>A 62181-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45077</v>
+        <v>44915</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3571,8 +3576,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>2.1</v>
+        <v>6.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3609,14 +3619,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 72261-2021</t>
+          <t>A 42177-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44545.31795138889</v>
+        <v>45178.7221412037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3629,7 +3639,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3666,14 +3676,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 17737-2023</t>
+          <t>A 9748-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45037.44637731482</v>
+        <v>45362.60480324074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3686,7 +3696,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3723,14 +3733,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 39622-2023</t>
+          <t>A 30638-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45163</v>
+        <v>45112</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3743,7 +3753,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>10.7</v>
+        <v>2.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3780,14 +3790,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 9359-2025</t>
+          <t>A 13068-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45715.29788194445</v>
+        <v>45002.38854166667</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3800,7 +3810,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3837,14 +3847,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 47890-2022</t>
+          <t>A 24154-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44855</v>
+        <v>45079</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3857,7 +3867,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3894,14 +3904,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 23898-2023</t>
+          <t>A 28221-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45078.54318287037</v>
+        <v>45099</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3914,7 +3924,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>6.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3951,14 +3961,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 31704-2023</t>
+          <t>A 21023-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45117</v>
+        <v>45439.64483796297</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3971,7 +3981,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>6.7</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4008,14 +4018,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 14912-2024</t>
+          <t>A 171-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45398.59821759259</v>
+        <v>45659.64508101852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4028,7 +4038,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4065,14 +4075,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 13611-2025</t>
+          <t>A 17737-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45736.62430555555</v>
+        <v>45037.44637731482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4085,7 +4095,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4122,14 +4132,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 54667-2023</t>
+          <t>A 7541-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45235.62601851852</v>
+        <v>45705.57094907408</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4142,7 +4152,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>6.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4179,14 +4189,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 25963-2023</t>
+          <t>A 23693-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45090</v>
+        <v>45077</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4199,7 +4209,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4236,14 +4246,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 40814-2023</t>
+          <t>A 23990-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45171.54957175926</v>
+        <v>45078</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4256,7 +4266,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4293,14 +4303,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 32855-2023</t>
+          <t>A 45192-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45124</v>
+        <v>44844.42034722222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4313,7 +4323,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4350,14 +4360,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 1492-2024</t>
+          <t>A 34591-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45305.84925925926</v>
+        <v>45140</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4370,7 +4380,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4407,14 +4417,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 1493-2024</t>
+          <t>A 52372-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45305</v>
+        <v>44465</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4427,7 +4437,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4464,14 +4474,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 21910-2024</t>
+          <t>A 11126-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45443.36605324074</v>
+        <v>45723</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4484,7 +4494,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4521,14 +4531,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 27521-2021</t>
+          <t>A 36543-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44351</v>
+        <v>44804.57</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4541,7 +4551,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>10.3</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4578,14 +4588,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 57703-2022</t>
+          <t>A 5941-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44897</v>
+        <v>45695.46671296296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4598,7 +4608,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4635,14 +4645,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 26058-2024</t>
+          <t>A 20492-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45468</v>
+        <v>45435.8712962963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4692,14 +4702,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 63783-2023</t>
+          <t>A 22975-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45278.38888888889</v>
+        <v>45072</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4712,7 +4722,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4749,14 +4759,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 27988-2025</t>
+          <t>A 40190-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45817.58586805555</v>
+        <v>44820.591875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4769,7 +4779,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>11.8</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4806,14 +4816,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 3205-2025</t>
+          <t>A 13611-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45679</v>
+        <v>45736.62430555555</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4825,13 +4835,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>6.7</v>
+        <v>2.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4868,14 +4873,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 1397-2023</t>
+          <t>A 44814-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44936.73979166667</v>
+        <v>44841.40362268518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4888,7 +4893,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4925,14 +4930,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 6137-2024</t>
+          <t>A 3205-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45337</v>
+        <v>45679</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4944,8 +4949,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>11.7</v>
+        <v>6.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4982,14 +4992,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 21146-2022</t>
+          <t>A 58130-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44704</v>
+        <v>44900</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5002,7 +5012,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>7.4</v>
+        <v>23.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5039,14 +5049,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 36543-2022</t>
+          <t>A 54667-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44804.57</v>
+        <v>45235.62601851852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5059,7 +5069,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5096,14 +5106,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 13068-2023</t>
+          <t>A 1397-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45002.38854166667</v>
+        <v>44936.73979166667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5116,7 +5126,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5153,14 +5163,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 38857-2025</t>
+          <t>A 27521-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45887.55858796297</v>
+        <v>44351</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5173,7 +5183,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.9</v>
+        <v>10.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5210,14 +5220,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 5954-2025</t>
+          <t>A 12625-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45695.4777662037</v>
+        <v>44270.4590625</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5230,7 +5240,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5267,14 +5277,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 31399-2025</t>
+          <t>A 57703-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45833.46824074074</v>
+        <v>44897</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5287,7 +5297,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5324,14 +5334,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 12625-2021</t>
+          <t>A 38928-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44270.4590625</v>
+        <v>45548</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5344,7 +5354,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5381,14 +5391,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 7915-2025</t>
+          <t>A 19643-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45707.35076388889</v>
+        <v>45432</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5400,8 +5410,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5438,14 +5453,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28693-2025</t>
+          <t>A 22406-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45819.83893518519</v>
+        <v>45446</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5458,7 +5473,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5495,14 +5510,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 38893-2025</t>
+          <t>A 14912-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45887.58900462963</v>
+        <v>45398.59821759259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5515,7 +5530,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5552,14 +5567,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 19643-2024</t>
+          <t>A 63783-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45432</v>
+        <v>45278.38888888889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5571,13 +5586,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5614,14 +5624,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 29642-2025</t>
+          <t>A 9359-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45825</v>
+        <v>45715.29788194445</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5634,7 +5644,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5671,14 +5681,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 23692-2023</t>
+          <t>A 1935-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45077.60907407408</v>
+        <v>45308</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5691,7 +5701,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5728,14 +5738,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 39864-2025</t>
+          <t>A 2090-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45891.60197916667</v>
+        <v>44939</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5748,7 +5758,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5785,14 +5795,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 37501-2024</t>
+          <t>A 72261-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45541.37159722222</v>
+        <v>44545.31795138889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5805,7 +5815,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5842,14 +5852,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 44880-2022</t>
+          <t>A 25963-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44841</v>
+        <v>45090</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5862,7 +5872,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.3</v>
+        <v>4.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5899,14 +5909,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 171-2025</t>
+          <t>A 14254-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45659.64508101852</v>
+        <v>45009.90423611111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5919,7 +5929,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5956,14 +5966,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 9691-2023</t>
+          <t>A 37620-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44984</v>
+        <v>45159.4530787037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5976,7 +5986,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6013,14 +6023,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 17641-2023</t>
+          <t>A 52876-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45035</v>
+        <v>45610.6337037037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6033,7 +6043,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>7.3</v>
+        <v>1.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6070,14 +6080,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 12038-2025</t>
+          <t>A 26837-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45728.65583333333</v>
+        <v>44740.4811574074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6090,7 +6100,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6127,14 +6137,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 41912-2025</t>
+          <t>A 8204-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45903.40931712963</v>
+        <v>44971</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6147,7 +6157,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6184,14 +6194,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 41887-2025</t>
+          <t>A 24765-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45903.37215277777</v>
+        <v>45084.6352662037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6204,7 +6214,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6241,14 +6251,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 41926-2025</t>
+          <t>A 29334-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45903.42753472222</v>
+        <v>44752</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6260,8 +6270,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6298,14 +6313,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 17270-2025</t>
+          <t>A 26058-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45756.5531712963</v>
+        <v>45468</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6318,7 +6333,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6355,14 +6370,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 32704-2025</t>
+          <t>A 47871-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45839</v>
+        <v>44855.43434027778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6375,7 +6390,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6412,14 +6427,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 39650-2023</t>
+          <t>A 31704-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45167.55505787037</v>
+        <v>45117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6432,7 +6447,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.2</v>
+        <v>6.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6469,14 +6484,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 42725-2025</t>
+          <t>A 44880-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45908.40152777778</v>
+        <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6489,7 +6504,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.3</v>
+        <v>0.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6526,14 +6541,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 42713-2025</t>
+          <t>A 57208-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45908.37888888889</v>
+        <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6546,7 +6561,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6583,14 +6598,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 42708-2025</t>
+          <t>A 7707-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45908.37359953704</v>
+        <v>45349.35894675926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6603,7 +6618,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6640,14 +6655,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 42714-2025</t>
+          <t>A 27497-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45908.381875</v>
+        <v>45474</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6660,7 +6675,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6697,14 +6712,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 24154-2023</t>
+          <t>A 36572-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45079</v>
+        <v>44391.58083333333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6717,7 +6732,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6754,14 +6769,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 65211-2021</t>
+          <t>A 54646-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44515.50362268519</v>
+        <v>45235.40707175926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6774,7 +6789,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6811,14 +6826,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 42728-2025</t>
+          <t>A 9691-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45908.40429398148</v>
+        <v>44984</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6831,7 +6846,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6868,14 +6883,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 24765-2023</t>
+          <t>A 64091-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45084.6352662037</v>
+        <v>45279</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6888,7 +6903,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6925,14 +6940,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 13797-2025</t>
+          <t>A 39650-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45737.48324074074</v>
+        <v>45167.55505787037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6945,7 +6960,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6982,14 +6997,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 43992-2025</t>
+          <t>A 21910-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45915.44501157408</v>
+        <v>45443.36605324074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7002,7 +7017,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7039,14 +7054,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 43900-2025</t>
+          <t>A 40814-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45913.26221064815</v>
+        <v>45171.54957175926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7059,7 +7074,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7096,14 +7111,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 33752-2025</t>
+          <t>A 40017-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45842.36796296296</v>
+        <v>45168</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7116,7 +7131,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7153,14 +7168,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 43641-2025</t>
+          <t>A 21152-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45911.87390046296</v>
+        <v>44704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7173,7 +7188,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7210,14 +7225,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 43990-2025</t>
+          <t>A 11121-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45915.44359953704</v>
+        <v>45723.6369675926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7230,7 +7245,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7267,14 +7282,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 44364-2025</t>
+          <t>A 42653-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45916.45373842592</v>
+        <v>45566.33113425926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7287,7 +7302,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>5.6</v>
+        <v>2.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7324,14 +7339,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 11115-2025</t>
+          <t>A 1492-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45723</v>
+        <v>45305.84925925926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7344,7 +7359,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7381,14 +7396,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 44355-2025</t>
+          <t>A 1493-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45916.44782407407</v>
+        <v>45305</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7401,7 +7416,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7438,14 +7453,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 44386-2025</t>
+          <t>A 33796-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45916.48872685185</v>
+        <v>45133.57142361111</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7458,7 +7473,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7495,14 +7510,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 44376-2025</t>
+          <t>A 9573-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45916.47453703704</v>
+        <v>45715.62260416667</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7515,7 +7530,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7552,14 +7567,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 35168-2025</t>
+          <t>A 22410-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45852</v>
+        <v>45446</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7572,7 +7587,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7609,14 +7624,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 44864-2025</t>
+          <t>A 6137-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45918</v>
+        <v>45337</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7629,7 +7644,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.1</v>
+        <v>11.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7666,14 +7681,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 44903-2025</t>
+          <t>A 55049-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45918.5110300926</v>
+        <v>45237</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7686,7 +7701,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7723,14 +7738,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 44793-2025</t>
+          <t>A 2088-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45918.32309027778</v>
+        <v>44939</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7743,7 +7758,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7780,14 +7795,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 18285-2025</t>
+          <t>A 2092-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45762</v>
+        <v>44939</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7800,7 +7815,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7837,14 +7852,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 44923-2025</t>
+          <t>A 52528-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45918.55475694445</v>
+        <v>44466.46428240741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7894,14 +7909,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 44897-2025</t>
+          <t>A 2405-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45918.50546296296</v>
+        <v>45674.35796296296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7914,7 +7929,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7951,14 +7966,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 44890-2025</t>
+          <t>A 10379-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45918.49697916667</v>
+        <v>45365.64063657408</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7971,7 +7986,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8008,14 +8023,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 44791-2025</t>
+          <t>A 54661-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45918.31138888889</v>
+        <v>45235.61505787037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8028,7 +8043,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8065,14 +8080,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 44846-2025</t>
+          <t>A 25960-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45918.43986111111</v>
+        <v>45090</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8085,7 +8100,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8122,14 +8137,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 44852-2025</t>
+          <t>A 25967-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45918.44703703704</v>
+        <v>45090.79582175926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8142,7 +8157,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.1</v>
+        <v>4.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8179,14 +8194,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 35490-2025</t>
+          <t>A 11605-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45855.79797453704</v>
+        <v>44994.401875</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8199,7 +8214,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8236,14 +8251,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 45556-2025</t>
+          <t>A 9559-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45922.64444444444</v>
+        <v>44617.43976851852</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8256,7 +8271,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8293,14 +8308,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 61602-2024</t>
+          <t>A 31399-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45646.6387962963</v>
+        <v>45833.46824074074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8313,7 +8328,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8350,14 +8365,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 35489-2025</t>
+          <t>A 37501-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45855.79260416667</v>
+        <v>45541.37159722222</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8370,7 +8385,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6.3</v>
+        <v>0.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8407,14 +8422,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 35808-2025</t>
+          <t>A 38857-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45861.41337962963</v>
+        <v>45887.55858796297</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8427,7 +8442,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8464,14 +8479,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 42177-2023</t>
+          <t>A 38897-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45178.7221412037</v>
+        <v>45887.59670138889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8521,14 +8536,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 24671-2025</t>
+          <t>A 38893-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45798.65046296296</v>
+        <v>45887.58900462963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8541,7 +8556,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8578,14 +8593,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 24674-2025</t>
+          <t>A 15987-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45798.65300925926</v>
+        <v>45749</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8598,7 +8613,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8635,14 +8650,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 24664-2025</t>
+          <t>A 38772-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45798.64627314815</v>
+        <v>45887.42040509259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8655,7 +8670,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8692,14 +8707,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 28221-2023</t>
+          <t>A 39622-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45099</v>
+        <v>45163</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8712,7 +8727,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>6.7</v>
+        <v>10.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8749,14 +8764,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 47268-2025</t>
+          <t>A 38879-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45930.45893518518</v>
+        <v>45887.5771875</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,7 +8784,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8806,14 +8821,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 11605-2023</t>
+          <t>A 6796-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44994.401875</v>
+        <v>45342.56502314815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8826,7 +8841,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8863,14 +8878,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 34631-2025</t>
+          <t>A 7915-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45848.26144675926</v>
+        <v>45707.35076388889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8898,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8920,14 +8935,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 34632-2025</t>
+          <t>A 50279-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45848.26725694445</v>
+        <v>45216.44960648148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8955,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8977,14 +8992,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 34633-2025</t>
+          <t>A 48966-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45848.27251157408</v>
+        <v>45209.60576388889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +9012,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9034,14 +9049,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 23693-2023</t>
+          <t>A 39864-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45077</v>
+        <v>45891.60197916667</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9069,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9091,14 +9106,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 45192-2022</t>
+          <t>A 50304-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44844.42034722222</v>
+        <v>45209</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9126,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.8</v>
+        <v>17.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9148,14 +9163,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 48672-2025</t>
+          <t>A 57709-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45936.58152777778</v>
+        <v>44897</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9183,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9205,14 +9220,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 37778-2025</t>
+          <t>A 36838-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45880</v>
+        <v>45538.52853009259</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9240,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9262,14 +9277,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 9573-2025</t>
+          <t>A 34279-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45715.62260416667</v>
+        <v>45138</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9319,14 +9334,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 48870-2025</t>
+          <t>A 30136-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45937.44994212963</v>
+        <v>44757.46511574074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9338,8 +9353,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9376,14 +9396,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 38879-2025</t>
+          <t>A 41912-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45887.5771875</v>
+        <v>45903.40931712963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9396,7 +9416,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9433,14 +9453,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 38897-2025</t>
+          <t>A 32855-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45887.59670138889</v>
+        <v>45124</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9453,7 +9473,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9490,14 +9510,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 44925-2025</t>
+          <t>A 3864-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45918.55711805556</v>
+        <v>44951.76491898148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9510,7 +9530,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.6</v>
+        <v>6.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9547,14 +9567,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 38772-2025</t>
+          <t>A 41887-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45887.42040509259</v>
+        <v>45903.37215277777</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9567,7 +9587,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9604,14 +9624,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 22975-2023</t>
+          <t>A 41926-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45072</v>
+        <v>45903.42753472222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9624,7 +9644,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9661,14 +9681,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 14430-2023</t>
+          <t>A 29169-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45012</v>
+        <v>44358</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9681,7 +9701,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9718,14 +9738,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 51654-2025</t>
+          <t>A 42728-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45951.46241898148</v>
+        <v>45908.40429398148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9738,7 +9758,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9775,14 +9795,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 36280-2025</t>
+          <t>A 42714-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45867</v>
+        <v>45908.381875</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9795,7 +9815,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9832,14 +9852,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 64091-2023</t>
+          <t>A 42725-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45279</v>
+        <v>45908.40152777778</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9852,7 +9872,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9889,14 +9909,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 25962-2023</t>
+          <t>A 58284-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45090.77961805555</v>
+        <v>45250.53486111111</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9909,7 +9929,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>7.3</v>
+        <v>0.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9946,14 +9966,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 981-2023</t>
+          <t>A 42708-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44935.35828703704</v>
+        <v>45908.37359953704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9966,7 +9986,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10003,14 +10023,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 53017-2025</t>
+          <t>A 42713-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45957</v>
+        <v>45908.37888888889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10023,7 +10043,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10060,14 +10080,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 53019-2025</t>
+          <t>A 2086-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45957</v>
+        <v>44939</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10080,7 +10100,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10117,14 +10137,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 30136-2022</t>
+          <t>A 2359-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44757.46511574074</v>
+        <v>44942</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10136,13 +10156,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10179,14 +10194,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 38214-2023</t>
+          <t>A 57161-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45161</v>
+        <v>44895.59303240741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10199,7 +10214,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10236,14 +10251,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 53142-2025</t>
+          <t>A 13797-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45958</v>
+        <v>45737.48324074074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10256,7 +10271,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10293,14 +10308,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 23739-2023</t>
+          <t>A 27967-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45077.7675</v>
+        <v>45476.37760416666</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10313,7 +10328,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10350,14 +10365,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 6796-2024</t>
+          <t>A 43641-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45342.56502314815</v>
+        <v>45911.87390046296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10370,7 +10385,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10407,14 +10422,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 29169-2021</t>
+          <t>A 47890-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44358</v>
+        <v>44855</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10427,7 +10442,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10464,14 +10479,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 34591-2023</t>
+          <t>A 44376-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45140</v>
+        <v>45916.47453703704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10484,7 +10499,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10521,14 +10536,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 40184-2022</t>
+          <t>A 44386-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44820.58752314815</v>
+        <v>45916.48872685185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10541,7 +10556,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10578,14 +10593,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 54506-2025</t>
+          <t>A 43900-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45965</v>
+        <v>45913.26221064815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10598,7 +10613,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10635,14 +10650,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 9559-2022</t>
+          <t>A 44364-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44617.43976851852</v>
+        <v>45916.45373842592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10655,7 +10670,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.4</v>
+        <v>5.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10692,14 +10707,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 31925-2024</t>
+          <t>A 44355-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45510</v>
+        <v>45916.44782407407</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10712,7 +10727,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10749,14 +10764,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 56581-2025</t>
+          <t>A 43990-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45975.54347222222</v>
+        <v>45915.44359953704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10769,7 +10784,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10806,14 +10821,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 30638-2023</t>
+          <t>A 43992-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45112</v>
+        <v>45915.44501157408</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10826,7 +10841,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10863,14 +10878,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 56264-2025</t>
+          <t>A 44923-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45974.57391203703</v>
+        <v>45918.55475694445</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10883,7 +10898,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10920,14 +10935,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 2088-2023</t>
+          <t>A 44903-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44939</v>
+        <v>45918.5110300926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10940,7 +10955,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10977,14 +10992,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 56455-2025</t>
+          <t>A 44846-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45975.35782407408</v>
+        <v>45918.43986111111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10997,7 +11012,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11034,14 +11049,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 56487-2025</t>
+          <t>A 44852-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45975.41037037037</v>
+        <v>45918.44703703704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11054,7 +11069,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11091,14 +11106,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 56765-2025</t>
+          <t>A 44890-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45978.38018518518</v>
+        <v>45918.49697916667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11111,7 +11126,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11148,14 +11163,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 57221-2025</t>
+          <t>A 44793-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45979.61408564815</v>
+        <v>45918.32309027778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11168,7 +11183,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11205,14 +11220,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 57774-2025</t>
+          <t>A 44791-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45981</v>
+        <v>45918.31138888889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11225,7 +11240,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11262,14 +11277,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 57343-2025</t>
+          <t>A 44864-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45980.34996527778</v>
+        <v>45918</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11282,7 +11297,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11319,14 +11334,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 57790-2025</t>
+          <t>A 5927-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45981</v>
+        <v>44963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11339,7 +11354,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11376,14 +11391,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 25960-2023</t>
+          <t>A 44897-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45090</v>
+        <v>45918.50546296296</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11396,7 +11411,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11433,14 +11448,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 58347-2025</t>
+          <t>A 31925-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45985.50454861111</v>
+        <v>45510</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11453,7 +11468,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11490,14 +11505,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 52528-2021</t>
+          <t>A 45556-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44466.46428240741</v>
+        <v>45922.64444444444</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11510,7 +11525,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11547,14 +11562,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 36838-2024</t>
+          <t>A 2399-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45538.52853009259</v>
+        <v>45672</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11567,7 +11582,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11604,14 +11619,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 2480-2026</t>
+          <t>A 29335-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46037.38482638889</v>
+        <v>44752</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11623,8 +11638,13 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11661,14 +11681,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 2474-2026</t>
+          <t>A 22699-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46037.37762731482</v>
+        <v>45448.32910879629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11681,7 +11701,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>8.6</v>
+        <v>0.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11718,14 +11738,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 38899-2025</t>
+          <t>A 25965-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45887</v>
+        <v>45090.79171296296</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11738,7 +11758,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11775,14 +11795,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 60789-2025</t>
+          <t>A 19390-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45999.41315972222</v>
+        <v>45048</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11795,7 +11815,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11832,14 +11852,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 1904-2023</t>
+          <t>A 65211-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44939</v>
+        <v>44515.50362268519</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11852,7 +11872,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11889,14 +11909,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 8204-2023</t>
+          <t>A 47268-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44971</v>
+        <v>45930.45893518518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11909,7 +11929,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11946,14 +11966,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 11121-2025</t>
+          <t>A 63029-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45723.6369675926</v>
+        <v>45272</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11966,7 +11986,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12003,14 +12023,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 3830-2022</t>
+          <t>A 14430-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44587.35361111111</v>
+        <v>45012</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12023,7 +12043,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12060,14 +12080,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 3934-2026</t>
+          <t>A 23692-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46043.80326388889</v>
+        <v>45077.60907407408</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12080,7 +12100,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12117,14 +12137,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 21152-2022</t>
+          <t>A 23739-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44704</v>
+        <v>45077.7675</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12137,7 +12157,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12174,14 +12194,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 58130-2022</t>
+          <t>A 23740-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44900</v>
+        <v>45077</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12194,7 +12214,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>23.2</v>
+        <v>2.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12231,14 +12251,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 4989-2026</t>
+          <t>A 48672-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46049.38898148148</v>
+        <v>45936.58152777778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12251,7 +12271,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12288,14 +12308,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 2359-2023</t>
+          <t>A 48870-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44942</v>
+        <v>45937.44994212963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12308,7 +12328,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12345,14 +12365,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 55049-2023</t>
+          <t>A 23898-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45237</v>
+        <v>45078.54318287037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12365,7 +12385,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12402,14 +12422,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 15987-2025</t>
+          <t>A 44925-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45749</v>
+        <v>45918.55711805556</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12422,7 +12442,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12459,14 +12479,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 57208-2022</t>
+          <t>A 56460-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44895</v>
+        <v>45243</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12479,7 +12499,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12516,14 +12536,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 3864-2023</t>
+          <t>A 5954-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44951.76491898148</v>
+        <v>45695.4777662037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12536,7 +12556,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12573,14 +12593,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 25965-2023</t>
+          <t>A 36280-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45090.79171296296</v>
+        <v>45867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12593,7 +12613,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12630,14 +12650,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 38928-2024</t>
+          <t>A 51654-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45548</v>
+        <v>45951.46241898148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12650,7 +12670,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12687,14 +12707,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 7707-2024</t>
+          <t>A 38214-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45349.35894675926</v>
+        <v>45161</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12707,7 +12727,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12744,14 +12764,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 7192-2026</t>
+          <t>A 53142-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46058.49831018518</v>
+        <v>45958</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12764,7 +12784,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12801,14 +12821,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 7242-2026</t>
+          <t>A 53017-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46058.5840625</v>
+        <v>45957</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12821,7 +12841,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12858,14 +12878,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 50629-2025</t>
+          <t>A 53019-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45945</v>
+        <v>45957</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12878,7 +12898,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>6.3</v>
+        <v>1.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12915,14 +12935,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 52243-2025</t>
+          <t>A 27540-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45953</v>
+        <v>45474</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12935,7 +12955,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12972,14 +12992,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 53163-2025</t>
+          <t>A 9695-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45958</v>
+        <v>44984</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12992,7 +13012,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13029,14 +13049,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 14254-2023</t>
+          <t>A 25962-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45009.90423611111</v>
+        <v>45090.77961805555</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13049,7 +13069,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.5</v>
+        <v>7.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13086,14 +13106,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 52246-2025</t>
+          <t>A 981-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45953</v>
+        <v>44935.35828703704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13106,7 +13126,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13143,14 +13163,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 2537-2026</t>
+          <t>A 1904-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46037.44983796297</v>
+        <v>44939</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13163,7 +13183,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13200,14 +13220,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 53676-2025</t>
+          <t>A 51577-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45960</v>
+        <v>45222.45756944444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13220,7 +13240,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13257,14 +13277,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 9125-2026</t>
+          <t>A 3830-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46069.68701388889</v>
+        <v>44587.35361111111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13277,7 +13297,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13314,14 +13334,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 9105-2026</t>
+          <t>A 54506-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46069.65299768518</v>
+        <v>45965</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13334,7 +13354,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13371,14 +13391,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 5002-2026</t>
+          <t>A 40184-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46049</v>
+        <v>44820.58752314815</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13391,7 +13411,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13428,14 +13448,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 8024-2026</t>
+          <t>A 56264-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46063</v>
+        <v>45974.57391203703</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13447,13 +13467,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13490,14 +13505,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 47871-2022</t>
+          <t>A 17641-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44855.43434027778</v>
+        <v>45035</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13510,7 +13525,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.6</v>
+        <v>7.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13547,14 +13562,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 9127-2026</t>
+          <t>A 56765-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46069.6934375</v>
+        <v>45978.38018518518</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13567,7 +13582,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13604,14 +13619,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 40190-2022</t>
+          <t>A 56581-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44820.591875</v>
+        <v>45975.54347222222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13624,7 +13639,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13661,14 +13676,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 20099-2025</t>
+          <t>A 56487-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45772.46916666667</v>
+        <v>45975.41037037037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13681,7 +13696,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13718,14 +13733,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 9292-2026</t>
+          <t>A 56455-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>46070.59259259259</v>
+        <v>45975.35782407408</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13738,7 +13753,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13775,14 +13790,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 1225-2026</t>
+          <t>A 10797-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46031.40648148148</v>
+        <v>45722.50984953704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13795,7 +13810,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>5.6</v>
+        <v>15.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13832,14 +13847,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 10797-2025</t>
+          <t>A 57343-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45722.50984953704</v>
+        <v>45980.34996527778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13852,7 +13867,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>15.1</v>
+        <v>0.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13889,14 +13904,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 40017-2023</t>
+          <t>A 57221-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45168</v>
+        <v>45979.61408564815</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13909,7 +13924,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13946,14 +13961,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 34279-2023</t>
+          <t>A 44882-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45138</v>
+        <v>44841</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13966,7 +13981,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14003,14 +14018,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 54661-2023</t>
+          <t>A 57790-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45235.61505787037</v>
+        <v>45981</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14023,7 +14038,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14060,14 +14075,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 54646-2023</t>
+          <t>A 57774-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45235.40707175926</v>
+        <v>45981</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14080,7 +14095,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14117,14 +14132,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 2092-2023</t>
+          <t>A 58347-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44939</v>
+        <v>45985.50454861111</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14137,7 +14152,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14174,14 +14189,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 21023-2024</t>
+          <t>A 21867-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45439.64483796297</v>
+        <v>45784.37122685185</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14194,7 +14209,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14231,14 +14246,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 62180-2022</t>
+          <t>A 168-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44915</v>
+        <v>45659.64137731482</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14250,13 +14265,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14293,14 +14303,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 62181-2022</t>
+          <t>A 49362-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44915</v>
+        <v>45595.62802083333</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14312,13 +14322,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14355,14 +14360,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 23990-2023</t>
+          <t>A 22391-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45078</v>
+        <v>45446</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14375,7 +14380,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14412,14 +14417,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 1935-2024</t>
+          <t>A 27486-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45308</v>
+        <v>45474.48015046296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14432,7 +14437,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14469,14 +14474,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 52372-2021</t>
+          <t>A 25958-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44465</v>
+        <v>45090</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14489,7 +14494,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14526,14 +14531,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 22406-2024</t>
+          <t>A 60271-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45446</v>
+        <v>45642</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14546,7 +14551,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14583,14 +14588,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 26179-2023</t>
+          <t>A 38899-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45091.52637731482</v>
+        <v>45887</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14603,7 +14608,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14640,14 +14645,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 27967-2024</t>
+          <t>A 12631-2021</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45476.37760416666</v>
+        <v>44270</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14660,7 +14665,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14697,14 +14702,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 26837-2022</t>
+          <t>A 17458-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44740.4811574074</v>
+        <v>45034</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14717,7 +14722,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14754,14 +14759,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 25967-2023</t>
+          <t>A 23469-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45090.79582175926</v>
+        <v>45792.43915509259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14774,7 +14779,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14811,14 +14816,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 22410-2024</t>
+          <t>A 2474-2026</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45446</v>
+        <v>46037.37762731482</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14831,7 +14836,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>6</v>
+        <v>8.6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14868,14 +14873,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 29334-2022</t>
+          <t>A 2480-2026</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44752</v>
+        <v>46037.38482638889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14887,13 +14892,8 @@
           <t>ÖRKELLJUNGA</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14930,14 +14930,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-       